--- a/Covid_29019_ww.xlsx
+++ b/Covid_29019_ww.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504F78E-55D3-5B43-8D44-B6571BA0A94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D6FD22-A9F4-FF47-B0A4-94A4A2B1BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B514"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -905,4105 +905,3849 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44018</v>
+        <v>44050</v>
       </c>
       <c r="B2">
-        <v>83.127268528268999</v>
+        <v>118.32436301134899</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44019</v>
+        <v>44051</v>
       </c>
       <c r="B3">
-        <v>84.234458702027496</v>
+        <v>119.39798195787699</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44020</v>
+        <v>44052</v>
       </c>
       <c r="B4">
-        <v>85.342285621997291</v>
+        <v>120.469537993407</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44021</v>
+        <v>44053</v>
       </c>
       <c r="B5">
-        <v>86.450722337166695</v>
+        <v>121.53911140016299</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44022</v>
+        <v>44054</v>
       </c>
       <c r="B6">
-        <v>87.559666308063598</v>
+        <v>122.606826987126</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44023</v>
+        <v>44055</v>
       </c>
       <c r="B7">
-        <v>88.668973902843291</v>
+        <v>123.67284598104901</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44024</v>
+        <v>44056</v>
       </c>
       <c r="B8">
-        <v>89.778525749860705</v>
+        <v>124.737357915489</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44025</v>
+        <v>44057</v>
       </c>
       <c r="B9">
-        <v>90.888225466093502</v>
+        <v>125.80055772778701</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44026</v>
+        <v>44058</v>
       </c>
       <c r="B10">
-        <v>91.997996812771504</v>
+        <v>126.86263968816499</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44027</v>
+        <v>44059</v>
       </c>
       <c r="B11">
-        <v>93.107781047501803</v>
+        <v>127.923811665849</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44028</v>
+        <v>44060</v>
       </c>
       <c r="B12">
-        <v>94.217526290593597</v>
+        <v>128.984291523221</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44029</v>
+        <v>44061</v>
       </c>
       <c r="B13">
-        <v>95.3270544927055</v>
+        <v>130.04430298727399</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44030</v>
+        <v>44062</v>
       </c>
       <c r="B14">
-        <v>96.436113628448609</v>
+        <v>131.10407205548802</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44031</v>
+        <v>44063</v>
       </c>
       <c r="B15">
-        <v>97.5445059313396</v>
+        <v>132.16382739601099</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44032</v>
+        <v>44064</v>
       </c>
       <c r="B16">
-        <v>98.652085104510391</v>
+        <v>133.223910764198</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44033</v>
+        <v>44065</v>
       </c>
       <c r="B17">
-        <v>99.758749890520605</v>
+        <v>134.28476915489301</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44034</v>
+        <v>44066</v>
       </c>
       <c r="B18">
-        <v>100.86443817015301</v>
+        <v>135.346799804033</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44035</v>
+        <v>44067</v>
       </c>
       <c r="B19">
-        <v>101.969112424792</v>
+        <v>136.410344947965</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44036</v>
+        <v>44068</v>
       </c>
       <c r="B20">
-        <v>103.07259229253199</v>
+        <v>137.47569600724199</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44037</v>
+        <v>44069</v>
       </c>
       <c r="B21">
-        <v>104.17460514834801</v>
+        <v>138.54309755120201</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44038</v>
+        <v>44070</v>
       </c>
       <c r="B22">
-        <v>105.274953109969</v>
+        <v>139.61275825729601</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44039</v>
+        <v>44071</v>
       </c>
       <c r="B23">
-        <v>106.37350926294201</v>
+        <v>140.68511332179298</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44040</v>
+        <v>44072</v>
       </c>
       <c r="B24">
-        <v>107.470208310435</v>
+        <v>141.76084142459899</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44041</v>
+        <v>44073</v>
       </c>
       <c r="B25">
-        <v>108.565038028579</v>
+        <v>142.840497656905</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44042</v>
+        <v>44074</v>
       </c>
       <c r="B26">
-        <v>109.658023596164</v>
+        <v>143.92450376742102</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44043</v>
+        <v>44075</v>
       </c>
       <c r="B27">
-        <v>110.74906354411399</v>
+        <v>145.013163233916</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44044</v>
+        <v>44076</v>
       </c>
       <c r="B28">
-        <v>111.837964388776</v>
+        <v>146.10667501808399</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44045</v>
+        <v>44077</v>
       </c>
       <c r="B29">
-        <v>112.924609827526</v>
+        <v>147.20515573796601</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44046</v>
+        <v>44078</v>
       </c>
       <c r="B30">
-        <v>114.00895676475801</v>
+        <v>148.309045801971</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44047</v>
+        <v>44079</v>
       </c>
       <c r="B31">
-        <v>115.09102478589899</v>
+        <v>149.41918003650201</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44048</v>
+        <v>44080</v>
       </c>
       <c r="B32">
-        <v>116.170886593069</v>
+        <v>150.536198272647</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44049</v>
+        <v>44081</v>
       </c>
       <c r="B33">
-        <v>117.24865441460501</v>
+        <v>151.66052763127402</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44050</v>
+        <v>44082</v>
       </c>
       <c r="B34">
-        <v>118.32436301134899</v>
+        <v>152.792409465627</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44051</v>
+        <v>44083</v>
       </c>
       <c r="B35">
-        <v>119.39798195787699</v>
+        <v>153.931923688257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44052</v>
+        <v>44084</v>
       </c>
       <c r="B36">
-        <v>120.469537993407</v>
+        <v>155.07902138132701</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44053</v>
+        <v>44085</v>
       </c>
       <c r="B37">
-        <v>121.53911140016299</v>
+        <v>156.23404428945301</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44054</v>
+        <v>44086</v>
       </c>
       <c r="B38">
-        <v>122.606826987126</v>
+        <v>157.39787135133599</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44055</v>
+        <v>44087</v>
       </c>
       <c r="B39">
-        <v>123.67284598104901</v>
+        <v>158.57112944679099</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44056</v>
+        <v>44088</v>
       </c>
       <c r="B40">
-        <v>124.737357915489</v>
+        <v>159.754164514298</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44057</v>
+        <v>44089</v>
       </c>
       <c r="B41">
-        <v>125.80055772778701</v>
+        <v>160.947079596805</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44058</v>
+        <v>44090</v>
       </c>
       <c r="B42">
-        <v>126.86263968816499</v>
+        <v>162.14976897246899</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44059</v>
+        <v>44091</v>
       </c>
       <c r="B43">
-        <v>127.923811665849</v>
+        <v>163.361959334365</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44060</v>
+        <v>44092</v>
       </c>
       <c r="B44">
-        <v>128.984291523221</v>
+        <v>164.58380222375501</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44061</v>
+        <v>44093</v>
       </c>
       <c r="B45">
-        <v>130.04430298727399</v>
+        <v>165.81610728001999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44062</v>
+        <v>44094</v>
       </c>
       <c r="B46">
-        <v>131.10407205548802</v>
+        <v>167.05939630655399</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44063</v>
+        <v>44095</v>
       </c>
       <c r="B47">
-        <v>132.16382739601099</v>
+        <v>168.313860765257</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44064</v>
+        <v>44096</v>
       </c>
       <c r="B48">
-        <v>133.223910764198</v>
+        <v>169.57940886251802</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44065</v>
+        <v>44097</v>
       </c>
       <c r="B49">
-        <v>134.28476915489301</v>
+        <v>170.85570761684201</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44066</v>
+        <v>44098</v>
       </c>
       <c r="B50">
-        <v>135.346799804033</v>
+        <v>172.14223011815699</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44067</v>
+        <v>44099</v>
       </c>
       <c r="B51">
-        <v>136.410344947965</v>
+        <v>173.43887652514201</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44068</v>
+        <v>44100</v>
       </c>
       <c r="B52">
-        <v>137.47569600724199</v>
+        <v>174.74629121874301</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44069</v>
+        <v>44101</v>
       </c>
       <c r="B53">
-        <v>138.54309755120201</v>
+        <v>176.064818687018</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44070</v>
+        <v>44102</v>
       </c>
       <c r="B54">
-        <v>139.61275825729601</v>
+        <v>177.39444657286398</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44071</v>
+        <v>44103</v>
       </c>
       <c r="B55">
-        <v>140.68511332179298</v>
+        <v>178.734858930114</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44072</v>
+        <v>44104</v>
       </c>
       <c r="B56">
-        <v>141.76084142459899</v>
+        <v>180.08548374981001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44073</v>
+        <v>44105</v>
       </c>
       <c r="B57">
-        <v>142.840497656905</v>
+        <v>181.44554355811101</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44074</v>
+        <v>44106</v>
       </c>
       <c r="B58">
-        <v>143.92450376742102</v>
+        <v>182.814665701834</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44075</v>
+        <v>44107</v>
       </c>
       <c r="B59">
-        <v>145.013163233916</v>
+        <v>184.193269340336</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44076</v>
+        <v>44108</v>
       </c>
       <c r="B60">
-        <v>146.10667501808399</v>
+        <v>185.58148334707002</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44077</v>
+        <v>44109</v>
       </c>
       <c r="B61">
-        <v>147.20515573796601</v>
+        <v>186.979075635111</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44078</v>
+        <v>44110</v>
       </c>
       <c r="B62">
-        <v>148.309045801971</v>
+        <v>188.38550953198001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44079</v>
+        <v>44111</v>
       </c>
       <c r="B63">
-        <v>149.41918003650201</v>
+        <v>189.79999433556301</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44080</v>
+        <v>44112</v>
       </c>
       <c r="B64">
-        <v>150.536198272647</v>
+        <v>191.221536522154</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44081</v>
+        <v>44113</v>
       </c>
       <c r="B65">
-        <v>151.66052763127402</v>
+        <v>192.64950852959498</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44082</v>
+        <v>44114</v>
       </c>
       <c r="B66">
-        <v>152.792409465627</v>
+        <v>194.08408377367101</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44083</v>
+        <v>44115</v>
       </c>
       <c r="B67">
-        <v>153.931923688257</v>
+        <v>195.525171680342</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44084</v>
+        <v>44116</v>
       </c>
       <c r="B68">
-        <v>155.07902138132701</v>
+        <v>196.97233550810998</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44085</v>
+        <v>44117</v>
       </c>
       <c r="B69">
-        <v>156.23404428945301</v>
+        <v>198.42484909345299</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44086</v>
+        <v>44118</v>
       </c>
       <c r="B70">
-        <v>157.39787135133599</v>
+        <v>199.881748748315</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44087</v>
+        <v>44119</v>
       </c>
       <c r="B71">
-        <v>158.57112944679099</v>
+        <v>201.34188224229601</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44088</v>
+        <v>44120</v>
       </c>
       <c r="B72">
-        <v>159.754164514298</v>
+        <v>202.80441354214901</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44089</v>
+        <v>44121</v>
       </c>
       <c r="B73">
-        <v>160.947079596805</v>
+        <v>204.26927909337601</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44090</v>
+        <v>44122</v>
       </c>
       <c r="B74">
-        <v>162.14976897246899</v>
+        <v>205.73618820702299</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44091</v>
+        <v>44123</v>
       </c>
       <c r="B75">
-        <v>163.361959334365</v>
+        <v>207.20453311254002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44092</v>
+        <v>44124</v>
       </c>
       <c r="B76">
-        <v>164.58380222375501</v>
+        <v>208.67344347221299</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44093</v>
+        <v>44125</v>
       </c>
       <c r="B77">
-        <v>165.81610728001999</v>
+        <v>210.14183650554901</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44094</v>
+        <v>44126</v>
       </c>
       <c r="B78">
-        <v>167.05939630655399</v>
+        <v>211.60846195860202</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44095</v>
+        <v>44127</v>
       </c>
       <c r="B79">
-        <v>168.313860765257</v>
+        <v>213.072328829593</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44096</v>
+        <v>44128</v>
       </c>
       <c r="B80">
-        <v>169.57940886251802</v>
+        <v>214.53315370899099</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>44097</v>
+        <v>44129</v>
       </c>
       <c r="B81">
-        <v>170.85570761684201</v>
+        <v>215.990466777254</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>44098</v>
+        <v>44130</v>
       </c>
       <c r="B82">
-        <v>172.14223011815699</v>
+        <v>217.44351919881299</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>44099</v>
+        <v>44131</v>
       </c>
       <c r="B83">
-        <v>173.43887652514201</v>
+        <v>218.89133360722499</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>44100</v>
+        <v>44132</v>
       </c>
       <c r="B84">
-        <v>174.74629121874301</v>
+        <v>220.33275203152201</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>44101</v>
+        <v>44133</v>
       </c>
       <c r="B85">
-        <v>176.064818687018</v>
+        <v>221.76647459559501</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>44102</v>
+        <v>44134</v>
       </c>
       <c r="B86">
-        <v>177.39444657286398</v>
+        <v>223.191400187597</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>44103</v>
+        <v>44135</v>
       </c>
       <c r="B87">
-        <v>178.734858930114</v>
+        <v>224.60703746077999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>44104</v>
+        <v>44136</v>
       </c>
       <c r="B88">
-        <v>180.08548374981001</v>
+        <v>226.01274797854799</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>44105</v>
+        <v>44137</v>
       </c>
       <c r="B89">
-        <v>181.44554355811101</v>
+        <v>227.40765721064099</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>44106</v>
+        <v>44138</v>
       </c>
       <c r="B90">
-        <v>182.814665701834</v>
+        <v>228.79069970404299</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>44107</v>
+        <v>44139</v>
       </c>
       <c r="B91">
-        <v>184.193269340336</v>
+        <v>230.16066512754099</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
-        <v>44108</v>
+        <v>44140</v>
       </c>
       <c r="B92">
-        <v>185.58148334707002</v>
+        <v>231.51622907590101</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
-        <v>44109</v>
+        <v>44141</v>
       </c>
       <c r="B93">
-        <v>186.979075635111</v>
+        <v>232.85620493823998</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
-        <v>44110</v>
+        <v>44142</v>
       </c>
       <c r="B94">
-        <v>188.38550953198001</v>
+        <v>234.179889305329</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>44111</v>
+        <v>44143</v>
       </c>
       <c r="B95">
-        <v>189.79999433556301</v>
+        <v>235.486465845727</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>44112</v>
+        <v>44144</v>
       </c>
       <c r="B96">
-        <v>191.221536522154</v>
+        <v>236.77492724194602</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
-        <v>44113</v>
+        <v>44145</v>
       </c>
       <c r="B97">
-        <v>192.64950852959498</v>
+        <v>238.044114212392</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>44114</v>
+        <v>44146</v>
       </c>
       <c r="B98">
-        <v>194.08408377367101</v>
+        <v>239.29276023734099</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>44115</v>
+        <v>44147</v>
       </c>
       <c r="B99">
-        <v>195.525171680342</v>
+        <v>240.51951355635501</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>44116</v>
+        <v>44148</v>
       </c>
       <c r="B100">
-        <v>196.97233550810998</v>
+        <v>241.72310084343201</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>44117</v>
+        <v>44149</v>
       </c>
       <c r="B101">
-        <v>198.42484909345299</v>
+        <v>242.90257946769</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>44118</v>
+        <v>44150</v>
       </c>
       <c r="B102">
-        <v>199.881748748315</v>
+        <v>244.05692078943801</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>44119</v>
+        <v>44151</v>
       </c>
       <c r="B103">
-        <v>201.34188224229601</v>
+        <v>245.18495182993701</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
-        <v>44120</v>
+        <v>44152</v>
       </c>
       <c r="B104">
-        <v>202.80441354214901</v>
+        <v>246.28538766563099</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
-        <v>44121</v>
+        <v>44153</v>
       </c>
       <c r="B105">
-        <v>204.26927909337601</v>
+        <v>247.35687519469698</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>44122</v>
+        <v>44154</v>
       </c>
       <c r="B106">
-        <v>205.73618820702299</v>
+        <v>248.39800627243099</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
-        <v>44123</v>
+        <v>44155</v>
       </c>
       <c r="B107">
-        <v>207.20453311254002</v>
+        <v>249.40739795253501</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>44124</v>
+        <v>44156</v>
       </c>
       <c r="B108">
-        <v>208.67344347221299</v>
+        <v>250.38382804608301</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
-        <v>44125</v>
+        <v>44157</v>
       </c>
       <c r="B109">
-        <v>210.14183650554901</v>
+        <v>251.32600806729002</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
-        <v>44126</v>
+        <v>44158</v>
       </c>
       <c r="B110">
-        <v>211.60846195860202</v>
+        <v>252.232554100599</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>44127</v>
+        <v>44159</v>
       </c>
       <c r="B111">
-        <v>213.072328829593</v>
+        <v>253.10201254535801</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
-        <v>44128</v>
+        <v>44160</v>
       </c>
       <c r="B112">
-        <v>214.53315370899099</v>
+        <v>253.93290301640099</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>44129</v>
+        <v>44161</v>
       </c>
       <c r="B113">
-        <v>215.990466777254</v>
+        <v>254.72372356182399</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
-        <v>44130</v>
+        <v>44162</v>
       </c>
       <c r="B114">
-        <v>217.44351919881299</v>
+        <v>255.47295593062898</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>44131</v>
+        <v>44163</v>
       </c>
       <c r="B115">
-        <v>218.89133360722499</v>
+        <v>256.17906684855802</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>44132</v>
+        <v>44164</v>
       </c>
       <c r="B116">
-        <v>220.33275203152201</v>
+        <v>256.84047223315298</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
-        <v>44133</v>
+        <v>44165</v>
       </c>
       <c r="B117">
-        <v>221.76647459559501</v>
+        <v>257.455547053977</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
-        <v>44134</v>
+        <v>44166</v>
       </c>
       <c r="B118">
-        <v>223.191400187597</v>
+        <v>258.02264506787498</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>44135</v>
+        <v>44167</v>
       </c>
       <c r="B119">
-        <v>224.60703746077999</v>
+        <v>258.54014097626703</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>44136</v>
+        <v>44168</v>
       </c>
       <c r="B120">
-        <v>226.01274797854799</v>
+        <v>259.00642964625001</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>44137</v>
+        <v>44169</v>
       </c>
       <c r="B121">
-        <v>227.40765721064099</v>
+        <v>259.41986740546901</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>44138</v>
+        <v>44170</v>
       </c>
       <c r="B122">
-        <v>228.79069970404299</v>
+        <v>259.77862790063</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>44139</v>
+        <v>44171</v>
       </c>
       <c r="B123">
-        <v>230.16066512754099</v>
+        <v>260.08085276519296</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
-        <v>44140</v>
+        <v>44172</v>
       </c>
       <c r="B124">
-        <v>231.51622907590101</v>
+        <v>260.32471069696402</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>44141</v>
+        <v>44173</v>
       </c>
       <c r="B125">
-        <v>232.85620493823998</v>
+        <v>260.50841263845001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
-        <v>44142</v>
+        <v>44174</v>
       </c>
       <c r="B126">
-        <v>234.179889305329</v>
+        <v>260.63025360499</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>44143</v>
+        <v>44175</v>
       </c>
       <c r="B127">
-        <v>235.486465845727</v>
+        <v>260.68860861485501</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>44144</v>
+        <v>44176</v>
       </c>
       <c r="B128">
-        <v>236.77492724194602</v>
+        <v>260.68182025728498</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>44145</v>
+        <v>44177</v>
       </c>
       <c r="B129">
-        <v>238.044114212392</v>
+        <v>260.607913939924</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>44146</v>
+        <v>44178</v>
       </c>
       <c r="B130">
-        <v>239.29276023734099</v>
+        <v>260.46492339968802</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>44147</v>
+        <v>44179</v>
       </c>
       <c r="B131">
-        <v>240.51951355635501</v>
+        <v>260.251003171072</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>44148</v>
+        <v>44180</v>
       </c>
       <c r="B132">
-        <v>241.72310084343201</v>
+        <v>259.96444126359</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>44149</v>
+        <v>44181</v>
       </c>
       <c r="B133">
-        <v>242.90257946769</v>
+        <v>259.60370107540103</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>44150</v>
+        <v>44182</v>
       </c>
       <c r="B134">
-        <v>244.05692078943801</v>
+        <v>259.167416820683</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>44151</v>
+        <v>44183</v>
       </c>
       <c r="B135">
-        <v>245.18495182993701</v>
+        <v>258.65423525456998</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>44152</v>
+        <v>44184</v>
       </c>
       <c r="B136">
-        <v>246.28538766563099</v>
+        <v>258.06241473047197</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>44153</v>
+        <v>44185</v>
       </c>
       <c r="B137">
-        <v>247.35687519469698</v>
+        <v>257.39030661503602</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>44154</v>
+        <v>44186</v>
       </c>
       <c r="B138">
-        <v>248.39800627243099</v>
+        <v>256.636513475036</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>44155</v>
+        <v>44187</v>
       </c>
       <c r="B139">
-        <v>249.40739795253501</v>
+        <v>255.799900188848</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
-        <v>44156</v>
+        <v>44188</v>
       </c>
       <c r="B140">
-        <v>250.38382804608301</v>
+        <v>254.87963440279702</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
-        <v>44157</v>
+        <v>44189</v>
       </c>
       <c r="B141">
-        <v>251.32600806729002</v>
+        <v>253.87518187188499</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>44158</v>
+        <v>44190</v>
       </c>
       <c r="B142">
-        <v>252.232554100599</v>
+        <v>252.78611191048802</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>44159</v>
+        <v>44191</v>
       </c>
       <c r="B143">
-        <v>253.10201254535801</v>
+        <v>251.61160577245599</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>44160</v>
+        <v>44192</v>
       </c>
       <c r="B144">
-        <v>253.93290301640099</v>
+        <v>250.351063254135</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
-        <v>44161</v>
+        <v>44193</v>
       </c>
       <c r="B145">
-        <v>254.72372356182399</v>
+        <v>249.00429388614899</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>44162</v>
+        <v>44194</v>
       </c>
       <c r="B146">
-        <v>255.47295593062898</v>
+        <v>247.57152159722099</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>44163</v>
+        <v>44195</v>
       </c>
       <c r="B147">
-        <v>256.17906684855802</v>
+        <v>246.05341519068301</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>44164</v>
+        <v>44196</v>
       </c>
       <c r="B148">
-        <v>256.84047223315298</v>
+        <v>244.45107643590097</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>44165</v>
+        <v>44197</v>
       </c>
       <c r="B149">
-        <v>257.455547053977</v>
+        <v>242.765813574097</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>44166</v>
+        <v>44198</v>
       </c>
       <c r="B150">
-        <v>258.02264506787498</v>
+        <v>240.99858311658701</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
-        <v>44167</v>
+        <v>44199</v>
       </c>
       <c r="B151">
-        <v>258.54014097626703</v>
+        <v>239.15067243481099</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
-        <v>44168</v>
+        <v>44200</v>
       </c>
       <c r="B152">
-        <v>259.00642964625001</v>
+        <v>237.22389755328899</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
-        <v>44169</v>
+        <v>44201</v>
       </c>
       <c r="B153">
-        <v>259.41986740546901</v>
+        <v>235.22058501459</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>44170</v>
+        <v>44202</v>
       </c>
       <c r="B154">
-        <v>259.77862790063</v>
+        <v>233.14357201554401</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>44171</v>
+        <v>44203</v>
       </c>
       <c r="B155">
-        <v>260.08085276519296</v>
+        <v>230.99616828158901</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>44172</v>
+        <v>44204</v>
       </c>
       <c r="B156">
-        <v>260.32471069696402</v>
+        <v>228.78189120635699</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>44173</v>
+        <v>44205</v>
       </c>
       <c r="B157">
-        <v>260.50841263845001</v>
+        <v>226.50385473369701</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>44174</v>
+        <v>44206</v>
       </c>
       <c r="B158">
-        <v>260.63025360499</v>
+        <v>224.16546527813199</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>44175</v>
+        <v>44207</v>
       </c>
       <c r="B159">
-        <v>260.68860861485501</v>
+        <v>221.77058940595299</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>44176</v>
+        <v>44208</v>
       </c>
       <c r="B160">
-        <v>260.68182025728498</v>
+        <v>219.323488732914</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>44177</v>
+        <v>44209</v>
       </c>
       <c r="B161">
-        <v>260.607913939924</v>
+        <v>216.82876425921802</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
-        <v>44178</v>
+        <v>44210</v>
       </c>
       <c r="B162">
-        <v>260.46492339968802</v>
+        <v>214.291270121612</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>44179</v>
+        <v>44211</v>
       </c>
       <c r="B163">
-        <v>260.251003171072</v>
+        <v>211.71579997564399</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>44180</v>
+        <v>44212</v>
       </c>
       <c r="B164">
-        <v>259.96444126359</v>
+        <v>209.10642727415402</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>44181</v>
+        <v>44213</v>
       </c>
       <c r="B165">
-        <v>259.60370107540103</v>
+        <v>206.46716796662798</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
-        <v>44182</v>
+        <v>44214</v>
       </c>
       <c r="B166">
-        <v>259.167416820683</v>
+        <v>203.802094639807</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>44183</v>
+        <v>44215</v>
       </c>
       <c r="B167">
-        <v>258.65423525456998</v>
+        <v>201.11521363578501</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>44184</v>
+        <v>44216</v>
       </c>
       <c r="B168">
-        <v>258.06241473047197</v>
+        <v>198.41034601419599</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>44185</v>
+        <v>44217</v>
       </c>
       <c r="B169">
-        <v>257.39030661503602</v>
+        <v>195.69099023385701</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>44186</v>
+        <v>44218</v>
       </c>
       <c r="B170">
-        <v>256.636513475036</v>
+        <v>192.95996568853201</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>44187</v>
+        <v>44219</v>
       </c>
       <c r="B171">
-        <v>255.799900188848</v>
+        <v>190.21871800096699</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>44188</v>
+        <v>44220</v>
       </c>
       <c r="B172">
-        <v>254.87963440279702</v>
+        <v>187.46793263073201</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>44189</v>
+        <v>44221</v>
       </c>
       <c r="B173">
-        <v>253.87518187188499</v>
+        <v>184.707595478793</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>44190</v>
+        <v>44222</v>
       </c>
       <c r="B174">
-        <v>252.78611191048802</v>
+        <v>181.93681759390802</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
-        <v>44191</v>
+        <v>44223</v>
       </c>
       <c r="B175">
-        <v>251.61160577245599</v>
+        <v>179.15365635955001</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>44192</v>
+        <v>44224</v>
       </c>
       <c r="B176">
-        <v>250.351063254135</v>
+        <v>176.35605535712298</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>44193</v>
+        <v>44225</v>
       </c>
       <c r="B177">
-        <v>249.00429388614899</v>
+        <v>173.54529992181799</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>44194</v>
+        <v>44226</v>
       </c>
       <c r="B178">
-        <v>247.57152159722099</v>
+        <v>170.72275718241201</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>44195</v>
+        <v>44227</v>
       </c>
       <c r="B179">
-        <v>246.05341519068301</v>
+        <v>167.88977647228802</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>44196</v>
+        <v>44228</v>
       </c>
       <c r="B180">
-        <v>244.45107643590097</v>
+        <v>165.04869348072401</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>44197</v>
+        <v>44229</v>
       </c>
       <c r="B181">
-        <v>242.765813574097</v>
+        <v>162.20214630284801</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>44198</v>
+        <v>44230</v>
       </c>
       <c r="B182">
-        <v>240.99858311658701</v>
+        <v>159.35275459092</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>44199</v>
+        <v>44231</v>
       </c>
       <c r="B183">
-        <v>239.15067243481099</v>
+        <v>156.50303248889398</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>44200</v>
+        <v>44232</v>
       </c>
       <c r="B184">
-        <v>237.22389755328899</v>
+        <v>153.65510132474398</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>44201</v>
+        <v>44233</v>
       </c>
       <c r="B185">
-        <v>235.22058501459</v>
+        <v>150.810079717311</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>44202</v>
+        <v>44234</v>
       </c>
       <c r="B186">
-        <v>233.14357201554401</v>
+        <v>147.96904258361701</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>44203</v>
+        <v>44235</v>
       </c>
       <c r="B187">
-        <v>230.99616828158901</v>
+        <v>145.13420708592702</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>44204</v>
+        <v>44236</v>
       </c>
       <c r="B188">
-        <v>228.78189120635699</v>
+        <v>142.308091549094</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>44205</v>
+        <v>44237</v>
       </c>
       <c r="B189">
-        <v>226.50385473369701</v>
+        <v>139.49313044142102</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>44206</v>
+        <v>44238</v>
       </c>
       <c r="B190">
-        <v>224.16546527813199</v>
+        <v>136.69158460909199</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>44207</v>
+        <v>44239</v>
       </c>
       <c r="B191">
-        <v>221.77058940595299</v>
+        <v>133.90526213154001</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>44208</v>
+        <v>44240</v>
       </c>
       <c r="B192">
-        <v>219.323488732914</v>
+        <v>131.13492682554599</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>44209</v>
+        <v>44241</v>
       </c>
       <c r="B193">
-        <v>216.82876425921802</v>
+        <v>128.38127901321499</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>44210</v>
+        <v>44242</v>
       </c>
       <c r="B194">
-        <v>214.291270121612</v>
+        <v>125.646280461267</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>44211</v>
+        <v>44243</v>
       </c>
       <c r="B195">
-        <v>211.71579997564399</v>
+        <v>122.932191271264</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>44212</v>
+        <v>44244</v>
       </c>
       <c r="B196">
-        <v>209.10642727415402</v>
+        <v>120.241137343031</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
-        <v>44213</v>
+        <v>44245</v>
       </c>
       <c r="B197">
-        <v>206.46716796662798</v>
+        <v>117.57502086510999</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
-        <v>44214</v>
+        <v>44246</v>
       </c>
       <c r="B198">
-        <v>203.802094639807</v>
+        <v>114.935254249631</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>44215</v>
+        <v>44247</v>
       </c>
       <c r="B199">
-        <v>201.11521363578501</v>
+        <v>112.322195730206</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>44216</v>
+        <v>44248</v>
       </c>
       <c r="B200">
-        <v>198.41034601419599</v>
+        <v>109.736128258579</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>44217</v>
+        <v>44249</v>
       </c>
       <c r="B201">
-        <v>195.69099023385701</v>
+        <v>107.17866496715901</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>44218</v>
+        <v>44250</v>
       </c>
       <c r="B202">
-        <v>192.95996568853201</v>
+        <v>104.65171156659099</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
-        <v>44219</v>
+        <v>44251</v>
       </c>
       <c r="B203">
-        <v>190.21871800096699</v>
+        <v>102.157007683228</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
-        <v>44220</v>
+        <v>44252</v>
       </c>
       <c r="B204">
-        <v>187.46793263073201</v>
+        <v>99.696040898507192</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>44221</v>
+        <v>44253</v>
       </c>
       <c r="B205">
-        <v>184.707595478793</v>
+        <v>97.269799118392712</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
-        <v>44222</v>
+        <v>44254</v>
       </c>
       <c r="B206">
-        <v>181.93681759390802</v>
+        <v>94.878243179611701</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>44223</v>
+        <v>44255</v>
       </c>
       <c r="B207">
-        <v>179.15365635955001</v>
+        <v>92.5212563169204</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>44224</v>
+        <v>44256</v>
       </c>
       <c r="B208">
-        <v>176.35605535712298</v>
+        <v>90.200060846102602</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>44225</v>
+        <v>44257</v>
       </c>
       <c r="B209">
-        <v>173.54529992181799</v>
+        <v>87.916162234642186</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>44226</v>
+        <v>44258</v>
       </c>
       <c r="B210">
-        <v>170.72275718241201</v>
+        <v>85.670888654744601</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>44227</v>
+        <v>44259</v>
       </c>
       <c r="B211">
-        <v>167.88977647228802</v>
+        <v>83.465312019458395</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>44228</v>
+        <v>44260</v>
       </c>
       <c r="B212">
-        <v>165.04869348072401</v>
+        <v>81.300025751096911</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>44229</v>
+        <v>44261</v>
       </c>
       <c r="B213">
-        <v>162.20214630284801</v>
+        <v>79.174668518395194</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>44230</v>
+        <v>44262</v>
       </c>
       <c r="B214">
-        <v>159.35275459092</v>
+        <v>77.088808627739809</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>44231</v>
+        <v>44263</v>
       </c>
       <c r="B215">
-        <v>156.50303248889398</v>
+        <v>75.043291137891401</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>44232</v>
+        <v>44264</v>
       </c>
       <c r="B216">
-        <v>153.65510132474398</v>
+        <v>73.039227372089101</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
-        <v>44233</v>
+        <v>44265</v>
       </c>
       <c r="B217">
-        <v>150.810079717311</v>
+        <v>71.077559335277897</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>44234</v>
+        <v>44266</v>
       </c>
       <c r="B218">
-        <v>147.96904258361701</v>
+        <v>69.158990998107399</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
-        <v>44235</v>
+        <v>44267</v>
       </c>
       <c r="B219">
-        <v>145.13420708592702</v>
+        <v>67.283800420833899</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
-        <v>44236</v>
+        <v>44268</v>
       </c>
       <c r="B220">
-        <v>142.308091549094</v>
+        <v>65.451434355985896</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
-        <v>44237</v>
+        <v>44269</v>
       </c>
       <c r="B221">
-        <v>139.49313044142102</v>
+        <v>63.661283413618996</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
-        <v>44238</v>
+        <v>44270</v>
       </c>
       <c r="B222">
-        <v>136.69158460909199</v>
+        <v>61.913874045753801</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
-        <v>44239</v>
+        <v>44271</v>
       </c>
       <c r="B223">
-        <v>133.90526213154001</v>
+        <v>60.209968675272101</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>44240</v>
+        <v>44272</v>
       </c>
       <c r="B224">
-        <v>131.13492682554599</v>
+        <v>58.550181446275303</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>44241</v>
+        <v>44273</v>
       </c>
       <c r="B225">
-        <v>128.38127901321499</v>
+        <v>56.934922433628799</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>44242</v>
+        <v>44274</v>
       </c>
       <c r="B226">
-        <v>125.646280461267</v>
+        <v>55.364253229299997</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>44243</v>
+        <v>44275</v>
       </c>
       <c r="B227">
-        <v>122.932191271264</v>
+        <v>53.837573346408504</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>44244</v>
+        <v>44276</v>
       </c>
       <c r="B228">
-        <v>120.241137343031</v>
+        <v>52.3542425884837</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>44245</v>
+        <v>44277</v>
       </c>
       <c r="B229">
-        <v>117.57502086510999</v>
+        <v>50.914543103004</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>44246</v>
+        <v>44278</v>
       </c>
       <c r="B230">
-        <v>114.935254249631</v>
+        <v>49.5189455453772</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>44247</v>
+        <v>44279</v>
       </c>
       <c r="B231">
-        <v>112.322195730206</v>
+        <v>48.167798006635195</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>44248</v>
+        <v>44280</v>
       </c>
       <c r="B232">
-        <v>109.736128258579</v>
+        <v>46.861285011703096</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>44249</v>
+        <v>44281</v>
       </c>
       <c r="B233">
-        <v>107.17866496715901</v>
+        <v>45.599333918704502</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>44250</v>
+        <v>44282</v>
       </c>
       <c r="B234">
-        <v>104.65171156659099</v>
+        <v>44.381409991704096</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>44251</v>
+        <v>44283</v>
       </c>
       <c r="B235">
-        <v>102.157007683228</v>
+        <v>43.2069534332093</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
-        <v>44252</v>
+        <v>44284</v>
       </c>
       <c r="B236">
-        <v>99.696040898507192</v>
+        <v>42.076063453756696</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
-        <v>44253</v>
+        <v>44285</v>
       </c>
       <c r="B237">
-        <v>97.269799118392712</v>
+        <v>40.988965170627701</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>44254</v>
+        <v>44286</v>
       </c>
       <c r="B238">
-        <v>94.878243179611701</v>
+        <v>39.945784893719399</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
-        <v>44255</v>
+        <v>44287</v>
       </c>
       <c r="B239">
-        <v>92.5212563169204</v>
+        <v>38.946524879912999</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>44256</v>
+        <v>44288</v>
       </c>
       <c r="B240">
-        <v>90.200060846102602</v>
+        <v>37.991025796023798</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>44257</v>
+        <v>44289</v>
       </c>
       <c r="B241">
-        <v>87.916162234642186</v>
+        <v>37.078882399582199</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>44258</v>
+        <v>44290</v>
       </c>
       <c r="B242">
-        <v>85.670888654744601</v>
+        <v>36.209675627638603</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>44259</v>
+        <v>44291</v>
       </c>
       <c r="B243">
-        <v>83.465312019458395</v>
+        <v>35.383360562291301</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>44260</v>
+        <v>44292</v>
       </c>
       <c r="B244">
-        <v>81.300025751096911</v>
+        <v>34.599945976286001</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>44261</v>
+        <v>44293</v>
       </c>
       <c r="B245">
-        <v>79.174668518395194</v>
+        <v>33.859360047771794</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>44262</v>
+        <v>44294</v>
       </c>
       <c r="B246">
-        <v>77.088808627739809</v>
+        <v>33.161440976082602</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
-        <v>44263</v>
+        <v>44295</v>
       </c>
       <c r="B247">
-        <v>75.043291137891401</v>
+        <v>32.505958240732198</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>44264</v>
+        <v>44296</v>
       </c>
       <c r="B248">
-        <v>73.039227372089101</v>
+        <v>31.892655204405798</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
-        <v>44265</v>
+        <v>44297</v>
       </c>
       <c r="B249">
-        <v>71.077559335277897</v>
+        <v>31.321268543930799</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>44266</v>
+        <v>44298</v>
       </c>
       <c r="B250">
-        <v>69.158990998107399</v>
+        <v>30.791624568773702</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>44267</v>
+        <v>44299</v>
       </c>
       <c r="B251">
-        <v>67.283800420833899</v>
+        <v>30.303526511438601</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>44268</v>
+        <v>44300</v>
       </c>
       <c r="B252">
-        <v>65.451434355985896</v>
+        <v>29.856707948802899</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>44269</v>
+        <v>44301</v>
       </c>
       <c r="B253">
-        <v>63.661283413618996</v>
+        <v>29.4508386339763</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
-        <v>44270</v>
+        <v>44302</v>
       </c>
       <c r="B254">
-        <v>61.913874045753801</v>
+        <v>29.085603694288299</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
-        <v>44271</v>
+        <v>44303</v>
       </c>
       <c r="B255">
-        <v>60.209968675272101</v>
+        <v>28.760870730614698</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>44272</v>
+        <v>44304</v>
       </c>
       <c r="B256">
-        <v>58.550181446275303</v>
+        <v>28.476504721829897</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>44273</v>
+        <v>44305</v>
       </c>
       <c r="B257">
-        <v>56.934922433628799</v>
+        <v>28.2321995675415</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>44274</v>
+        <v>44306</v>
       </c>
       <c r="B258">
-        <v>55.364253229299997</v>
+        <v>28.027552686385999</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>44275</v>
+        <v>44307</v>
       </c>
       <c r="B259">
-        <v>53.837573346408504</v>
+        <v>27.862097448596298</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>44276</v>
+        <v>44308</v>
       </c>
       <c r="B260">
-        <v>52.3542425884837</v>
+        <v>27.735322979634798</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>44277</v>
+        <v>44309</v>
       </c>
       <c r="B261">
-        <v>50.914543103004</v>
+        <v>27.646807356716902</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
-        <v>44278</v>
+        <v>44310</v>
       </c>
       <c r="B262">
-        <v>49.5189455453772</v>
+        <v>27.596499868148499</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
-        <v>44279</v>
+        <v>44311</v>
       </c>
       <c r="B263">
-        <v>48.167798006635195</v>
+        <v>27.584350046429702</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
-        <v>44280</v>
+        <v>44312</v>
       </c>
       <c r="B264">
-        <v>46.861285011703096</v>
+        <v>27.609911653735999</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
-        <v>44281</v>
+        <v>44313</v>
       </c>
       <c r="B265">
-        <v>45.599333918704502</v>
+        <v>27.672577504266798</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
-        <v>44282</v>
+        <v>44314</v>
       </c>
       <c r="B266">
-        <v>44.381409991704096</v>
+        <v>27.771679845545002</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
-        <v>44283</v>
+        <v>44315</v>
       </c>
       <c r="B267">
-        <v>43.2069534332093</v>
+        <v>27.906522412867801</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
-        <v>44284</v>
+        <v>44316</v>
       </c>
       <c r="B268">
-        <v>42.076063453756696</v>
+        <v>28.076560587085197</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
-        <v>44285</v>
+        <v>44317</v>
       </c>
       <c r="B269">
-        <v>40.988965170627701</v>
+        <v>28.2817832314587</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
-        <v>44286</v>
+        <v>44318</v>
       </c>
       <c r="B270">
-        <v>39.945784893719399</v>
+        <v>28.522182276970099</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
-        <v>44287</v>
+        <v>44319</v>
       </c>
       <c r="B271">
-        <v>38.946524879912999</v>
+        <v>28.797169189404102</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
-        <v>44288</v>
+        <v>44320</v>
       </c>
       <c r="B272">
-        <v>37.991025796023798</v>
+        <v>29.1059419579327</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
-        <v>44289</v>
+        <v>44321</v>
       </c>
       <c r="B273">
-        <v>37.078882399582199</v>
+        <v>29.4476420344647</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
-        <v>44290</v>
+        <v>44322</v>
       </c>
       <c r="B274">
-        <v>36.209675627638603</v>
+        <v>29.821396603504599</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
-        <v>44291</v>
+        <v>44323</v>
       </c>
       <c r="B275">
-        <v>35.383360562291301</v>
+        <v>30.226535367024599</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
-        <v>44292</v>
+        <v>44324</v>
       </c>
       <c r="B276">
-        <v>34.599945976286001</v>
+        <v>30.663049191334402</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
-        <v>44293</v>
+        <v>44325</v>
       </c>
       <c r="B277">
-        <v>33.859360047771794</v>
+        <v>31.130935163741302</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
-        <v>44294</v>
+        <v>44326</v>
       </c>
       <c r="B278">
-        <v>33.161440976082602</v>
+        <v>31.630361432118999</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
-        <v>44295</v>
+        <v>44327</v>
       </c>
       <c r="B279">
-        <v>32.505958240732198</v>
+        <v>32.164591327676796</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
-        <v>44296</v>
+        <v>44328</v>
       </c>
       <c r="B280">
-        <v>31.892655204405798</v>
+        <v>32.737108664674601</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
-        <v>44297</v>
+        <v>44329</v>
       </c>
       <c r="B281">
-        <v>31.321268543930799</v>
+        <v>33.3507439220175</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
-        <v>44298</v>
+        <v>44330</v>
       </c>
       <c r="B282">
-        <v>30.791624568773702</v>
+        <v>34.007777426925195</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
-        <v>44299</v>
+        <v>44331</v>
       </c>
       <c r="B283">
-        <v>30.303526511438601</v>
+        <v>34.710029230582499</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
-        <v>44300</v>
+        <v>44332</v>
       </c>
       <c r="B284">
-        <v>29.856707948802899</v>
+        <v>35.458737630496401</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
-        <v>44301</v>
+        <v>44333</v>
       </c>
       <c r="B285">
-        <v>29.4508386339763</v>
+        <v>36.253922638221596</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
-        <v>44302</v>
+        <v>44334</v>
       </c>
       <c r="B286">
-        <v>29.085603694288299</v>
+        <v>37.094957437152196</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
-        <v>44303</v>
+        <v>44335</v>
       </c>
       <c r="B287">
-        <v>28.760870730614698</v>
+        <v>37.980828296899702</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
-        <v>44304</v>
+        <v>44336</v>
       </c>
       <c r="B288">
-        <v>28.476504721829897</v>
+        <v>38.910215448332799</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
-        <v>44305</v>
+        <v>44337</v>
       </c>
       <c r="B289">
-        <v>28.2321995675415</v>
+        <v>39.881596445210398</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
-        <v>44306</v>
+        <v>44338</v>
       </c>
       <c r="B290">
-        <v>28.027552686385999</v>
+        <v>40.893338265126197</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
-        <v>44307</v>
+        <v>44339</v>
       </c>
       <c r="B291">
-        <v>27.862097448596298</v>
+        <v>41.943558521661807</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
-        <v>44308</v>
+        <v>44340</v>
       </c>
       <c r="B292">
-        <v>27.735322979634798</v>
+        <v>43.029429190408294</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
-        <v>44309</v>
+        <v>44341</v>
       </c>
       <c r="B293">
-        <v>27.646807356716902</v>
+        <v>44.147797876776096</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
-        <v>44310</v>
+        <v>44342</v>
       </c>
       <c r="B294">
-        <v>27.596499868148499</v>
+        <v>45.295466127002996</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
-        <v>44311</v>
+        <v>44343</v>
       </c>
       <c r="B295">
-        <v>27.584350046429702</v>
+        <v>46.469265467196003</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
-        <v>44312</v>
+        <v>44344</v>
       </c>
       <c r="B296">
-        <v>27.609911653735999</v>
+        <v>47.6661476642929</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
-        <v>44313</v>
+        <v>44345</v>
       </c>
       <c r="B297">
-        <v>27.672577504266798</v>
+        <v>48.883263692962799</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
-        <v>44314</v>
+        <v>44346</v>
       </c>
       <c r="B298">
-        <v>27.771679845545002</v>
+        <v>50.117800684652501</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
-        <v>44315</v>
+        <v>44347</v>
       </c>
       <c r="B299">
-        <v>27.906522412867801</v>
+        <v>51.366244530329098</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
-        <v>44316</v>
+        <v>44348</v>
       </c>
       <c r="B300">
-        <v>28.076560587085197</v>
+        <v>52.625009650860598</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
-        <v>44317</v>
+        <v>44349</v>
       </c>
       <c r="B301">
-        <v>28.2817832314587</v>
+        <v>53.890709332388198</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
-        <v>44318</v>
+        <v>44350</v>
       </c>
       <c r="B302">
-        <v>28.522182276970099</v>
+        <v>55.160210508962997</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
-        <v>44319</v>
+        <v>44351</v>
       </c>
       <c r="B303">
-        <v>28.797169189404102</v>
+        <v>56.430694651078198</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
-        <v>44320</v>
+        <v>44352</v>
       </c>
       <c r="B304">
-        <v>29.1059419579327</v>
+        <v>57.699711131733594</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
-        <v>44321</v>
+        <v>44353</v>
       </c>
       <c r="B305">
-        <v>29.4476420344647</v>
+        <v>58.964991166806101</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
-        <v>44322</v>
+        <v>44354</v>
       </c>
       <c r="B306">
-        <v>29.821396603504599</v>
+        <v>60.223699129385501</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
-        <v>44323</v>
+        <v>44355</v>
       </c>
       <c r="B307">
-        <v>30.226535367024599</v>
+        <v>61.4730405815192</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
-        <v>44324</v>
+        <v>44356</v>
       </c>
       <c r="B308">
-        <v>30.663049191334402</v>
+        <v>62.710512491027494</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
-        <v>44325</v>
+        <v>44357</v>
       </c>
       <c r="B309">
-        <v>31.130935163741302</v>
+        <v>63.933936992869199</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
-        <v>44326</v>
+        <v>44358</v>
       </c>
       <c r="B310">
-        <v>31.630361432118999</v>
+        <v>65.1414952002294</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
-        <v>44327</v>
+        <v>44359</v>
       </c>
       <c r="B311">
-        <v>32.164591327676796</v>
+        <v>66.331759640441902</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
-        <v>44328</v>
+        <v>44360</v>
       </c>
       <c r="B312">
-        <v>32.737108664674601</v>
+        <v>67.503500477001396</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
-        <v>44329</v>
+        <v>44361</v>
       </c>
       <c r="B313">
-        <v>33.3507439220175</v>
+        <v>68.654961973986701</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
-        <v>44330</v>
+        <v>44362</v>
       </c>
       <c r="B314">
-        <v>34.007777426925195</v>
+        <v>69.784434362845502</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
-        <v>44331</v>
+        <v>44363</v>
       </c>
       <c r="B315">
-        <v>34.710029230582499</v>
+        <v>70.890483776325595</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
-        <v>44332</v>
+        <v>44364</v>
       </c>
       <c r="B316">
-        <v>35.458737630496401</v>
+        <v>71.971974289842606</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
-        <v>44333</v>
+        <v>44365</v>
       </c>
       <c r="B317">
-        <v>36.253922638221596</v>
+        <v>73.028085224888599</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
-        <v>44334</v>
+        <v>44366</v>
       </c>
       <c r="B318">
-        <v>37.094957437152196</v>
+        <v>74.058332658193393</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
-        <v>44335</v>
+        <v>44367</v>
       </c>
       <c r="B319">
-        <v>37.980828296899702</v>
+        <v>75.062383684598188</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
-        <v>44336</v>
+        <v>44368</v>
       </c>
       <c r="B320">
-        <v>38.910215448332799</v>
+        <v>76.039385964582692</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
-        <v>44337</v>
+        <v>44369</v>
       </c>
       <c r="B321">
-        <v>39.881596445210398</v>
+        <v>76.988495718490199</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
-        <v>44338</v>
+        <v>44370</v>
       </c>
       <c r="B322">
-        <v>40.893338265126197</v>
+        <v>77.909088862621104</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
-        <v>44339</v>
+        <v>44371</v>
       </c>
       <c r="B323">
-        <v>41.943558521661807</v>
+        <v>78.800778870739293</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
-        <v>44340</v>
+        <v>44372</v>
       </c>
       <c r="B324">
-        <v>43.029429190408294</v>
+        <v>79.663425957047508</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
-        <v>44341</v>
+        <v>44373</v>
       </c>
       <c r="B325">
-        <v>44.147797876776096</v>
+        <v>80.497154258917007</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
-        <v>44342</v>
+        <v>44374</v>
       </c>
       <c r="B326">
-        <v>45.295466127002996</v>
+        <v>81.302183527314696</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
-        <v>44343</v>
+        <v>44375</v>
       </c>
       <c r="B327">
-        <v>46.469265467196003</v>
+        <v>82.078227499252606</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
-        <v>44344</v>
+        <v>44376</v>
       </c>
       <c r="B328">
-        <v>47.6661476642929</v>
+        <v>82.824971981828298</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
-        <v>44345</v>
+        <v>44377</v>
       </c>
       <c r="B329">
-        <v>48.883263692962799</v>
+        <v>83.542266756654698</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
-        <v>44346</v>
+        <v>44378</v>
       </c>
       <c r="B330">
-        <v>50.117800684652501</v>
+        <v>84.230142605312594</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
-        <v>44347</v>
+        <v>44379</v>
       </c>
       <c r="B331">
-        <v>51.366244530329098</v>
+        <v>84.888816600281999</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
-        <v>44348</v>
+        <v>44380</v>
       </c>
       <c r="B332">
-        <v>52.625009650860598</v>
+        <v>85.518707526471303</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
-        <v>44349</v>
+        <v>44381</v>
       </c>
       <c r="B333">
-        <v>53.890709332388198</v>
+        <v>86.120294668598291</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
-        <v>44350</v>
+        <v>44382</v>
       </c>
       <c r="B334">
-        <v>55.160210508962997</v>
+        <v>86.693583334640209</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
-        <v>44351</v>
+        <v>44383</v>
       </c>
       <c r="B335">
-        <v>56.430694651078198</v>
+        <v>87.238523254221207</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
-        <v>44352</v>
+        <v>44384</v>
       </c>
       <c r="B336">
-        <v>57.699711131733594</v>
+        <v>87.755187096741196</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
-        <v>44353</v>
+        <v>44385</v>
       </c>
       <c r="B337">
-        <v>58.964991166806101</v>
+        <v>88.243787453467107</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
-        <v>44354</v>
+        <v>44386</v>
       </c>
       <c r="B338">
-        <v>60.223699129385501</v>
+        <v>88.704679887450197</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
-        <v>44355</v>
+        <v>44387</v>
       </c>
       <c r="B339">
-        <v>61.4730405815192</v>
+        <v>89.138377083711504</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
-        <v>44356</v>
+        <v>44388</v>
       </c>
       <c r="B340">
-        <v>62.710512491027494</v>
+        <v>89.545437138432106</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
-        <v>44357</v>
+        <v>44389</v>
       </c>
       <c r="B341">
-        <v>63.933936992869199</v>
+        <v>89.925988364107596</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
-        <v>44358</v>
+        <v>44390</v>
       </c>
       <c r="B342">
-        <v>65.1414952002294</v>
+        <v>90.280085054139008</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
-        <v>44359</v>
+        <v>44391</v>
       </c>
       <c r="B343">
-        <v>66.331759640441902</v>
+        <v>90.6078779604278</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
-        <v>44360</v>
+        <v>44392</v>
       </c>
       <c r="B344">
-        <v>67.503500477001396</v>
+        <v>90.909631018142193</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
-        <v>44361</v>
+        <v>44393</v>
       </c>
       <c r="B345">
-        <v>68.654961973986701</v>
+        <v>91.185722736994293</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
-        <v>44362</v>
+        <v>44394</v>
       </c>
       <c r="B346">
-        <v>69.784434362845502</v>
+        <v>91.436658847028198</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
-        <v>44363</v>
+        <v>44395</v>
       </c>
       <c r="B347">
-        <v>70.890483776325595</v>
+        <v>91.662984670787495</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
-        <v>44364</v>
+        <v>44396</v>
       </c>
       <c r="B348">
-        <v>71.971974289842606</v>
+        <v>91.864866491301697</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
-        <v>44365</v>
+        <v>44397</v>
       </c>
       <c r="B349">
-        <v>73.028085224888599</v>
+        <v>92.042390147292707</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
-        <v>44366</v>
+        <v>44398</v>
       </c>
       <c r="B350">
-        <v>74.058332658193393</v>
+        <v>92.195721785877296</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
-        <v>44367</v>
+        <v>44399</v>
       </c>
       <c r="B351">
-        <v>75.062383684598188</v>
+        <v>92.325123833302499</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
-        <v>44368</v>
+        <v>44400</v>
       </c>
       <c r="B352">
-        <v>76.039385964582692</v>
+        <v>92.430954948232497</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
-        <v>44369</v>
+        <v>44401</v>
       </c>
       <c r="B353">
-        <v>76.988495718490199</v>
+        <v>92.513680762286199</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
-        <v>44370</v>
+        <v>44402</v>
       </c>
       <c r="B354">
-        <v>77.909088862621104</v>
+        <v>92.573805580705297</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
-        <v>44371</v>
+        <v>44403</v>
       </c>
       <c r="B355">
-        <v>78.800778870739293</v>
+        <v>92.611507432241098</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
-        <v>44372</v>
+        <v>44404</v>
       </c>
       <c r="B356">
-        <v>79.663425957047508</v>
+        <v>92.626884734232306</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
-        <v>44373</v>
+        <v>44405</v>
       </c>
       <c r="B357">
-        <v>80.497154258917007</v>
+        <v>92.620105560400305</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
-        <v>44374</v>
+        <v>44406</v>
       </c>
       <c r="B358">
-        <v>81.302183527314696</v>
+        <v>92.591422217578497</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
-        <v>44375</v>
+        <v>44407</v>
       </c>
       <c r="B359">
-        <v>82.078227499252606</v>
+        <v>92.541169685704688</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
-        <v>44376</v>
+        <v>44408</v>
       </c>
       <c r="B360">
-        <v>82.824971981828298</v>
+        <v>92.4697739246552</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
-        <v>44377</v>
+        <v>44409</v>
       </c>
       <c r="B361">
-        <v>83.542266756654698</v>
+        <v>92.377699450909404</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
-        <v>44378</v>
+        <v>44410</v>
       </c>
       <c r="B362">
-        <v>84.230142605312594</v>
+        <v>92.265139006874904</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
-        <v>44379</v>
+        <v>44411</v>
       </c>
       <c r="B363">
-        <v>84.888816600281999</v>
+        <v>92.132211041599007</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
-        <v>44380</v>
+        <v>44412</v>
       </c>
       <c r="B364">
-        <v>85.518707526471303</v>
+        <v>91.979094135916796</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
-        <v>44381</v>
+        <v>44413</v>
       </c>
       <c r="B365">
-        <v>86.120294668598291</v>
+        <v>91.806039359767198</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
-        <v>44382</v>
+        <v>44414</v>
       </c>
       <c r="B366">
-        <v>86.693583334640209</v>
+        <v>91.613366875718697</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
-        <v>44383</v>
+        <v>44415</v>
       </c>
       <c r="B367">
-        <v>87.238523254221207</v>
+        <v>91.4014711094419</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
-        <v>44384</v>
+        <v>44416</v>
       </c>
       <c r="B368">
-        <v>87.755187096741196</v>
+        <v>91.170782588745396</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
-        <v>44385</v>
+        <v>44417</v>
       </c>
       <c r="B369">
-        <v>88.243787453467107</v>
+        <v>90.921522704327202</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
-        <v>44386</v>
+        <v>44418</v>
       </c>
       <c r="B370">
-        <v>88.704679887450197</v>
+        <v>90.653850108902205</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
-        <v>44387</v>
+        <v>44419</v>
       </c>
       <c r="B371">
-        <v>89.138377083711504</v>
+        <v>90.367972807009295</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
-        <v>44388</v>
+        <v>44420</v>
       </c>
       <c r="B372">
-        <v>89.545437138432106</v>
+        <v>90.064157389273802</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
-        <v>44389</v>
+        <v>44421</v>
       </c>
       <c r="B373">
-        <v>89.925988364107596</v>
+        <v>89.74272336162619</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
-        <v>44390</v>
+        <v>44422</v>
       </c>
       <c r="B374">
-        <v>90.280085054139008</v>
+        <v>89.404044438379699</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
-        <v>44391</v>
+        <v>44423</v>
       </c>
       <c r="B375">
-        <v>90.6078779604278</v>
+        <v>89.04852342039301</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
-        <v>44392</v>
+        <v>44424</v>
       </c>
       <c r="B376">
-        <v>90.909631018142193</v>
+        <v>88.6764264516124</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
-        <v>44393</v>
+        <v>44425</v>
       </c>
       <c r="B377">
-        <v>91.185722736994293</v>
+        <v>88.287976372821603</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
-        <v>44394</v>
+        <v>44426</v>
       </c>
       <c r="B378">
-        <v>91.436658847028198</v>
+        <v>87.883432328805512</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
-        <v>44395</v>
+        <v>44427</v>
       </c>
       <c r="B379">
-        <v>91.662984670787495</v>
+        <v>87.463094952727602</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
-        <v>44396</v>
+        <v>44428</v>
       </c>
       <c r="B380">
-        <v>91.864866491301697</v>
+        <v>87.027297983777103</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
-        <v>44397</v>
+        <v>44429</v>
       </c>
       <c r="B381">
-        <v>92.042390147292707</v>
+        <v>86.576405023101898</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
-        <v>44398</v>
+        <v>44430</v>
       </c>
       <c r="B382">
-        <v>92.195721785877296</v>
+        <v>86.110795945909302</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
-        <v>44399</v>
+        <v>44431</v>
       </c>
       <c r="B383">
-        <v>92.325123833302499</v>
+        <v>85.630794821862395</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
-        <v>44400</v>
+        <v>44432</v>
       </c>
       <c r="B384">
-        <v>92.430954948232497</v>
+        <v>85.136710878063795</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
-        <v>44401</v>
+        <v>44433</v>
       </c>
       <c r="B385">
-        <v>92.513680762286199</v>
+        <v>84.628873958991605</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
-        <v>44402</v>
+        <v>44434</v>
       </c>
       <c r="B386">
-        <v>92.573805580705297</v>
+        <v>84.107634311507397</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
-        <v>44403</v>
+        <v>44435</v>
       </c>
       <c r="B387">
-        <v>92.611507432241098</v>
+        <v>83.573351707577899</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
-        <v>44404</v>
+        <v>44436</v>
       </c>
       <c r="B388">
-        <v>92.626884734232306</v>
+        <v>83.026387305359705</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
-        <v>44405</v>
+        <v>44437</v>
       </c>
       <c r="B389">
-        <v>92.620105560400305</v>
+        <v>82.467099452584293</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
-        <v>44406</v>
+        <v>44438</v>
       </c>
       <c r="B390">
-        <v>92.591422217578497</v>
+        <v>81.895874838706902</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
-        <v>44407</v>
+        <v>44439</v>
       </c>
       <c r="B391">
-        <v>92.541169685704688</v>
+        <v>81.313122119612103</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
-        <v>44408</v>
+        <v>44440</v>
       </c>
       <c r="B392">
-        <v>92.4697739246552</v>
+        <v>80.719253432568209</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
-        <v>44409</v>
+        <v>44441</v>
       </c>
       <c r="B393">
-        <v>92.377699450909404</v>
+        <v>80.11467864188451</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
-        <v>44410</v>
+        <v>44442</v>
       </c>
       <c r="B394">
-        <v>92.265139006874904</v>
+        <v>79.4997900399879</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
-        <v>44411</v>
+        <v>44443</v>
       </c>
       <c r="B395">
-        <v>92.132211041599007</v>
+        <v>78.874948820391509</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
-        <v>44412</v>
+        <v>44444</v>
       </c>
       <c r="B396">
-        <v>91.979094135916796</v>
+        <v>78.240487684108899</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
-        <v>44413</v>
+        <v>44445</v>
       </c>
       <c r="B397">
-        <v>91.806039359767198</v>
+        <v>77.596849235572392</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
-        <v>44414</v>
+        <v>44446</v>
       </c>
       <c r="B398">
-        <v>91.613366875718697</v>
+        <v>76.944541223908999</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
-        <v>44415</v>
+        <v>44447</v>
       </c>
       <c r="B399">
-        <v>91.4014711094419</v>
+        <v>76.2840552638432</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
-        <v>44416</v>
+        <v>44448</v>
       </c>
       <c r="B400">
-        <v>91.170782588745396</v>
+        <v>75.615855048800398</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
-        <v>44417</v>
+        <v>44449</v>
       </c>
       <c r="B401">
-        <v>90.921522704327202</v>
+        <v>74.940356960580502</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
-        <v>44418</v>
+        <v>44450</v>
       </c>
       <c r="B402">
-        <v>90.653850108902205</v>
+        <v>74.257911192862011</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
-        <v>44419</v>
+        <v>44451</v>
       </c>
       <c r="B403">
-        <v>90.367972807009295</v>
+        <v>73.568808399682098</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
-        <v>44420</v>
+        <v>44452</v>
       </c>
       <c r="B404">
-        <v>90.064157389273802</v>
+        <v>72.873523378800797</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
-        <v>44421</v>
+        <v>44453</v>
       </c>
       <c r="B405">
-        <v>89.74272336162619</v>
+        <v>72.172643938714501</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
-        <v>44422</v>
+        <v>44454</v>
       </c>
       <c r="B406">
-        <v>89.404044438379699</v>
+        <v>71.466720725809793</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
-        <v>44423</v>
+        <v>44455</v>
       </c>
       <c r="B407">
-        <v>89.04852342039301</v>
+        <v>70.756249289963094</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
-        <v>44424</v>
+        <v>44456</v>
       </c>
       <c r="B408">
-        <v>88.6764264516124</v>
+        <v>70.041646874229301</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
-        <v>44425</v>
+        <v>44457</v>
       </c>
       <c r="B409">
-        <v>88.287976372821603</v>
+        <v>69.323228496830708</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
-        <v>44426</v>
+        <v>44458</v>
       </c>
       <c r="B410">
-        <v>87.883432328805512</v>
+        <v>68.60121517564879</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
-        <v>44427</v>
+        <v>44459</v>
       </c>
       <c r="B411">
-        <v>87.463094952727602</v>
+        <v>67.876076608225191</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
-        <v>44428</v>
+        <v>44460</v>
       </c>
       <c r="B412">
-        <v>87.027297983777103</v>
+        <v>67.148447322547497</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
-        <v>44429</v>
+        <v>44461</v>
       </c>
       <c r="B413">
-        <v>86.576405023101898</v>
+        <v>66.418904122555404</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
-        <v>44430</v>
+        <v>44462</v>
       </c>
       <c r="B414">
-        <v>86.110795945909302</v>
+        <v>65.6879422315357</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
-        <v>44431</v>
+        <v>44463</v>
       </c>
       <c r="B415">
-        <v>85.630794821862395</v>
+        <v>64.955948850029898</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
-        <v>44432</v>
+        <v>44464</v>
       </c>
       <c r="B416">
-        <v>85.136710878063795</v>
+        <v>64.223174979763897</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
-        <v>44433</v>
+        <v>44465</v>
       </c>
       <c r="B417">
-        <v>84.628873958991605</v>
+        <v>63.4897430678582</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
-        <v>44434</v>
+        <v>44466</v>
       </c>
       <c r="B418">
-        <v>84.107634311507397</v>
+        <v>62.756074672297402</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="B419">
-        <v>83.573351707577899</v>
+        <v>62.022808903032498</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
-        <v>44436</v>
+        <v>44468</v>
       </c>
       <c r="B420">
-        <v>83.026387305359705</v>
+        <v>61.290509446289597</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
-        <v>44437</v>
+        <v>44469</v>
       </c>
       <c r="B421">
-        <v>82.467099452584293</v>
+        <v>60.559635459010494</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
-        <v>44438</v>
+        <v>44470</v>
       </c>
       <c r="B422">
-        <v>81.895874838706902</v>
+        <v>59.830512961099807</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
-        <v>44439</v>
+        <v>44471</v>
       </c>
       <c r="B423">
-        <v>81.313122119612103</v>
+        <v>59.103303761807503</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
-        <v>44440</v>
+        <v>44472</v>
       </c>
       <c r="B424">
-        <v>80.719253432568209</v>
+        <v>58.378010746526897</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
-        <v>44441</v>
+        <v>44473</v>
       </c>
       <c r="B425">
-        <v>80.11467864188451</v>
+        <v>57.654965537999999</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
-        <v>44442</v>
+        <v>44474</v>
       </c>
       <c r="B426">
-        <v>79.4997900399879</v>
+        <v>56.934764017881697</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
-        <v>44443</v>
+        <v>44475</v>
       </c>
       <c r="B427">
-        <v>78.874948820391509</v>
+        <v>56.217913679696096</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
-        <v>44444</v>
+        <v>44476</v>
       </c>
       <c r="B428">
-        <v>78.240487684108899</v>
+        <v>55.504800451052596</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
-        <v>44445</v>
+        <v>44477</v>
       </c>
       <c r="B429">
-        <v>77.596849235572392</v>
+        <v>54.795659407290898</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
-        <v>44446</v>
+        <v>44478</v>
       </c>
       <c r="B430">
-        <v>76.944541223908999</v>
+        <v>54.090542634172202</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
-        <v>44447</v>
+        <v>44479</v>
       </c>
       <c r="B431">
-        <v>76.2840552638432</v>
+        <v>53.3893211585494</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
-        <v>44448</v>
+        <v>44480</v>
       </c>
       <c r="B432">
-        <v>75.615855048800398</v>
+        <v>52.692199985269504</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
-        <v>44449</v>
+        <v>44481</v>
       </c>
       <c r="B433">
-        <v>74.940356960580502</v>
+        <v>51.999682147610798</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
-        <v>44450</v>
+        <v>44482</v>
       </c>
       <c r="B434">
-        <v>74.257911192862011</v>
+        <v>51.312175442774901</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
-        <v>44451</v>
+        <v>44483</v>
       </c>
       <c r="B435">
-        <v>73.568808399682098</v>
+        <v>50.629956868111201</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
-        <v>44452</v>
+        <v>44484</v>
       </c>
       <c r="B436">
-        <v>72.873523378800797</v>
+        <v>49.953144431273294</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
-        <v>44453</v>
+        <v>44485</v>
       </c>
       <c r="B437">
-        <v>72.172643938714501</v>
+        <v>49.281666077379896</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
-        <v>44454</v>
+        <v>44486</v>
       </c>
       <c r="B438">
-        <v>71.466720725809793</v>
+        <v>48.615258303689899</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
-        <v>44455</v>
+        <v>44487</v>
       </c>
       <c r="B439">
-        <v>70.756249289963094</v>
+        <v>47.953973922075804</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
-        <v>44456</v>
+        <v>44488</v>
       </c>
       <c r="B440">
-        <v>70.041646874229301</v>
+        <v>47.298180419291498</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
-        <v>44457</v>
+        <v>44489</v>
       </c>
       <c r="B441">
-        <v>69.323228496830708</v>
+        <v>46.648150843619199</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
-        <v>44458</v>
+        <v>44490</v>
       </c>
       <c r="B442">
-        <v>68.60121517564879</v>
+        <v>46.004028017551398</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
-        <v>44459</v>
+        <v>44491</v>
       </c>
       <c r="B443">
-        <v>67.876076608225191</v>
+        <v>45.365799360510799</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
-        <v>44460</v>
+        <v>44492</v>
       </c>
       <c r="B444">
-        <v>67.148447322547497</v>
+        <v>44.733269108946004</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
-        <v>44461</v>
+        <v>44493</v>
       </c>
       <c r="B445">
-        <v>66.418904122555404</v>
+        <v>44.106054551379799</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
-        <v>44462</v>
+        <v>44494</v>
       </c>
       <c r="B446">
-        <v>65.6879422315357</v>
+        <v>43.4840526179348</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
-        <v>44463</v>
+        <v>44495</v>
       </c>
       <c r="B447">
-        <v>64.955948850029898</v>
+        <v>42.867471588889394</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
-        <v>44464</v>
+        <v>44496</v>
       </c>
       <c r="B448">
-        <v>64.223174979763897</v>
+        <v>42.256435010689898</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
-        <v>44465</v>
+        <v>44497</v>
       </c>
       <c r="B449">
-        <v>63.4897430678582</v>
+        <v>41.650948179505995</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
-        <v>44466</v>
+        <v>44498</v>
       </c>
       <c r="B450">
-        <v>62.756074672297402</v>
+        <v>41.050877748652901</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
-        <v>44467</v>
+        <v>44499</v>
       </c>
       <c r="B451">
-        <v>62.022808903032498</v>
+        <v>40.455929235827902</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
-        <v>44468</v>
+        <v>44500</v>
       </c>
       <c r="B452">
-        <v>61.290509446289597</v>
+        <v>39.865642342474203</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
-        <v>44469</v>
+        <v>44501</v>
       </c>
       <c r="B453">
-        <v>60.559635459010494</v>
+        <v>39.279786060912102</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
-        <v>44470</v>
+        <v>44502</v>
       </c>
       <c r="B454">
-        <v>59.830512961099807</v>
+        <v>38.698415709517398</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
-        <v>44471</v>
+        <v>44503</v>
       </c>
       <c r="B455">
-        <v>59.103303761807503</v>
+        <v>38.121520377200497</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
-        <v>44472</v>
+        <v>44504</v>
       </c>
       <c r="B456">
-        <v>58.378010746526897</v>
+        <v>37.5489941867529</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
-        <v>44473</v>
+        <v>44505</v>
       </c>
       <c r="B457">
-        <v>57.654965537999999</v>
+        <v>36.980621905090899</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
-        <v>44474</v>
+        <v>44506</v>
       </c>
       <c r="B458">
-        <v>56.934764017881697</v>
+        <v>36.4160630540526</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
-        <v>44475</v>
+        <v>44507</v>
       </c>
       <c r="B459">
-        <v>56.217913679696096</v>
+        <v>35.854847880992502</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
-        <v>44476</v>
+        <v>44508</v>
       </c>
       <c r="B460">
-        <v>55.504800451052596</v>
+        <v>35.296679659567296</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
-        <v>44477</v>
+        <v>44509</v>
       </c>
       <c r="B461">
-        <v>54.795659407290898</v>
+        <v>34.741503315288298</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
-        <v>44478</v>
+        <v>44510</v>
       </c>
       <c r="B462">
-        <v>54.090542634172202</v>
+        <v>34.189223028517496</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
-        <v>44479</v>
+        <v>44511</v>
       </c>
       <c r="B463">
-        <v>53.3893211585494</v>
+        <v>33.639680384209605</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
-        <v>44480</v>
+        <v>44512</v>
       </c>
       <c r="B464">
-        <v>52.692199985269504</v>
+        <v>33.092646367004498</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
-        <v>44481</v>
+        <v>44513</v>
       </c>
       <c r="B465">
-        <v>51.999682147610798</v>
+        <v>32.547812446496899</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
-        <v>44482</v>
+        <v>44514</v>
       </c>
       <c r="B466">
-        <v>51.312175442774901</v>
+        <v>32.004788340350203</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
-        <v>44483</v>
+        <v>44515</v>
       </c>
       <c r="B467">
-        <v>50.629956868111201</v>
+        <v>31.4632992068154</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
-        <v>44484</v>
+        <v>44516</v>
       </c>
       <c r="B468">
-        <v>49.953144431273294</v>
+        <v>30.9232482657921</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
-        <v>44485</v>
+        <v>44517</v>
       </c>
       <c r="B469">
-        <v>49.281666077379896</v>
+        <v>30.384525329968799</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
-        <v>44486</v>
+        <v>44518</v>
       </c>
       <c r="B470">
-        <v>48.615258303689899</v>
+        <v>29.846993255150199</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
-        <v>44487</v>
+        <v>44519</v>
       </c>
       <c r="B471">
-        <v>47.953973922075804</v>
+        <v>29.3104856926686</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
-        <v>44488</v>
+        <v>44520</v>
       </c>
       <c r="B472">
-        <v>47.298180419291498</v>
+        <v>28.774804441256698</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
-        <v>44489</v>
+        <v>44521</v>
       </c>
       <c r="B473">
-        <v>46.648150843619199</v>
+        <v>28.239719387959699</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
-        <v>44490</v>
+        <v>44522</v>
       </c>
       <c r="B474">
-        <v>46.004028017551398</v>
+        <v>27.705057536957</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
-        <v>44491</v>
+        <v>44523</v>
       </c>
       <c r="B475">
-        <v>45.365799360510799</v>
+        <v>27.170740511686798</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
-        <v>44492</v>
+        <v>44524</v>
       </c>
       <c r="B476">
-        <v>44.733269108946004</v>
+        <v>26.636696602006399</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
-        <v>44493</v>
+        <v>44525</v>
       </c>
       <c r="B477">
-        <v>44.106054551379799</v>
+        <v>26.102855969633001</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
-        <v>44494</v>
+        <v>44526</v>
       </c>
       <c r="B478">
-        <v>43.4840526179348</v>
+        <v>25.569152440874401</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
-        <v>44495</v>
+        <v>44527</v>
       </c>
       <c r="B479">
-        <v>42.867471588889394</v>
+        <v>25.035525267209</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
-        <v>44496</v>
+        <v>44528</v>
       </c>
       <c r="B480">
-        <v>42.256435010689898</v>
+        <v>24.501920645849999</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
-        <v>44497</v>
+        <v>44529</v>
       </c>
       <c r="B481">
-        <v>41.650948179505995</v>
+        <v>23.968280913891597</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
-        <v>44498</v>
+        <v>44530</v>
       </c>
       <c r="B482">
-        <v>41.050877748652901</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
-        <v>44499</v>
-      </c>
-      <c r="B483">
-        <v>40.455929235827902</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
-        <v>44500</v>
-      </c>
-      <c r="B484">
-        <v>39.865642342474203</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
-        <v>44501</v>
-      </c>
-      <c r="B485">
-        <v>39.279786060912102</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
-        <v>44502</v>
-      </c>
-      <c r="B486">
-        <v>38.698415709517398</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
-        <v>44503</v>
-      </c>
-      <c r="B487">
-        <v>38.121520377200497</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
-        <v>44504</v>
-      </c>
-      <c r="B488">
-        <v>37.5489941867529</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
-        <v>44505</v>
-      </c>
-      <c r="B489">
-        <v>36.980621905090899</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
-        <v>44506</v>
-      </c>
-      <c r="B490">
-        <v>36.4160630540526</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
-        <v>44507</v>
-      </c>
-      <c r="B491">
-        <v>35.854847880992502</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
-        <v>44508</v>
-      </c>
-      <c r="B492">
-        <v>35.296679659567296</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>44509</v>
-      </c>
-      <c r="B493">
-        <v>34.741503315288298</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" s="1">
-        <v>44510</v>
-      </c>
-      <c r="B494">
-        <v>34.189223028517496</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495" s="1">
-        <v>44511</v>
-      </c>
-      <c r="B495">
-        <v>33.639680384209605</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A496" s="1">
-        <v>44512</v>
-      </c>
-      <c r="B496">
-        <v>33.092646367004498</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A497" s="1">
-        <v>44513</v>
-      </c>
-      <c r="B497">
-        <v>32.547812446496899</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
-        <v>44514</v>
-      </c>
-      <c r="B498">
-        <v>32.004788340350203</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A499" s="1">
-        <v>44515</v>
-      </c>
-      <c r="B499">
-        <v>31.4632992068154</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500" s="1">
-        <v>44516</v>
-      </c>
-      <c r="B500">
-        <v>30.9232482657921</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A501" s="1">
-        <v>44517</v>
-      </c>
-      <c r="B501">
-        <v>30.384525329968799</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A502" s="1">
-        <v>44518</v>
-      </c>
-      <c r="B502">
-        <v>29.846993255150199</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
-        <v>44519</v>
-      </c>
-      <c r="B503">
-        <v>29.3104856926686</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
-        <v>44520</v>
-      </c>
-      <c r="B504">
-        <v>28.774804441256698</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505" s="1">
-        <v>44521</v>
-      </c>
-      <c r="B505">
-        <v>28.239719387959699</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A506" s="1">
-        <v>44522</v>
-      </c>
-      <c r="B506">
-        <v>27.705057536957</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507" s="1">
-        <v>44523</v>
-      </c>
-      <c r="B507">
-        <v>27.170740511686798</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508" s="1">
-        <v>44524</v>
-      </c>
-      <c r="B508">
-        <v>26.636696602006399</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A509" s="1">
-        <v>44525</v>
-      </c>
-      <c r="B509">
-        <v>26.102855969633001</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A510" s="1">
-        <v>44526</v>
-      </c>
-      <c r="B510">
-        <v>25.569152440874401</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="1">
-        <v>44527</v>
-      </c>
-      <c r="B511">
-        <v>25.035525267209</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A512" s="1">
-        <v>44528</v>
-      </c>
-      <c r="B512">
-        <v>24.501920645849999</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513" s="1">
-        <v>44529</v>
-      </c>
-      <c r="B513">
-        <v>23.968280913891597</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B514">
         <v>23.434540172420899</v>
       </c>
     </row>

--- a/Covid_29019_ww.xlsx
+++ b/Covid_29019_ww.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D6FD22-A9F4-FF47-B0A4-94A4A2B1BD7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0494F21-30EE-0C48-9318-51220C3FA4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14540" yWindow="2580" windowWidth="20980" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -881,18 +881,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B952"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="B954" sqref="B954"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" customWidth="1"/>
-    <col min="3" max="3" width="67.5" customWidth="1"/>
-    <col min="4" max="6" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="48.6640625" customWidth="1"/>
+    <col min="3" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -908,7 +907,7 @@
         <v>44050</v>
       </c>
       <c r="B2">
-        <v>118.32436301134899</v>
+        <v>173787034.336487</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -916,7 +915,7 @@
         <v>44051</v>
       </c>
       <c r="B3">
-        <v>119.39798195787699</v>
+        <v>173677479.342803</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -924,7 +923,7 @@
         <v>44052</v>
       </c>
       <c r="B4">
-        <v>120.469537993407</v>
+        <v>173568344.06180799</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -932,7 +931,7 @@
         <v>44053</v>
       </c>
       <c r="B5">
-        <v>121.53911140016299</v>
+        <v>173459622.844423</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -940,7 +939,7 @@
         <v>44054</v>
       </c>
       <c r="B6">
-        <v>122.606826987126</v>
+        <v>173351324.99261799</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -948,7 +947,7 @@
         <v>44055</v>
       </c>
       <c r="B7">
-        <v>123.67284598104901</v>
+        <v>173243458.58442199</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -956,7 +955,7 @@
         <v>44056</v>
       </c>
       <c r="B8">
-        <v>124.737357915489</v>
+        <v>173136025.62855399</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -964,7 +963,7 @@
         <v>44057</v>
       </c>
       <c r="B9">
-        <v>125.80055772778701</v>
+        <v>173029022.43801099</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -972,7 +971,7 @@
         <v>44058</v>
       </c>
       <c r="B10">
-        <v>126.86263968816499</v>
+        <v>172922440.02913001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -980,7 +979,7 @@
         <v>44059</v>
       </c>
       <c r="B11">
-        <v>127.923811665849</v>
+        <v>172816264.50549299</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -988,7 +987,7 @@
         <v>44060</v>
       </c>
       <c r="B12">
-        <v>128.984291523221</v>
+        <v>172710482.04142901</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +995,7 @@
         <v>44061</v>
       </c>
       <c r="B13">
-        <v>130.04430298727399</v>
+        <v>172605092.311452</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1004,7 +1003,7 @@
         <v>44062</v>
       </c>
       <c r="B14">
-        <v>131.10407205548802</v>
+        <v>172500093.73041001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1012,7 +1011,7 @@
         <v>44063</v>
       </c>
       <c r="B15">
-        <v>132.16382739601099</v>
+        <v>172395479.06544101</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1020,7 +1019,7 @@
         <v>44064</v>
       </c>
       <c r="B16">
-        <v>133.223910764198</v>
+        <v>172291235.79809901</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1028,7 +1027,7 @@
         <v>44065</v>
       </c>
       <c r="B17">
-        <v>134.28476915489301</v>
+        <v>172187346.516617</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1036,7 +1035,7 @@
         <v>44066</v>
       </c>
       <c r="B18">
-        <v>135.346799804033</v>
+        <v>172083789.29379201</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1044,7 +1043,7 @@
         <v>44067</v>
       </c>
       <c r="B19">
-        <v>136.410344947965</v>
+        <v>171980542.166935</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1052,7 +1051,7 @@
         <v>44068</v>
       </c>
       <c r="B20">
-        <v>137.47569600724199</v>
+        <v>171877595.139743</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1060,7 +1059,7 @@
         <v>44069</v>
       </c>
       <c r="B21">
-        <v>138.54309755120201</v>
+        <v>171774937.027356</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,7 +1067,7 @@
         <v>44070</v>
       </c>
       <c r="B22">
-        <v>139.61275825729601</v>
+        <v>171672551.58030501</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1076,7 +1075,7 @@
         <v>44071</v>
       </c>
       <c r="B23">
-        <v>140.68511332179298</v>
+        <v>171570417.825901</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1084,7 +1083,7 @@
         <v>44072</v>
       </c>
       <c r="B24">
-        <v>141.76084142459899</v>
+        <v>171468510.44430599</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1092,7 +1091,7 @@
         <v>44073</v>
       </c>
       <c r="B25">
-        <v>142.840497656905</v>
+        <v>171366800.13162601</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1099,7 @@
         <v>44074</v>
       </c>
       <c r="B26">
-        <v>143.92450376742102</v>
+        <v>171265257.49599499</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1108,7 +1107,7 @@
         <v>44075</v>
       </c>
       <c r="B27">
-        <v>145.013163233916</v>
+        <v>171163863.41962001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1116,7 +1115,7 @@
         <v>44076</v>
       </c>
       <c r="B28">
-        <v>146.10667501808399</v>
+        <v>171062597.73419201</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1124,7 +1123,7 @@
         <v>44077</v>
       </c>
       <c r="B29">
-        <v>147.20515573796601</v>
+        <v>170961435.922878</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1132,7 +1131,7 @@
         <v>44078</v>
       </c>
       <c r="B30">
-        <v>148.309045801971</v>
+        <v>170860349.43226099</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,7 +1139,7 @@
         <v>44079</v>
       </c>
       <c r="B31">
-        <v>149.41918003650201</v>
+        <v>170759306.02309299</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1148,7 +1147,7 @@
         <v>44080</v>
       </c>
       <c r="B32">
-        <v>150.536198272647</v>
+        <v>170658270.110237</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1156,7 +1155,7 @@
         <v>44081</v>
       </c>
       <c r="B33">
-        <v>151.66052763127402</v>
+        <v>170557205.99133301</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1164,7 +1163,7 @@
         <v>44082</v>
       </c>
       <c r="B34">
-        <v>152.792409465627</v>
+        <v>170456086.347029</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1172,7 +1171,7 @@
         <v>44083</v>
       </c>
       <c r="B35">
-        <v>153.931923688257</v>
+        <v>170354882.98522899</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1180,7 +1179,7 @@
         <v>44084</v>
       </c>
       <c r="B36">
-        <v>155.07902138132701</v>
+        <v>170253564.191248</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1187,7 @@
         <v>44085</v>
       </c>
       <c r="B37">
-        <v>156.23404428945301</v>
+        <v>170152095.002134</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1196,7 +1195,7 @@
         <v>44086</v>
       </c>
       <c r="B38">
-        <v>157.39787135133599</v>
+        <v>170050437.52316201</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1204,7 +1203,7 @@
         <v>44087</v>
       </c>
       <c r="B39">
-        <v>158.57112944679099</v>
+        <v>169948551.23659</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,7 +1211,7 @@
         <v>44088</v>
       </c>
       <c r="B40">
-        <v>159.754164514298</v>
+        <v>169846394.602842</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1220,7 +1219,7 @@
         <v>44089</v>
       </c>
       <c r="B41">
-        <v>160.947079596805</v>
+        <v>169743932.193643</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1228,7 +1227,7 @@
         <v>44090</v>
       </c>
       <c r="B42">
-        <v>162.14976897246899</v>
+        <v>169641129.15537399</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1236,7 +1235,7 @@
         <v>44091</v>
       </c>
       <c r="B43">
-        <v>163.361959334365</v>
+        <v>169537948.023684</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1244,7 +1243,7 @@
         <v>44092</v>
       </c>
       <c r="B44">
-        <v>164.58380222375501</v>
+        <v>169434348.944204</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1252,7 +1251,7 @@
         <v>44093</v>
       </c>
       <c r="B45">
-        <v>165.81610728001999</v>
+        <v>169330289.94652301</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1260,7 +1259,7 @@
         <v>44094</v>
       </c>
       <c r="B46">
-        <v>167.05939630655399</v>
+        <v>169225727.21464401</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1268,7 +1267,7 @@
         <v>44095</v>
       </c>
       <c r="B47">
-        <v>168.313860765257</v>
+        <v>169120615.79596901</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1276,7 +1275,7 @@
         <v>44096</v>
       </c>
       <c r="B48">
-        <v>169.57940886251802</v>
+        <v>169014914.193003</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,7 +1283,7 @@
         <v>44097</v>
       </c>
       <c r="B49">
-        <v>170.85570761684201</v>
+        <v>168908582.18859801</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1292,7 +1291,7 @@
         <v>44098</v>
       </c>
       <c r="B50">
-        <v>172.14223011815699</v>
+        <v>168801577.958058</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1300,7 +1299,7 @@
         <v>44099</v>
       </c>
       <c r="B51">
-        <v>173.43887652514201</v>
+        <v>168693858.20119801</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1308,7 +1307,7 @@
         <v>44100</v>
       </c>
       <c r="B52">
-        <v>174.74629121874301</v>
+        <v>168585378.365798</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1316,7 +1315,7 @@
         <v>44101</v>
       </c>
       <c r="B53">
-        <v>176.064818687018</v>
+        <v>168476092.87314299</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1324,7 +1323,7 @@
         <v>44102</v>
       </c>
       <c r="B54">
-        <v>177.39444657286398</v>
+        <v>168365955.41735101</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1332,7 +1331,7 @@
         <v>44103</v>
       </c>
       <c r="B55">
-        <v>178.734858930114</v>
+        <v>168254920.794007</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1340,7 +1339,7 @@
         <v>44104</v>
       </c>
       <c r="B56">
-        <v>180.08548374981001</v>
+        <v>168142944.702351</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1348,7 +1347,7 @@
         <v>44105</v>
       </c>
       <c r="B57">
-        <v>181.44554355811101</v>
+        <v>168029982.26591501</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1356,7 +1355,7 @@
         <v>44106</v>
       </c>
       <c r="B58">
-        <v>182.814665701834</v>
+        <v>167915988.088411</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1364,7 +1363,7 @@
         <v>44107</v>
       </c>
       <c r="B59">
-        <v>184.193269340336</v>
+        <v>167800916.41921401</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1372,7 +1371,7 @@
         <v>44108</v>
       </c>
       <c r="B60">
-        <v>185.58148334707002</v>
+        <v>167684721.32811999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1380,7 +1379,7 @@
         <v>44109</v>
       </c>
       <c r="B61">
-        <v>186.979075635111</v>
+        <v>167567356.85684499</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1388,7 +1387,7 @@
         <v>44110</v>
       </c>
       <c r="B62">
-        <v>188.38550953198001</v>
+        <v>167448776.58298099</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1396,7 +1395,7 @@
         <v>44111</v>
       </c>
       <c r="B63">
-        <v>189.79999433556301</v>
+        <v>167328933.45883</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1404,7 +1403,7 @@
         <v>44112</v>
       </c>
       <c r="B64">
-        <v>191.221536522154</v>
+        <v>167207780.768437</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1412,7 +1411,7 @@
         <v>44113</v>
       </c>
       <c r="B65">
-        <v>192.64950852959498</v>
+        <v>167085272.25692499</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1420,7 +1419,7 @@
         <v>44114</v>
       </c>
       <c r="B66">
-        <v>194.08408377367101</v>
+        <v>166961362.23130399</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,7 +1427,7 @@
         <v>44115</v>
       </c>
       <c r="B67">
-        <v>195.525171680342</v>
+        <v>166836005.67958701</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1436,7 +1435,7 @@
         <v>44116</v>
       </c>
       <c r="B68">
-        <v>196.97233550810998</v>
+        <v>166709158.37090299</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1444,7 +1443,7 @@
         <v>44117</v>
       </c>
       <c r="B69">
-        <v>198.42484909345299</v>
+        <v>166580775.06597999</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1452,7 +1451,7 @@
         <v>44118</v>
       </c>
       <c r="B70">
-        <v>199.881748748315</v>
+        <v>166450807.46108201</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1460,7 +1459,7 @@
         <v>44119</v>
       </c>
       <c r="B71">
-        <v>201.34188224229601</v>
+        <v>166319208.12491399</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1468,7 +1467,7 @@
         <v>44120</v>
       </c>
       <c r="B72">
-        <v>202.80441354214901</v>
+        <v>166185931.07566401</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1476,7 +1475,7 @@
         <v>44121</v>
       </c>
       <c r="B73">
-        <v>204.26927909337601</v>
+        <v>166050931.811616</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1484,7 +1483,7 @@
         <v>44122</v>
       </c>
       <c r="B74">
-        <v>205.73618820702299</v>
+        <v>165914167.37092599</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1492,7 +1491,7 @@
         <v>44123</v>
       </c>
       <c r="B75">
-        <v>207.20453311254002</v>
+        <v>165775596.38392201</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1500,7 +1499,7 @@
         <v>44124</v>
       </c>
       <c r="B76">
-        <v>208.67344347221299</v>
+        <v>165635176.89118201</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1508,7 +1507,7 @@
         <v>44125</v>
       </c>
       <c r="B77">
-        <v>210.14183650554901</v>
+        <v>165492861.08505201</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1516,7 +1515,7 @@
         <v>44126</v>
       </c>
       <c r="B78">
-        <v>211.60846195860202</v>
+        <v>165348601.887685</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1524,7 +1523,7 @@
         <v>44127</v>
       </c>
       <c r="B79">
-        <v>213.072328829593</v>
+        <v>165202354.64568901</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1532,7 +1531,7 @@
         <v>44128</v>
       </c>
       <c r="B80">
-        <v>214.53315370899099</v>
+        <v>165054077.08671099</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1540,7 +1539,7 @@
         <v>44129</v>
       </c>
       <c r="B81">
-        <v>215.990466777254</v>
+        <v>164903729.31755599</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1548,7 +1547,7 @@
         <v>44130</v>
       </c>
       <c r="B82">
-        <v>217.44351919881299</v>
+        <v>164751273.81747401</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1556,7 +1555,7 @@
         <v>44131</v>
       </c>
       <c r="B83">
-        <v>218.89133360722499</v>
+        <v>164596672.68267801</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1564,7 +1563,7 @@
         <v>44132</v>
       </c>
       <c r="B84">
-        <v>220.33275203152201</v>
+        <v>164439879.73767301</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1572,7 +1571,7 @@
         <v>44133</v>
       </c>
       <c r="B85">
-        <v>221.76647459559501</v>
+        <v>164280849.43678701</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1580,7 +1579,7 @@
         <v>44134</v>
       </c>
       <c r="B86">
-        <v>223.191400187597</v>
+        <v>164119539.59094399</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1588,7 +1587,7 @@
         <v>44135</v>
       </c>
       <c r="B87">
-        <v>224.60703746077999</v>
+        <v>163955911.24866799</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1596,7 +1595,7 @@
         <v>44136</v>
       </c>
       <c r="B88">
-        <v>226.01274797854799</v>
+        <v>163789928.631888</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1604,7 +1603,7 @@
         <v>44137</v>
       </c>
       <c r="B89">
-        <v>227.40765721064099</v>
+        <v>163621559.069763</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1612,7 +1611,7 @@
         <v>44138</v>
       </c>
       <c r="B90">
-        <v>228.79069970404299</v>
+        <v>163450769.466438</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1620,7 +1619,7 @@
         <v>44139</v>
       </c>
       <c r="B91">
-        <v>230.16066512754099</v>
+        <v>163277516.31118801</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1628,7 +1627,7 @@
         <v>44140</v>
       </c>
       <c r="B92">
-        <v>231.51622907590101</v>
+        <v>163101756.88229501</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1636,7 +1635,7 @@
         <v>44141</v>
       </c>
       <c r="B93">
-        <v>232.85620493823998</v>
+        <v>162923452.67215401</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1644,7 +1643,7 @@
         <v>44142</v>
       </c>
       <c r="B94">
-        <v>234.179889305329</v>
+        <v>162742569.19371101</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1652,7 +1651,7 @@
         <v>44143</v>
       </c>
       <c r="B95">
-        <v>235.486465845727</v>
+        <v>162559075.85515901</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1660,7 +1659,7 @@
         <v>44144</v>
       </c>
       <c r="B96">
-        <v>236.77492724194602</v>
+        <v>162372945.835933</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1668,7 +1667,7 @@
         <v>44145</v>
       </c>
       <c r="B97">
-        <v>238.044114212392</v>
+        <v>162184151.87214801</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1676,7 +1675,7 @@
         <v>44146</v>
       </c>
       <c r="B98">
-        <v>239.29276023734099</v>
+        <v>161992654.43247399</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1684,7 +1683,7 @@
         <v>44147</v>
       </c>
       <c r="B99">
-        <v>240.51951355635501</v>
+        <v>161798414.92201701</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1692,7 +1691,7 @@
         <v>44148</v>
       </c>
       <c r="B100">
-        <v>241.72310084343201</v>
+        <v>161601399.71541101</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1700,7 +1699,7 @@
         <v>44149</v>
       </c>
       <c r="B101">
-        <v>242.90257946769</v>
+        <v>161401579.89231199</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1707,7 @@
         <v>44150</v>
       </c>
       <c r="B102">
-        <v>244.05692078943801</v>
+        <v>161198931.05394</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1716,7 +1715,7 @@
         <v>44151</v>
       </c>
       <c r="B103">
-        <v>245.18495182993701</v>
+        <v>160993433.144629</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1724,7 +1723,7 @@
         <v>44152</v>
       </c>
       <c r="B104">
-        <v>246.28538766563099</v>
+        <v>160785065.66886899</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1732,7 +1731,7 @@
         <v>44153</v>
       </c>
       <c r="B105">
-        <v>247.35687519469698</v>
+        <v>160573794.35187599</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1740,7 +1739,7 @@
         <v>44154</v>
       </c>
       <c r="B106">
-        <v>248.39800627243099</v>
+        <v>160359585.98463199</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1748,7 +1747,7 @@
         <v>44155</v>
       </c>
       <c r="B107">
-        <v>249.40739795253501</v>
+        <v>160142412.95714</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1756,7 +1755,7 @@
         <v>44156</v>
       </c>
       <c r="B108">
-        <v>250.38382804608301</v>
+        <v>159922252.92923301</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1764,7 +1763,7 @@
         <v>44157</v>
       </c>
       <c r="B109">
-        <v>251.32600806729002</v>
+        <v>159699088.59346801</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1772,7 +1771,7 @@
         <v>44158</v>
       </c>
       <c r="B110">
-        <v>252.232554100599</v>
+        <v>159472907.44727299</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1780,7 +1779,7 @@
         <v>44159</v>
       </c>
       <c r="B111">
-        <v>253.10201254535801</v>
+        <v>159243696.56770399</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1788,7 +1787,7 @@
         <v>44160</v>
       </c>
       <c r="B112">
-        <v>253.93290301640099</v>
+        <v>159011428.107389</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1796,7 +1795,7 @@
         <v>44161</v>
       </c>
       <c r="B113">
-        <v>254.72372356182399</v>
+        <v>158776075.388569</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1804,7 +1803,7 @@
         <v>44162</v>
       </c>
       <c r="B114">
-        <v>255.47295593062898</v>
+        <v>158537617.81807101</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1812,7 +1811,7 @@
         <v>44163</v>
       </c>
       <c r="B115">
-        <v>256.17906684855802</v>
+        <v>158296040.502078</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1820,7 +1819,7 @@
         <v>44164</v>
       </c>
       <c r="B116">
-        <v>256.84047223315298</v>
+        <v>158051333.961261</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1828,7 +1827,7 @@
         <v>44165</v>
       </c>
       <c r="B117">
-        <v>257.455547053977</v>
+        <v>157803493.85988799</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1836,7 +1835,7 @@
         <v>44166</v>
       </c>
       <c r="B118">
-        <v>258.02264506787498</v>
+        <v>157552515.468523</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1844,7 +1843,7 @@
         <v>44167</v>
       </c>
       <c r="B119">
-        <v>258.54014097626703</v>
+        <v>157298378.35523599</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1852,7 +1851,7 @@
         <v>44168</v>
       </c>
       <c r="B120">
-        <v>259.00642964625001</v>
+        <v>157041063.32860601</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1860,7 +1859,7 @@
         <v>44169</v>
       </c>
       <c r="B121">
-        <v>259.41986740546901</v>
+        <v>156780557.612829</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1868,7 +1867,7 @@
         <v>44170</v>
       </c>
       <c r="B122">
-        <v>259.77862790063</v>
+        <v>156516854.417182</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1876,7 +1875,7 @@
         <v>44171</v>
       </c>
       <c r="B123">
-        <v>260.08085276519296</v>
+        <v>156249952.61029199</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1884,7 +1883,7 @@
         <v>44172</v>
       </c>
       <c r="B124">
-        <v>260.32471069696402</v>
+        <v>155979856.413542</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1892,7 +1891,7 @@
         <v>44173</v>
       </c>
       <c r="B125">
-        <v>260.50841263845001</v>
+        <v>155706570.70993999</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1900,7 +1899,7 @@
         <v>44174</v>
       </c>
       <c r="B126">
-        <v>260.63025360499</v>
+        <v>155430084.29429799</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1908,7 +1907,7 @@
         <v>44175</v>
       </c>
       <c r="B127">
-        <v>260.68860861485501</v>
+        <v>155150386.00884801</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1916,7 +1915,7 @@
         <v>44176</v>
       </c>
       <c r="B128">
-        <v>260.68182025728498</v>
+        <v>154867471.29011199</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1924,7 +1923,7 @@
         <v>44177</v>
       </c>
       <c r="B129">
-        <v>260.607913939924</v>
+        <v>154581341.70693401</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1932,7 +1931,7 @@
         <v>44178</v>
       </c>
       <c r="B130">
-        <v>260.46492339968802</v>
+        <v>154292004.601266</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1940,7 +1939,7 @@
         <v>44179</v>
       </c>
       <c r="B131">
-        <v>260.251003171072</v>
+        <v>153999472.75360501</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1948,7 +1947,7 @@
         <v>44180</v>
       </c>
       <c r="B132">
-        <v>259.96444126359</v>
+        <v>153703761.52962601</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1956,7 +1955,7 @@
         <v>44181</v>
       </c>
       <c r="B133">
-        <v>259.60370107540103</v>
+        <v>153404871.240646</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1964,7 +1963,7 @@
         <v>44182</v>
       </c>
       <c r="B134">
-        <v>259.167416820683</v>
+        <v>153102798.903698</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1972,7 +1971,7 @@
         <v>44183</v>
       </c>
       <c r="B135">
-        <v>258.65423525456998</v>
+        <v>152797548.10832101</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1980,7 +1979,7 @@
         <v>44184</v>
       </c>
       <c r="B136">
-        <v>258.06241473047197</v>
+        <v>152489128.59809101</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1988,7 +1987,7 @@
         <v>44185</v>
       </c>
       <c r="B137">
-        <v>257.39030661503602</v>
+        <v>152177555.88548201</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1996,7 +1995,7 @@
         <v>44186</v>
       </c>
       <c r="B138">
-        <v>256.636513475036</v>
+        <v>151862850.89699399</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2004,7 +2003,7 @@
         <v>44187</v>
       </c>
       <c r="B139">
-        <v>255.799900188848</v>
+        <v>151545038.375747</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2012,7 +2011,7 @@
         <v>44188</v>
       </c>
       <c r="B140">
-        <v>254.87963440279702</v>
+        <v>151224130.43771201</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2020,7 +2019,7 @@
         <v>44189</v>
       </c>
       <c r="B141">
-        <v>253.87518187188499</v>
+        <v>150900132.33415601</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2028,7 +2027,7 @@
         <v>44190</v>
       </c>
       <c r="B142">
-        <v>252.78611191048802</v>
+        <v>150573055.54517499</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2036,7 +2035,7 @@
         <v>44191</v>
       </c>
       <c r="B143">
-        <v>251.61160577245599</v>
+        <v>150242917.607824</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2044,7 +2043,7 @@
         <v>44192</v>
       </c>
       <c r="B144">
-        <v>250.351063254135</v>
+        <v>149909741.712964</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2052,7 +2051,7 @@
         <v>44193</v>
       </c>
       <c r="B145">
-        <v>249.00429388614899</v>
+        <v>149573556.337704</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2060,7 +2059,7 @@
         <v>44194</v>
       </c>
       <c r="B146">
-        <v>247.57152159722099</v>
+        <v>149234394.39458501</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2068,7 +2067,7 @@
         <v>44195</v>
       </c>
       <c r="B147">
-        <v>246.05341519068301</v>
+        <v>148892279.41389501</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2076,7 +2075,7 @@
         <v>44196</v>
       </c>
       <c r="B148">
-        <v>244.45107643590097</v>
+        <v>148547224.835388</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2084,7 +2083,7 @@
         <v>44197</v>
       </c>
       <c r="B149">
-        <v>242.765813574097</v>
+        <v>148199249.56131801</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2092,7 +2091,7 @@
         <v>44198</v>
       </c>
       <c r="B150">
-        <v>240.99858311658701</v>
+        <v>147848378.345788</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2100,7 +2099,7 @@
         <v>44199</v>
       </c>
       <c r="B151">
-        <v>239.15067243481099</v>
+        <v>147494641.381834</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2108,7 +2107,7 @@
         <v>44200</v>
       </c>
       <c r="B152">
-        <v>237.22389755328899</v>
+        <v>147138073.92844599</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2116,7 +2115,7 @@
         <v>44201</v>
       </c>
       <c r="B153">
-        <v>235.22058501459</v>
+        <v>146778715.82087901</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2124,7 +2123,7 @@
         <v>44202</v>
       </c>
       <c r="B154">
-        <v>233.14357201554401</v>
+        <v>146416600.97629601</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2132,7 +2131,7 @@
         <v>44203</v>
       </c>
       <c r="B155">
-        <v>230.99616828158901</v>
+        <v>146051750.83635399</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2140,7 +2139,7 @@
         <v>44204</v>
       </c>
       <c r="B156">
-        <v>228.78189120635699</v>
+        <v>145684191.05667701</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2148,7 +2147,7 @@
         <v>44205</v>
       </c>
       <c r="B157">
-        <v>226.50385473369701</v>
+        <v>145313952.84569001</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2156,7 +2155,7 @@
         <v>44206</v>
       </c>
       <c r="B158">
-        <v>224.16546527813199</v>
+        <v>144941072.55053499</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2164,7 +2163,7 @@
         <v>44207</v>
       </c>
       <c r="B159">
-        <v>221.77058940595299</v>
+        <v>144565591.285402</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2172,7 +2171,7 @@
         <v>44208</v>
       </c>
       <c r="B160">
-        <v>219.323488732914</v>
+        <v>144187554.56213599</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2180,7 +2179,7 @@
         <v>44209</v>
       </c>
       <c r="B161">
-        <v>216.82876425921802</v>
+        <v>143807005.12047699</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2188,7 +2187,7 @@
         <v>44210</v>
       </c>
       <c r="B162">
-        <v>214.291270121612</v>
+        <v>143423972.04457301</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2196,7 +2195,7 @@
         <v>44211</v>
       </c>
       <c r="B163">
-        <v>211.71579997564399</v>
+        <v>143038486.89149201</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2204,7 +2203,7 @@
         <v>44212</v>
       </c>
       <c r="B164">
-        <v>209.10642727415402</v>
+        <v>142650586.39430401</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2212,7 +2211,7 @@
         <v>44213</v>
       </c>
       <c r="B165">
-        <v>206.46716796662798</v>
+        <v>142260312.05620399</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2220,7 +2219,7 @@
         <v>44214</v>
       </c>
       <c r="B166">
-        <v>203.802094639807</v>
+        <v>141867709.78603601</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2228,7 +2227,7 @@
         <v>44215</v>
       </c>
       <c r="B167">
-        <v>201.11521363578501</v>
+        <v>141472829.54849699</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2236,7 +2235,7 @@
         <v>44216</v>
       </c>
       <c r="B168">
-        <v>198.41034601419599</v>
+        <v>141075720.658981</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2244,7 +2243,7 @@
         <v>44217</v>
       </c>
       <c r="B169">
-        <v>195.69099023385701</v>
+        <v>140676419.04104099</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2252,7 +2251,7 @@
         <v>44218</v>
       </c>
       <c r="B170">
-        <v>192.95996568853201</v>
+        <v>140274961.215933</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2260,7 +2259,7 @@
         <v>44219</v>
       </c>
       <c r="B171">
-        <v>190.21871800096699</v>
+        <v>139871388.43993101</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2268,7 +2267,7 @@
         <v>44220</v>
       </c>
       <c r="B172">
-        <v>187.46793263073201</v>
+        <v>139465746.31698999</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2276,7 +2275,7 @@
         <v>44221</v>
       </c>
       <c r="B173">
-        <v>184.707595478793</v>
+        <v>139058084.446648</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2284,7 +2283,7 @@
         <v>44222</v>
       </c>
       <c r="B174">
-        <v>181.93681759390802</v>
+        <v>138648456.086629</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2292,7 +2291,7 @@
         <v>44223</v>
       </c>
       <c r="B175">
-        <v>179.15365635955001</v>
+        <v>138236913.833038</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2300,7 +2299,7 @@
         <v>44224</v>
       </c>
       <c r="B176">
-        <v>176.35605535712298</v>
+        <v>137823497.955017</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2308,7 +2307,7 @@
         <v>44225</v>
       </c>
       <c r="B177">
-        <v>173.54529992181799</v>
+        <v>137408249.16772199</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2316,7 +2315,7 @@
         <v>44226</v>
       </c>
       <c r="B178">
-        <v>170.72275718241201</v>
+        <v>136991212.41861701</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2324,7 +2323,7 @@
         <v>44227</v>
       </c>
       <c r="B179">
-        <v>167.88977647228802</v>
+        <v>136572436.53035399</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2332,7 +2331,7 @@
         <v>44228</v>
       </c>
       <c r="B180">
-        <v>165.04869348072401</v>
+        <v>136151973.86592701</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2340,7 +2339,7 @@
         <v>44229</v>
       </c>
       <c r="B181">
-        <v>162.20214630284801</v>
+        <v>135729880.00826499</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2348,7 +2347,7 @@
         <v>44230</v>
       </c>
       <c r="B182">
-        <v>159.35275459092</v>
+        <v>135306209.85568601</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2356,7 +2355,7 @@
         <v>44231</v>
       </c>
       <c r="B183">
-        <v>156.50303248889398</v>
+        <v>134881007.112106</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2364,7 +2363,7 @@
         <v>44232</v>
       </c>
       <c r="B184">
-        <v>153.65510132474398</v>
+        <v>134454315.760979</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2372,7 +2371,7 @@
         <v>44233</v>
       </c>
       <c r="B185">
-        <v>150.810079717311</v>
+        <v>134026183.47199801</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2380,7 +2379,7 @@
         <v>44234</v>
       </c>
       <c r="B186">
-        <v>147.96904258361701</v>
+        <v>133596661.286421</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2388,7 +2387,7 @@
         <v>44235</v>
       </c>
       <c r="B187">
-        <v>145.13420708592702</v>
+        <v>133165803.303765</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2396,7 +2395,7 @@
         <v>44236</v>
       </c>
       <c r="B188">
-        <v>142.308091549094</v>
+        <v>132733666.382026</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2404,7 +2403,7 @@
         <v>44237</v>
       </c>
       <c r="B189">
-        <v>139.49313044142102</v>
+        <v>132300306.66963901</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2412,7 +2411,7 @@
         <v>44238</v>
       </c>
       <c r="B190">
-        <v>136.69158460909199</v>
+        <v>131865770.306238</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2420,7 +2419,7 @@
         <v>44239</v>
       </c>
       <c r="B191">
-        <v>133.90526213154001</v>
+        <v>131430103.541958</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2428,7 +2427,7 @@
         <v>44240</v>
       </c>
       <c r="B192">
-        <v>131.13492682554599</v>
+        <v>130993355.739948</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2436,7 +2435,7 @@
         <v>44241</v>
       </c>
       <c r="B193">
-        <v>128.38127901321499</v>
+        <v>130555579.116614</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2444,7 +2443,7 @@
         <v>44242</v>
       </c>
       <c r="B194">
-        <v>125.646280461267</v>
+        <v>130116828.45373499</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2452,7 +2451,7 @@
         <v>44243</v>
       </c>
       <c r="B195">
-        <v>122.932191271264</v>
+        <v>129677160.822165</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2460,7 +2459,7 @@
         <v>44244</v>
       </c>
       <c r="B196">
-        <v>120.241137343031</v>
+        <v>129236632.56268799</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2468,7 +2467,7 @@
         <v>44245</v>
       </c>
       <c r="B197">
-        <v>117.57502086510999</v>
+        <v>128795291.228423</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2476,7 +2475,7 @@
         <v>44246</v>
       </c>
       <c r="B198">
-        <v>114.935254249631</v>
+        <v>128353184.321786</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2484,7 +2483,7 @@
         <v>44247</v>
       </c>
       <c r="B199">
-        <v>112.322195730206</v>
+        <v>127910361.872869</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2492,7 +2491,7 @@
         <v>44248</v>
       </c>
       <c r="B200">
-        <v>109.736128258579</v>
+        <v>127466876.246374</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2500,7 +2499,7 @@
         <v>44249</v>
       </c>
       <c r="B201">
-        <v>107.17866496715901</v>
+        <v>127022781.882999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2508,7 +2507,7 @@
         <v>44250</v>
       </c>
       <c r="B202">
-        <v>104.65171156659099</v>
+        <v>126578135.04868899</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2516,7 +2515,7 @@
         <v>44251</v>
       </c>
       <c r="B203">
-        <v>102.157007683228</v>
+        <v>126132991.267958</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2524,7 +2523,7 @@
         <v>44252</v>
       </c>
       <c r="B204">
-        <v>99.696040898507192</v>
+        <v>125687398.514927</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2532,7 +2531,7 @@
         <v>44253</v>
       </c>
       <c r="B205">
-        <v>97.269799118392712</v>
+        <v>125241404.56875101</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2540,7 +2539,7 @@
         <v>44254</v>
       </c>
       <c r="B206">
-        <v>94.878243179611701</v>
+        <v>124795059.15377501</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2548,7 +2547,7 @@
         <v>44255</v>
       </c>
       <c r="B207">
-        <v>92.5212563169204</v>
+        <v>124348413.822538</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2556,7 +2555,7 @@
         <v>44256</v>
       </c>
       <c r="B208">
-        <v>90.200060846102602</v>
+        <v>123901521.730497</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -2564,7 +2563,7 @@
         <v>44257</v>
       </c>
       <c r="B209">
-        <v>87.916162234642186</v>
+        <v>123454437.412184</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -2572,7 +2571,7 @@
         <v>44258</v>
       </c>
       <c r="B210">
-        <v>85.670888654744601</v>
+        <v>123007214.66246</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -2580,7 +2579,7 @@
         <v>44259</v>
       </c>
       <c r="B211">
-        <v>83.465312019458395</v>
+        <v>122559900.961037</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -2588,7 +2587,7 @@
         <v>44260</v>
       </c>
       <c r="B212">
-        <v>81.300025751096911</v>
+        <v>122112543.473712</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -2596,7 +2595,7 @@
         <v>44261</v>
       </c>
       <c r="B213">
-        <v>79.174668518395194</v>
+        <v>121665190.74777301</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -2604,7 +2603,7 @@
         <v>44262</v>
       </c>
       <c r="B214">
-        <v>77.088808627739809</v>
+        <v>121217892.675276</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -2612,7 +2611,7 @@
         <v>44263</v>
       </c>
       <c r="B215">
-        <v>75.043291137891401</v>
+        <v>120770700.305447</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -2620,7 +2619,7 @@
         <v>44264</v>
       </c>
       <c r="B216">
-        <v>73.039227372089101</v>
+        <v>120323665.64846399</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -2628,7 +2627,7 @@
         <v>44265</v>
       </c>
       <c r="B217">
-        <v>71.077559335277897</v>
+        <v>119876840.521981</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -2636,7 +2635,7 @@
         <v>44266</v>
       </c>
       <c r="B218">
-        <v>69.158990998107399</v>
+        <v>119430271.72499201</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -2644,7 +2643,7 @@
         <v>44267</v>
       </c>
       <c r="B219">
-        <v>67.283800420833899</v>
+        <v>118984004.935002</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -2652,7 +2651,7 @@
         <v>44268</v>
       </c>
       <c r="B220">
-        <v>65.451434355985896</v>
+        <v>118538086.68567801</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2660,7 +2659,7 @@
         <v>44269</v>
       </c>
       <c r="B221">
-        <v>63.661283413618996</v>
+        <v>118092564.41022401</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2668,7 +2667,7 @@
         <v>44270</v>
       </c>
       <c r="B222">
-        <v>61.913874045753801</v>
+        <v>117647486.29557399</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -2676,7 +2675,7 @@
         <v>44271</v>
       </c>
       <c r="B223">
-        <v>60.209968675272101</v>
+        <v>117202901.11369801</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -2684,7 +2683,7 @@
         <v>44272</v>
       </c>
       <c r="B224">
-        <v>58.550181446275303</v>
+        <v>116758857.67188799</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -2692,7 +2691,7 @@
         <v>44273</v>
       </c>
       <c r="B225">
-        <v>56.934922433628799</v>
+        <v>116315401.232536</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -2700,7 +2699,7 @@
         <v>44274</v>
       </c>
       <c r="B226">
-        <v>55.364253229299997</v>
+        <v>115872575.352125</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -2708,7 +2707,7 @@
         <v>44275</v>
       </c>
       <c r="B227">
-        <v>53.837573346408504</v>
+        <v>115430423.96301199</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -2716,7 +2715,7 @@
         <v>44276</v>
       </c>
       <c r="B228">
-        <v>52.3542425884837</v>
+        <v>114988991.49075501</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -2724,7 +2723,7 @@
         <v>44277</v>
       </c>
       <c r="B229">
-        <v>50.914543103004</v>
+        <v>114548322.75105099</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -2732,7 +2731,7 @@
         <v>44278</v>
       </c>
       <c r="B230">
-        <v>49.5189455453772</v>
+        <v>114108462.80802999</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -2740,7 +2739,7 @@
         <v>44279</v>
       </c>
       <c r="B231">
-        <v>48.167798006635195</v>
+        <v>113669456.71852501</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -2748,7 +2747,7 @@
         <v>44280</v>
       </c>
       <c r="B232">
-        <v>46.861285011703096</v>
+        <v>113231347.319721</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -2756,7 +2755,7 @@
         <v>44281</v>
       </c>
       <c r="B233">
-        <v>45.599333918704502</v>
+        <v>112794175.61500201</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -2764,7 +2763,7 @@
         <v>44282</v>
       </c>
       <c r="B234">
-        <v>44.381409991704096</v>
+        <v>112357982.542824</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -2772,7 +2771,7 @@
         <v>44283</v>
       </c>
       <c r="B235">
-        <v>43.2069534332093</v>
+        <v>111922809.169829</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -2780,7 +2779,7 @@
         <v>44284</v>
       </c>
       <c r="B236">
-        <v>42.076063453756696</v>
+        <v>111488696.632081</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -2788,7 +2787,7 @@
         <v>44285</v>
       </c>
       <c r="B237">
-        <v>40.988965170627701</v>
+        <v>111055686.01934201</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -2796,7 +2795,7 @@
         <v>44286</v>
       </c>
       <c r="B238">
-        <v>39.945784893719399</v>
+        <v>110623818.24252801</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -2804,7 +2803,7 @@
         <v>44287</v>
       </c>
       <c r="B239">
-        <v>38.946524879912999</v>
+        <v>110193132.975894</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -2812,7 +2811,7 @@
         <v>44288</v>
       </c>
       <c r="B240">
-        <v>37.991025796023798</v>
+        <v>109763668.377442</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -2820,7 +2819,7 @@
         <v>44289</v>
       </c>
       <c r="B241">
-        <v>37.078882399582199</v>
+        <v>109335462.174174</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -2828,7 +2827,7 @@
         <v>44290</v>
       </c>
       <c r="B242">
-        <v>36.209675627638603</v>
+        <v>108908551.90064301</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -2836,7 +2835,7 @@
         <v>44291</v>
       </c>
       <c r="B243">
-        <v>35.383360562291301</v>
+        <v>108482974.885527</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -2844,7 +2843,7 @@
         <v>44292</v>
       </c>
       <c r="B244">
-        <v>34.599945976286001</v>
+        <v>108058768.16050901</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -2852,7 +2851,7 @@
         <v>44293</v>
       </c>
       <c r="B245">
-        <v>33.859360047771794</v>
+        <v>107635968.374328</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -2860,7 +2859,7 @@
         <v>44294</v>
       </c>
       <c r="B246">
-        <v>33.161440976082602</v>
+        <v>107214611.518794</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -2868,7 +2867,7 @@
         <v>44295</v>
       </c>
       <c r="B247">
-        <v>32.505958240732198</v>
+        <v>106794732.726063</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -2876,7 +2875,7 @@
         <v>44296</v>
       </c>
       <c r="B248">
-        <v>31.892655204405798</v>
+        <v>106376366.462235</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2884,7 +2883,7 @@
         <v>44297</v>
       </c>
       <c r="B249">
-        <v>31.321268543930799</v>
+        <v>105959546.727461</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2892,7 +2891,7 @@
         <v>44298</v>
       </c>
       <c r="B250">
-        <v>30.791624568773702</v>
+        <v>105544307.08731399</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -2900,7 +2899,7 @@
         <v>44299</v>
       </c>
       <c r="B251">
-        <v>30.303526511438601</v>
+        <v>105130680.60461999</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2908,7 +2907,7 @@
         <v>44300</v>
       </c>
       <c r="B252">
-        <v>29.856707948802899</v>
+        <v>104718699.77695601</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2916,7 +2915,7 @@
         <v>44301</v>
       </c>
       <c r="B253">
-        <v>29.4508386339763</v>
+        <v>104308396.6652</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -2924,7 +2923,7 @@
         <v>44302</v>
       </c>
       <c r="B254">
-        <v>29.085603694288299</v>
+        <v>103899803.291365</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2932,7 +2931,7 @@
         <v>44303</v>
       </c>
       <c r="B255">
-        <v>28.760870730614698</v>
+        <v>103492950.971689</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2940,7 +2939,7 @@
         <v>44304</v>
       </c>
       <c r="B256">
-        <v>28.476504721829897</v>
+        <v>103087870.33207799</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2948,7 +2947,7 @@
         <v>44305</v>
       </c>
       <c r="B257">
-        <v>28.2321995675415</v>
+        <v>102684591.38133401</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2956,7 +2955,7 @@
         <v>44306</v>
       </c>
       <c r="B258">
-        <v>28.027552686385999</v>
+        <v>102283143.464269</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2964,7 +2963,7 @@
         <v>44307</v>
       </c>
       <c r="B259">
-        <v>27.862097448596298</v>
+        <v>101883555.219182</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2972,7 +2971,7 @@
         <v>44308</v>
       </c>
       <c r="B260">
-        <v>27.735322979634798</v>
+        <v>101485854.92240199</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2980,7 +2979,7 @@
         <v>44309</v>
       </c>
       <c r="B261">
-        <v>27.646807356716902</v>
+        <v>101090071.605544</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2988,7 +2987,7 @@
         <v>44310</v>
       </c>
       <c r="B262">
-        <v>27.596499868148499</v>
+        <v>100696233.70446</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2996,7 +2995,7 @@
         <v>44311</v>
       </c>
       <c r="B263">
-        <v>27.584350046429702</v>
+        <v>100304368.78905401</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -3004,7 +3003,7 @@
         <v>44312</v>
       </c>
       <c r="B264">
-        <v>27.609911653735999</v>
+        <v>99914503.672724694</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -3012,7 +3011,7 @@
         <v>44313</v>
       </c>
       <c r="B265">
-        <v>27.672577504266798</v>
+        <v>99526664.3851493</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -3020,7 +3019,7 @@
         <v>44314</v>
       </c>
       <c r="B266">
-        <v>27.771679845545002</v>
+        <v>99140876.147797003</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -3028,7 +3027,7 @@
         <v>44315</v>
       </c>
       <c r="B267">
-        <v>27.906522412867801</v>
+        <v>98757163.935102195</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -3036,7 +3035,7 @@
         <v>44316</v>
       </c>
       <c r="B268">
-        <v>28.076560587085197</v>
+        <v>98375554.188830495</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -3044,7 +3043,7 @@
         <v>44317</v>
       </c>
       <c r="B269">
-        <v>28.2817832314587</v>
+        <v>97996072.860834897</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -3052,7 +3051,7 @@
         <v>44318</v>
       </c>
       <c r="B270">
-        <v>28.522182276970099</v>
+        <v>97618744.909414306</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -3060,7 +3059,7 @@
         <v>44319</v>
       </c>
       <c r="B271">
-        <v>28.797169189404102</v>
+        <v>97243594.436570093</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -3068,7 +3067,7 @@
         <v>44320</v>
       </c>
       <c r="B272">
-        <v>29.1059419579327</v>
+        <v>96870644.678878605</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -3076,7 +3075,7 @@
         <v>44321</v>
       </c>
       <c r="B273">
-        <v>29.4476420344647</v>
+        <v>96499917.998966306</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -3084,7 +3083,7 @@
         <v>44322</v>
       </c>
       <c r="B274">
-        <v>29.821396603504599</v>
+        <v>96131436.635479003</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -3092,7 +3091,7 @@
         <v>44323</v>
       </c>
       <c r="B275">
-        <v>30.226535367024599</v>
+        <v>95765224.936249793</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -3100,7 +3099,7 @@
         <v>44324</v>
       </c>
       <c r="B276">
-        <v>30.663049191334402</v>
+        <v>95401306.884812102</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -3108,7 +3107,7 @@
         <v>44325</v>
       </c>
       <c r="B277">
-        <v>31.130935163741302</v>
+        <v>95039705.389486104</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -3116,7 +3115,7 @@
         <v>44326</v>
       </c>
       <c r="B278">
-        <v>31.630361432118999</v>
+        <v>94680442.437483698</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -3124,7 +3123,7 @@
         <v>44327</v>
       </c>
       <c r="B279">
-        <v>32.164591327676796</v>
+        <v>94323539.102170497</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -3132,7 +3131,7 @@
         <v>44328</v>
       </c>
       <c r="B280">
-        <v>32.737108664674601</v>
+        <v>93969015.5484301</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -3140,7 +3139,7 @@
         <v>44329</v>
       </c>
       <c r="B281">
-        <v>33.3507439220175</v>
+        <v>93616891.949016601</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -3148,7 +3147,7 @@
         <v>44330</v>
       </c>
       <c r="B282">
-        <v>34.007777426925195</v>
+        <v>93267191.1739932</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -3156,7 +3155,7 @@
         <v>44331</v>
       </c>
       <c r="B283">
-        <v>34.710029230582499</v>
+        <v>92919935.870381907</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -3164,7 +3163,7 @@
         <v>44332</v>
       </c>
       <c r="B284">
-        <v>35.458737630496401</v>
+        <v>92575147.5694848</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -3172,7 +3171,7 @@
         <v>44333</v>
       </c>
       <c r="B285">
-        <v>36.253922638221596</v>
+        <v>92232846.845038801</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -3180,7 +3179,7 @@
         <v>44334</v>
       </c>
       <c r="B286">
-        <v>37.094957437152196</v>
+        <v>91893053.334919795</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -3188,7 +3187,7 @@
         <v>44335</v>
       </c>
       <c r="B287">
-        <v>37.980828296899702</v>
+        <v>91555785.758386105</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -3196,7 +3195,7 @@
         <v>44336</v>
       </c>
       <c r="B288">
-        <v>38.910215448332799</v>
+        <v>91221062.982703403</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -3204,7 +3203,7 @@
         <v>44337</v>
       </c>
       <c r="B289">
-        <v>39.881596445210398</v>
+        <v>90888907.124557197</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -3212,7 +3211,7 @@
         <v>44338</v>
       </c>
       <c r="B290">
-        <v>40.893338265126197</v>
+        <v>90559340.228322506</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -3220,7 +3219,7 @@
         <v>44339</v>
       </c>
       <c r="B291">
-        <v>41.943558521661807</v>
+        <v>90232383.215148896</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -3228,7 +3227,7 @@
         <v>44340</v>
       </c>
       <c r="B292">
-        <v>43.029429190408294</v>
+        <v>89908056.0322458</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -3236,7 +3235,7 @@
         <v>44341</v>
       </c>
       <c r="B293">
-        <v>44.147797876776096</v>
+        <v>89586377.686687201</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -3244,7 +3243,7 @@
         <v>44342</v>
       </c>
       <c r="B294">
-        <v>45.295466127002996</v>
+        <v>89267366.272651896</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -3252,7 +3251,7 @@
         <v>44343</v>
       </c>
       <c r="B295">
-        <v>46.469265467196003</v>
+        <v>88951040.178896204</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -3260,7 +3259,7 @@
         <v>44344</v>
       </c>
       <c r="B296">
-        <v>47.6661476642929</v>
+        <v>88637421.577245504</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -3268,7 +3267,7 @@
         <v>44345</v>
       </c>
       <c r="B297">
-        <v>48.883263692962799</v>
+        <v>88326532.720470399</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -3276,7 +3275,7 @@
         <v>44346</v>
       </c>
       <c r="B298">
-        <v>50.117800684652501</v>
+        <v>88018394.752825007</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -3284,7 +3283,7 @@
         <v>44347</v>
       </c>
       <c r="B299">
-        <v>51.366244530329098</v>
+        <v>87713027.838600993</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -3292,7 +3291,7 @@
         <v>44348</v>
       </c>
       <c r="B300">
-        <v>52.625009650860598</v>
+        <v>87410451.205125704</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -3300,7 +3299,7 @@
         <v>44349</v>
       </c>
       <c r="B301">
-        <v>53.890709332388198</v>
+        <v>87110683.178266898</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -3308,7 +3307,7 @@
         <v>44350</v>
       </c>
       <c r="B302">
-        <v>55.160210508962997</v>
+        <v>86813742.358574301</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -3316,7 +3315,7 @@
         <v>44351</v>
       </c>
       <c r="B303">
-        <v>56.430694651078198</v>
+        <v>86519651.656194806</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -3324,7 +3323,7 @@
         <v>44352</v>
       </c>
       <c r="B304">
-        <v>57.699711131733594</v>
+        <v>86228434.400404394</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -3332,7 +3331,7 @@
         <v>44353</v>
       </c>
       <c r="B305">
-        <v>58.964991166806101</v>
+        <v>85940112.834187493</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -3340,7 +3339,7 @@
         <v>44354</v>
       </c>
       <c r="B306">
-        <v>60.223699129385501</v>
+        <v>85654708.213460401</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -3348,7 +3347,7 @@
         <v>44355</v>
       </c>
       <c r="B307">
-        <v>61.4730405815192</v>
+        <v>85372240.855772495</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -3356,7 +3355,7 @@
         <v>44356</v>
       </c>
       <c r="B308">
-        <v>62.710512491027494</v>
+        <v>85092730.182502598</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -3364,7 +3363,7 @@
         <v>44357</v>
       </c>
       <c r="B309">
-        <v>63.933936992869199</v>
+        <v>84816195.491607204</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -3372,7 +3371,7 @@
         <v>44358</v>
       </c>
       <c r="B310">
-        <v>65.1414952002294</v>
+        <v>84542660.6647304</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -3380,7 +3379,7 @@
         <v>44359</v>
       </c>
       <c r="B311">
-        <v>66.331759640441902</v>
+        <v>84272151.004292503</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -3388,7 +3387,7 @@
         <v>44360</v>
       </c>
       <c r="B312">
-        <v>67.503500477001396</v>
+        <v>84004690.749586701</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -3396,7 +3395,7 @@
         <v>44361</v>
       </c>
       <c r="B313">
-        <v>68.654961973986701</v>
+        <v>83740303.130884707</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -3404,7 +3403,7 @@
         <v>44362</v>
       </c>
       <c r="B314">
-        <v>69.784434362845502</v>
+        <v>83479010.419933602</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -3412,7 +3411,7 @@
         <v>44363</v>
       </c>
       <c r="B315">
-        <v>70.890483776325595</v>
+        <v>83220833.977418303</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -3420,7 +3419,7 @@
         <v>44364</v>
       </c>
       <c r="B316">
-        <v>71.971974289842606</v>
+        <v>82965794.712910503</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -3428,7 +3427,7 @@
         <v>44365</v>
       </c>
       <c r="B317">
-        <v>73.028085224888599</v>
+        <v>82713918.012288302</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -3436,7 +3435,7 @@
         <v>44366</v>
       </c>
       <c r="B318">
-        <v>74.058332658193393</v>
+        <v>82465231.934717894</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -3444,7 +3443,7 @@
         <v>44367</v>
       </c>
       <c r="B319">
-        <v>75.062383684598188</v>
+        <v>82219763.521285996</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -3452,7 +3451,7 @@
         <v>44368</v>
       </c>
       <c r="B320">
-        <v>76.039385964582692</v>
+        <v>81977538.753050894</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -3460,7 +3459,7 @@
         <v>44369</v>
       </c>
       <c r="B321">
-        <v>76.988495718490199</v>
+        <v>81738582.599333704</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -3468,7 +3467,7 @@
         <v>44370</v>
       </c>
       <c r="B322">
-        <v>77.909088862621104</v>
+        <v>81502919.069123402</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -3476,7 +3475,7 @@
         <v>44371</v>
       </c>
       <c r="B323">
-        <v>78.800778870739293</v>
+        <v>81270571.453739107</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -3484,7 +3483,7 @@
         <v>44372</v>
       </c>
       <c r="B324">
-        <v>79.663425957047508</v>
+        <v>81041567.045547307</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -3492,7 +3491,7 @@
         <v>44373</v>
       </c>
       <c r="B325">
-        <v>80.497154258917007</v>
+        <v>80815937.228383407</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3500,7 +3499,7 @@
         <v>44374</v>
       </c>
       <c r="B326">
-        <v>81.302183527314696</v>
+        <v>80593712.473817497</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3508,7 +3507,7 @@
         <v>44375</v>
       </c>
       <c r="B327">
-        <v>82.078227499252606</v>
+        <v>80374922.098067299</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -3516,7 +3515,7 @@
         <v>44376</v>
       </c>
       <c r="B328">
-        <v>82.824971981828298</v>
+        <v>80159594.304436699</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -3524,7 +3523,7 @@
         <v>44377</v>
       </c>
       <c r="B329">
-        <v>83.542266756654698</v>
+        <v>79947756.237374604</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -3532,7 +3531,7 @@
         <v>44378</v>
       </c>
       <c r="B330">
-        <v>84.230142605312594</v>
+        <v>79739434.098027304</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -3540,7 +3539,7 @@
         <v>44379</v>
       </c>
       <c r="B331">
-        <v>84.888816600281999</v>
+        <v>79534657.282195196</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -3548,7 +3547,7 @@
         <v>44380</v>
       </c>
       <c r="B332">
-        <v>85.518707526471303</v>
+        <v>79333460.728930607</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -3556,7 +3555,7 @@
         <v>44381</v>
       </c>
       <c r="B333">
-        <v>86.120294668598291</v>
+        <v>79135878.691226393</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -3564,7 +3563,7 @@
         <v>44382</v>
       </c>
       <c r="B334">
-        <v>86.693583334640209</v>
+        <v>78941944.110956207</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -3572,7 +3571,7 @@
         <v>44383</v>
       </c>
       <c r="B335">
-        <v>87.238523254221207</v>
+        <v>78751688.652771801</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -3580,7 +3579,7 @@
         <v>44384</v>
       </c>
       <c r="B336">
-        <v>87.755187096741196</v>
+        <v>78565142.759496301</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -3588,7 +3587,7 @@
         <v>44385</v>
       </c>
       <c r="B337">
-        <v>88.243787453467107</v>
+        <v>78382335.714544401</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -3596,7 +3595,7 @@
         <v>44386</v>
       </c>
       <c r="B338">
-        <v>88.704679887450197</v>
+        <v>78203298.933338299</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -3604,7 +3603,7 @@
         <v>44387</v>
       </c>
       <c r="B339">
-        <v>89.138377083711504</v>
+        <v>78028070.663609907</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -3612,7 +3611,7 @@
         <v>44388</v>
       </c>
       <c r="B340">
-        <v>89.545437138432106</v>
+        <v>77856688.897967696</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -3620,7 +3619,7 @@
         <v>44389</v>
       </c>
       <c r="B341">
-        <v>89.925988364107596</v>
+        <v>77689190.084871098</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -3628,7 +3627,7 @@
         <v>44390</v>
       </c>
       <c r="B342">
-        <v>90.280085054139008</v>
+        <v>77525609.153080404</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -3636,7 +3635,7 @@
         <v>44391</v>
       </c>
       <c r="B343">
-        <v>90.6078779604278</v>
+        <v>77365979.566946104</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -3644,7 +3643,7 @@
         <v>44392</v>
       </c>
       <c r="B344">
-        <v>90.909631018142193</v>
+        <v>77210333.379706204</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -3652,7 +3651,7 @@
         <v>44393</v>
       </c>
       <c r="B345">
-        <v>91.185722736994293</v>
+        <v>77058703.587545797</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -3660,7 +3659,7 @@
         <v>44394</v>
       </c>
       <c r="B346">
-        <v>91.436658847028198</v>
+        <v>76911130.870116696</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -3668,7 +3667,7 @@
         <v>44395</v>
       </c>
       <c r="B347">
-        <v>91.662984670787495</v>
+        <v>76767656.396718502</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -3676,7 +3675,7 @@
         <v>44396</v>
       </c>
       <c r="B348">
-        <v>91.864866491301697</v>
+        <v>76628319.465507194</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -3684,7 +3683,7 @@
         <v>44397</v>
       </c>
       <c r="B349">
-        <v>92.042390147292707</v>
+        <v>76493157.520036802</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -3692,7 +3691,7 @@
         <v>44398</v>
       </c>
       <c r="B350">
-        <v>92.195721785877296</v>
+        <v>76362206.202919096</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -3700,7 +3699,7 @@
         <v>44399</v>
       </c>
       <c r="B351">
-        <v>92.325123833302499</v>
+        <v>76235499.407181501</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -3708,7 +3707,7 @@
         <v>44400</v>
       </c>
       <c r="B352">
-        <v>92.430954948232497</v>
+        <v>76113071.815369695</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -3716,7 +3715,7 @@
         <v>44401</v>
       </c>
       <c r="B353">
-        <v>92.513680762286199</v>
+        <v>75994966.169541493</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -3724,7 +3723,7 @@
         <v>44402</v>
       </c>
       <c r="B354">
-        <v>92.573805580705297</v>
+        <v>75881225.454518601</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -3732,7 +3731,7 @@
         <v>44403</v>
       </c>
       <c r="B355">
-        <v>92.611507432241098</v>
+        <v>75771890.352291599</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -3740,7 +3739,7 @@
         <v>44404</v>
       </c>
       <c r="B356">
-        <v>92.626884734232306</v>
+        <v>75666999.254923299</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -3748,7 +3747,7 @@
         <v>44405</v>
       </c>
       <c r="B357">
-        <v>92.620105560400305</v>
+        <v>75566588.315110996</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -3756,7 +3755,7 @@
         <v>44406</v>
       </c>
       <c r="B358">
-        <v>92.591422217578497</v>
+        <v>75470691.4942929</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -3764,7 +3763,7 @@
         <v>44407</v>
       </c>
       <c r="B359">
-        <v>92.541169685704688</v>
+        <v>75379343.278535396</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -3772,7 +3771,7 @@
         <v>44408</v>
       </c>
       <c r="B360">
-        <v>92.4697739246552</v>
+        <v>75292586.456044003</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -3780,7 +3779,7 @@
         <v>44409</v>
       </c>
       <c r="B361">
-        <v>92.377699450909404</v>
+        <v>75210463.688821703</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -3788,7 +3787,7 @@
         <v>44410</v>
       </c>
       <c r="B362">
-        <v>92.265139006874904</v>
+        <v>75133014.7886976</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -3796,7 +3795,7 @@
         <v>44411</v>
       </c>
       <c r="B363">
-        <v>92.132211041599007</v>
+        <v>75060276.733507499</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -3804,7 +3803,7 @@
         <v>44412</v>
       </c>
       <c r="B364">
-        <v>91.979094135916796</v>
+        <v>74992283.713738695</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -3812,7 +3811,7 @@
         <v>44413</v>
       </c>
       <c r="B365">
-        <v>91.806039359767198</v>
+        <v>74929067.176640406</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -3820,7 +3819,7 @@
         <v>44414</v>
       </c>
       <c r="B366">
-        <v>91.613366875718697</v>
+        <v>74870658.703530893</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -3828,7 +3827,7 @@
         <v>44415</v>
       </c>
       <c r="B367">
-        <v>91.4014711094419</v>
+        <v>74817098.251297995</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -3836,7 +3835,7 @@
         <v>44416</v>
       </c>
       <c r="B368">
-        <v>91.170782588745396</v>
+        <v>74768425.152361199</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -3844,7 +3843,7 @@
         <v>44417</v>
       </c>
       <c r="B369">
-        <v>90.921522704327202</v>
+        <v>74724675.222422704</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -3852,7 +3851,7 @@
         <v>44418</v>
       </c>
       <c r="B370">
-        <v>90.653850108902205</v>
+        <v>74685880.7888982</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -3860,7 +3859,7 @@
         <v>44419</v>
       </c>
       <c r="B371">
-        <v>90.367972807009295</v>
+        <v>74652070.734277099</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -3868,7 +3867,7 @@
         <v>44420</v>
       </c>
       <c r="B372">
-        <v>90.064157389273802</v>
+        <v>74623270.536697805</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -3876,7 +3875,7 @@
         <v>44421</v>
       </c>
       <c r="B373">
-        <v>89.74272336162619</v>
+        <v>74599505.286638603</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -3884,7 +3883,7 @@
         <v>44422</v>
       </c>
       <c r="B374">
-        <v>89.404044438379699</v>
+        <v>74580808.326916397</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -3892,7 +3891,7 @@
         <v>44423</v>
       </c>
       <c r="B375">
-        <v>89.04852342039301</v>
+        <v>74567211.751271293</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -3900,7 +3899,7 @@
         <v>44424</v>
       </c>
       <c r="B376">
-        <v>88.6764264516124</v>
+        <v>74558743.359834194</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -3908,7 +3907,7 @@
         <v>44425</v>
       </c>
       <c r="B377">
-        <v>88.287976372821603</v>
+        <v>74555426.7103585</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -3916,7 +3915,7 @@
         <v>44426</v>
       </c>
       <c r="B378">
-        <v>87.883432328805512</v>
+        <v>74557281.161426201</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -3924,7 +3923,7 @@
         <v>44427</v>
       </c>
       <c r="B379">
-        <v>87.463094952727602</v>
+        <v>74564321.912057102</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -3932,7 +3931,7 @@
         <v>44428</v>
       </c>
       <c r="B380">
-        <v>87.027297983777103</v>
+        <v>74576563.129198894</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -3940,7 +3939,7 @@
         <v>44429</v>
       </c>
       <c r="B381">
-        <v>86.576405023101898</v>
+        <v>74594026.897221103</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -3948,7 +3947,7 @@
         <v>44430</v>
       </c>
       <c r="B382">
-        <v>86.110795945909302</v>
+        <v>74616733.319272295</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -3956,7 +3955,7 @@
         <v>44431</v>
       </c>
       <c r="B383">
-        <v>85.630794821862395</v>
+        <v>74644697.346086293</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -3964,7 +3963,7 @@
         <v>44432</v>
       </c>
       <c r="B384">
-        <v>85.136710878063795</v>
+        <v>74677928.861596495</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -3972,7 +3971,7 @@
         <v>44433</v>
       </c>
       <c r="B385">
-        <v>84.628873958991605</v>
+        <v>74716432.732797697</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -3980,7 +3979,7 @@
         <v>44434</v>
       </c>
       <c r="B386">
-        <v>84.107634311507397</v>
+        <v>74760208.854134604</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -3988,7 +3987,7 @@
         <v>44435</v>
       </c>
       <c r="B387">
-        <v>83.573351707577899</v>
+        <v>74809255.351157799</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -3996,7 +3995,7 @@
         <v>44436</v>
       </c>
       <c r="B388">
-        <v>83.026387305359705</v>
+        <v>74863577.726442695</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -4004,7 +4003,7 @@
         <v>44437</v>
       </c>
       <c r="B389">
-        <v>82.467099452584293</v>
+        <v>74923178.704254597</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -4012,7 +4011,7 @@
         <v>44438</v>
       </c>
       <c r="B390">
-        <v>81.895874838706902</v>
+        <v>74988054.972205997</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -4020,7 +4019,7 @@
         <v>44439</v>
       </c>
       <c r="B391">
-        <v>81.313122119612103</v>
+        <v>75058197.313019007</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -4028,7 +4027,7 @@
         <v>44440</v>
       </c>
       <c r="B392">
-        <v>80.719253432568209</v>
+        <v>75133590.672569007</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -4036,7 +4035,7 @@
         <v>44441</v>
       </c>
       <c r="B393">
-        <v>80.11467864188451</v>
+        <v>75214214.219002098</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -4044,7 +4043,7 @@
         <v>44442</v>
       </c>
       <c r="B394">
-        <v>79.4997900399879</v>
+        <v>75300043.622771502</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -4052,7 +4051,7 @@
         <v>44443</v>
       </c>
       <c r="B395">
-        <v>78.874948820391509</v>
+        <v>75391061.086371794</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -4060,7 +4059,7 @@
         <v>44444</v>
       </c>
       <c r="B396">
-        <v>78.240487684108899</v>
+        <v>75487246.484369203</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -4068,7 +4067,7 @@
         <v>44445</v>
       </c>
       <c r="B397">
-        <v>77.596849235572392</v>
+        <v>75588572.836041495</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -4076,7 +4075,7 @@
         <v>44446</v>
       </c>
       <c r="B398">
-        <v>76.944541223908999</v>
+        <v>75695006.490347102</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -4084,7 +4083,7 @@
         <v>44447</v>
       </c>
       <c r="B399">
-        <v>76.2840552638432</v>
+        <v>75806507.228991896</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -4092,7 +4091,7 @@
         <v>44448</v>
       </c>
       <c r="B400">
-        <v>75.615855048800398</v>
+        <v>75923028.355134204</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -4100,7 +4099,7 @@
         <v>44449</v>
       </c>
       <c r="B401">
-        <v>74.940356960580502</v>
+        <v>76044518.000409707</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -4108,7 +4107,7 @@
         <v>44450</v>
       </c>
       <c r="B402">
-        <v>74.257911192862011</v>
+        <v>76170929.165038601</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -4116,7 +4115,7 @@
         <v>44451</v>
       </c>
       <c r="B403">
-        <v>73.568808399682098</v>
+        <v>76302213.823977605</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -4124,7 +4123,7 @@
         <v>44452</v>
       </c>
       <c r="B404">
-        <v>72.873523378800797</v>
+        <v>76438316.522521198</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -4132,7 +4131,7 @@
         <v>44453</v>
       </c>
       <c r="B405">
-        <v>72.172643938714501</v>
+        <v>76579174.570050105</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -4140,7 +4139,7 @@
         <v>44454</v>
       </c>
       <c r="B406">
-        <v>71.466720725809793</v>
+        <v>76724718.199646503</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -4148,7 +4147,7 @@
         <v>44455</v>
       </c>
       <c r="B407">
-        <v>70.756249289963094</v>
+        <v>76874870.705782905</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -4156,7 +4155,7 @@
         <v>44456</v>
       </c>
       <c r="B408">
-        <v>70.041646874229301</v>
+        <v>77029549.149216205</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -4164,7 +4163,7 @@
         <v>44457</v>
       </c>
       <c r="B409">
-        <v>69.323228496830708</v>
+        <v>77188673.314574003</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -4172,7 +4171,7 @@
         <v>44458</v>
       </c>
       <c r="B410">
-        <v>68.60121517564879</v>
+        <v>77352163.478995293</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -4180,7 +4179,7 @@
         <v>44459</v>
       </c>
       <c r="B411">
-        <v>67.876076608225191</v>
+        <v>77519932.393985793</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -4188,7 +4187,7 @@
         <v>44460</v>
       </c>
       <c r="B412">
-        <v>67.148447322547497</v>
+        <v>77691885.372207195</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -4196,7 +4195,7 @@
         <v>44461</v>
       </c>
       <c r="B413">
-        <v>66.418904122555404</v>
+        <v>77867920.527603999</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -4204,7 +4203,7 @@
         <v>44462</v>
       </c>
       <c r="B414">
-        <v>65.6879422315357</v>
+        <v>78047928.984156996</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -4212,7 +4211,7 @@
         <v>44463</v>
       </c>
       <c r="B415">
-        <v>64.955948850029898</v>
+        <v>78231795.290637299</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -4220,7 +4219,7 @@
         <v>44464</v>
       </c>
       <c r="B416">
-        <v>64.223174979763897</v>
+        <v>78419404.613256797</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -4228,7 +4227,7 @@
         <v>44465</v>
       </c>
       <c r="B417">
-        <v>63.4897430678582</v>
+        <v>78610644.149656802</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -4236,7 +4235,7 @@
         <v>44466</v>
       </c>
       <c r="B418">
-        <v>62.756074672297402</v>
+        <v>78805394.183179393</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -4244,7 +4243,7 @@
         <v>44467</v>
       </c>
       <c r="B419">
-        <v>62.022808903032498</v>
+        <v>79003527.898182899</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -4252,7 +4251,7 @@
         <v>44468</v>
       </c>
       <c r="B420">
-        <v>61.290509446289597</v>
+        <v>79204911.722998306</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -4260,7 +4259,7 @@
         <v>44469</v>
       </c>
       <c r="B421">
-        <v>60.559635459010494</v>
+        <v>79409405.630879998</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -4268,7 +4267,7 @@
         <v>44470</v>
       </c>
       <c r="B422">
-        <v>59.830512961099807</v>
+        <v>79616863.492319107</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -4276,7 +4275,7 @@
         <v>44471</v>
       </c>
       <c r="B423">
-        <v>59.103303761807503</v>
+        <v>79827138.274756595</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -4284,7 +4283,7 @@
         <v>44472</v>
       </c>
       <c r="B424">
-        <v>58.378010746526897</v>
+        <v>80040086.398793101</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -4292,7 +4291,7 @@
         <v>44473</v>
       </c>
       <c r="B425">
-        <v>57.654965537999999</v>
+        <v>80255558.866226301</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -4300,7 +4299,7 @@
         <v>44474</v>
       </c>
       <c r="B426">
-        <v>56.934764017881697</v>
+        <v>80473400.630815998</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -4308,7 +4307,7 @@
         <v>44475</v>
       </c>
       <c r="B427">
-        <v>56.217913679696096</v>
+        <v>80693451.058788195</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -4316,7 +4315,7 @@
         <v>44476</v>
       </c>
       <c r="B428">
-        <v>55.504800451052596</v>
+        <v>80915544.337012202</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -4324,7 +4323,7 @@
         <v>44477</v>
       </c>
       <c r="B429">
-        <v>54.795659407290898</v>
+        <v>81139509.893693894</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -4332,7 +4331,7 @@
         <v>44478</v>
       </c>
       <c r="B430">
-        <v>54.090542634172202</v>
+        <v>81365175.797083199</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -4340,7 +4339,7 @@
         <v>44479</v>
       </c>
       <c r="B431">
-        <v>53.3893211585494</v>
+        <v>81592374.818690896</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -4348,7 +4347,7 @@
         <v>44480</v>
       </c>
       <c r="B432">
-        <v>52.692199985269504</v>
+        <v>81820936.760688797</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -4356,7 +4355,7 @@
         <v>44481</v>
       </c>
       <c r="B433">
-        <v>51.999682147610798</v>
+        <v>82050687.257173598</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -4364,7 +4363,7 @@
         <v>44482</v>
       </c>
       <c r="B434">
-        <v>51.312175442774901</v>
+        <v>82281448.353091598</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -4372,7 +4371,7 @@
         <v>44483</v>
       </c>
       <c r="B435">
-        <v>50.629956868111201</v>
+        <v>82513039.023235694</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -4380,7 +4379,7 @@
         <v>44484</v>
       </c>
       <c r="B436">
-        <v>49.953144431273294</v>
+        <v>82745275.700786501</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -4388,7 +4387,7 @@
         <v>44485</v>
       </c>
       <c r="B437">
-        <v>49.281666077379896</v>
+        <v>82977974.732958794</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -4396,7 +4395,7 @@
         <v>44486</v>
       </c>
       <c r="B438">
-        <v>48.615258303689899</v>
+        <v>83210958.305124104</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -4404,7 +4403,7 @@
         <v>44487</v>
       </c>
       <c r="B439">
-        <v>47.953973922075804</v>
+        <v>83444048.5137171</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -4412,7 +4411,7 @@
         <v>44488</v>
       </c>
       <c r="B440">
-        <v>47.298180419291498</v>
+        <v>83677066.030419201</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -4420,7 +4419,7 @@
         <v>44489</v>
       </c>
       <c r="B441">
-        <v>46.648150843619199</v>
+        <v>83909830.782731295</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -4428,7 +4427,7 @@
         <v>44490</v>
       </c>
       <c r="B442">
-        <v>46.004028017551398</v>
+        <v>84142162.572578594</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -4436,7 +4435,7 @@
         <v>44491</v>
       </c>
       <c r="B443">
-        <v>45.365799360510799</v>
+        <v>84373881.701062396</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -4444,7 +4443,7 @@
         <v>44492</v>
       </c>
       <c r="B444">
-        <v>44.733269108946004</v>
+        <v>84604811.087680906</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -4452,7 +4451,7 @@
         <v>44493</v>
       </c>
       <c r="B445">
-        <v>44.106054551379799</v>
+        <v>84834781.046104103</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -4460,7 +4459,7 @@
         <v>44494</v>
       </c>
       <c r="B446">
-        <v>43.4840526179348</v>
+        <v>85063624.843844905</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -4468,7 +4467,7 @@
         <v>44495</v>
       </c>
       <c r="B447">
-        <v>42.867471588889394</v>
+        <v>85291177.861619905</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -4476,7 +4475,7 @@
         <v>44496</v>
       </c>
       <c r="B448">
-        <v>42.256435010689898</v>
+        <v>85517278.342843503</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -4484,7 +4483,7 @@
         <v>44497</v>
       </c>
       <c r="B449">
-        <v>41.650948179505995</v>
+        <v>85741768.087524399</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -4492,7 +4491,7 @@
         <v>44498</v>
       </c>
       <c r="B450">
-        <v>41.050877748652901</v>
+        <v>85964493.147825599</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -4500,7 +4499,7 @@
         <v>44499</v>
       </c>
       <c r="B451">
-        <v>40.455929235827902</v>
+        <v>86185305.5506576</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -4508,7 +4507,7 @@
         <v>44500</v>
       </c>
       <c r="B452">
-        <v>39.865642342474203</v>
+        <v>86404066.803562507</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -4516,7 +4515,7 @@
         <v>44501</v>
       </c>
       <c r="B453">
-        <v>39.279786060912102</v>
+        <v>86620645.036347896</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -4524,7 +4523,7 @@
         <v>44502</v>
       </c>
       <c r="B454">
-        <v>38.698415709517398</v>
+        <v>86834914.6717287</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -4532,7 +4531,7 @@
         <v>44503</v>
       </c>
       <c r="B455">
-        <v>38.121520377200497</v>
+        <v>87046757.204798594</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -4540,7 +4539,7 @@
         <v>44504</v>
       </c>
       <c r="B456">
-        <v>37.5489941867529</v>
+        <v>87256061.944447398</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -4548,7 +4547,7 @@
         <v>44505</v>
       </c>
       <c r="B457">
-        <v>36.980621905090899</v>
+        <v>87462726.753462002</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -4556,7 +4555,7 @@
         <v>44506</v>
       </c>
       <c r="B458">
-        <v>36.4160630540526</v>
+        <v>87666659.332315594</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -4564,7 +4563,7 @@
         <v>44507</v>
       </c>
       <c r="B459">
-        <v>35.854847880992502</v>
+        <v>87867779.385012195</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -4572,7 +4571,7 @@
         <v>44508</v>
       </c>
       <c r="B460">
-        <v>35.296679659567296</v>
+        <v>88066017.386277899</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -4580,7 +4579,7 @@
         <v>44509</v>
       </c>
       <c r="B461">
-        <v>34.741503315288298</v>
+        <v>88261314.776669294</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -4588,7 +4587,7 @@
         <v>44510</v>
       </c>
       <c r="B462">
-        <v>34.189223028517496</v>
+        <v>88453624.746171504</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -4596,7 +4595,7 @@
         <v>44511</v>
       </c>
       <c r="B463">
-        <v>33.639680384209605</v>
+        <v>88642913.011037603</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -4604,7 +4603,7 @@
         <v>44512</v>
       </c>
       <c r="B464">
-        <v>33.092646367004498</v>
+        <v>88829158.592086196</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -4612,7 +4611,7 @@
         <v>44513</v>
       </c>
       <c r="B465">
-        <v>32.547812446496899</v>
+        <v>89012354.658151507</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -4620,7 +4619,7 @@
         <v>44514</v>
       </c>
       <c r="B466">
-        <v>32.004788340350203</v>
+        <v>89192509.356965095</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -4628,7 +4627,7 @@
         <v>44515</v>
       </c>
       <c r="B467">
-        <v>31.4632992068154</v>
+        <v>89369646.222938195</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -4636,7 +4635,7 @@
         <v>44516</v>
       </c>
       <c r="B468">
-        <v>30.9232482657921</v>
+        <v>89543804.931569695</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -4644,7 +4643,7 @@
         <v>44517</v>
       </c>
       <c r="B469">
-        <v>30.384525329968799</v>
+        <v>89715014.681001797</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -4652,7 +4651,7 @@
         <v>44518</v>
       </c>
       <c r="B470">
-        <v>29.846993255150199</v>
+        <v>89883208.019441202</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -4660,7 +4659,7 @@
         <v>44519</v>
       </c>
       <c r="B471">
-        <v>29.3104856926686</v>
+        <v>90048295.473119006</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -4668,7 +4667,7 @@
         <v>44520</v>
       </c>
       <c r="B472">
-        <v>28.774804441256698</v>
+        <v>90210191.843012705</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -4676,7 +4675,7 @@
         <v>44521</v>
       </c>
       <c r="B473">
-        <v>28.239719387959699</v>
+        <v>90368815.360622093</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -4684,7 +4683,7 @@
         <v>44522</v>
       </c>
       <c r="B474">
-        <v>27.705057536957</v>
+        <v>90524089.293346405</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -4692,7 +4691,7 @@
         <v>44523</v>
       </c>
       <c r="B475">
-        <v>27.170740511686798</v>
+        <v>90675937.959507406</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -4700,7 +4699,7 @@
         <v>44524</v>
       </c>
       <c r="B476">
-        <v>26.636696602006399</v>
+        <v>90824271.699769497</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -4708,7 +4707,7 @@
         <v>44525</v>
       </c>
       <c r="B477">
-        <v>26.102855969633001</v>
+        <v>90969000.735591695</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -4716,7 +4715,7 @@
         <v>44526</v>
       </c>
       <c r="B478">
-        <v>25.569152440874401</v>
+        <v>91110040.303604096</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -4724,7 +4723,7 @@
         <v>44527</v>
       </c>
       <c r="B479">
-        <v>25.035525267209</v>
+        <v>91247310.287173793</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -4732,7 +4731,7 @@
         <v>44528</v>
       </c>
       <c r="B480">
-        <v>24.501920645849999</v>
+        <v>91380733.038121194</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -4740,7 +4739,7 @@
         <v>44529</v>
       </c>
       <c r="B481">
-        <v>23.968280913891597</v>
+        <v>91510236.333054706</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -4748,7 +4747,3767 @@
         <v>44530</v>
       </c>
       <c r="B482">
-        <v>23.434540172420899</v>
+        <v>91635749.747070998</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B483">
+        <v>91757189.046365097</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B484">
+        <v>91874470.481145307</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B485">
+        <v>91987516.049508601</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B486">
+        <v>92096253.203814507</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B487">
+        <v>92200611.204883099</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B488">
+        <v>92300524.416006505</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B489">
+        <v>92395930.376945093</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B490">
+        <v>92486753.177947506</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B491">
+        <v>92572917.252089202</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B492">
+        <v>92654353.439402506</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>44541</v>
+      </c>
+      <c r="B493">
+        <v>92730998.883604899</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>44542</v>
+      </c>
+      <c r="B494">
+        <v>92802792.457663193</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B495">
+        <v>92869677.250884607</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B496">
+        <v>92931602.063439205</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B497">
+        <v>92988503.862719297</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B498">
+        <v>93040317.576366007</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B499">
+        <v>93086985.064245507</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>44548</v>
+      </c>
+      <c r="B500">
+        <v>93128455.240525097</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>44549</v>
+      </c>
+      <c r="B501">
+        <v>93164679.300355807</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B502">
+        <v>93195611.381080493</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B503">
+        <v>93221213.039599106</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B504">
+        <v>93241436.748550504</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B505">
+        <v>93256230.141000897</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B506">
+        <v>93265548.025946304</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B507">
+        <v>93269352.825764105</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>44556</v>
+      </c>
+      <c r="B508">
+        <v>93267610.292184204</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B509">
+        <v>93260287.729983404</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B510">
+        <v>93247360.720976502</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B511">
+        <v>93228799.233175993</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B512">
+        <v>93204565.611592501</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B513">
+        <v>93174629.188146099</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B514">
+        <v>93138967.2373043</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44563</v>
+      </c>
+      <c r="B515">
+        <v>93097561.649576202</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B516">
+        <v>93050394.687897295</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B517">
+        <v>92997456.909824699</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B518">
+        <v>92938736.996617898</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B519">
+        <v>92874213.712324202</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B520">
+        <v>92803872.056185499</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B521">
+        <v>92727705.075128704</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B522">
+        <v>92645711.6344309</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B523">
+        <v>92557890.300392404</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B524">
+        <v>92464247.176307797</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B525">
+        <v>92364790.004022494</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B526">
+        <v>92259515.269320801</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B527">
+        <v>92148424.292202696</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B528">
+        <v>92031526.351328403</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B529">
+        <v>91908836.577220693</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B530">
+        <v>91780369.655663297</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B531">
+        <v>91646147.476654202</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B532">
+        <v>91506196.376596197</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B533">
+        <v>91360531.439358696</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B534">
+        <v>91209170.5103973</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B535">
+        <v>91052139.117456794</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B536">
+        <v>90889468.380890802</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B537">
+        <v>90721188.859813303</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B538">
+        <v>90547337.945529506</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B539">
+        <v>90367957.319869906</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B540">
+        <v>90183078.030166194</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B541">
+        <v>89992733.724526107</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B542">
+        <v>89796965.264305696</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B543">
+        <v>89595818.684186995</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B544">
+        <v>89389339.277129203</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B545">
+        <v>89177578.609469399</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B546">
+        <v>88960592.255257398</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B547">
+        <v>88738425.926263094</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B548">
+        <v>88511127.683620304</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B549">
+        <v>88278752.158034101</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B550">
+        <v>88041358.576122493</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B551">
+        <v>87799005.132616803</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B552">
+        <v>87551755.562601894</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B553">
+        <v>87299677.223653704</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B554">
+        <v>87042828.571298793</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B555">
+        <v>86781270.097538799</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B556">
+        <v>86515068.073649004</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B557">
+        <v>86244292.649359703</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B558">
+        <v>85969012.530688703</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B559">
+        <v>85689301.084053293</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B560">
+        <v>85405234.843099207</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B561">
+        <v>85116882.625236407</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B562">
+        <v>84824314.945771694</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B563">
+        <v>84527607.197999299</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B564">
+        <v>84226837.826711103</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B565">
+        <v>83922083.3135176</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B566">
+        <v>83613423.811282098</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B567">
+        <v>83300942.148097903</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B568">
+        <v>82984714.867024004</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B569">
+        <v>82664819.879436895</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B570">
+        <v>82341339.002670601</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B571">
+        <v>82014356.601057395</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B572">
+        <v>81683954.508660406</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B573">
+        <v>81350216.685986593</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B574">
+        <v>81013229.2724742</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B575">
+        <v>80673073.791106805</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B576">
+        <v>80329832.843061402</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B577">
+        <v>79983591.936772302</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B578">
+        <v>79634438.660375997</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B579">
+        <v>79282457.776994899</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B580">
+        <v>78927734.209240705</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B581">
+        <v>78570354.968049601</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B582">
+        <v>78210404.433633104</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B583">
+        <v>77847967.350559399</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B584">
+        <v>77483130.384726301</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B585">
+        <v>77115981.604456797</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B586">
+        <v>76746606.1714129</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B587">
+        <v>76375087.522807598</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B588">
+        <v>76001510.621672794</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B589">
+        <v>75625959.894086704</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B590">
+        <v>75248519.913132206</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B591">
+        <v>74869276.226376906</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B592">
+        <v>74488314.998305306</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B593">
+        <v>74105719.506244302</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B594">
+        <v>73721569.6247385</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B595">
+        <v>73335945.720520094</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B596">
+        <v>72948929.213231906</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B597">
+        <v>72560602.414442301</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B598">
+        <v>72171047.7724545</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B599">
+        <v>71780347.541644707</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B600">
+        <v>71388581.129180104</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B601">
+        <v>70995823.154562905</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B602">
+        <v>70602147.470607504</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B603">
+        <v>70207629.705589905</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B604">
+        <v>69812348.007718697</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B605">
+        <v>69416380.063623995</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B606">
+        <v>69019802.594264805</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B607">
+        <v>68622689.4760205</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B608">
+        <v>68225108.767970905</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B609">
+        <v>67827126.449243993</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B610">
+        <v>67428810.052926406</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B611">
+        <v>67030231.806096397</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B612">
+        <v>66631463.290468998</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B613">
+        <v>66232574.437274702</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B614">
+        <v>65833632.114913099</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B615">
+        <v>65434696.750584103</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B616">
+        <v>65035825.5678849</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B617">
+        <v>64637076.3670571</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B618">
+        <v>64238513.827688999</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B619">
+        <v>63840202.411528401</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44668</v>
+      </c>
+      <c r="B620">
+        <v>63442204.356569901</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B621">
+        <v>63044578.302997902</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B622">
+        <v>62647376.043274701</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B623">
+        <v>62250645.556848899</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B624">
+        <v>61854434.611006297</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B625">
+        <v>61458799.537053898</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B626">
+        <v>61063797.084615499</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B627">
+        <v>60669481.321635596</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B628">
+        <v>60275902.293043002</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B629">
+        <v>59883102.875863403</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B630">
+        <v>59491121.6599783</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B631">
+        <v>59099996.972434796</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B632">
+        <v>58709777.136296302</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B633">
+        <v>58320511.0115133</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B634">
+        <v>57932244.4390058</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B635">
+        <v>57545018.925664797</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B636">
+        <v>57158868.578102797</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B637">
+        <v>56773822.879813202</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B638">
+        <v>56389911.050476603</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B639">
+        <v>56007173.504187599</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B640">
+        <v>55625651.335533097</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B641">
+        <v>55245382.400509603</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B642">
+        <v>54866400.021149099</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B643">
+        <v>54488729.970718198</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B644">
+        <v>54112393.196513698</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B645">
+        <v>53737410.428245001</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B646">
+        <v>53363814.547121502</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B647">
+        <v>52991639.277587101</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B648">
+        <v>52620914.997933701</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B649">
+        <v>52251667.458062798</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B650">
+        <v>51883914.790171802</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B651">
+        <v>51517670.222269297</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B652">
+        <v>51152946.856479697</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B653">
+        <v>50789770.6682107</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B654">
+        <v>50428168.654096603</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B655">
+        <v>50068164.461265102</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B656">
+        <v>49709777.112219699</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B657">
+        <v>49353018.017289497</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B658">
+        <v>48997893.718088202</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B659">
+        <v>48644410.7664489</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B660">
+        <v>48292589.091113098</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B661">
+        <v>47942449.833520196</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B662">
+        <v>47594010.877743602</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B663">
+        <v>47247285.964837201</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B664">
+        <v>46902281.379647002</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B665">
+        <v>46558998.128413402</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B666">
+        <v>46217437.112610303</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B667">
+        <v>45877612.8679251</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>44716</v>
+      </c>
+      <c r="B668">
+        <v>45539541.635881297</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B669">
+        <v>45203236.580329001</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B670">
+        <v>44868707.178165801</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B671">
+        <v>44535955.918184496</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B672">
+        <v>44204979.587401703</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B673">
+        <v>43875773.384600297</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B674">
+        <v>43548345.287314303</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B675">
+        <v>43222707.463142</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B676">
+        <v>42898869.268762901</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B677">
+        <v>42576836.799283199</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B678">
+        <v>42256609.868392698</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B679">
+        <v>41938182.190576099</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B680">
+        <v>41621544.981598802</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B681">
+        <v>41306700.3286881</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>44730</v>
+      </c>
+      <c r="B682">
+        <v>40993657.118572697</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>44731</v>
+      </c>
+      <c r="B683">
+        <v>40682421.850929998</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B684">
+        <v>40372998.160721801</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B685">
+        <v>40065384.2736459</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B686">
+        <v>39759572.007968299</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B687">
+        <v>39455550.208918601</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B688">
+        <v>39153316.0805723</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B689">
+        <v>38852875.937351301</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>44738</v>
+      </c>
+      <c r="B690">
+        <v>38554234.349952102</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B691">
+        <v>38257393.394817501</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B692">
+        <v>37962350.689072199</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B693">
+        <v>37669097.299300298</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B694">
+        <v>37377621.115917303</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B695">
+        <v>37087915.714578398</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>44744</v>
+      </c>
+      <c r="B696">
+        <v>36799985.4342568</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>44745</v>
+      </c>
+      <c r="B697">
+        <v>36513833.766249597</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>44746</v>
+      </c>
+      <c r="B698">
+        <v>36229462.055858299</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B699">
+        <v>35946868.115413398</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B700">
+        <v>35666043.308205001</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>44749</v>
+      </c>
+      <c r="B701">
+        <v>35386975.720143899</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B702">
+        <v>35109656.678500801</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>44751</v>
+      </c>
+      <c r="B703">
+        <v>34834089.012288697</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B704">
+        <v>34560275.850172497</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B705">
+        <v>34288218.506358899</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B706">
+        <v>34017915.262710199</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>44755</v>
+      </c>
+      <c r="B707">
+        <v>33749358.329926498</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B708">
+        <v>33482536.8911178</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>44757</v>
+      </c>
+      <c r="B709">
+        <v>33217441.4517496</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>44758</v>
+      </c>
+      <c r="B710">
+        <v>32954073.7065471</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>44759</v>
+      </c>
+      <c r="B711">
+        <v>32692437.0082017</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B712">
+        <v>32432533.1995278</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B713">
+        <v>32174361.432491101</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B714">
+        <v>31917915.207497399</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B715">
+        <v>31663185.3810356</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B716">
+        <v>31410163.9599027</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>44765</v>
+      </c>
+      <c r="B717">
+        <v>31158853.2428804</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>44766</v>
+      </c>
+      <c r="B718">
+        <v>30909257.360401899</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B719">
+        <v>30661365.533750702</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B720">
+        <v>30415113.1422951</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B721">
+        <v>30170426.3807186</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B722">
+        <v>29927236.007153802</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B723">
+        <v>29685479.552278101</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>44772</v>
+      </c>
+      <c r="B724">
+        <v>29445109.2473564</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B725">
+        <v>29206084.209843501</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B726">
+        <v>28968367.467620101</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B727">
+        <v>28731925.574277598</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B728">
+        <v>28496728.2317608</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B729">
+        <v>28262747.895874102</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B730">
+        <v>28029961.759436399</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>44779</v>
+      </c>
+      <c r="B731">
+        <v>27798358.779312301</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B732">
+        <v>27567932.802228201</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B733">
+        <v>27338679.9670735</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B734">
+        <v>27110598.393410798</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B735">
+        <v>26883687.875129599</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B736">
+        <v>26657949.556919798</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B737">
+        <v>26433387.672964599</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B738">
+        <v>26210015.680979401</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>44787</v>
+      </c>
+      <c r="B739">
+        <v>25987850.278879799</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B740">
+        <v>25766909.156342398</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B741">
+        <v>25547210.7397088</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B742">
+        <v>25328773.9418585</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B743">
+        <v>25111617.893314399</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B744">
+        <v>24895763.441971902</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>44793</v>
+      </c>
+      <c r="B745">
+        <v>24681238.445656002</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>44794</v>
+      </c>
+      <c r="B746">
+        <v>24468072.625310499</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B747">
+        <v>24256295.6430864</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B748">
+        <v>24045936.898701299</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B749">
+        <v>23837025.331316099</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B750">
+        <v>23629589.199723199</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B751">
+        <v>23423657.360137399</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>44800</v>
+      </c>
+      <c r="B752">
+        <v>23219263.795409001</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>44801</v>
+      </c>
+      <c r="B753">
+        <v>23016443.239871301</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B754">
+        <v>22815229.5598341</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B755">
+        <v>22615655.600081299</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B756">
+        <v>22417753.036371201</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B757">
+        <v>22221552.203022301</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B758">
+        <v>22027082.8521084</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>44807</v>
+      </c>
+      <c r="B759">
+        <v>21834378.236368101</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>44808</v>
+      </c>
+      <c r="B760">
+        <v>21643471.880337</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B761">
+        <v>21454395.875786301</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B762">
+        <v>21267180.7752981</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B763">
+        <v>21081855.492818199</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B764">
+        <v>20898447.1769205</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B765">
+        <v>20716981.489961099</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B766">
+        <v>20537486.083999898</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>44815</v>
+      </c>
+      <c r="B767">
+        <v>20359988.856146201</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B768">
+        <v>20184515.955880601</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B769">
+        <v>20011091.706797101</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B770">
+        <v>19839738.550175902</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B771">
+        <v>19670476.9605412</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B772">
+        <v>19503325.476291001</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B773">
+        <v>19338303.3850898</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B774">
+        <v>19175430.264882699</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B775">
+        <v>19014723.868829299</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B776">
+        <v>18856200.041191801</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B777">
+        <v>18699872.696881399</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B778">
+        <v>18545753.774116699</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B779">
+        <v>18393853.151749499</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B780">
+        <v>18244180.554719299</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
+        <v>44829</v>
+      </c>
+      <c r="B781">
+        <v>18096746.046144601</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B782">
+        <v>17951557.985705599</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B783">
+        <v>17808622.904438499</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B784">
+        <v>17667945.512370698</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B785">
+        <v>17529528.682031401</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B786">
+        <v>17393373.324689399</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B787">
+        <v>17259479.629964702</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B788">
+        <v>17127848.128900599</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B789">
+        <v>16998477.913920101</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B790">
+        <v>16871366.446988098</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B791">
+        <v>16746509.587840701</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B792">
+        <v>16623901.6020812</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B793">
+        <v>16503535.0301989</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B794">
+        <v>16385401.4213703</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B795">
+        <v>16269492.5949829</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B796">
+        <v>16155799.277527999</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B797">
+        <v>16044310.838551</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B798">
+        <v>15935015.333259299</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B799">
+        <v>15827899.529622801</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B800">
+        <v>15722948.782771301</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B801">
+        <v>15620147.473383499</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B802">
+        <v>15519480.104217701</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B803">
+        <v>15420930.399298299</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B804">
+        <v>15324481.039266899</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B805">
+        <v>15230113.7138188</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B806">
+        <v>15137809.1632805</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B807">
+        <v>15047547.0633872</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B808">
+        <v>14959306.319811899</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B809">
+        <v>14873065.797392899</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B810">
+        <v>14788803.7794131</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B811">
+        <v>14706497.8326548</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B812">
+        <v>14626124.866738001</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B813">
+        <v>14547661.186791699</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B814">
+        <v>14471082.393668899</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B815">
+        <v>14396363.520021601</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B816">
+        <v>14323479.364611899</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B817">
+        <v>14252404.3319804</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B818">
+        <v>14183112.4326814</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B819">
+        <v>14115577.3479621</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B820">
+        <v>14049772.4912319</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B821">
+        <v>13985670.9283129</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B822">
+        <v>13923245.341253201</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B823">
+        <v>13862467.9282545</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B824">
+        <v>13803310.6554735</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B825">
+        <v>13745745.402525499</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B826">
+        <v>13689744.0319163</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B827">
+        <v>13635278.4578967</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B828">
+        <v>13582320.5904126</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B829">
+        <v>13530842.115229901</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B830">
+        <v>13480813.9149717</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B831">
+        <v>13432206.7693594</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B832">
+        <v>13384991.658084299</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B833">
+        <v>13339139.8349714</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B834">
+        <v>13294622.903419601</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B835">
+        <v>13251412.7863979</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B836">
+        <v>13209481.3151614</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B837">
+        <v>13168799.128282299</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B838">
+        <v>13129336.854862999</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B839">
+        <v>13091065.586507799</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B840">
+        <v>13053956.9564285</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B841">
+        <v>13017983.2210219</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B842">
+        <v>12983117.256608</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B843">
+        <v>12949331.953846</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B844">
+        <v>12916598.5597132</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B845">
+        <v>12884888.370377099</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B846">
+        <v>12854173.381393</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B847">
+        <v>12824426.3719324</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B848">
+        <v>12795620.9922003</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B849">
+        <v>12767731.7859914</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B850">
+        <v>12740733.7124772</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B851">
+        <v>12714599.743206</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B852">
+        <v>12689302.529439</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B853">
+        <v>12664815.632528201</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B854">
+        <v>12641113.6164652</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B855">
+        <v>12618172.140964299</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B856">
+        <v>12595968.007643901</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B857">
+        <v>12574478.8413633</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B858">
+        <v>12553680.191468</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B859">
+        <v>12533546.635344399</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B860">
+        <v>12514053.8242922</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B861">
+        <v>12495178.6084214</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B862">
+        <v>12476899.1351563</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B863">
+        <v>12459194.915825499</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B864">
+        <v>12442046.656912001</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B865">
+        <v>12425433.209999699</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B866">
+        <v>12409331.5746824</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B867">
+        <v>12393719.9020181</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B868">
+        <v>12378577.7148489</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B869">
+        <v>12363886.0112899</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B870">
+        <v>12349627.3480135</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B871">
+        <v>12335785.785088601</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B872">
+        <v>12322344.0449482</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B873">
+        <v>12309282.0031722</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B874">
+        <v>12296580.623637199</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B875">
+        <v>12284222.3907975</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B876">
+        <v>12272191.417433901</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B877">
+        <v>12260473.540920099</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B878">
+        <v>12249056.3358192</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B879">
+        <v>12237926.778104801</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B880">
+        <v>12227068.055497499</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B881">
+        <v>12216464.175162699</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B882">
+        <v>12206100.7880805</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B883">
+        <v>12195965.3000612</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B884">
+        <v>12186046.9774634</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B885">
+        <v>12176336.990807099</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B886">
+        <v>12166826.7399814</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B887">
+        <v>12157503.1592694</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B888">
+        <v>12148353.4591836</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B889">
+        <v>12139366.5902681</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B890">
+        <v>12130533.3561628</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B891">
+        <v>12121846.5255206</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B892">
+        <v>12113300.8934788</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B893">
+        <v>12104891.7024964</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B894">
+        <v>12096609.346217301</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B895">
+        <v>12088444.240257001</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B896">
+        <v>12080388.6036107</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B897">
+        <v>12072436.5722224</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B898">
+        <v>12064584.314006601</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B899">
+        <v>12056830.105235999</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B900">
+        <v>12049172.6444226</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B901">
+        <v>12041605.462487999</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B902">
+        <v>12034122.0503574</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B903">
+        <v>12026717.728883401</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B904">
+        <v>12019389.761174001</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B905">
+        <v>12012137.4678561</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B906">
+        <v>12004962.3144268</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B907">
+        <v>11997866.1514575</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B908">
+        <v>11990845.4249573</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B909">
+        <v>11983896.472463399</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B910">
+        <v>11977017.4496231</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B911">
+        <v>11970208.4394743</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B912">
+        <v>11963471.5653839</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B913">
+        <v>11956811.084846901</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B914">
+        <v>11950231.5913678</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B915">
+        <v>11943732.1282457</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B916">
+        <v>11937311.5574618</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B917">
+        <v>11930970.508483799</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B918">
+        <v>11924711.482717</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B919">
+        <v>11918538.9618524</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B920">
+        <v>11912459.5036777</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B921">
+        <v>11906479.941279899</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B922">
+        <v>11900601.5079687</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B923">
+        <v>11894825.180246901</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B924">
+        <v>11889153.613383399</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B925">
+        <v>11883591.239357799</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B926">
+        <v>11878144.3686508</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B927">
+        <v>11872821.2840377</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B928">
+        <v>11867630.471857199</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B929">
+        <v>11862574.8666196</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B930">
+        <v>11857657.0697072</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B931">
+        <v>11852881.2364562</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B932">
+        <v>11848253.1661002</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B933">
+        <v>11843780.395346601</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B934">
+        <v>11839472.2867928</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B935">
+        <v>11835338.6699118</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B936">
+        <v>11831384.053351499</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B937">
+        <v>11827612.168051001</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B938">
+        <v>11824028.143833401</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B939">
+        <v>11820638.590782</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B940">
+        <v>11817451.683394</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B941">
+        <v>11814477.2411827</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B942">
+        <v>11811726.032426</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B943">
+        <v>11809204.2321313</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B944">
+        <v>11806916.2639236</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B945">
+        <v>11804867.7564702</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B946">
+        <v>11803065.6338595</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B947">
+        <v>11801518.1896595</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B948">
+        <v>11800235.158268901</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B949">
+        <v>11799227.4239845</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B950">
+        <v>11798502.313164299</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B951">
+        <v>11798064.5358968</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B952">
+        <v>11797919.751188699</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_29019_ww.xlsx
+++ b/Covid_29019_ww.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4816431-3818-BA4E-B35F-4630B6600E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F2520A-FF2D-3745-82B0-53CA22A8F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="4280" windowWidth="20980" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2320" yWindow="2740" windowWidth="20980" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -881,15 +881,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B178"/>
+  <dimension ref="A1:B952"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
+      <selection activeCell="B956" sqref="B956"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,7 +907,7 @@
         <v>44050</v>
       </c>
       <c r="B2">
-        <v>59560407.5389558</v>
+        <v>96775800.840465203</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -914,7 +915,7 @@
         <v>44051</v>
       </c>
       <c r="B3">
-        <v>69984885.475890607</v>
+        <v>103112485.936088</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -922,7 +923,7 @@
         <v>44052</v>
       </c>
       <c r="B4">
-        <v>76575312.062403306</v>
+        <v>110600842.60211299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -930,7 +931,7 @@
         <v>44053</v>
       </c>
       <c r="B5">
-        <v>81304153.122498199</v>
+        <v>119361851.12805299</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,7 +939,7 @@
         <v>44054</v>
       </c>
       <c r="B6">
-        <v>80494685.484422594</v>
+        <v>129376304.08729801</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -946,7 +947,7 @@
         <v>44055</v>
       </c>
       <c r="B7">
-        <v>125410293.928876</v>
+        <v>140546806.01636699</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -954,7 +955,7 @@
         <v>44056</v>
       </c>
       <c r="B8">
-        <v>210179374.36377299</v>
+        <v>152791575.16736999</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -962,7 +963,7 @@
         <v>44057</v>
       </c>
       <c r="B9">
-        <v>293168050.64399302</v>
+        <v>165809892.89845401</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -970,7 +971,7 @@
         <v>44058</v>
       </c>
       <c r="B10">
-        <v>321546178.70139402</v>
+        <v>179099127.26856199</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +979,7 @@
         <v>44059</v>
       </c>
       <c r="B11">
-        <v>291230502.86338103</v>
+        <v>192081631.86074701</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,7 +987,7 @@
         <v>44060</v>
       </c>
       <c r="B12">
-        <v>200816624.94987199</v>
+        <v>204221090.84729701</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -994,7 +995,7 @@
         <v>44061</v>
       </c>
       <c r="B13">
-        <v>103598157.238842</v>
+        <v>215205144.65412199</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1002,7 +1003,7 @@
         <v>44062</v>
       </c>
       <c r="B14">
-        <v>55413933.8657194</v>
+        <v>225205108.06792</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1010,7 +1011,7 @@
         <v>44063</v>
       </c>
       <c r="B15">
-        <v>74881155.261608794</v>
+        <v>235205155.82170901</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1018,7 +1019,7 @@
         <v>44064</v>
       </c>
       <c r="B16">
-        <v>82407487.384490699</v>
+        <v>246288495.11120701</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1026,7 +1027,7 @@
         <v>44065</v>
       </c>
       <c r="B17">
-        <v>91056097.355569601</v>
+        <v>258484019.88338301</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1034,7 +1035,7 @@
         <v>44066</v>
       </c>
       <c r="B18">
-        <v>101563718.95192599</v>
+        <v>271144341.82122898</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1042,7 +1043,7 @@
         <v>44067</v>
       </c>
       <c r="B19">
-        <v>127893886.566515</v>
+        <v>283380427.75185299</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1050,7 +1051,7 @@
         <v>44068</v>
       </c>
       <c r="B20">
-        <v>165181463.28556901</v>
+        <v>294354923.69019502</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1058,7 +1059,7 @@
         <v>44069</v>
       </c>
       <c r="B21">
-        <v>211659484.461422</v>
+        <v>303460137.36398703</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1066,7 +1067,7 @@
         <v>44070</v>
       </c>
       <c r="B22">
-        <v>254245641.68759099</v>
+        <v>310430683.89961803</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1075,7 @@
         <v>44071</v>
       </c>
       <c r="B23">
-        <v>295057613.34117299</v>
+        <v>315334600.32628697</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1082,7 +1083,7 @@
         <v>44072</v>
       </c>
       <c r="B24">
-        <v>313165085.396025</v>
+        <v>318486784.836959</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1090,7 +1091,7 @@
         <v>44073</v>
       </c>
       <c r="B25">
-        <v>309576377.10564399</v>
+        <v>320334830.097444</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1098,7 +1099,7 @@
         <v>44074</v>
       </c>
       <c r="B26">
-        <v>284923533.70430601</v>
+        <v>321286380.84012002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1106,7 +1107,7 @@
         <v>44075</v>
       </c>
       <c r="B27">
-        <v>282323629.82653999</v>
+        <v>321461932.12004697</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,7 +1115,7 @@
         <v>44076</v>
       </c>
       <c r="B28">
-        <v>265118321.855876</v>
+        <v>320751057.00359303</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1122,7 +1123,7 @@
         <v>44077</v>
       </c>
       <c r="B29">
-        <v>239280500.59062001</v>
+        <v>319024608.89934599</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,7 +1131,7 @@
         <v>44078</v>
       </c>
       <c r="B30">
-        <v>179779510.73562801</v>
+        <v>315785729.27319002</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1139,7 @@
         <v>44079</v>
       </c>
       <c r="B31">
-        <v>97001457.621876404</v>
+        <v>310430995.871306</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1146,7 +1147,7 @@
         <v>44080</v>
       </c>
       <c r="B32">
-        <v>60699815.597556204</v>
+        <v>302529953.24008101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1155,7 @@
         <v>44081</v>
       </c>
       <c r="B33">
-        <v>58708588.833580397</v>
+        <v>292014101.892735</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1163,7 @@
         <v>44082</v>
       </c>
       <c r="B34">
-        <v>49088786.0108817</v>
+        <v>279301717.14820802</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1171,7 @@
         <v>44083</v>
       </c>
       <c r="B35">
-        <v>45468240.547739103</v>
+        <v>265316317.63480401</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1179,7 @@
         <v>44084</v>
       </c>
       <c r="B36">
-        <v>42654643.294007704</v>
+        <v>251261326.58710101</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1187,7 @@
         <v>44085</v>
       </c>
       <c r="B37">
-        <v>62102915.668065898</v>
+        <v>238325190.780687</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,7 +1195,7 @@
         <v>44086</v>
       </c>
       <c r="B38">
-        <v>104186992.593849</v>
+        <v>227256227.03722101</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1202,7 +1203,7 @@
         <v>44087</v>
       </c>
       <c r="B39">
-        <v>107364808.098922</v>
+        <v>217780932.307212</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1210,7 +1211,7 @@
         <v>44088</v>
       </c>
       <c r="B40">
-        <v>74996973.430776</v>
+        <v>208316515.78611499</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1218,7 +1219,7 @@
         <v>44089</v>
       </c>
       <c r="B41">
-        <v>59671242.055409499</v>
+        <v>197452984.352559</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1226,7 +1227,7 @@
         <v>44090</v>
       </c>
       <c r="B42">
-        <v>43833299.2463402</v>
+        <v>184696286.509202</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1234,7 +1235,7 @@
         <v>44091</v>
       </c>
       <c r="B43">
-        <v>19781853.2267261</v>
+        <v>170303692.99356699</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1242,7 +1243,7 @@
         <v>44092</v>
       </c>
       <c r="B44">
-        <v>4339370.3728593197</v>
+        <v>154920784.477267</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1250,7 +1251,7 @@
         <v>44093</v>
       </c>
       <c r="B45">
-        <v>5862227.7980060996</v>
+        <v>139324045.34104899</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1258,7 +1259,7 @@
         <v>44094</v>
       </c>
       <c r="B46">
-        <v>11051099.5043233</v>
+        <v>124262488.63121501</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,7 +1267,7 @@
         <v>44095</v>
       </c>
       <c r="B47">
-        <v>12655742.8240308</v>
+        <v>110352105.53908101</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1274,7 +1275,7 @@
         <v>44096</v>
       </c>
       <c r="B48">
-        <v>16514389.5635319</v>
+        <v>98019844.265382797</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1282,7 +1283,7 @@
         <v>44097</v>
       </c>
       <c r="B49">
-        <v>22191159.300653201</v>
+        <v>87510115.769052893</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1290,7 +1291,7 @@
         <v>44098</v>
       </c>
       <c r="B50">
-        <v>21520892.385184702</v>
+        <v>78875096.796334296</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1298,7 +1299,7 @@
         <v>44099</v>
       </c>
       <c r="B51">
-        <v>30195028.941714</v>
+        <v>71946517.614596397</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1306,7 +1307,7 @@
         <v>44100</v>
       </c>
       <c r="B52">
-        <v>50204293.469058298</v>
+        <v>66301041.923308797</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1314,7 +1315,7 @@
         <v>44101</v>
       </c>
       <c r="B53">
-        <v>87513862.3721212</v>
+        <v>61476354.499376297</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1322,7 +1323,7 @@
         <v>44102</v>
       </c>
       <c r="B54">
-        <v>136623591.73023701</v>
+        <v>57604285.762729801</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1330,7 +1331,7 @@
         <v>44103</v>
       </c>
       <c r="B55">
-        <v>170604239.71965101</v>
+        <v>55039329.925357401</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,7 +1339,7 @@
         <v>44104</v>
       </c>
       <c r="B56">
-        <v>174737645.62802401</v>
+        <v>54109671.457823299</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1346,7 +1347,7 @@
         <v>44105</v>
       </c>
       <c r="B57">
-        <v>151693511.57177201</v>
+        <v>54996487.5772416</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1354,7 +1355,7 @@
         <v>44106</v>
       </c>
       <c r="B58">
-        <v>114025336.43816499</v>
+        <v>57651354.445940502</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1362,7 +1363,7 @@
         <v>44107</v>
       </c>
       <c r="B59">
-        <v>91745590.348399505</v>
+        <v>61739472.003143802</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1370,7 +1371,7 @@
         <v>44108</v>
       </c>
       <c r="B60">
-        <v>83416040.576753601</v>
+        <v>66624606.197733901</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1378,7 +1379,7 @@
         <v>44109</v>
       </c>
       <c r="B61">
-        <v>84943581.008979499</v>
+        <v>71485699.595752999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1386,7 +1387,7 @@
         <v>44110</v>
       </c>
       <c r="B62">
-        <v>90126462.897106096</v>
+        <v>75503949.955987498</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1394,7 +1395,7 @@
         <v>44111</v>
       </c>
       <c r="B63">
-        <v>90329227.284112602</v>
+        <v>78142016.764025599</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1402,7 +1403,7 @@
         <v>44112</v>
       </c>
       <c r="B64">
-        <v>68738782.069521993</v>
+        <v>79531278.402851999</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1410,7 +1411,7 @@
         <v>44113</v>
       </c>
       <c r="B65">
-        <v>40352023.853448503</v>
+        <v>80595793.973637</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1418,7 +1419,7 @@
         <v>44114</v>
       </c>
       <c r="B66">
-        <v>24228772.357167799</v>
+        <v>81557142.0726711</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1426,7 +1427,7 @@
         <v>44115</v>
       </c>
       <c r="B67">
-        <v>20095814.730987798</v>
+        <v>82326662.181024402</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1435,7 @@
         <v>44116</v>
       </c>
       <c r="B68">
-        <v>18634988.5193807</v>
+        <v>82927944.1788923</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1443,7 @@
         <v>44117</v>
       </c>
       <c r="B69">
-        <v>22196762.737075198</v>
+        <v>83446213.592462599</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1451,7 @@
         <v>44118</v>
       </c>
       <c r="B70">
-        <v>23878300.680026099</v>
+        <v>83985405.8850324</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1458,7 +1459,7 @@
         <v>44119</v>
       </c>
       <c r="B71">
-        <v>28664347.393799499</v>
+        <v>84639614.868407696</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1466,7 +1467,7 @@
         <v>44120</v>
       </c>
       <c r="B72">
-        <v>36382675.5436211</v>
+        <v>85473809.257721499</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1474,7 +1475,7 @@
         <v>44121</v>
       </c>
       <c r="B73">
-        <v>41668912.345075399</v>
+        <v>86515349.450353995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1482,7 +1483,7 @@
         <v>44122</v>
       </c>
       <c r="B74">
-        <v>54131087.227607302</v>
+        <v>87761813.404605493</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1490,7 +1491,7 @@
         <v>44123</v>
       </c>
       <c r="B75">
-        <v>79557982.725227505</v>
+        <v>89189040.953965798</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1498,7 +1499,7 @@
         <v>44124</v>
       </c>
       <c r="B76">
-        <v>105716262.57243399</v>
+        <v>90761270.242054507</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1506,7 +1507,7 @@
         <v>44125</v>
       </c>
       <c r="B77">
-        <v>118462798.570262</v>
+        <v>92445243.388715193</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1514,7 +1515,7 @@
         <v>44126</v>
       </c>
       <c r="B78">
-        <v>116620817.329668</v>
+        <v>94154941.021412998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1522,7 +1523,7 @@
         <v>44127</v>
       </c>
       <c r="B79">
-        <v>116217218.934844</v>
+        <v>95666611.231979504</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1530,7 +1531,7 @@
         <v>44128</v>
       </c>
       <c r="B80">
-        <v>188999958.44884399</v>
+        <v>96973560.114595398</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1538,7 +1539,7 @@
         <v>44129</v>
       </c>
       <c r="B81">
-        <v>276675637.07799</v>
+        <v>98242013.403383896</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1546,7 +1547,7 @@
         <v>44130</v>
       </c>
       <c r="B82">
-        <v>324666685.13549799</v>
+        <v>99698242.529777601</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1554,7 +1555,7 @@
         <v>44131</v>
       </c>
       <c r="B83">
-        <v>297893694.73375303</v>
+        <v>101549955.612543</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1562,7 +1563,7 @@
         <v>44132</v>
       </c>
       <c r="B84">
-        <v>226539408.08712101</v>
+        <v>103935299.041852</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1570,7 +1571,7 @@
         <v>44133</v>
       </c>
       <c r="B85">
-        <v>124387189.061601</v>
+        <v>106885186.10421</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1578,7 +1579,7 @@
         <v>44134</v>
       </c>
       <c r="B86">
-        <v>46088917.171415597</v>
+        <v>110329106.442882</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1586,7 +1587,7 @@
         <v>44135</v>
       </c>
       <c r="B87">
-        <v>10386845.8613958</v>
+        <v>114128230.938908</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1594,7 +1595,7 @@
         <v>44136</v>
       </c>
       <c r="B88">
-        <v>13237914.201692401</v>
+        <v>118122567.872609</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1602,7 +1603,7 @@
         <v>44137</v>
       </c>
       <c r="B89">
-        <v>6745523.8900935799</v>
+        <v>122202021.495167</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1610,7 +1611,7 @@
         <v>44138</v>
       </c>
       <c r="B90">
-        <v>4809353.4573803097</v>
+        <v>126394701.440152</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1618,7 +1619,7 @@
         <v>44139</v>
       </c>
       <c r="B91">
-        <v>3895137.22109685</v>
+        <v>130769115.30805101</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1626,7 +1627,7 @@
         <v>44140</v>
       </c>
       <c r="B92">
-        <v>4266952.0337827802</v>
+        <v>135373349.028386</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1634,7 +1635,7 @@
         <v>44141</v>
       </c>
       <c r="B93">
-        <v>2629525.0446847202</v>
+        <v>140297623.57144901</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1642,7 +1643,7 @@
         <v>44142</v>
       </c>
       <c r="B94">
-        <v>3126655.6271967702</v>
+        <v>145630435.82667199</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1650,7 +1651,7 @@
         <v>44143</v>
       </c>
       <c r="B95">
-        <v>6232245.6908948598</v>
+        <v>151423157.556768</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1658,7 +1659,7 @@
         <v>44144</v>
       </c>
       <c r="B96">
-        <v>8843778.9962140396</v>
+        <v>157666772.877022</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1666,7 +1667,7 @@
         <v>44145</v>
       </c>
       <c r="B97">
-        <v>12552823.1366571</v>
+        <v>164275985.89563</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1674,7 +1675,7 @@
         <v>44146</v>
       </c>
       <c r="B98">
-        <v>18756794.935247399</v>
+        <v>171089261.534733</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1682,7 +1683,7 @@
         <v>44147</v>
       </c>
       <c r="B99">
-        <v>24173304.848986201</v>
+        <v>177901601.22608501</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1690,7 +1691,7 @@
         <v>44148</v>
       </c>
       <c r="B100">
-        <v>25818314.610282701</v>
+        <v>184510290.32414901</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,7 +1699,7 @@
         <v>44149</v>
       </c>
       <c r="B101">
-        <v>28321182.9803994</v>
+        <v>190784442.56549901</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1706,7 +1707,7 @@
         <v>44150</v>
       </c>
       <c r="B102">
-        <v>35305929.224964596</v>
+        <v>196762737.62813899</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1714,7 +1715,7 @@
         <v>44151</v>
       </c>
       <c r="B103">
-        <v>42123258.918076798</v>
+        <v>202680712.44395101</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1722,7 +1723,7 @@
         <v>44152</v>
       </c>
       <c r="B104">
-        <v>46657906.043538801</v>
+        <v>208620480.75861001</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1730,7 +1731,7 @@
         <v>44153</v>
       </c>
       <c r="B105">
-        <v>45511089.011844002</v>
+        <v>214587933.47578999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1738,7 +1739,7 @@
         <v>44154</v>
       </c>
       <c r="B106">
-        <v>45867660.409522302</v>
+        <v>220582678.991999</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1746,7 +1747,7 @@
         <v>44155</v>
       </c>
       <c r="B107">
-        <v>55815401.172894098</v>
+        <v>226600292.07866499</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1754,7 +1755,7 @@
         <v>44156</v>
       </c>
       <c r="B108">
-        <v>61860832.501064703</v>
+        <v>232633852.80537999</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1762,7 +1763,7 @@
         <v>44157</v>
       </c>
       <c r="B109">
-        <v>50931941.075602897</v>
+        <v>238674745.90340501</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1770,7 +1771,7 @@
         <v>44158</v>
       </c>
       <c r="B110">
-        <v>46080674.640630499</v>
+        <v>244712984.838525</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1778,7 +1779,7 @@
         <v>44159</v>
       </c>
       <c r="B111">
-        <v>52163445.304029897</v>
+        <v>250738144.441928</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1786,7 +1787,7 @@
         <v>44160</v>
       </c>
       <c r="B112">
-        <v>48690472.797785699</v>
+        <v>256740649.47621799</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1794,7 +1795,7 @@
         <v>44161</v>
       </c>
       <c r="B113">
-        <v>36803353.294620201</v>
+        <v>262713711.288912</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1802,7 +1803,7 @@
         <v>44162</v>
       </c>
       <c r="B114">
-        <v>25274425.069480501</v>
+        <v>268656414.45240599</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1810,7 +1811,7 @@
         <v>44163</v>
       </c>
       <c r="B115">
-        <v>15815677.8180572</v>
+        <v>274577833.83922797</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1818,7 +1819,7 @@
         <v>44164</v>
       </c>
       <c r="B116">
-        <v>9511965.6753146593</v>
+        <v>280505183.99641699</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1826,7 +1827,7 @@
         <v>44165</v>
       </c>
       <c r="B117">
-        <v>7512233.0097787296</v>
+        <v>286410262.70851499</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1834,7 +1835,7 @@
         <v>44166</v>
       </c>
       <c r="B118">
-        <v>7245127.4618580602</v>
+        <v>292085549.84408301</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1842,7 +1843,7 @@
         <v>44167</v>
       </c>
       <c r="B119">
-        <v>5994919.7872914001</v>
+        <v>297256875.12671697</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1850,7 +1851,7 @@
         <v>44168</v>
       </c>
       <c r="B120">
-        <v>4443067.6816834304</v>
+        <v>301693943.77105302</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1858,7 +1859,7 @@
         <v>44169</v>
       </c>
       <c r="B121">
-        <v>5240754.1672104001</v>
+        <v>305277601.88089901</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1866,7 +1867,7 @@
         <v>44170</v>
       </c>
       <c r="B122">
-        <v>7151229.0234228</v>
+        <v>308029012.04116797</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1874,7 +1875,7 @@
         <v>44171</v>
       </c>
       <c r="B123">
-        <v>8428738.7213615105</v>
+        <v>310088791.80351597</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1882,7 +1883,7 @@
         <v>44172</v>
       </c>
       <c r="B124">
-        <v>8302525.2955136104</v>
+        <v>311675613.554609</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1890,7 +1891,7 @@
         <v>44173</v>
       </c>
       <c r="B125">
-        <v>4981279.0682058102</v>
+        <v>313031317.11754501</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1898,7 +1899,7 @@
         <v>44174</v>
       </c>
       <c r="B126">
-        <v>6877415.7490297304</v>
+        <v>314341185.97080898</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1906,7 +1907,7 @@
         <v>44175</v>
       </c>
       <c r="B127">
-        <v>14447011.106377801</v>
+        <v>315623165.43800497</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1914,7 +1915,7 @@
         <v>44176</v>
       </c>
       <c r="B128">
-        <v>17292418.812290099</v>
+        <v>316658285.96548301</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1922,7 +1923,7 @@
         <v>44177</v>
       </c>
       <c r="B129">
-        <v>16473825.1583464</v>
+        <v>317201907.90332502</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1930,7 +1931,7 @@
         <v>44178</v>
       </c>
       <c r="B130">
-        <v>17976925.799067698</v>
+        <v>316978496.57083499</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1938,7 +1939,7 @@
         <v>44179</v>
       </c>
       <c r="B131">
-        <v>17259991.613582</v>
+        <v>315750978.148938</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1946,7 +1947,7 @@
         <v>44180</v>
       </c>
       <c r="B132">
-        <v>12162151.665500799</v>
+        <v>313384721.92761898</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1954,7 +1955,7 @@
         <v>44181</v>
       </c>
       <c r="B133">
-        <v>8172665.0592115903</v>
+        <v>309889785.34344798</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1962,7 +1963,7 @@
         <v>44182</v>
       </c>
       <c r="B134">
-        <v>9195544.6346290596</v>
+        <v>305449026.76807201</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1970,7 +1971,7 @@
         <v>44183</v>
       </c>
       <c r="B135">
-        <v>13013984.4274801</v>
+        <v>300452756.41407901</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1978,7 +1979,7 @@
         <v>44184</v>
       </c>
       <c r="B136">
-        <v>18269022.271949001</v>
+        <v>295455008.61512202</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1986,7 +1987,7 @@
         <v>44185</v>
       </c>
       <c r="B137">
-        <v>23244068.6041806</v>
+        <v>291051221.17418498</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1994,7 +1995,7 @@
         <v>44186</v>
       </c>
       <c r="B138">
-        <v>25595337.555518501</v>
+        <v>287751949.95484298</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2002,7 +2003,7 @@
         <v>44187</v>
       </c>
       <c r="B139">
-        <v>23940702.6005865</v>
+        <v>285791544.52448899</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2010,7 +2011,7 @@
         <v>44188</v>
       </c>
       <c r="B140">
-        <v>20797072.028615098</v>
+        <v>284863331.14174902</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2018,7 +2019,7 @@
         <v>44189</v>
       </c>
       <c r="B141">
-        <v>19504741.0687682</v>
+        <v>284187579.50590098</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2026,7 +2027,7 @@
         <v>44190</v>
       </c>
       <c r="B142">
-        <v>16825197.563317101</v>
+        <v>283770892.460648</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2034,7 +2035,7 @@
         <v>44191</v>
       </c>
       <c r="B143">
-        <v>12013555.989280401</v>
+        <v>283647409.65916097</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2042,7 +2043,7 @@
         <v>44192</v>
       </c>
       <c r="B144">
-        <v>9553304.4702316299</v>
+        <v>283666592.02729601</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2050,7 +2051,7 @@
         <v>44193</v>
       </c>
       <c r="B145">
-        <v>8409466.7278399598</v>
+        <v>283603420.03191698</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2058,7 +2059,7 @@
         <v>44194</v>
       </c>
       <c r="B146">
-        <v>6921913.1506765196</v>
+        <v>283236375.633605</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2066,7 +2067,7 @@
         <v>44195</v>
       </c>
       <c r="B147">
-        <v>5791195.0356186703</v>
+        <v>282398973.406645</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2074,7 +2075,7 @@
         <v>44196</v>
       </c>
       <c r="B148">
-        <v>4916805.9539014297</v>
+        <v>281018470.08201301</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2082,7 +2083,7 @@
         <v>44197</v>
       </c>
       <c r="B149">
-        <v>4490515.7737753103</v>
+        <v>279117020.78414702</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2090,7 +2091,7 @@
         <v>44198</v>
       </c>
       <c r="B150">
-        <v>4154479.2196648698</v>
+        <v>276788708.108275</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2098,7 +2099,7 @@
         <v>44199</v>
       </c>
       <c r="B151">
-        <v>3346418.30501075</v>
+        <v>274164047.74967003</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2106,7 +2107,7 @@
         <v>44200</v>
       </c>
       <c r="B152">
-        <v>2478732.4982227799</v>
+        <v>271355298.08511901</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2114,7 +2115,7 @@
         <v>44201</v>
       </c>
       <c r="B153">
-        <v>2375210.5804286501</v>
+        <v>268391480.44453001</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2122,7 +2123,7 @@
         <v>44202</v>
       </c>
       <c r="B154">
-        <v>2983982.4367726902</v>
+        <v>265446596.827833</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2130,7 +2131,7 @@
         <v>44203</v>
       </c>
       <c r="B155">
-        <v>3713399.6854739301</v>
+        <v>262776775.59502801</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2138,7 +2139,7 @@
         <v>44204</v>
       </c>
       <c r="B156">
-        <v>4614941.7479522601</v>
+        <v>260260212.26121399</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2146,7 +2147,7 @@
         <v>44205</v>
       </c>
       <c r="B157">
-        <v>5416994.6864708802</v>
+        <v>257567527.681609</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2154,7 +2155,7 @@
         <v>44206</v>
       </c>
       <c r="B158">
-        <v>5185080.7115086801</v>
+        <v>254333227.62768301</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2162,7 +2163,7 @@
         <v>44207</v>
       </c>
       <c r="B159">
-        <v>4149548.20332785</v>
+        <v>250272085.438676</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2170,7 +2171,7 @@
         <v>44208</v>
       </c>
       <c r="B160">
-        <v>1150214.3330794801</v>
+        <v>245255451.053646</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2178,7 +2179,7 @@
         <v>44209</v>
       </c>
       <c r="B161">
-        <v>5878821.2334155096</v>
+        <v>239342011.120552</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2186,7 +2187,7 @@
         <v>44210</v>
       </c>
       <c r="B162">
-        <v>23043523.8013326</v>
+        <v>232733656.69102401</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2194,7 +2195,7 @@
         <v>44211</v>
       </c>
       <c r="B163">
-        <v>43057298.724749699</v>
+        <v>225708998.799061</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2202,7 +2203,7 @@
         <v>44212</v>
       </c>
       <c r="B164">
-        <v>56690130.424337797</v>
+        <v>218523901.02041399</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2210,7 +2211,7 @@
         <v>44213</v>
       </c>
       <c r="B165">
-        <v>55775871.060686097</v>
+        <v>211268507.99630201</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2218,7 +2219,7 @@
         <v>44214</v>
       </c>
       <c r="B166">
-        <v>46026397.572414503</v>
+        <v>203573355.24206799</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2226,7 +2227,7 @@
         <v>44215</v>
       </c>
       <c r="B167">
-        <v>35823748.196112998</v>
+        <v>194640814.350712</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2234,7 +2235,7 @@
         <v>44216</v>
       </c>
       <c r="B168">
-        <v>27858474.571679201</v>
+        <v>184183690.26295</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2242,7 +2243,7 @@
         <v>44217</v>
       </c>
       <c r="B169">
-        <v>16372325.6843579</v>
+        <v>172370184.53636101</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2250,7 +2251,7 @@
         <v>44218</v>
       </c>
       <c r="B170">
-        <v>8508788.4456460308</v>
+        <v>159618630.49922699</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2258,7 +2259,7 @@
         <v>44219</v>
       </c>
       <c r="B171">
-        <v>4044100.4250296601</v>
+        <v>146455250.47234899</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2266,7 +2267,7 @@
         <v>44220</v>
       </c>
       <c r="B172">
-        <v>6303748.8151956303</v>
+        <v>133430085.855168</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2274,7 +2275,7 @@
         <v>44221</v>
       </c>
       <c r="B173">
-        <v>13218396.5595927</v>
+        <v>121055745.223703</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2282,7 +2283,7 @@
         <v>44222</v>
       </c>
       <c r="B174">
-        <v>12900929.3439753</v>
+        <v>109758919.382681</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2290,7 +2291,7 @@
         <v>44223</v>
       </c>
       <c r="B175">
-        <v>8508147.0499232896</v>
+        <v>99850098.484926194</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2298,7 +2299,7 @@
         <v>44224</v>
       </c>
       <c r="B176">
-        <v>11201633.452349801</v>
+        <v>91467282.827981696</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2306,7 +2307,7 @@
         <v>44225</v>
       </c>
       <c r="B177">
-        <v>18363070.7349573</v>
+        <v>84489185.085167006</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2314,7 +2315,6199 @@
         <v>44226</v>
       </c>
       <c r="B178">
-        <v>24138162.443454798</v>
+        <v>78436742.300578296</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>44227</v>
+      </c>
+      <c r="B179">
+        <v>72869959.006111503</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B180">
+        <v>67848047.189273104</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>44229</v>
+      </c>
+      <c r="B181">
+        <v>63597828.1602557</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>44230</v>
+      </c>
+      <c r="B182">
+        <v>60364282.768329002</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>44231</v>
+      </c>
+      <c r="B183">
+        <v>58308181.467184797</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>44232</v>
+      </c>
+      <c r="B184">
+        <v>57437676.120463498</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>44233</v>
+      </c>
+      <c r="B185">
+        <v>57563917.734343402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>44234</v>
+      </c>
+      <c r="B186">
+        <v>58294553.8249432</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>44235</v>
+      </c>
+      <c r="B187">
+        <v>59112351.3131942</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>44236</v>
+      </c>
+      <c r="B188">
+        <v>59494280.138788201</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>44237</v>
+      </c>
+      <c r="B189">
+        <v>59090970.736604497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B190">
+        <v>57977057.644878097</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>44239</v>
+      </c>
+      <c r="B191">
+        <v>56709321.008032203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>44240</v>
+      </c>
+      <c r="B192">
+        <v>55385746.5883196</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>44241</v>
+      </c>
+      <c r="B193">
+        <v>53983441.448155098</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>44242</v>
+      </c>
+      <c r="B194">
+        <v>52557645.746865302</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>44243</v>
+      </c>
+      <c r="B195">
+        <v>51193762.761917002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>44244</v>
+      </c>
+      <c r="B196">
+        <v>49973312.347297601</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>44245</v>
+      </c>
+      <c r="B197">
+        <v>48952132.832115799</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>44246</v>
+      </c>
+      <c r="B198">
+        <v>48143811.508199602</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>44247</v>
+      </c>
+      <c r="B199">
+        <v>47518776.272732198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>44248</v>
+      </c>
+      <c r="B200">
+        <v>47019713.277391098</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>44249</v>
+      </c>
+      <c r="B201">
+        <v>46578628.4909935</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>44250</v>
+      </c>
+      <c r="B202">
+        <v>46142171.556885898</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>44251</v>
+      </c>
+      <c r="B203">
+        <v>45707797.531695299</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>44252</v>
+      </c>
+      <c r="B204">
+        <v>45252217.563556299</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>44253</v>
+      </c>
+      <c r="B205">
+        <v>44547656.577593498</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>44254</v>
+      </c>
+      <c r="B206">
+        <v>43608845.356024601</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B207">
+        <v>42650780.162772499</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B208">
+        <v>41952301.859483697</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>44257</v>
+      </c>
+      <c r="B209">
+        <v>41760712.001384102</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>44258</v>
+      </c>
+      <c r="B210">
+        <v>42230327.054604001</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>44259</v>
+      </c>
+      <c r="B211">
+        <v>43385697.436432101</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>44260</v>
+      </c>
+      <c r="B212">
+        <v>45136424.433695398</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>44261</v>
+      </c>
+      <c r="B213">
+        <v>47317938.621377997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>44262</v>
+      </c>
+      <c r="B214">
+        <v>49752497.194574602</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B215">
+        <v>52338112.803720102</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>44264</v>
+      </c>
+      <c r="B216">
+        <v>55141309.025264204</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>44265</v>
+      </c>
+      <c r="B217">
+        <v>58584865.113542601</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>44266</v>
+      </c>
+      <c r="B218">
+        <v>63155945.276646897</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>44267</v>
+      </c>
+      <c r="B219">
+        <v>68869549.274527997</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>44268</v>
+      </c>
+      <c r="B220">
+        <v>75438180.489501104</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>44269</v>
+      </c>
+      <c r="B221">
+        <v>82431657.065123707</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>44270</v>
+      </c>
+      <c r="B222">
+        <v>89383409.109748095</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>44271</v>
+      </c>
+      <c r="B223">
+        <v>95852553.288505197</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>44272</v>
+      </c>
+      <c r="B224">
+        <v>101468981.338093</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>44273</v>
+      </c>
+      <c r="B225">
+        <v>105959591.04181001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>44274</v>
+      </c>
+      <c r="B226">
+        <v>109175893.727097</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>44275</v>
+      </c>
+      <c r="B227">
+        <v>111143247.271552</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>44276</v>
+      </c>
+      <c r="B228">
+        <v>112127864.15426899</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B229">
+        <v>112535131.184508</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B230">
+        <v>112274885.791614</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>44279</v>
+      </c>
+      <c r="B231">
+        <v>111115321.008885</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>44280</v>
+      </c>
+      <c r="B232">
+        <v>108889913.306233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>44281</v>
+      </c>
+      <c r="B233">
+        <v>105537162.16417</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>44282</v>
+      </c>
+      <c r="B234">
+        <v>101127252.507107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>44283</v>
+      </c>
+      <c r="B235">
+        <v>95883919.709542498</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>44284</v>
+      </c>
+      <c r="B236">
+        <v>90200412.4481197</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>44285</v>
+      </c>
+      <c r="B237">
+        <v>84581988.758192003</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>44286</v>
+      </c>
+      <c r="B238">
+        <v>79548961.972168997</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B239">
+        <v>75495055.440467998</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>44288</v>
+      </c>
+      <c r="B240">
+        <v>72478161.928112701</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>44289</v>
+      </c>
+      <c r="B241">
+        <v>69982602.542214304</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>44290</v>
+      </c>
+      <c r="B242">
+        <v>67568144.551890597</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>44291</v>
+      </c>
+      <c r="B243">
+        <v>65298898.609009303</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>44292</v>
+      </c>
+      <c r="B244">
+        <v>63201246.686292998</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>44293</v>
+      </c>
+      <c r="B245">
+        <v>61248851.424838401</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>44294</v>
+      </c>
+      <c r="B246">
+        <v>59386650.4009711</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>44295</v>
+      </c>
+      <c r="B247">
+        <v>57548548.935178503</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>44296</v>
+      </c>
+      <c r="B248">
+        <v>55669377.193640701</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>44297</v>
+      </c>
+      <c r="B249">
+        <v>53693968.287469201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>44298</v>
+      </c>
+      <c r="B250">
+        <v>51581065.140824698</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>44299</v>
+      </c>
+      <c r="B251">
+        <v>49307002.207128897</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>44300</v>
+      </c>
+      <c r="B252">
+        <v>46871892.9860695</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>44301</v>
+      </c>
+      <c r="B253">
+        <v>44308139.793366298</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>44302</v>
+      </c>
+      <c r="B254">
+        <v>41626071.225226998</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>44303</v>
+      </c>
+      <c r="B255">
+        <v>38619508.722302601</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>44304</v>
+      </c>
+      <c r="B256">
+        <v>35210006.840275899</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>44305</v>
+      </c>
+      <c r="B257">
+        <v>31483746.6555361</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>44306</v>
+      </c>
+      <c r="B258">
+        <v>27604790.2959227</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>44307</v>
+      </c>
+      <c r="B259">
+        <v>23755478.041342799</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>44308</v>
+      </c>
+      <c r="B260">
+        <v>20100844.7168715</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>44309</v>
+      </c>
+      <c r="B261">
+        <v>16766211.698939299</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B262">
+        <v>13828657.015747</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>44311</v>
+      </c>
+      <c r="B263">
+        <v>11321404.4352962</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>44312</v>
+      </c>
+      <c r="B264">
+        <v>9235415.5763949603</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>44313</v>
+      </c>
+      <c r="B265">
+        <v>7519419.40147743</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>44314</v>
+      </c>
+      <c r="B266">
+        <v>6082326.8245965503</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>44315</v>
+      </c>
+      <c r="B267">
+        <v>4856744.1150449598</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>44316</v>
+      </c>
+      <c r="B268">
+        <v>3915076.1999917398</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B269">
+        <v>3365015.0648802202</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>44318</v>
+      </c>
+      <c r="B270">
+        <v>3292113.3695363202</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B271">
+        <v>3731453.2976950901</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B272">
+        <v>4648839.7132358998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B273">
+        <v>5928390.9013846004</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B274">
+        <v>7373054.8512914097</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B275">
+        <v>8743426.0431306809</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B276">
+        <v>9812692.8064847309</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B277">
+        <v>10446122.3432223</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B278">
+        <v>10709218.4568308</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B279">
+        <v>10883959.2595222</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B280">
+        <v>11028494.1592818</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B281">
+        <v>11125172.449965199</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B282">
+        <v>11190177.985970801</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B283">
+        <v>11255276.813965101</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B284">
+        <v>11353890.5992691</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B285">
+        <v>11512278.5308479</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B286">
+        <v>11744081.3737888</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B287">
+        <v>12049419.238351</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B288">
+        <v>12418802.489345901</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B289">
+        <v>12837256.6070046</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B290">
+        <v>13289901.547509899</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B291">
+        <v>13769849.853265399</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B292">
+        <v>14282496.2649091</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B293">
+        <v>14829612.5891323</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B294">
+        <v>15419368.5032636</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B295">
+        <v>16063983.019843001</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B296">
+        <v>16773285.296268901</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>44345</v>
+      </c>
+      <c r="B297">
+        <v>17549778.687619202</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>44346</v>
+      </c>
+      <c r="B298">
+        <v>18384620.681950901</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>44347</v>
+      </c>
+      <c r="B299">
+        <v>19253429.5040236</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B300">
+        <v>20120547.962755699</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>44349</v>
+      </c>
+      <c r="B301">
+        <v>20947611.973036099</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>44350</v>
+      </c>
+      <c r="B302">
+        <v>21705606.805119999</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>44351</v>
+      </c>
+      <c r="B303">
+        <v>22392163.461265098</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>44352</v>
+      </c>
+      <c r="B304">
+        <v>23046701.414038301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>44353</v>
+      </c>
+      <c r="B305">
+        <v>23568742.764123499</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>44354</v>
+      </c>
+      <c r="B306">
+        <v>23709309.245138001</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>44355</v>
+      </c>
+      <c r="B307">
+        <v>23448727.997373302</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>44356</v>
+      </c>
+      <c r="B308">
+        <v>22930280.4671514</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>44357</v>
+      </c>
+      <c r="B309">
+        <v>22366841.692324501</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>44358</v>
+      </c>
+      <c r="B310">
+        <v>21974601.058436301</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>44359</v>
+      </c>
+      <c r="B311">
+        <v>21928035.0207345</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>44360</v>
+      </c>
+      <c r="B312">
+        <v>22329867.305398501</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>44361</v>
+      </c>
+      <c r="B313">
+        <v>23212572.011729401</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>44362</v>
+      </c>
+      <c r="B314">
+        <v>24547779.8343153</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>44363</v>
+      </c>
+      <c r="B315">
+        <v>26259694.5957717</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>44364</v>
+      </c>
+      <c r="B316">
+        <v>28245664.150167599</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>44365</v>
+      </c>
+      <c r="B317">
+        <v>30376390.796725102</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>44366</v>
+      </c>
+      <c r="B318">
+        <v>32521739.499031499</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>44367</v>
+      </c>
+      <c r="B319">
+        <v>34726930.8134562</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>44368</v>
+      </c>
+      <c r="B320">
+        <v>37144829.811286002</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>44369</v>
+      </c>
+      <c r="B321">
+        <v>39949143.329557598</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>44370</v>
+      </c>
+      <c r="B322">
+        <v>43275869.074108399</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>44371</v>
+      </c>
+      <c r="B323">
+        <v>47185389.5064767</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>44372</v>
+      </c>
+      <c r="B324">
+        <v>51633980.280857503</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>44373</v>
+      </c>
+      <c r="B325">
+        <v>56481003.230557904</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>44374</v>
+      </c>
+      <c r="B326">
+        <v>61525509.205774203</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>44375</v>
+      </c>
+      <c r="B327">
+        <v>66560110.7230298</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>44376</v>
+      </c>
+      <c r="B328">
+        <v>71455586.9730452</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B329">
+        <v>76279097.889732406</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B330">
+        <v>81319643.514975697</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>44379</v>
+      </c>
+      <c r="B331">
+        <v>87002690.298686907</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>44380</v>
+      </c>
+      <c r="B332">
+        <v>93479942.542871907</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>44381</v>
+      </c>
+      <c r="B333">
+        <v>100638922.662146</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>44382</v>
+      </c>
+      <c r="B334">
+        <v>108219399.91945501</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>44383</v>
+      </c>
+      <c r="B335">
+        <v>115900444.42854901</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>44384</v>
+      </c>
+      <c r="B336">
+        <v>123360968.23369101</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>44385</v>
+      </c>
+      <c r="B337">
+        <v>130330928.864227</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>44386</v>
+      </c>
+      <c r="B338">
+        <v>136617593.92453399</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>44387</v>
+      </c>
+      <c r="B339">
+        <v>142123510.072716</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>44388</v>
+      </c>
+      <c r="B340">
+        <v>146871713.01723701</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>44389</v>
+      </c>
+      <c r="B341">
+        <v>151036372.240659</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>44390</v>
+      </c>
+      <c r="B342">
+        <v>154936721.49257001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>44391</v>
+      </c>
+      <c r="B343">
+        <v>158993392.522416</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>44392</v>
+      </c>
+      <c r="B344">
+        <v>163319622.78276101</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>44393</v>
+      </c>
+      <c r="B345">
+        <v>167651421.23428199</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>44394</v>
+      </c>
+      <c r="B346">
+        <v>171578907.97839001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>44395</v>
+      </c>
+      <c r="B347">
+        <v>174709455.53675199</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>44396</v>
+      </c>
+      <c r="B348">
+        <v>176770996.22187701</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>44397</v>
+      </c>
+      <c r="B349">
+        <v>177682354.022618</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>44398</v>
+      </c>
+      <c r="B350">
+        <v>177565244.03691199</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>44399</v>
+      </c>
+      <c r="B351">
+        <v>176688452.44247201</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>44400</v>
+      </c>
+      <c r="B352">
+        <v>175393341.706929</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>44401</v>
+      </c>
+      <c r="B353">
+        <v>173978379.428027</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>44402</v>
+      </c>
+      <c r="B354">
+        <v>172527577.25866899</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B355">
+        <v>170746976.00337499</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>44404</v>
+      </c>
+      <c r="B356">
+        <v>168264803.42715299</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>44405</v>
+      </c>
+      <c r="B357">
+        <v>164860550.67488399</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B358">
+        <v>160456639.82332799</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>44407</v>
+      </c>
+      <c r="B359">
+        <v>155107434.71064401</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>44408</v>
+      </c>
+      <c r="B360">
+        <v>148989451.06151801</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B361">
+        <v>142396349.000386</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>44410</v>
+      </c>
+      <c r="B362">
+        <v>135724530.55857399</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>44411</v>
+      </c>
+      <c r="B363">
+        <v>129411077.29997499</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>44412</v>
+      </c>
+      <c r="B364">
+        <v>123850244.308879</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>44413</v>
+      </c>
+      <c r="B365">
+        <v>119271006.808972</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>44414</v>
+      </c>
+      <c r="B366">
+        <v>115567600.913618</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>44415</v>
+      </c>
+      <c r="B367">
+        <v>112206904.826591</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>44416</v>
+      </c>
+      <c r="B368">
+        <v>108863457.16288701</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>44417</v>
+      </c>
+      <c r="B369">
+        <v>105443553.151133</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>44418</v>
+      </c>
+      <c r="B370">
+        <v>102023597.625367</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>44419</v>
+      </c>
+      <c r="B371">
+        <v>98762247.669325903</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>44420</v>
+      </c>
+      <c r="B372">
+        <v>95823830.078463107</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>44421</v>
+      </c>
+      <c r="B373">
+        <v>93327101.173205793</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>44422</v>
+      </c>
+      <c r="B374">
+        <v>91311302.360176399</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>44423</v>
+      </c>
+      <c r="B375">
+        <v>89724181.160085797</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>44424</v>
+      </c>
+      <c r="B376">
+        <v>88445072.356409803</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>44425</v>
+      </c>
+      <c r="B377">
+        <v>87319708.193703905</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>44426</v>
+      </c>
+      <c r="B378">
+        <v>86213618.231712207</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>44427</v>
+      </c>
+      <c r="B379">
+        <v>85089715.042315096</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>44428</v>
+      </c>
+      <c r="B380">
+        <v>84073002.801645204</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>44429</v>
+      </c>
+      <c r="B381">
+        <v>83297512.209974393</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>44430</v>
+      </c>
+      <c r="B382">
+        <v>82850882.264733002</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B383">
+        <v>82782114.812557802</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>44432</v>
+      </c>
+      <c r="B384">
+        <v>83097230.810887799</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>44433</v>
+      </c>
+      <c r="B385">
+        <v>83757323.804334506</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>44434</v>
+      </c>
+      <c r="B386">
+        <v>84676400.284518197</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>44435</v>
+      </c>
+      <c r="B387">
+        <v>85721722.711051598</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>44436</v>
+      </c>
+      <c r="B388">
+        <v>86732125.788769796</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>44437</v>
+      </c>
+      <c r="B389">
+        <v>87545454.289136603</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>44438</v>
+      </c>
+      <c r="B390">
+        <v>88039842.736910701</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>44439</v>
+      </c>
+      <c r="B391">
+        <v>88195605.252707407</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B392">
+        <v>88170070.4600171</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>44441</v>
+      </c>
+      <c r="B393">
+        <v>88206099.000350505</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>44442</v>
+      </c>
+      <c r="B394">
+        <v>88575047.643089503</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>44443</v>
+      </c>
+      <c r="B395">
+        <v>89319821.057895407</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>44444</v>
+      </c>
+      <c r="B396">
+        <v>90290593.438583001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>44445</v>
+      </c>
+      <c r="B397">
+        <v>91255103.754349798</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>44446</v>
+      </c>
+      <c r="B398">
+        <v>91978531.164775804</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>44447</v>
+      </c>
+      <c r="B399">
+        <v>92277076.830100402</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>44448</v>
+      </c>
+      <c r="B400">
+        <v>92052409.336821005</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>44449</v>
+      </c>
+      <c r="B401">
+        <v>91291038.763320699</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>44450</v>
+      </c>
+      <c r="B402">
+        <v>90048999.314172298</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>44451</v>
+      </c>
+      <c r="B403">
+        <v>88427835.944692507</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>44452</v>
+      </c>
+      <c r="B404">
+        <v>86538447.913958102</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>44453</v>
+      </c>
+      <c r="B405">
+        <v>84416292.620781496</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>44454</v>
+      </c>
+      <c r="B406">
+        <v>81862401.769220993</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>44455</v>
+      </c>
+      <c r="B407">
+        <v>78727569.136381507</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>44456</v>
+      </c>
+      <c r="B408">
+        <v>74994663.9836393</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>44457</v>
+      </c>
+      <c r="B409">
+        <v>70736125.516079798</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>44458</v>
+      </c>
+      <c r="B410">
+        <v>66082758.050217502</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>44459</v>
+      </c>
+      <c r="B411">
+        <v>61206100.083400302</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>44460</v>
+      </c>
+      <c r="B412">
+        <v>56309690.040218599</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>44461</v>
+      </c>
+      <c r="B413">
+        <v>51610583.90174</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>44462</v>
+      </c>
+      <c r="B414">
+        <v>47315158.328117304</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>44463</v>
+      </c>
+      <c r="B415">
+        <v>43581707.379751198</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>44464</v>
+      </c>
+      <c r="B416">
+        <v>40458228.814687803</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>44465</v>
+      </c>
+      <c r="B417">
+        <v>37794553.257312201</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>44466</v>
+      </c>
+      <c r="B418">
+        <v>35282027.020219699</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>44467</v>
+      </c>
+      <c r="B419">
+        <v>32804773.107825801</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>44468</v>
+      </c>
+      <c r="B420">
+        <v>30409091.267830901</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B421">
+        <v>28212397.2814821</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B422">
+        <v>26338087.058828</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>44471</v>
+      </c>
+      <c r="B423">
+        <v>24869570.675806399</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>44472</v>
+      </c>
+      <c r="B424">
+        <v>23819446.889395501</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>44473</v>
+      </c>
+      <c r="B425">
+        <v>23112623.984745599</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>44474</v>
+      </c>
+      <c r="B426">
+        <v>22607441.292618699</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>44475</v>
+      </c>
+      <c r="B427">
+        <v>22136037.150360201</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>44476</v>
+      </c>
+      <c r="B428">
+        <v>21564760.231325999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>44477</v>
+      </c>
+      <c r="B429">
+        <v>20879153.569698501</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>44478</v>
+      </c>
+      <c r="B430">
+        <v>20222249.088497199</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>44479</v>
+      </c>
+      <c r="B431">
+        <v>19636720.623642299</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>44480</v>
+      </c>
+      <c r="B432">
+        <v>19140997.741532601</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>44481</v>
+      </c>
+      <c r="B433">
+        <v>18783481.855566502</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>44482</v>
+      </c>
+      <c r="B434">
+        <v>18614986.260965001</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>44483</v>
+      </c>
+      <c r="B435">
+        <v>18669014.335600998</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>44484</v>
+      </c>
+      <c r="B436">
+        <v>18948953.188857101</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>44485</v>
+      </c>
+      <c r="B437">
+        <v>19418499.655933298</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>44486</v>
+      </c>
+      <c r="B438">
+        <v>20003118.256334201</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>44487</v>
+      </c>
+      <c r="B439">
+        <v>20606543.311795998</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>44488</v>
+      </c>
+      <c r="B440">
+        <v>21132141.930904001</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>44489</v>
+      </c>
+      <c r="B441">
+        <v>21516344.825268898</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>44490</v>
+      </c>
+      <c r="B442">
+        <v>21776725.335237101</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>44491</v>
+      </c>
+      <c r="B443">
+        <v>22006727.593983799</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>44492</v>
+      </c>
+      <c r="B444">
+        <v>22178490.915890999</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>44493</v>
+      </c>
+      <c r="B445">
+        <v>22281477.720950801</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>44494</v>
+      </c>
+      <c r="B446">
+        <v>22349964.274945099</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>44495</v>
+      </c>
+      <c r="B447">
+        <v>22436366.213256501</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>44496</v>
+      </c>
+      <c r="B448">
+        <v>22592130.664051998</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>44497</v>
+      </c>
+      <c r="B449">
+        <v>22854849.3940579</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>44498</v>
+      </c>
+      <c r="B450">
+        <v>23237198.958590101</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>44499</v>
+      </c>
+      <c r="B451">
+        <v>23727628.967398901</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>44500</v>
+      </c>
+      <c r="B452">
+        <v>24298118.4036984</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B453">
+        <v>24914576.485336602</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>44502</v>
+      </c>
+      <c r="B454">
+        <v>25552363.0201976</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>44503</v>
+      </c>
+      <c r="B455">
+        <v>26214942.2719739</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>44504</v>
+      </c>
+      <c r="B456">
+        <v>26905301.441097099</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>44505</v>
+      </c>
+      <c r="B457">
+        <v>27613756.756786</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>44506</v>
+      </c>
+      <c r="B458">
+        <v>28354142.675306302</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>44507</v>
+      </c>
+      <c r="B459">
+        <v>29151949.983631499</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>44508</v>
+      </c>
+      <c r="B460">
+        <v>30031855.518993702</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>44509</v>
+      </c>
+      <c r="B461">
+        <v>31009226.7883025</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>44510</v>
+      </c>
+      <c r="B462">
+        <v>32084596.212527599</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>44511</v>
+      </c>
+      <c r="B463">
+        <v>33241339.8767136</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>44512</v>
+      </c>
+      <c r="B464">
+        <v>34449025.725628302</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>44513</v>
+      </c>
+      <c r="B465">
+        <v>35670782.531261198</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>44514</v>
+      </c>
+      <c r="B466">
+        <v>36875357.525919802</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B467">
+        <v>38054882.893467501</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>44516</v>
+      </c>
+      <c r="B468">
+        <v>39190268.1694168</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>44517</v>
+      </c>
+      <c r="B469">
+        <v>40129473.993241698</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>44518</v>
+      </c>
+      <c r="B470">
+        <v>40839884.747690201</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>44519</v>
+      </c>
+      <c r="B471">
+        <v>41406768.641370997</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>44520</v>
+      </c>
+      <c r="B472">
+        <v>41964672.895295396</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>44521</v>
+      </c>
+      <c r="B473">
+        <v>42650459.783621699</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>44522</v>
+      </c>
+      <c r="B474">
+        <v>43574459.886072099</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>44523</v>
+      </c>
+      <c r="B475">
+        <v>44799516.654648803</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>44524</v>
+      </c>
+      <c r="B476">
+        <v>46337323.500272296</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>44525</v>
+      </c>
+      <c r="B477">
+        <v>48159997.164159097</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>44526</v>
+      </c>
+      <c r="B478">
+        <v>50213028.857277699</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>44527</v>
+      </c>
+      <c r="B479">
+        <v>52434521.221893698</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>44528</v>
+      </c>
+      <c r="B480">
+        <v>54784030.562779397</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>44529</v>
+      </c>
+      <c r="B481">
+        <v>57318973.3492079</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>44530</v>
+      </c>
+      <c r="B482">
+        <v>60265140.555210799</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B483">
+        <v>63742289.114434399</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B484">
+        <v>67739530.230249196</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>44533</v>
+      </c>
+      <c r="B485">
+        <v>72156177.3851275</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>44534</v>
+      </c>
+      <c r="B486">
+        <v>76833792.850198597</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>44535</v>
+      </c>
+      <c r="B487">
+        <v>81579494.266874</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>44536</v>
+      </c>
+      <c r="B488">
+        <v>86191912.538319901</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>44537</v>
+      </c>
+      <c r="B489">
+        <v>90487539.601922899</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>44538</v>
+      </c>
+      <c r="B490">
+        <v>94329681.353833407</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>44539</v>
+      </c>
+      <c r="B491">
+        <v>97670979.120623693</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>44540</v>
+      </c>
+      <c r="B492">
+        <v>100610094.54278199</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>44541</v>
+      </c>
+      <c r="B493">
+        <v>103382152.210596</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>44542</v>
+      </c>
+      <c r="B494">
+        <v>106065175.995537</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>44543</v>
+      </c>
+      <c r="B495">
+        <v>108618887.66022401</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>44544</v>
+      </c>
+      <c r="B496">
+        <v>110959740.282483</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>44545</v>
+      </c>
+      <c r="B497">
+        <v>113004164.296258</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B498">
+        <v>114696336.595035</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>44547</v>
+      </c>
+      <c r="B499">
+        <v>116024535.734459</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>44548</v>
+      </c>
+      <c r="B500">
+        <v>117028964.070022</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>44549</v>
+      </c>
+      <c r="B501">
+        <v>117796924.906967</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>44550</v>
+      </c>
+      <c r="B502">
+        <v>118447808.03735299</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B503">
+        <v>119108280.8184</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B504">
+        <v>119871565.903072</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>44553</v>
+      </c>
+      <c r="B505">
+        <v>120735956.596525</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>44554</v>
+      </c>
+      <c r="B506">
+        <v>121338319.96813799</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>44555</v>
+      </c>
+      <c r="B507">
+        <v>120844154.20615</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>44556</v>
+      </c>
+      <c r="B508">
+        <v>119093554.732811</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>44557</v>
+      </c>
+      <c r="B509">
+        <v>116491858.204016</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>44558</v>
+      </c>
+      <c r="B510">
+        <v>113697004.96055201</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>44559</v>
+      </c>
+      <c r="B511">
+        <v>111400217.078839</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>44560</v>
+      </c>
+      <c r="B512">
+        <v>110186051.4897</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>44561</v>
+      </c>
+      <c r="B513">
+        <v>110433867.66144501</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B514">
+        <v>112295460.27094699</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44563</v>
+      </c>
+      <c r="B515">
+        <v>115718791.39610399</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44564</v>
+      </c>
+      <c r="B516">
+        <v>120484144.032194</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44565</v>
+      </c>
+      <c r="B517">
+        <v>126265535.929741</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44566</v>
+      </c>
+      <c r="B518">
+        <v>132755512.73757701</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44567</v>
+      </c>
+      <c r="B519">
+        <v>140363942.227927</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44568</v>
+      </c>
+      <c r="B520">
+        <v>150018837.83759499</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44569</v>
+      </c>
+      <c r="B521">
+        <v>161999585.02631101</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44570</v>
+      </c>
+      <c r="B522">
+        <v>176065053.064347</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44571</v>
+      </c>
+      <c r="B523">
+        <v>191651743.50587499</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44572</v>
+      </c>
+      <c r="B524">
+        <v>208015004.91685101</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B525">
+        <v>224317107.07463399</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>44574</v>
+      </c>
+      <c r="B526">
+        <v>239717949.552237</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>44575</v>
+      </c>
+      <c r="B527">
+        <v>253470078.23307201</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>44576</v>
+      </c>
+      <c r="B528">
+        <v>265029780.68977201</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>44577</v>
+      </c>
+      <c r="B529">
+        <v>274235107.81313902</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>44578</v>
+      </c>
+      <c r="B530">
+        <v>281553986.19746101</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>44579</v>
+      </c>
+      <c r="B531">
+        <v>288303965.14556497</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>44580</v>
+      </c>
+      <c r="B532">
+        <v>295594467.571661</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>44581</v>
+      </c>
+      <c r="B533">
+        <v>303354863.10835099</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>44582</v>
+      </c>
+      <c r="B534">
+        <v>310839064.14536899</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>44583</v>
+      </c>
+      <c r="B535">
+        <v>317099856.12180901</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>44584</v>
+      </c>
+      <c r="B536">
+        <v>321313238.83347797</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>44585</v>
+      </c>
+      <c r="B537">
+        <v>322985924.13236099</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>44586</v>
+      </c>
+      <c r="B538">
+        <v>322110340.41552198</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>44587</v>
+      </c>
+      <c r="B539">
+        <v>319137547.596017</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>44588</v>
+      </c>
+      <c r="B540">
+        <v>314816283.14837599</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>44589</v>
+      </c>
+      <c r="B541">
+        <v>309968328.99861699</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>44590</v>
+      </c>
+      <c r="B542">
+        <v>305143786.981359</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>44591</v>
+      </c>
+      <c r="B543">
+        <v>300152138.29150802</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>44592</v>
+      </c>
+      <c r="B544">
+        <v>294374079.09053099</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B545">
+        <v>287362625.13955998</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>44594</v>
+      </c>
+      <c r="B546">
+        <v>278681082.43803298</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>44595</v>
+      </c>
+      <c r="B547">
+        <v>268042350.85469699</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>44596</v>
+      </c>
+      <c r="B548">
+        <v>255386029.396189</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>44597</v>
+      </c>
+      <c r="B549">
+        <v>240923978.19843701</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B550">
+        <v>225168074.75027299</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>44599</v>
+      </c>
+      <c r="B551">
+        <v>208906014.288497</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>44600</v>
+      </c>
+      <c r="B552">
+        <v>193055076.19067401</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>44601</v>
+      </c>
+      <c r="B553">
+        <v>178465904.08227399</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>44602</v>
+      </c>
+      <c r="B554">
+        <v>165632231.113069</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>44603</v>
+      </c>
+      <c r="B555">
+        <v>154291289.45087999</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>44604</v>
+      </c>
+      <c r="B556">
+        <v>143277140.75089499</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>44605</v>
+      </c>
+      <c r="B557">
+        <v>131704584.19250301</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>44606</v>
+      </c>
+      <c r="B558">
+        <v>119359609.186057</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>44607</v>
+      </c>
+      <c r="B559">
+        <v>106532442.547499</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>44608</v>
+      </c>
+      <c r="B560">
+        <v>93733055.571184203</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>44609</v>
+      </c>
+      <c r="B561">
+        <v>81492063.976648793</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>44610</v>
+      </c>
+      <c r="B562">
+        <v>70236546.940392897</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>44611</v>
+      </c>
+      <c r="B563">
+        <v>60207218.711695001</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>44612</v>
+      </c>
+      <c r="B564">
+        <v>51436211.768446803</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>44613</v>
+      </c>
+      <c r="B565">
+        <v>43791887.056942098</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>44614</v>
+      </c>
+      <c r="B566">
+        <v>37034198.695013702</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B567">
+        <v>30896301.408496398</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>44616</v>
+      </c>
+      <c r="B568">
+        <v>25207431.913121201</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>44617</v>
+      </c>
+      <c r="B569">
+        <v>19994796.890441399</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44618</v>
+      </c>
+      <c r="B570">
+        <v>15386592.133828999</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44619</v>
+      </c>
+      <c r="B571">
+        <v>11629728.726431699</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44620</v>
+      </c>
+      <c r="B572">
+        <v>8983980.1242714506</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B573">
+        <v>7616715.7527455296</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44622</v>
+      </c>
+      <c r="B574">
+        <v>7530230.5249478202</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44623</v>
+      </c>
+      <c r="B575">
+        <v>8511975.4691117201</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>44624</v>
+      </c>
+      <c r="B576">
+        <v>10115692.964003099</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>44625</v>
+      </c>
+      <c r="B577">
+        <v>11750222.296380101</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>44626</v>
+      </c>
+      <c r="B578">
+        <v>12818446.2658264</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>44627</v>
+      </c>
+      <c r="B579">
+        <v>12920414.760503201</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>44628</v>
+      </c>
+      <c r="B580">
+        <v>12134892.365904201</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>44629</v>
+      </c>
+      <c r="B581">
+        <v>11143152.991222501</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>44630</v>
+      </c>
+      <c r="B582">
+        <v>10176868.556200599</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>44631</v>
+      </c>
+      <c r="B583">
+        <v>9224978.4770674706</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>44632</v>
+      </c>
+      <c r="B584">
+        <v>8320221.2965414803</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B585">
+        <v>7511677.3080881797</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>44634</v>
+      </c>
+      <c r="B586">
+        <v>6842795.5246173898</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>44635</v>
+      </c>
+      <c r="B587">
+        <v>6336771.0105524398</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>44636</v>
+      </c>
+      <c r="B588">
+        <v>5985927.1375240898</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>44637</v>
+      </c>
+      <c r="B589">
+        <v>5749942.1395271104</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>44638</v>
+      </c>
+      <c r="B590">
+        <v>5567949.6217615204</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>44639</v>
+      </c>
+      <c r="B591">
+        <v>5373876.61046746</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B592">
+        <v>5119812.62515161</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>44641</v>
+      </c>
+      <c r="B593">
+        <v>4809353.4589918097</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>44642</v>
+      </c>
+      <c r="B594">
+        <v>4512973.9369681301</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B595">
+        <v>4266887.2310732901</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>44644</v>
+      </c>
+      <c r="B596">
+        <v>4086221.2235894199</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>44645</v>
+      </c>
+      <c r="B597">
+        <v>3980818.1008055899</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>44646</v>
+      </c>
+      <c r="B598">
+        <v>3953347.8214748902</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>44647</v>
+      </c>
+      <c r="B599">
+        <v>3998061.1782596</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>44648</v>
+      </c>
+      <c r="B600">
+        <v>4099607.5585818202</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>44649</v>
+      </c>
+      <c r="B601">
+        <v>4232164.2834891202</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>44650</v>
+      </c>
+      <c r="B602">
+        <v>4362528.1657063197</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>44651</v>
+      </c>
+      <c r="B603">
+        <v>4455977.2242091903</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B604">
+        <v>4485541.4512442304</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B605">
+        <v>4445955.5404309696</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>44654</v>
+      </c>
+      <c r="B606">
+        <v>4369455.2805300802</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>44655</v>
+      </c>
+      <c r="B607">
+        <v>4269213.0281979702</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B608">
+        <v>4103066.41236954</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>44657</v>
+      </c>
+      <c r="B609">
+        <v>3862514.2415899001</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B610">
+        <v>3568123.61880277</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>44659</v>
+      </c>
+      <c r="B611">
+        <v>3254042.2214059802</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>44660</v>
+      </c>
+      <c r="B612">
+        <v>2956780.6872789101</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>44661</v>
+      </c>
+      <c r="B613">
+        <v>2707646.19928848</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>44662</v>
+      </c>
+      <c r="B614">
+        <v>2527596.8249077299</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>44663</v>
+      </c>
+      <c r="B615">
+        <v>2426777.4592041699</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>44664</v>
+      </c>
+      <c r="B616">
+        <v>2405227.8698537699</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>44665</v>
+      </c>
+      <c r="B617">
+        <v>2453763.13653138</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44666</v>
+      </c>
+      <c r="B618">
+        <v>2555410.98767797</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44667</v>
+      </c>
+      <c r="B619">
+        <v>2690784.1866045902</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44668</v>
+      </c>
+      <c r="B620">
+        <v>2854790.7830368201</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44669</v>
+      </c>
+      <c r="B621">
+        <v>3056333.71142474</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44670</v>
+      </c>
+      <c r="B622">
+        <v>3309316.3304614001</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B623">
+        <v>3626122.3320011999</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44672</v>
+      </c>
+      <c r="B624">
+        <v>4013151.1413647602</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44673</v>
+      </c>
+      <c r="B625">
+        <v>4467620.8887858698</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44674</v>
+      </c>
+      <c r="B626">
+        <v>4974507.6060458999</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44675</v>
+      </c>
+      <c r="B627">
+        <v>5507708.0836227899</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>44676</v>
+      </c>
+      <c r="B628">
+        <v>6035236.2495323699</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44677</v>
+      </c>
+      <c r="B629">
+        <v>6526747.68821254</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>44678</v>
+      </c>
+      <c r="B630">
+        <v>6965570.7455139598</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44679</v>
+      </c>
+      <c r="B631">
+        <v>7365735.8596304897</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>44680</v>
+      </c>
+      <c r="B632">
+        <v>7755957.7244342398</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44681</v>
+      </c>
+      <c r="B633">
+        <v>8123759.3227152796</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B634">
+        <v>8470143.8671508394</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44683</v>
+      </c>
+      <c r="B635">
+        <v>8810711.7668788098</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>44684</v>
+      </c>
+      <c r="B636">
+        <v>9166013.0310579203</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B637">
+        <v>9554855.5606522094</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>44686</v>
+      </c>
+      <c r="B638">
+        <v>9990148.5659247991</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44687</v>
+      </c>
+      <c r="B639">
+        <v>10476816.6464711</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>44688</v>
+      </c>
+      <c r="B640">
+        <v>11012177.496752299</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B641">
+        <v>11587840.8549091</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>44690</v>
+      </c>
+      <c r="B642">
+        <v>12192794.5044361</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44691</v>
+      </c>
+      <c r="B643">
+        <v>12818060.6412584</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>44692</v>
+      </c>
+      <c r="B644">
+        <v>13464909.8241606</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44693</v>
+      </c>
+      <c r="B645">
+        <v>14179829.135591701</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>44694</v>
+      </c>
+      <c r="B646">
+        <v>15006258.0095708</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44695</v>
+      </c>
+      <c r="B647">
+        <v>15944336.439164801</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>44696</v>
+      </c>
+      <c r="B648">
+        <v>16967634.896777801</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44697</v>
+      </c>
+      <c r="B649">
+        <v>18036711.849686701</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>44698</v>
+      </c>
+      <c r="B650">
+        <v>19107989.695106801</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B651">
+        <v>20139282.726868901</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>44700</v>
+      </c>
+      <c r="B652">
+        <v>21094607.169998799</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44701</v>
+      </c>
+      <c r="B653">
+        <v>21946786.616260499</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>44702</v>
+      </c>
+      <c r="B654">
+        <v>22680496.462094501</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44703</v>
+      </c>
+      <c r="B655">
+        <v>23297644.213827498</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>44704</v>
+      </c>
+      <c r="B656">
+        <v>23824795.252724499</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44705</v>
+      </c>
+      <c r="B657">
+        <v>24294821.5061589</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>44706</v>
+      </c>
+      <c r="B658">
+        <v>24673630.0802962</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B659">
+        <v>24941916.876242898</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>44708</v>
+      </c>
+      <c r="B660">
+        <v>25108855.159030501</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44709</v>
+      </c>
+      <c r="B661">
+        <v>25200410.7432983</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>44710</v>
+      </c>
+      <c r="B662">
+        <v>25251162.002922699</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44711</v>
+      </c>
+      <c r="B663">
+        <v>25299479.4452563</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>44712</v>
+      </c>
+      <c r="B664">
+        <v>25384043.901532602</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B665">
+        <v>25540189.872202098</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>44714</v>
+      </c>
+      <c r="B666">
+        <v>25795675.080571</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44715</v>
+      </c>
+      <c r="B667">
+        <v>26163654.213243298</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>44716</v>
+      </c>
+      <c r="B668">
+        <v>26632620.6891899</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44717</v>
+      </c>
+      <c r="B669">
+        <v>27159704.347817399</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>44718</v>
+      </c>
+      <c r="B670">
+        <v>27739326.673652899</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>44719</v>
+      </c>
+      <c r="B671">
+        <v>28413278.762708601</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>44720</v>
+      </c>
+      <c r="B672">
+        <v>29204550.2055787</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>44721</v>
+      </c>
+      <c r="B673">
+        <v>30115345.993003499</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>44722</v>
+      </c>
+      <c r="B674">
+        <v>31130867.753069699</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>44723</v>
+      </c>
+      <c r="B675">
+        <v>32222530.1684536</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>44724</v>
+      </c>
+      <c r="B676">
+        <v>33350282.6451573</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>44725</v>
+      </c>
+      <c r="B677">
+        <v>34467064.060472697</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>44726</v>
+      </c>
+      <c r="B678">
+        <v>35525794.866965197</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>44727</v>
+      </c>
+      <c r="B679">
+        <v>36487778.320652701</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>44728</v>
+      </c>
+      <c r="B680">
+        <v>37335584.627977498</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>44729</v>
+      </c>
+      <c r="B681">
+        <v>38091012.464028597</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>44730</v>
+      </c>
+      <c r="B682">
+        <v>38838260.207218103</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>44731</v>
+      </c>
+      <c r="B683">
+        <v>39672481.242691301</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>44732</v>
+      </c>
+      <c r="B684">
+        <v>40611513.038056903</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>44733</v>
+      </c>
+      <c r="B685">
+        <v>41619868.441155396</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>44734</v>
+      </c>
+      <c r="B686">
+        <v>42638469.055947699</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>44735</v>
+      </c>
+      <c r="B687">
+        <v>43605267.062145598</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>44736</v>
+      </c>
+      <c r="B688">
+        <v>44468306.797723301</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44737</v>
+      </c>
+      <c r="B689">
+        <v>45196282.965773098</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>44738</v>
+      </c>
+      <c r="B690">
+        <v>45781677.090240702</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44739</v>
+      </c>
+      <c r="B691">
+        <v>46236435.125316702</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>44740</v>
+      </c>
+      <c r="B692">
+        <v>46586461.199099697</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44741</v>
+      </c>
+      <c r="B693">
+        <v>46862874.211485803</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>44742</v>
+      </c>
+      <c r="B694">
+        <v>47088719.982943498</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B695">
+        <v>47240847.560182698</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
+        <v>44744</v>
+      </c>
+      <c r="B696">
+        <v>47219972.182903104</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
+        <v>44745</v>
+      </c>
+      <c r="B697">
+        <v>46996645.537169397</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="1">
+        <v>44746</v>
+      </c>
+      <c r="B698">
+        <v>46609461.598882101</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="1">
+        <v>44747</v>
+      </c>
+      <c r="B699">
+        <v>46131774.414515696</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="1">
+        <v>44748</v>
+      </c>
+      <c r="B700">
+        <v>45647575.243587099</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="1">
+        <v>44749</v>
+      </c>
+      <c r="B701">
+        <v>45235767.559846103</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="1">
+        <v>44750</v>
+      </c>
+      <c r="B702">
+        <v>44959407.504229702</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="1">
+        <v>44751</v>
+      </c>
+      <c r="B703">
+        <v>44862195.742859401</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="1">
+        <v>44752</v>
+      </c>
+      <c r="B704">
+        <v>44965803.556190498</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="1">
+        <v>44753</v>
+      </c>
+      <c r="B705">
+        <v>45265008.253326699</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="1">
+        <v>44754</v>
+      </c>
+      <c r="B706">
+        <v>45721282.117205903</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="1">
+        <v>44755</v>
+      </c>
+      <c r="B707">
+        <v>46293758.965565003</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="1">
+        <v>44756</v>
+      </c>
+      <c r="B708">
+        <v>47139670.401887402</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="1">
+        <v>44757</v>
+      </c>
+      <c r="B709">
+        <v>48378171.872246802</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="1">
+        <v>44758</v>
+      </c>
+      <c r="B710">
+        <v>49987043.344017804</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="1">
+        <v>44759</v>
+      </c>
+      <c r="B711">
+        <v>51863861.801469803</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="1">
+        <v>44760</v>
+      </c>
+      <c r="B712">
+        <v>53871099.010763399</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="1">
+        <v>44761</v>
+      </c>
+      <c r="B713">
+        <v>55864036.386337399</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="1">
+        <v>44762</v>
+      </c>
+      <c r="B714">
+        <v>57707356.647575401</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="1">
+        <v>44763</v>
+      </c>
+      <c r="B715">
+        <v>59287551.727225997</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="1">
+        <v>44764</v>
+      </c>
+      <c r="B716">
+        <v>60518459.788587801</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="1">
+        <v>44765</v>
+      </c>
+      <c r="B717">
+        <v>61350715.364936098</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="1">
+        <v>44766</v>
+      </c>
+      <c r="B718">
+        <v>61789805.159194097</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="1">
+        <v>44767</v>
+      </c>
+      <c r="B719">
+        <v>61921505.878132001</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="1">
+        <v>44768</v>
+      </c>
+      <c r="B720">
+        <v>61831632.885167599</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="1">
+        <v>44769</v>
+      </c>
+      <c r="B721">
+        <v>61336106.689130001</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="1">
+        <v>44770</v>
+      </c>
+      <c r="B722">
+        <v>60319756.857290797</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="1">
+        <v>44771</v>
+      </c>
+      <c r="B723">
+        <v>58792974.084431797</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="1">
+        <v>44772</v>
+      </c>
+      <c r="B724">
+        <v>56851054.573054202</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="1">
+        <v>44773</v>
+      </c>
+      <c r="B725">
+        <v>54643718.634330198</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B726">
+        <v>52354740.5865786</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="1">
+        <v>44775</v>
+      </c>
+      <c r="B727">
+        <v>50180318.0000282</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="1">
+        <v>44776</v>
+      </c>
+      <c r="B728">
+        <v>48303996.094782896</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="1">
+        <v>44777</v>
+      </c>
+      <c r="B729">
+        <v>46869281.487740599</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="1">
+        <v>44778</v>
+      </c>
+      <c r="B730">
+        <v>45938282.682503</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="1">
+        <v>44779</v>
+      </c>
+      <c r="B731">
+        <v>45435435.929444298</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="1">
+        <v>44780</v>
+      </c>
+      <c r="B732">
+        <v>45131615.8828886</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="1">
+        <v>44781</v>
+      </c>
+      <c r="B733">
+        <v>45023922.908141397</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="1">
+        <v>44782</v>
+      </c>
+      <c r="B734">
+        <v>45247607.3267866</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="1">
+        <v>44783</v>
+      </c>
+      <c r="B735">
+        <v>45825504.857206799</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="1">
+        <v>44784</v>
+      </c>
+      <c r="B736">
+        <v>46701061.9338466</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="1">
+        <v>44785</v>
+      </c>
+      <c r="B737">
+        <v>47775283.776938803</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="1">
+        <v>44786</v>
+      </c>
+      <c r="B738">
+        <v>48932000.3625542</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="1">
+        <v>44787</v>
+      </c>
+      <c r="B739">
+        <v>50053718.431577697</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="1">
+        <v>44788</v>
+      </c>
+      <c r="B740">
+        <v>51032935.3462971</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B741">
+        <v>51777350.065127701</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="1">
+        <v>44790</v>
+      </c>
+      <c r="B742">
+        <v>52220253.7620131</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="1">
+        <v>44791</v>
+      </c>
+      <c r="B743">
+        <v>52340263.586151302</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="1">
+        <v>44792</v>
+      </c>
+      <c r="B744">
+        <v>52190552.996569797</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="1">
+        <v>44793</v>
+      </c>
+      <c r="B745">
+        <v>51891325.836958401</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="1">
+        <v>44794</v>
+      </c>
+      <c r="B746">
+        <v>51452725.025908299</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="1">
+        <v>44795</v>
+      </c>
+      <c r="B747">
+        <v>50821170.762778603</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="1">
+        <v>44796</v>
+      </c>
+      <c r="B748">
+        <v>49939315.515193403</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="1">
+        <v>44797</v>
+      </c>
+      <c r="B749">
+        <v>48767327.149989702</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="1">
+        <v>44798</v>
+      </c>
+      <c r="B750">
+        <v>47297215.7507063</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="1">
+        <v>44799</v>
+      </c>
+      <c r="B751">
+        <v>45563103.393177196</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="1">
+        <v>44800</v>
+      </c>
+      <c r="B752">
+        <v>43648632.911697701</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="1">
+        <v>44801</v>
+      </c>
+      <c r="B753">
+        <v>41675278.6575009</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="1">
+        <v>44802</v>
+      </c>
+      <c r="B754">
+        <v>39778318.320404798</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="1">
+        <v>44803</v>
+      </c>
+      <c r="B755">
+        <v>38070501.647183403</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="1">
+        <v>44804</v>
+      </c>
+      <c r="B756">
+        <v>36587105.838571496</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B757">
+        <v>35218898.310440898</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="1">
+        <v>44806</v>
+      </c>
+      <c r="B758">
+        <v>33822764.632873699</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="1">
+        <v>44807</v>
+      </c>
+      <c r="B759">
+        <v>32309945.264352899</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="1">
+        <v>44808</v>
+      </c>
+      <c r="B760">
+        <v>30655110.309589099</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="1">
+        <v>44809</v>
+      </c>
+      <c r="B761">
+        <v>28888330.129195601</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="1">
+        <v>44810</v>
+      </c>
+      <c r="B762">
+        <v>27068146.674107902</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="1">
+        <v>44811</v>
+      </c>
+      <c r="B763">
+        <v>25261455.171959199</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="1">
+        <v>44812</v>
+      </c>
+      <c r="B764">
+        <v>23529292.113847099</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="1">
+        <v>44813</v>
+      </c>
+      <c r="B765">
+        <v>21915726.647608899</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="1">
+        <v>44814</v>
+      </c>
+      <c r="B766">
+        <v>20444943.241732799</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="1">
+        <v>44815</v>
+      </c>
+      <c r="B767">
+        <v>19121172.635905799</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="1">
+        <v>44816</v>
+      </c>
+      <c r="B768">
+        <v>17928901.5426527</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="1">
+        <v>44817</v>
+      </c>
+      <c r="B769">
+        <v>16833869.647724401</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B770">
+        <v>15786901.121396899</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="1">
+        <v>44819</v>
+      </c>
+      <c r="B771">
+        <v>14740191.158003399</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="1">
+        <v>44820</v>
+      </c>
+      <c r="B772">
+        <v>13693282.265021799</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="1">
+        <v>44821</v>
+      </c>
+      <c r="B773">
+        <v>12682296.4811887</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="1">
+        <v>44822</v>
+      </c>
+      <c r="B774">
+        <v>11754590.975232299</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="1">
+        <v>44823</v>
+      </c>
+      <c r="B775">
+        <v>10951441.093358099</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="1">
+        <v>44824</v>
+      </c>
+      <c r="B776">
+        <v>10296845.099811001</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="1">
+        <v>44825</v>
+      </c>
+      <c r="B777">
+        <v>9789028.0102003403</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="1">
+        <v>44826</v>
+      </c>
+      <c r="B778">
+        <v>9399858.3608055394</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="1">
+        <v>44827</v>
+      </c>
+      <c r="B779">
+        <v>9082959.1370516904</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="1">
+        <v>44828</v>
+      </c>
+      <c r="B780">
+        <v>8785603.5395897105</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="1">
+        <v>44829</v>
+      </c>
+      <c r="B781">
+        <v>8467791.9564169906</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="1">
+        <v>44830</v>
+      </c>
+      <c r="B782">
+        <v>8130332.9790214999</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="1">
+        <v>44831</v>
+      </c>
+      <c r="B783">
+        <v>7818166.9737409698</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B784">
+        <v>7556682.0373529103</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="1">
+        <v>44833</v>
+      </c>
+      <c r="B785">
+        <v>7361514.6929258304</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B786">
+        <v>7240850.8025748702</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B787">
+        <v>7194123.29073874</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B788">
+        <v>7211205.6733412696</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B789">
+        <v>7271766.8982433397</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B790">
+        <v>7345822.6581035797</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="1">
+        <v>44839</v>
+      </c>
+      <c r="B791">
+        <v>7398780.6858113604</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="1">
+        <v>44840</v>
+      </c>
+      <c r="B792">
+        <v>7398825.0070648799</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="1">
+        <v>44841</v>
+      </c>
+      <c r="B793">
+        <v>7327810.3427677704</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="1">
+        <v>44842</v>
+      </c>
+      <c r="B794">
+        <v>7196133.8728339998</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="1">
+        <v>44843</v>
+      </c>
+      <c r="B795">
+        <v>7043335.7615465503</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B796">
+        <v>6857268.5348120499</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B797">
+        <v>6614331.0936559197</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B798">
+        <v>6317900.2257268103</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="1">
+        <v>44847</v>
+      </c>
+      <c r="B799">
+        <v>5986877.27482705</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="1">
+        <v>44848</v>
+      </c>
+      <c r="B800">
+        <v>5646230.6940594204</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="1">
+        <v>44849</v>
+      </c>
+      <c r="B801">
+        <v>5320798.6625928404</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="1">
+        <v>44850</v>
+      </c>
+      <c r="B802">
+        <v>5031403.1693088999</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="1">
+        <v>44851</v>
+      </c>
+      <c r="B803">
+        <v>4792534.75878233</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="1">
+        <v>44852</v>
+      </c>
+      <c r="B804">
+        <v>4612351.0395165496</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="1">
+        <v>44853</v>
+      </c>
+      <c r="B805">
+        <v>4492650.3062642496</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="1">
+        <v>44854</v>
+      </c>
+      <c r="B806">
+        <v>4428382.3845319301</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="1">
+        <v>44855</v>
+      </c>
+      <c r="B807">
+        <v>4407045.2762789298</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="1">
+        <v>44856</v>
+      </c>
+      <c r="B808">
+        <v>4416876.7256278796</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="1">
+        <v>44857</v>
+      </c>
+      <c r="B809">
+        <v>4472503.0236656005</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="1">
+        <v>44858</v>
+      </c>
+      <c r="B810">
+        <v>4588632.0447587399</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="1">
+        <v>44859</v>
+      </c>
+      <c r="B811">
+        <v>4771497.9816549597</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="1">
+        <v>44860</v>
+      </c>
+      <c r="B812">
+        <v>5019211.7582621602</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="1">
+        <v>44861</v>
+      </c>
+      <c r="B813">
+        <v>5322145.4793463796</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="1">
+        <v>44862</v>
+      </c>
+      <c r="B814">
+        <v>5663011.3363850601</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="1">
+        <v>44863</v>
+      </c>
+      <c r="B815">
+        <v>6017352.8589784</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="1">
+        <v>44864</v>
+      </c>
+      <c r="B816">
+        <v>6356909.3502668096</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B817">
+        <v>6654521.7967878003</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B818">
+        <v>6891629.6090330603</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="1">
+        <v>44867</v>
+      </c>
+      <c r="B819">
+        <v>7069165.5047300104</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="1">
+        <v>44868</v>
+      </c>
+      <c r="B820">
+        <v>7218188.6216910305</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B821">
+        <v>7371276.2229587398</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B822">
+        <v>7551189.2464102302</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B823">
+        <v>7757026.9449355202</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B824">
+        <v>7972037.19755938</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B825">
+        <v>8173947.8063192004</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B826">
+        <v>8342262.1141835097</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B827">
+        <v>8463196.1297824699</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B828">
+        <v>8532595.9120790698</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B829">
+        <v>8554781.2725162897</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="1">
+        <v>44878</v>
+      </c>
+      <c r="B830">
+        <v>8540016.6975318901</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="1">
+        <v>44879</v>
+      </c>
+      <c r="B831">
+        <v>8500665.7371469103</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="1">
+        <v>44880</v>
+      </c>
+      <c r="B832">
+        <v>8445565.2445569709</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="1">
+        <v>44881</v>
+      </c>
+      <c r="B833">
+        <v>8347149.7264693603</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="1">
+        <v>44882</v>
+      </c>
+      <c r="B834">
+        <v>8103991.2761304304</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="1">
+        <v>44883</v>
+      </c>
+      <c r="B835">
+        <v>7683983.0019315798</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="1">
+        <v>44884</v>
+      </c>
+      <c r="B836">
+        <v>7121631.9235513601</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="1">
+        <v>44885</v>
+      </c>
+      <c r="B837">
+        <v>6483973.1378945904</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="1">
+        <v>44886</v>
+      </c>
+      <c r="B838">
+        <v>5846967.5232131695</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="1">
+        <v>44887</v>
+      </c>
+      <c r="B839">
+        <v>5281132.5786249004</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="1">
+        <v>44888</v>
+      </c>
+      <c r="B840">
+        <v>4840631.9837065497</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="1">
+        <v>44889</v>
+      </c>
+      <c r="B841">
+        <v>4558697.3219127497</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A842" s="1">
+        <v>44890</v>
+      </c>
+      <c r="B842">
+        <v>4449430.3940089596</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A843" s="1">
+        <v>44891</v>
+      </c>
+      <c r="B843">
+        <v>4508036.0747904899</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A844" s="1">
+        <v>44892</v>
+      </c>
+      <c r="B844">
+        <v>4710656.5549702998</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A845" s="1">
+        <v>44893</v>
+      </c>
+      <c r="B845">
+        <v>5015410.4010491101</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A846" s="1">
+        <v>44894</v>
+      </c>
+      <c r="B846">
+        <v>5408774.8537155297</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A847" s="1">
+        <v>44895</v>
+      </c>
+      <c r="B847">
+        <v>5966494.5688886903</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A848" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B848">
+        <v>6729299.6921472801</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A849" s="1">
+        <v>44897</v>
+      </c>
+      <c r="B849">
+        <v>7691072.4854857698</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A850" s="1">
+        <v>44898</v>
+      </c>
+      <c r="B850">
+        <v>8813898.8685812391</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A851" s="1">
+        <v>44899</v>
+      </c>
+      <c r="B851">
+        <v>10039473.2132937</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A852" s="1">
+        <v>44900</v>
+      </c>
+      <c r="B852">
+        <v>11296702.751485599</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A853" s="1">
+        <v>44901</v>
+      </c>
+      <c r="B853">
+        <v>12509183.195527099</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A854" s="1">
+        <v>44902</v>
+      </c>
+      <c r="B854">
+        <v>13604214.076653199</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A855" s="1">
+        <v>44903</v>
+      </c>
+      <c r="B855">
+        <v>14524425.562506</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A856" s="1">
+        <v>44904</v>
+      </c>
+      <c r="B856">
+        <v>15245697.1094067</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A857" s="1">
+        <v>44905</v>
+      </c>
+      <c r="B857">
+        <v>15801663.9015716</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A858" s="1">
+        <v>44906</v>
+      </c>
+      <c r="B858">
+        <v>16281260.780732401</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A859" s="1">
+        <v>44907</v>
+      </c>
+      <c r="B859">
+        <v>16706525.6406327</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A860" s="1">
+        <v>44908</v>
+      </c>
+      <c r="B860">
+        <v>17060371.639579199</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A861" s="1">
+        <v>44909</v>
+      </c>
+      <c r="B861">
+        <v>17318939.4660496</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A862" s="1">
+        <v>44910</v>
+      </c>
+      <c r="B862">
+        <v>17462181.166555099</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A863" s="1">
+        <v>44911</v>
+      </c>
+      <c r="B863">
+        <v>17480893.982587501</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A864" s="1">
+        <v>44912</v>
+      </c>
+      <c r="B864">
+        <v>17381462.052359302</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A865" s="1">
+        <v>44913</v>
+      </c>
+      <c r="B865">
+        <v>17190236.573673099</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A866" s="1">
+        <v>44914</v>
+      </c>
+      <c r="B866">
+        <v>16952210.893940799</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A867" s="1">
+        <v>44915</v>
+      </c>
+      <c r="B867">
+        <v>16722640.155796601</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A868" s="1">
+        <v>44916</v>
+      </c>
+      <c r="B868">
+        <v>16555702.932582</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A869" s="1">
+        <v>44917</v>
+      </c>
+      <c r="B869">
+        <v>16486001.941886401</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A870" s="1">
+        <v>44918</v>
+      </c>
+      <c r="B870">
+        <v>16501517.977431601</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A871" s="1">
+        <v>44919</v>
+      </c>
+      <c r="B871">
+        <v>16554839.680075601</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A872" s="1">
+        <v>44920</v>
+      </c>
+      <c r="B872">
+        <v>16688499.6165745</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A873" s="1">
+        <v>44921</v>
+      </c>
+      <c r="B873">
+        <v>16918615.6316696</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A874" s="1">
+        <v>44922</v>
+      </c>
+      <c r="B874">
+        <v>17218286.4046918</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A875" s="1">
+        <v>44923</v>
+      </c>
+      <c r="B875">
+        <v>17540384.032203399</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A876" s="1">
+        <v>44924</v>
+      </c>
+      <c r="B876">
+        <v>17833921.383476</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A877" s="1">
+        <v>44925</v>
+      </c>
+      <c r="B877">
+        <v>18054958.6344372</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A878" s="1">
+        <v>44926</v>
+      </c>
+      <c r="B878">
+        <v>18175404.348702502</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A879" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B879">
+        <v>18184734.7503553</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A880" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B880">
+        <v>18087722.008037001</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A881" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B881">
+        <v>17901181.0103404</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A882" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B882">
+        <v>17648639.5188816</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A883" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B883">
+        <v>17350718.8190783</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A884" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B884">
+        <v>16970068.0762299</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A885" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B885">
+        <v>16431130.5587018</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A886" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B886">
+        <v>15716754.158911699</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A887" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B887">
+        <v>14853401.2292907</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A888" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B888">
+        <v>13891652.167646</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A889" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B889">
+        <v>12892305.8224604</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A890" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B890">
+        <v>11916887.714981999</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A891" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B891">
+        <v>11019819.894133801</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A892" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B892">
+        <v>10245056.1033243</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A893" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B893">
+        <v>9621362.3239768408</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A894" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B894">
+        <v>9153900.1425876208</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A895" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B895">
+        <v>8812116.2526374906</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A896" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B896">
+        <v>8528163.3391143605</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A897" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B897">
+        <v>8270231.5233111102</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A898" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B898">
+        <v>8054641.8744728304</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A899" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B899">
+        <v>7916605.9272071104</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A900" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B900">
+        <v>7892181.2322161105</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A901" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B901">
+        <v>8006137.77036379</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A902" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B902">
+        <v>8263952.3128822995</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A903" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B903">
+        <v>8646189.2448070794</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A904" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B904">
+        <v>9111183.8860318195</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A905" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B905">
+        <v>9604337.1144588701</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A906" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B906">
+        <v>10072783.527055301</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A907" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B907">
+        <v>10488282.307767101</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A908" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B908">
+        <v>10877668.0147925</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A909" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B909">
+        <v>11294170.8016138</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A910" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B910">
+        <v>11777426.6802414</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A911" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B911">
+        <v>12351859.4468474</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A912" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B912">
+        <v>13022641.3357193</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A913" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B913">
+        <v>13779029.970896401</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A914" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B914">
+        <v>14597574.2740118</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A915" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B915">
+        <v>15444981.7080494</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A916" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B916">
+        <v>16282833.350645101</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A917" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B917">
+        <v>17073946.0199688</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A918" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B918">
+        <v>17789139.989891101</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A919" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B919">
+        <v>18416807.428969901</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A920" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B920">
+        <v>18975703.269552398</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A921" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B921">
+        <v>19523132.642868001</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A922" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B922">
+        <v>20133510.5361402</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A923" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B923">
+        <v>20833974.444874901</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A924" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B924">
+        <v>21601594.649539702</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A925" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B925">
+        <v>22389634.181398999</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A926" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B926">
+        <v>23146002.572564401</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A927" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B927">
+        <v>23824849.199859999</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A928" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B928">
+        <v>24394469.362446502</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A929" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B929">
+        <v>24841122.803366899</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A930" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B930">
+        <v>25167024.0034381</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A931" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B931">
+        <v>25387358.672307201</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A932" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B932">
+        <v>25525794.356600501</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A933" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B933">
+        <v>25607184.639202699</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A934" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B934">
+        <v>25636883.652437501</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A935" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B935">
+        <v>25578285.536682598</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A936" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B936">
+        <v>25401766.272950299</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A937" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B937">
+        <v>25095953.091134202</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A938" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B938">
+        <v>24666759.1611</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A939" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B939">
+        <v>24136212.1548196</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A940" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B940">
+        <v>23541499.202607699</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A941" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B941">
+        <v>22931984.452872399</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A942" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B942">
+        <v>22361580.748647299</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A943" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B943">
+        <v>21878379.444416601</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A944" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B944">
+        <v>21509164.7100561</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A945" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B945">
+        <v>21238169.299745999</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A946" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B946">
+        <v>21001823.855577201</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A947" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B947">
+        <v>20787595.259282298</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A948" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B948">
+        <v>20603415.923015501</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A949" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B949">
+        <v>20442474.387731601</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A950" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B950">
+        <v>20290807.286261801</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A951" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B951">
+        <v>20133489.333920602</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A952" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B952">
+        <v>19958390.286786199</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_29019_ww.xlsx
+++ b/Covid_29019_ww.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F2520A-FF2D-3745-82B0-53CA22A8F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA34074-CC48-1348-AEDD-954A9D7CECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="2740" windowWidth="20980" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Covid_29019" sheetId="1" r:id="rId1"/>
@@ -883,15 +883,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B952"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A936" workbookViewId="0">
-      <selection activeCell="B956" sqref="B956"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="74" customWidth="1"/>
-    <col min="3" max="4" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -907,7 +906,7 @@
         <v>44050</v>
       </c>
       <c r="B2">
-        <v>96775800.840465203</v>
+        <v>967.75800840465206</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -915,7 +914,7 @@
         <v>44051</v>
       </c>
       <c r="B3">
-        <v>103112485.936088</v>
+        <v>1031.12485936088</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -923,7 +922,7 @@
         <v>44052</v>
       </c>
       <c r="B4">
-        <v>110600842.60211299</v>
+        <v>1106.0084260211299</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -931,7 +930,7 @@
         <v>44053</v>
       </c>
       <c r="B5">
-        <v>119361851.12805299</v>
+        <v>1193.6185112805299</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,7 +938,7 @@
         <v>44054</v>
       </c>
       <c r="B6">
-        <v>129376304.08729801</v>
+        <v>1293.7630408729801</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -947,7 +946,7 @@
         <v>44055</v>
       </c>
       <c r="B7">
-        <v>140546806.01636699</v>
+        <v>1405.4680601636699</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +954,7 @@
         <v>44056</v>
       </c>
       <c r="B8">
-        <v>152791575.16736999</v>
+        <v>1527.9157516737</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +962,7 @@
         <v>44057</v>
       </c>
       <c r="B9">
-        <v>165809892.89845401</v>
+        <v>1658.0989289845402</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +970,7 @@
         <v>44058</v>
       </c>
       <c r="B10">
-        <v>179099127.26856199</v>
+        <v>1790.9912726856198</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,7 +978,7 @@
         <v>44059</v>
       </c>
       <c r="B11">
-        <v>192081631.86074701</v>
+        <v>1920.8163186074701</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +986,7 @@
         <v>44060</v>
       </c>
       <c r="B12">
-        <v>204221090.84729701</v>
+        <v>2042.2109084729702</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +994,7 @@
         <v>44061</v>
       </c>
       <c r="B13">
-        <v>215205144.65412199</v>
+        <v>2152.0514465412198</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1002,7 @@
         <v>44062</v>
       </c>
       <c r="B14">
-        <v>225205108.06792</v>
+        <v>2252.0510806791999</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1010,7 @@
         <v>44063</v>
       </c>
       <c r="B15">
-        <v>235205155.82170901</v>
+        <v>2352.0515582170901</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1018,7 @@
         <v>44064</v>
       </c>
       <c r="B16">
-        <v>246288495.11120701</v>
+        <v>2462.8849511120702</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1026,7 @@
         <v>44065</v>
       </c>
       <c r="B17">
-        <v>258484019.88338301</v>
+        <v>2584.8401988338301</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1034,7 @@
         <v>44066</v>
       </c>
       <c r="B18">
-        <v>271144341.82122898</v>
+        <v>2711.44341821229</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1042,7 @@
         <v>44067</v>
       </c>
       <c r="B19">
-        <v>283380427.75185299</v>
+        <v>2833.8042775185299</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1050,7 @@
         <v>44068</v>
       </c>
       <c r="B20">
-        <v>294354923.69019502</v>
+        <v>2943.5492369019503</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1058,7 @@
         <v>44069</v>
       </c>
       <c r="B21">
-        <v>303460137.36398703</v>
+        <v>3034.6013736398704</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,7 +1066,7 @@
         <v>44070</v>
       </c>
       <c r="B22">
-        <v>310430683.89961803</v>
+        <v>3104.3068389961804</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1075,7 +1074,7 @@
         <v>44071</v>
       </c>
       <c r="B23">
-        <v>315334600.32628697</v>
+        <v>3153.3460032628695</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -1083,7 +1082,7 @@
         <v>44072</v>
       </c>
       <c r="B24">
-        <v>318486784.836959</v>
+        <v>3184.8678483695899</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1091,7 +1090,7 @@
         <v>44073</v>
       </c>
       <c r="B25">
-        <v>320334830.097444</v>
+        <v>3203.34830097444</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -1099,7 +1098,7 @@
         <v>44074</v>
       </c>
       <c r="B26">
-        <v>321286380.84012002</v>
+        <v>3212.8638084012</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -1107,7 +1106,7 @@
         <v>44075</v>
       </c>
       <c r="B27">
-        <v>321461932.12004697</v>
+        <v>3214.6193212004696</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,7 +1114,7 @@
         <v>44076</v>
       </c>
       <c r="B28">
-        <v>320751057.00359303</v>
+        <v>3207.5105700359304</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -1123,7 +1122,7 @@
         <v>44077</v>
       </c>
       <c r="B29">
-        <v>319024608.89934599</v>
+        <v>3190.24608899346</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1130,7 @@
         <v>44078</v>
       </c>
       <c r="B30">
-        <v>315785729.27319002</v>
+        <v>3157.8572927319001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1138,7 @@
         <v>44079</v>
       </c>
       <c r="B31">
-        <v>310430995.871306</v>
+        <v>3104.30995871306</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1146,7 @@
         <v>44080</v>
       </c>
       <c r="B32">
-        <v>302529953.24008101</v>
+        <v>3025.2995324008102</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1154,7 @@
         <v>44081</v>
       </c>
       <c r="B33">
-        <v>292014101.892735</v>
+        <v>2920.1410189273502</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1162,7 @@
         <v>44082</v>
       </c>
       <c r="B34">
-        <v>279301717.14820802</v>
+        <v>2793.0171714820804</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1170,7 @@
         <v>44083</v>
       </c>
       <c r="B35">
-        <v>265316317.63480401</v>
+        <v>2653.16317634804</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1178,7 @@
         <v>44084</v>
       </c>
       <c r="B36">
-        <v>251261326.58710101</v>
+        <v>2512.6132658710103</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1186,7 @@
         <v>44085</v>
       </c>
       <c r="B37">
-        <v>238325190.780687</v>
+        <v>2383.2519078068699</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1194,7 @@
         <v>44086</v>
       </c>
       <c r="B38">
-        <v>227256227.03722101</v>
+        <v>2272.5622703722102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1202,7 @@
         <v>44087</v>
       </c>
       <c r="B39">
-        <v>217780932.307212</v>
+        <v>2177.8093230721202</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1210,7 @@
         <v>44088</v>
       </c>
       <c r="B40">
-        <v>208316515.78611499</v>
+        <v>2083.16515786115</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1218,7 @@
         <v>44089</v>
       </c>
       <c r="B41">
-        <v>197452984.352559</v>
+        <v>1974.52984352559</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1226,7 @@
         <v>44090</v>
       </c>
       <c r="B42">
-        <v>184696286.509202</v>
+        <v>1846.9628650920201</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1234,7 @@
         <v>44091</v>
       </c>
       <c r="B43">
-        <v>170303692.99356699</v>
+        <v>1703.0369299356698</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,7 +1242,7 @@
         <v>44092</v>
       </c>
       <c r="B44">
-        <v>154920784.477267</v>
+        <v>1549.2078447726699</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1250,7 @@
         <v>44093</v>
       </c>
       <c r="B45">
-        <v>139324045.34104899</v>
+        <v>1393.2404534104899</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,7 +1258,7 @@
         <v>44094</v>
       </c>
       <c r="B46">
-        <v>124262488.63121501</v>
+        <v>1242.62488631215</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1267,7 +1266,7 @@
         <v>44095</v>
       </c>
       <c r="B47">
-        <v>110352105.53908101</v>
+        <v>1103.52105539081</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1274,7 @@
         <v>44096</v>
       </c>
       <c r="B48">
-        <v>98019844.265382797</v>
+        <v>980.19844265382801</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1283,7 +1282,7 @@
         <v>44097</v>
       </c>
       <c r="B49">
-        <v>87510115.769052893</v>
+        <v>875.10115769052891</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1291,7 +1290,7 @@
         <v>44098</v>
       </c>
       <c r="B50">
-        <v>78875096.796334296</v>
+        <v>788.75096796334299</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1299,7 +1298,7 @@
         <v>44099</v>
       </c>
       <c r="B51">
-        <v>71946517.614596397</v>
+        <v>719.46517614596394</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1306,7 @@
         <v>44100</v>
       </c>
       <c r="B52">
-        <v>66301041.923308797</v>
+        <v>663.01041923308799</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1314,7 @@
         <v>44101</v>
       </c>
       <c r="B53">
-        <v>61476354.499376297</v>
+        <v>614.76354499376293</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1322,7 @@
         <v>44102</v>
       </c>
       <c r="B54">
-        <v>57604285.762729801</v>
+        <v>576.04285762729796</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,7 +1330,7 @@
         <v>44103</v>
       </c>
       <c r="B55">
-        <v>55039329.925357401</v>
+        <v>550.39329925357401</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1338,7 @@
         <v>44104</v>
       </c>
       <c r="B56">
-        <v>54109671.457823299</v>
+        <v>541.09671457823299</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1346,7 @@
         <v>44105</v>
       </c>
       <c r="B57">
-        <v>54996487.5772416</v>
+        <v>549.96487577241601</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1354,7 @@
         <v>44106</v>
       </c>
       <c r="B58">
-        <v>57651354.445940502</v>
+        <v>576.51354445940501</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1362,7 @@
         <v>44107</v>
       </c>
       <c r="B59">
-        <v>61739472.003143802</v>
+        <v>617.39472003143806</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1370,7 @@
         <v>44108</v>
       </c>
       <c r="B60">
-        <v>66624606.197733901</v>
+        <v>666.24606197733897</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1378,7 @@
         <v>44109</v>
       </c>
       <c r="B61">
-        <v>71485699.595752999</v>
+        <v>714.85699595752999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1386,7 @@
         <v>44110</v>
       </c>
       <c r="B62">
-        <v>75503949.955987498</v>
+        <v>755.03949955987503</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1394,7 @@
         <v>44111</v>
       </c>
       <c r="B63">
-        <v>78142016.764025599</v>
+        <v>781.42016764025595</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1402,7 @@
         <v>44112</v>
       </c>
       <c r="B64">
-        <v>79531278.402851999</v>
+        <v>795.31278402852001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1410,7 @@
         <v>44113</v>
       </c>
       <c r="B65">
-        <v>80595793.973637</v>
+        <v>805.95793973637001</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1418,7 @@
         <v>44114</v>
       </c>
       <c r="B66">
-        <v>81557142.0726711</v>
+        <v>815.57142072671104</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1426,7 @@
         <v>44115</v>
       </c>
       <c r="B67">
-        <v>82326662.181024402</v>
+        <v>823.26662181024403</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1434,7 @@
         <v>44116</v>
       </c>
       <c r="B68">
-        <v>82927944.1788923</v>
+        <v>829.27944178892301</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,7 +1442,7 @@
         <v>44117</v>
       </c>
       <c r="B69">
-        <v>83446213.592462599</v>
+        <v>834.46213592462595</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1451,7 +1450,7 @@
         <v>44118</v>
       </c>
       <c r="B70">
-        <v>83985405.8850324</v>
+        <v>839.85405885032401</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1458,7 @@
         <v>44119</v>
       </c>
       <c r="B71">
-        <v>84639614.868407696</v>
+        <v>846.39614868407693</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1466,7 @@
         <v>44120</v>
       </c>
       <c r="B72">
-        <v>85473809.257721499</v>
+        <v>854.73809257721496</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1474,7 @@
         <v>44121</v>
       </c>
       <c r="B73">
-        <v>86515349.450353995</v>
+        <v>865.15349450353995</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1482,7 @@
         <v>44122</v>
       </c>
       <c r="B74">
-        <v>87761813.404605493</v>
+        <v>877.61813404605493</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1490,7 @@
         <v>44123</v>
       </c>
       <c r="B75">
-        <v>89189040.953965798</v>
+        <v>891.89040953965798</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1498,7 @@
         <v>44124</v>
       </c>
       <c r="B76">
-        <v>90761270.242054507</v>
+        <v>907.61270242054502</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1506,7 @@
         <v>44125</v>
       </c>
       <c r="B77">
-        <v>92445243.388715193</v>
+        <v>924.45243388715198</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1514,7 @@
         <v>44126</v>
       </c>
       <c r="B78">
-        <v>94154941.021412998</v>
+        <v>941.54941021413003</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1522,7 @@
         <v>44127</v>
       </c>
       <c r="B79">
-        <v>95666611.231979504</v>
+        <v>956.66611231979505</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1530,7 @@
         <v>44128</v>
       </c>
       <c r="B80">
-        <v>96973560.114595398</v>
+        <v>969.73560114595398</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1538,7 @@
         <v>44129</v>
       </c>
       <c r="B81">
-        <v>98242013.403383896</v>
+        <v>982.42013403383896</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1546,7 @@
         <v>44130</v>
       </c>
       <c r="B82">
-        <v>99698242.529777601</v>
+        <v>996.98242529777599</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1555,7 +1554,7 @@
         <v>44131</v>
       </c>
       <c r="B83">
-        <v>101549955.612543</v>
+        <v>1015.49955612543</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1563,7 +1562,7 @@
         <v>44132</v>
       </c>
       <c r="B84">
-        <v>103935299.041852</v>
+        <v>1039.35299041852</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1571,7 +1570,7 @@
         <v>44133</v>
       </c>
       <c r="B85">
-        <v>106885186.10421</v>
+        <v>1068.8518610421002</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1579,7 +1578,7 @@
         <v>44134</v>
       </c>
       <c r="B86">
-        <v>110329106.442882</v>
+        <v>1103.2910644288199</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1587,7 +1586,7 @@
         <v>44135</v>
       </c>
       <c r="B87">
-        <v>114128230.938908</v>
+        <v>1141.28230938908</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1595,7 +1594,7 @@
         <v>44136</v>
       </c>
       <c r="B88">
-        <v>118122567.872609</v>
+        <v>1181.2256787260901</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1603,7 +1602,7 @@
         <v>44137</v>
       </c>
       <c r="B89">
-        <v>122202021.495167</v>
+        <v>1222.0202149516699</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1611,7 +1610,7 @@
         <v>44138</v>
       </c>
       <c r="B90">
-        <v>126394701.440152</v>
+        <v>1263.9470144015199</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1619,7 +1618,7 @@
         <v>44139</v>
       </c>
       <c r="B91">
-        <v>130769115.30805101</v>
+        <v>1307.69115308051</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1627,7 +1626,7 @@
         <v>44140</v>
       </c>
       <c r="B92">
-        <v>135373349.028386</v>
+        <v>1353.73349028386</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1635,7 +1634,7 @@
         <v>44141</v>
       </c>
       <c r="B93">
-        <v>140297623.57144901</v>
+        <v>1402.97623571449</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1643,7 +1642,7 @@
         <v>44142</v>
       </c>
       <c r="B94">
-        <v>145630435.82667199</v>
+        <v>1456.3043582667199</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1651,7 +1650,7 @@
         <v>44143</v>
       </c>
       <c r="B95">
-        <v>151423157.556768</v>
+        <v>1514.23157556768</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1659,7 +1658,7 @@
         <v>44144</v>
       </c>
       <c r="B96">
-        <v>157666772.877022</v>
+        <v>1576.66772877022</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1667,7 +1666,7 @@
         <v>44145</v>
       </c>
       <c r="B97">
-        <v>164275985.89563</v>
+        <v>1642.7598589562999</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1675,7 +1674,7 @@
         <v>44146</v>
       </c>
       <c r="B98">
-        <v>171089261.534733</v>
+        <v>1710.8926153473299</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1683,7 +1682,7 @@
         <v>44147</v>
       </c>
       <c r="B99">
-        <v>177901601.22608501</v>
+        <v>1779.0160122608502</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1691,7 +1690,7 @@
         <v>44148</v>
       </c>
       <c r="B100">
-        <v>184510290.32414901</v>
+        <v>1845.1029032414901</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1699,7 +1698,7 @@
         <v>44149</v>
       </c>
       <c r="B101">
-        <v>190784442.56549901</v>
+        <v>1907.8444256549901</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1707,7 +1706,7 @@
         <v>44150</v>
       </c>
       <c r="B102">
-        <v>196762737.62813899</v>
+        <v>1967.6273762813898</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1715,7 +1714,7 @@
         <v>44151</v>
       </c>
       <c r="B103">
-        <v>202680712.44395101</v>
+        <v>2026.8071244395101</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1723,7 +1722,7 @@
         <v>44152</v>
       </c>
       <c r="B104">
-        <v>208620480.75861001</v>
+        <v>2086.2048075861003</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1731,7 +1730,7 @@
         <v>44153</v>
       </c>
       <c r="B105">
-        <v>214587933.47578999</v>
+        <v>2145.8793347578999</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1739,7 +1738,7 @@
         <v>44154</v>
       </c>
       <c r="B106">
-        <v>220582678.991999</v>
+        <v>2205.82678991999</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1747,7 +1746,7 @@
         <v>44155</v>
       </c>
       <c r="B107">
-        <v>226600292.07866499</v>
+        <v>2266.0029207866501</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1755,7 +1754,7 @@
         <v>44156</v>
       </c>
       <c r="B108">
-        <v>232633852.80537999</v>
+        <v>2326.3385280538</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1763,7 +1762,7 @@
         <v>44157</v>
       </c>
       <c r="B109">
-        <v>238674745.90340501</v>
+        <v>2386.7474590340503</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1771,7 +1770,7 @@
         <v>44158</v>
       </c>
       <c r="B110">
-        <v>244712984.838525</v>
+        <v>2447.1298483852502</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1779,7 +1778,7 @@
         <v>44159</v>
       </c>
       <c r="B111">
-        <v>250738144.441928</v>
+        <v>2507.3814444192799</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1787,7 +1786,7 @@
         <v>44160</v>
       </c>
       <c r="B112">
-        <v>256740649.47621799</v>
+        <v>2567.40649476218</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1795,7 +1794,7 @@
         <v>44161</v>
       </c>
       <c r="B113">
-        <v>262713711.288912</v>
+        <v>2627.1371128891201</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1803,7 +1802,7 @@
         <v>44162</v>
       </c>
       <c r="B114">
-        <v>268656414.45240599</v>
+        <v>2686.5641445240599</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1811,7 +1810,7 @@
         <v>44163</v>
       </c>
       <c r="B115">
-        <v>274577833.83922797</v>
+        <v>2745.7783383922797</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1819,7 +1818,7 @@
         <v>44164</v>
       </c>
       <c r="B116">
-        <v>280505183.99641699</v>
+        <v>2805.0518399641701</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1827,7 +1826,7 @@
         <v>44165</v>
       </c>
       <c r="B117">
-        <v>286410262.70851499</v>
+        <v>2864.1026270851498</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1835,7 +1834,7 @@
         <v>44166</v>
       </c>
       <c r="B118">
-        <v>292085549.84408301</v>
+        <v>2920.8554984408302</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1843,7 +1842,7 @@
         <v>44167</v>
       </c>
       <c r="B119">
-        <v>297256875.12671697</v>
+        <v>2972.5687512671698</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1851,7 +1850,7 @@
         <v>44168</v>
       </c>
       <c r="B120">
-        <v>301693943.77105302</v>
+        <v>3016.93943771053</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1859,7 +1858,7 @@
         <v>44169</v>
       </c>
       <c r="B121">
-        <v>305277601.88089901</v>
+        <v>3052.7760188089901</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1867,7 +1866,7 @@
         <v>44170</v>
       </c>
       <c r="B122">
-        <v>308029012.04116797</v>
+        <v>3080.2901204116797</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1875,7 +1874,7 @@
         <v>44171</v>
       </c>
       <c r="B123">
-        <v>310088791.80351597</v>
+        <v>3100.8879180351596</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1883,7 +1882,7 @@
         <v>44172</v>
       </c>
       <c r="B124">
-        <v>311675613.554609</v>
+        <v>3116.7561355460898</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1891,7 +1890,7 @@
         <v>44173</v>
       </c>
       <c r="B125">
-        <v>313031317.11754501</v>
+        <v>3130.31317117545</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1899,7 +1898,7 @@
         <v>44174</v>
       </c>
       <c r="B126">
-        <v>314341185.97080898</v>
+        <v>3143.4118597080897</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1907,7 +1906,7 @@
         <v>44175</v>
       </c>
       <c r="B127">
-        <v>315623165.43800497</v>
+        <v>3156.2316543800498</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1915,7 +1914,7 @@
         <v>44176</v>
       </c>
       <c r="B128">
-        <v>316658285.96548301</v>
+        <v>3166.5828596548299</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1923,7 +1922,7 @@
         <v>44177</v>
       </c>
       <c r="B129">
-        <v>317201907.90332502</v>
+        <v>3172.0190790332504</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1931,7 +1930,7 @@
         <v>44178</v>
       </c>
       <c r="B130">
-        <v>316978496.57083499</v>
+        <v>3169.7849657083498</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1939,7 +1938,7 @@
         <v>44179</v>
       </c>
       <c r="B131">
-        <v>315750978.148938</v>
+        <v>3157.5097814893802</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1947,7 +1946,7 @@
         <v>44180</v>
       </c>
       <c r="B132">
-        <v>313384721.92761898</v>
+        <v>3133.8472192761897</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1955,7 +1954,7 @@
         <v>44181</v>
       </c>
       <c r="B133">
-        <v>309889785.34344798</v>
+        <v>3098.8978534344797</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1963,7 +1962,7 @@
         <v>44182</v>
       </c>
       <c r="B134">
-        <v>305449026.76807201</v>
+        <v>3054.4902676807201</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1971,7 +1970,7 @@
         <v>44183</v>
       </c>
       <c r="B135">
-        <v>300452756.41407901</v>
+        <v>3004.5275641407902</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1979,7 +1978,7 @@
         <v>44184</v>
       </c>
       <c r="B136">
-        <v>295455008.61512202</v>
+        <v>2954.5500861512201</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1987,7 +1986,7 @@
         <v>44185</v>
       </c>
       <c r="B137">
-        <v>291051221.17418498</v>
+        <v>2910.5122117418496</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1995,7 +1994,7 @@
         <v>44186</v>
       </c>
       <c r="B138">
-        <v>287751949.95484298</v>
+        <v>2877.5194995484298</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -2003,7 +2002,7 @@
         <v>44187</v>
       </c>
       <c r="B139">
-        <v>285791544.52448899</v>
+        <v>2857.9154452448897</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -2011,7 +2010,7 @@
         <v>44188</v>
       </c>
       <c r="B140">
-        <v>284863331.14174902</v>
+        <v>2848.6333114174904</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -2019,7 +2018,7 @@
         <v>44189</v>
       </c>
       <c r="B141">
-        <v>284187579.50590098</v>
+        <v>2841.8757950590098</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -2027,7 +2026,7 @@
         <v>44190</v>
       </c>
       <c r="B142">
-        <v>283770892.460648</v>
+        <v>2837.7089246064802</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -2035,7 +2034,7 @@
         <v>44191</v>
       </c>
       <c r="B143">
-        <v>283647409.65916097</v>
+        <v>2836.4740965916099</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -2043,7 +2042,7 @@
         <v>44192</v>
       </c>
       <c r="B144">
-        <v>283666592.02729601</v>
+        <v>2836.6659202729602</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -2051,7 +2050,7 @@
         <v>44193</v>
       </c>
       <c r="B145">
-        <v>283603420.03191698</v>
+        <v>2836.0342003191699</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -2059,7 +2058,7 @@
         <v>44194</v>
       </c>
       <c r="B146">
-        <v>283236375.633605</v>
+        <v>2832.3637563360498</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -2067,7 +2066,7 @@
         <v>44195</v>
       </c>
       <c r="B147">
-        <v>282398973.406645</v>
+        <v>2823.9897340664502</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -2075,7 +2074,7 @@
         <v>44196</v>
       </c>
       <c r="B148">
-        <v>281018470.08201301</v>
+        <v>2810.1847008201303</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -2083,7 +2082,7 @@
         <v>44197</v>
       </c>
       <c r="B149">
-        <v>279117020.78414702</v>
+        <v>2791.1702078414701</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -2091,7 +2090,7 @@
         <v>44198</v>
       </c>
       <c r="B150">
-        <v>276788708.108275</v>
+        <v>2767.8870810827498</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -2099,7 +2098,7 @@
         <v>44199</v>
       </c>
       <c r="B151">
-        <v>274164047.74967003</v>
+        <v>2741.6404774967004</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -2107,7 +2106,7 @@
         <v>44200</v>
       </c>
       <c r="B152">
-        <v>271355298.08511901</v>
+        <v>2713.5529808511901</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -2115,7 +2114,7 @@
         <v>44201</v>
       </c>
       <c r="B153">
-        <v>268391480.44453001</v>
+        <v>2683.9148044453</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -2123,7 +2122,7 @@
         <v>44202</v>
       </c>
       <c r="B154">
-        <v>265446596.827833</v>
+        <v>2654.4659682783299</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -2131,7 +2130,7 @@
         <v>44203</v>
       </c>
       <c r="B155">
-        <v>262776775.59502801</v>
+        <v>2627.7677559502799</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -2139,7 +2138,7 @@
         <v>44204</v>
       </c>
       <c r="B156">
-        <v>260260212.26121399</v>
+        <v>2602.6021226121397</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -2147,7 +2146,7 @@
         <v>44205</v>
       </c>
       <c r="B157">
-        <v>257567527.681609</v>
+        <v>2575.67527681609</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -2155,7 +2154,7 @@
         <v>44206</v>
       </c>
       <c r="B158">
-        <v>254333227.62768301</v>
+        <v>2543.3322762768303</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -2163,7 +2162,7 @@
         <v>44207</v>
       </c>
       <c r="B159">
-        <v>250272085.438676</v>
+        <v>2502.72085438676</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -2171,7 +2170,7 @@
         <v>44208</v>
       </c>
       <c r="B160">
-        <v>245255451.053646</v>
+        <v>2452.5545105364599</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -2179,7 +2178,7 @@
         <v>44209</v>
       </c>
       <c r="B161">
-        <v>239342011.120552</v>
+        <v>2393.4201112055202</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -2187,7 +2186,7 @@
         <v>44210</v>
       </c>
       <c r="B162">
-        <v>232733656.69102401</v>
+        <v>2327.33656691024</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -2195,7 +2194,7 @@
         <v>44211</v>
       </c>
       <c r="B163">
-        <v>225708998.799061</v>
+        <v>2257.0899879906101</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -2203,7 +2202,7 @@
         <v>44212</v>
       </c>
       <c r="B164">
-        <v>218523901.02041399</v>
+        <v>2185.23901020414</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -2211,7 +2210,7 @@
         <v>44213</v>
       </c>
       <c r="B165">
-        <v>211268507.99630201</v>
+        <v>2112.6850799630201</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -2219,7 +2218,7 @@
         <v>44214</v>
       </c>
       <c r="B166">
-        <v>203573355.24206799</v>
+        <v>2035.7335524206799</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -2227,7 +2226,7 @@
         <v>44215</v>
       </c>
       <c r="B167">
-        <v>194640814.350712</v>
+        <v>1946.40814350712</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -2235,7 +2234,7 @@
         <v>44216</v>
       </c>
       <c r="B168">
-        <v>184183690.26295</v>
+        <v>1841.8369026294999</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -2243,7 +2242,7 @@
         <v>44217</v>
       </c>
       <c r="B169">
-        <v>172370184.53636101</v>
+        <v>1723.7018453636101</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -2251,7 +2250,7 @@
         <v>44218</v>
       </c>
       <c r="B170">
-        <v>159618630.49922699</v>
+        <v>1596.1863049922699</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -2259,7 +2258,7 @@
         <v>44219</v>
       </c>
       <c r="B171">
-        <v>146455250.47234899</v>
+        <v>1464.5525047234898</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -2267,7 +2266,7 @@
         <v>44220</v>
       </c>
       <c r="B172">
-        <v>133430085.855168</v>
+        <v>1334.30085855168</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -2275,7 +2274,7 @@
         <v>44221</v>
       </c>
       <c r="B173">
-        <v>121055745.223703</v>
+        <v>1210.55745223703</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -2283,7 +2282,7 @@
         <v>44222</v>
       </c>
       <c r="B174">
-        <v>109758919.382681</v>
+        <v>1097.5891938268101</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -2291,7 +2290,7 @@
         <v>44223</v>
       </c>
       <c r="B175">
-        <v>99850098.484926194</v>
+        <v>998.50098484926195</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -2299,7 +2298,7 @@
         <v>44224</v>
       </c>
       <c r="B176">
-        <v>91467282.827981696</v>
+        <v>914.67282827981694</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -2307,7 +2306,7 @@
         <v>44225</v>
       </c>
       <c r="B177">
-        <v>84489185.085167006</v>
+        <v>844.89185085167003</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -2315,7 +2314,7 @@
         <v>44226</v>
       </c>
       <c r="B178">
-        <v>78436742.300578296</v>
+        <v>784.36742300578294</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -2323,7 +2322,7 @@
         <v>44227</v>
       </c>
       <c r="B179">
-        <v>72869959.006111503</v>
+        <v>728.69959006111503</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -2331,7 +2330,7 @@
         <v>44228</v>
       </c>
       <c r="B180">
-        <v>67848047.189273104</v>
+        <v>678.48047189273109</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -2339,7 +2338,7 @@
         <v>44229</v>
       </c>
       <c r="B181">
-        <v>63597828.1602557</v>
+        <v>635.97828160255699</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -2347,7 +2346,7 @@
         <v>44230</v>
       </c>
       <c r="B182">
-        <v>60364282.768329002</v>
+        <v>603.64282768328997</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -2355,7 +2354,7 @@
         <v>44231</v>
       </c>
       <c r="B183">
-        <v>58308181.467184797</v>
+        <v>583.08181467184795</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -2363,7 +2362,7 @@
         <v>44232</v>
       </c>
       <c r="B184">
-        <v>57437676.120463498</v>
+        <v>574.37676120463493</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -2371,7 +2370,7 @@
         <v>44233</v>
       </c>
       <c r="B185">
-        <v>57563917.734343402</v>
+        <v>575.63917734343397</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -2379,7 +2378,7 @@
         <v>44234</v>
       </c>
       <c r="B186">
-        <v>58294553.8249432</v>
+        <v>582.94553824943205</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -2387,7 +2386,7 @@
         <v>44235</v>
       </c>
       <c r="B187">
-        <v>59112351.3131942</v>
+        <v>591.12351313194199</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -2395,7 +2394,7 @@
         <v>44236</v>
       </c>
       <c r="B188">
-        <v>59494280.138788201</v>
+        <v>594.94280138788201</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -2403,7 +2402,7 @@
         <v>44237</v>
       </c>
       <c r="B189">
-        <v>59090970.736604497</v>
+        <v>590.90970736604493</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -2411,7 +2410,7 @@
         <v>44238</v>
       </c>
       <c r="B190">
-        <v>57977057.644878097</v>
+        <v>579.77057644878096</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -2419,7 +2418,7 @@
         <v>44239</v>
       </c>
       <c r="B191">
-        <v>56709321.008032203</v>
+        <v>567.09321008032202</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -2427,7 +2426,7 @@
         <v>44240</v>
       </c>
       <c r="B192">
-        <v>55385746.5883196</v>
+        <v>553.85746588319603</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -2435,7 +2434,7 @@
         <v>44241</v>
       </c>
       <c r="B193">
-        <v>53983441.448155098</v>
+        <v>539.83441448155099</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -2443,7 +2442,7 @@
         <v>44242</v>
       </c>
       <c r="B194">
-        <v>52557645.746865302</v>
+        <v>525.57645746865308</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -2451,7 +2450,7 @@
         <v>44243</v>
       </c>
       <c r="B195">
-        <v>51193762.761917002</v>
+        <v>511.93762761917003</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -2459,7 +2458,7 @@
         <v>44244</v>
       </c>
       <c r="B196">
-        <v>49973312.347297601</v>
+        <v>499.73312347297599</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -2467,7 +2466,7 @@
         <v>44245</v>
       </c>
       <c r="B197">
-        <v>48952132.832115799</v>
+        <v>489.52132832115797</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -2475,7 +2474,7 @@
         <v>44246</v>
       </c>
       <c r="B198">
-        <v>48143811.508199602</v>
+        <v>481.43811508199605</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -2483,7 +2482,7 @@
         <v>44247</v>
       </c>
       <c r="B199">
-        <v>47518776.272732198</v>
+        <v>475.18776272732197</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -2491,7 +2490,7 @@
         <v>44248</v>
       </c>
       <c r="B200">
-        <v>47019713.277391098</v>
+        <v>470.19713277391099</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -2499,7 +2498,7 @@
         <v>44249</v>
       </c>
       <c r="B201">
-        <v>46578628.4909935</v>
+        <v>465.78628490993498</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -2507,7 +2506,7 @@
         <v>44250</v>
       </c>
       <c r="B202">
-        <v>46142171.556885898</v>
+        <v>461.42171556885899</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -2515,7 +2514,7 @@
         <v>44251</v>
       </c>
       <c r="B203">
-        <v>45707797.531695299</v>
+        <v>457.07797531695297</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -2523,7 +2522,7 @@
         <v>44252</v>
       </c>
       <c r="B204">
-        <v>45252217.563556299</v>
+        <v>452.52217563556297</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -2531,7 +2530,7 @@
         <v>44253</v>
       </c>
       <c r="B205">
-        <v>44547656.577593498</v>
+        <v>445.476565775935</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -2539,7 +2538,7 @@
         <v>44254</v>
       </c>
       <c r="B206">
-        <v>43608845.356024601</v>
+        <v>436.08845356024602</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -2547,7 +2546,7 @@
         <v>44255</v>
       </c>
       <c r="B207">
-        <v>42650780.162772499</v>
+        <v>426.50780162772497</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -2555,7 +2554,7 @@
         <v>44256</v>
       </c>
       <c r="B208">
-        <v>41952301.859483697</v>
+        <v>419.52301859483697</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -2563,7 +2562,7 @@
         <v>44257</v>
       </c>
       <c r="B209">
-        <v>41760712.001384102</v>
+        <v>417.60712001384104</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -2571,7 +2570,7 @@
         <v>44258</v>
       </c>
       <c r="B210">
-        <v>42230327.054604001</v>
+        <v>422.30327054604004</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -2579,7 +2578,7 @@
         <v>44259</v>
       </c>
       <c r="B211">
-        <v>43385697.436432101</v>
+        <v>433.85697436432099</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -2587,7 +2586,7 @@
         <v>44260</v>
       </c>
       <c r="B212">
-        <v>45136424.433695398</v>
+        <v>451.36424433695396</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -2595,7 +2594,7 @@
         <v>44261</v>
       </c>
       <c r="B213">
-        <v>47317938.621377997</v>
+        <v>473.17938621377999</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -2603,7 +2602,7 @@
         <v>44262</v>
       </c>
       <c r="B214">
-        <v>49752497.194574602</v>
+        <v>497.52497194574602</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -2611,7 +2610,7 @@
         <v>44263</v>
       </c>
       <c r="B215">
-        <v>52338112.803720102</v>
+        <v>523.38112803720105</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -2619,7 +2618,7 @@
         <v>44264</v>
       </c>
       <c r="B216">
-        <v>55141309.025264204</v>
+        <v>551.41309025264206</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -2627,7 +2626,7 @@
         <v>44265</v>
       </c>
       <c r="B217">
-        <v>58584865.113542601</v>
+        <v>585.84865113542605</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -2635,7 +2634,7 @@
         <v>44266</v>
       </c>
       <c r="B218">
-        <v>63155945.276646897</v>
+        <v>631.55945276646901</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -2643,7 +2642,7 @@
         <v>44267</v>
       </c>
       <c r="B219">
-        <v>68869549.274527997</v>
+        <v>688.69549274527992</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -2651,7 +2650,7 @@
         <v>44268</v>
       </c>
       <c r="B220">
-        <v>75438180.489501104</v>
+        <v>754.38180489501099</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -2659,7 +2658,7 @@
         <v>44269</v>
       </c>
       <c r="B221">
-        <v>82431657.065123707</v>
+        <v>824.31657065123704</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -2667,7 +2666,7 @@
         <v>44270</v>
       </c>
       <c r="B222">
-        <v>89383409.109748095</v>
+        <v>893.83409109748095</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -2675,7 +2674,7 @@
         <v>44271</v>
       </c>
       <c r="B223">
-        <v>95852553.288505197</v>
+        <v>958.52553288505192</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -2683,7 +2682,7 @@
         <v>44272</v>
       </c>
       <c r="B224">
-        <v>101468981.338093</v>
+        <v>1014.68981338093</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -2691,7 +2690,7 @@
         <v>44273</v>
       </c>
       <c r="B225">
-        <v>105959591.04181001</v>
+        <v>1059.5959104180999</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -2699,7 +2698,7 @@
         <v>44274</v>
       </c>
       <c r="B226">
-        <v>109175893.727097</v>
+        <v>1091.7589372709701</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -2707,7 +2706,7 @@
         <v>44275</v>
       </c>
       <c r="B227">
-        <v>111143247.271552</v>
+        <v>1111.4324727155199</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -2715,7 +2714,7 @@
         <v>44276</v>
       </c>
       <c r="B228">
-        <v>112127864.15426899</v>
+        <v>1121.2786415426899</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -2723,7 +2722,7 @@
         <v>44277</v>
       </c>
       <c r="B229">
-        <v>112535131.184508</v>
+        <v>1125.3513118450799</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -2731,7 +2730,7 @@
         <v>44278</v>
       </c>
       <c r="B230">
-        <v>112274885.791614</v>
+        <v>1122.74885791614</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -2739,7 +2738,7 @@
         <v>44279</v>
       </c>
       <c r="B231">
-        <v>111115321.008885</v>
+        <v>1111.1532100888501</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -2747,7 +2746,7 @@
         <v>44280</v>
       </c>
       <c r="B232">
-        <v>108889913.306233</v>
+        <v>1088.8991330623301</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -2755,7 +2754,7 @@
         <v>44281</v>
       </c>
       <c r="B233">
-        <v>105537162.16417</v>
+        <v>1055.3716216416999</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -2763,7 +2762,7 @@
         <v>44282</v>
       </c>
       <c r="B234">
-        <v>101127252.507107</v>
+        <v>1011.27252507107</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -2771,7 +2770,7 @@
         <v>44283</v>
       </c>
       <c r="B235">
-        <v>95883919.709542498</v>
+        <v>958.83919709542499</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -2779,7 +2778,7 @@
         <v>44284</v>
       </c>
       <c r="B236">
-        <v>90200412.4481197</v>
+        <v>902.00412448119698</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -2787,7 +2786,7 @@
         <v>44285</v>
       </c>
       <c r="B237">
-        <v>84581988.758192003</v>
+        <v>845.81988758192006</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -2795,7 +2794,7 @@
         <v>44286</v>
       </c>
       <c r="B238">
-        <v>79548961.972168997</v>
+        <v>795.48961972169002</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -2803,7 +2802,7 @@
         <v>44287</v>
       </c>
       <c r="B239">
-        <v>75495055.440467998</v>
+        <v>754.95055440468002</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -2811,7 +2810,7 @@
         <v>44288</v>
       </c>
       <c r="B240">
-        <v>72478161.928112701</v>
+        <v>724.78161928112695</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -2819,7 +2818,7 @@
         <v>44289</v>
       </c>
       <c r="B241">
-        <v>69982602.542214304</v>
+        <v>699.82602542214306</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -2827,7 +2826,7 @@
         <v>44290</v>
       </c>
       <c r="B242">
-        <v>67568144.551890597</v>
+        <v>675.681445518906</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -2835,7 +2834,7 @@
         <v>44291</v>
       </c>
       <c r="B243">
-        <v>65298898.609009303</v>
+        <v>652.98898609009302</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -2843,7 +2842,7 @@
         <v>44292</v>
       </c>
       <c r="B244">
-        <v>63201246.686292998</v>
+        <v>632.01246686292995</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -2851,7 +2850,7 @@
         <v>44293</v>
       </c>
       <c r="B245">
-        <v>61248851.424838401</v>
+        <v>612.48851424838404</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -2859,7 +2858,7 @@
         <v>44294</v>
       </c>
       <c r="B246">
-        <v>59386650.4009711</v>
+        <v>593.86650400971098</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -2867,7 +2866,7 @@
         <v>44295</v>
       </c>
       <c r="B247">
-        <v>57548548.935178503</v>
+        <v>575.48548935178508</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -2875,7 +2874,7 @@
         <v>44296</v>
       </c>
       <c r="B248">
-        <v>55669377.193640701</v>
+        <v>556.69377193640696</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -2883,7 +2882,7 @@
         <v>44297</v>
       </c>
       <c r="B249">
-        <v>53693968.287469201</v>
+        <v>536.93968287469204</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -2891,7 +2890,7 @@
         <v>44298</v>
       </c>
       <c r="B250">
-        <v>51581065.140824698</v>
+        <v>515.81065140824694</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -2899,7 +2898,7 @@
         <v>44299</v>
       </c>
       <c r="B251">
-        <v>49307002.207128897</v>
+        <v>493.07002207128897</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -2907,7 +2906,7 @@
         <v>44300</v>
       </c>
       <c r="B252">
-        <v>46871892.9860695</v>
+        <v>468.71892986069503</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -2915,7 +2914,7 @@
         <v>44301</v>
       </c>
       <c r="B253">
-        <v>44308139.793366298</v>
+        <v>443.08139793366297</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -2923,7 +2922,7 @@
         <v>44302</v>
       </c>
       <c r="B254">
-        <v>41626071.225226998</v>
+        <v>416.26071225226997</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -2931,7 +2930,7 @@
         <v>44303</v>
       </c>
       <c r="B255">
-        <v>38619508.722302601</v>
+        <v>386.19508722302601</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -2939,7 +2938,7 @@
         <v>44304</v>
       </c>
       <c r="B256">
-        <v>35210006.840275899</v>
+        <v>352.10006840275901</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -2947,7 +2946,7 @@
         <v>44305</v>
       </c>
       <c r="B257">
-        <v>31483746.6555361</v>
+        <v>314.837466555361</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -2955,7 +2954,7 @@
         <v>44306</v>
       </c>
       <c r="B258">
-        <v>27604790.2959227</v>
+        <v>276.04790295922703</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -2963,7 +2962,7 @@
         <v>44307</v>
       </c>
       <c r="B259">
-        <v>23755478.041342799</v>
+        <v>237.55478041342798</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -2971,7 +2970,7 @@
         <v>44308</v>
       </c>
       <c r="B260">
-        <v>20100844.7168715</v>
+        <v>201.00844716871501</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -2979,7 +2978,7 @@
         <v>44309</v>
       </c>
       <c r="B261">
-        <v>16766211.698939299</v>
+        <v>167.66211698939298</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -2987,7 +2986,7 @@
         <v>44310</v>
       </c>
       <c r="B262">
-        <v>13828657.015747</v>
+        <v>138.28657015746998</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -2995,7 +2994,7 @@
         <v>44311</v>
       </c>
       <c r="B263">
-        <v>11321404.4352962</v>
+        <v>113.21404435296201</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -3003,7 +3002,7 @@
         <v>44312</v>
       </c>
       <c r="B264">
-        <v>9235415.5763949603</v>
+        <v>92.354155763949606</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -3011,7 +3010,7 @@
         <v>44313</v>
       </c>
       <c r="B265">
-        <v>7519419.40147743</v>
+        <v>75.194194014774297</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -3019,7 +3018,7 @@
         <v>44314</v>
       </c>
       <c r="B266">
-        <v>6082326.8245965503</v>
+        <v>60.823268245965501</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -3027,7 +3026,7 @@
         <v>44315</v>
       </c>
       <c r="B267">
-        <v>4856744.1150449598</v>
+        <v>48.567441150449596</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -3035,7 +3034,7 @@
         <v>44316</v>
       </c>
       <c r="B268">
-        <v>3915076.1999917398</v>
+        <v>39.1507619999174</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -3043,7 +3042,7 @@
         <v>44317</v>
       </c>
       <c r="B269">
-        <v>3365015.0648802202</v>
+        <v>33.650150648802203</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -3051,7 +3050,7 @@
         <v>44318</v>
       </c>
       <c r="B270">
-        <v>3292113.3695363202</v>
+        <v>32.921133695363203</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -3059,7 +3058,7 @@
         <v>44319</v>
       </c>
       <c r="B271">
-        <v>3731453.2976950901</v>
+        <v>37.3145329769509</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -3067,7 +3066,7 @@
         <v>44320</v>
       </c>
       <c r="B272">
-        <v>4648839.7132358998</v>
+        <v>46.488397132358998</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -3075,7 +3074,7 @@
         <v>44321</v>
       </c>
       <c r="B273">
-        <v>5928390.9013846004</v>
+        <v>59.283909013846007</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -3083,7 +3082,7 @@
         <v>44322</v>
       </c>
       <c r="B274">
-        <v>7373054.8512914097</v>
+        <v>73.730548512914098</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -3091,7 +3090,7 @@
         <v>44323</v>
       </c>
       <c r="B275">
-        <v>8743426.0431306809</v>
+        <v>87.434260431306811</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -3099,7 +3098,7 @@
         <v>44324</v>
       </c>
       <c r="B276">
-        <v>9812692.8064847309</v>
+        <v>98.126928064847306</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -3107,7 +3106,7 @@
         <v>44325</v>
       </c>
       <c r="B277">
-        <v>10446122.3432223</v>
+        <v>104.46122343222299</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -3115,7 +3114,7 @@
         <v>44326</v>
       </c>
       <c r="B278">
-        <v>10709218.4568308</v>
+        <v>107.092184568308</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -3123,7 +3122,7 @@
         <v>44327</v>
       </c>
       <c r="B279">
-        <v>10883959.2595222</v>
+        <v>108.839592595222</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -3131,7 +3130,7 @@
         <v>44328</v>
       </c>
       <c r="B280">
-        <v>11028494.1592818</v>
+        <v>110.284941592818</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
@@ -3139,7 +3138,7 @@
         <v>44329</v>
       </c>
       <c r="B281">
-        <v>11125172.449965199</v>
+        <v>111.251724499652</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -3147,7 +3146,7 @@
         <v>44330</v>
       </c>
       <c r="B282">
-        <v>11190177.985970801</v>
+        <v>111.90177985970801</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -3155,7 +3154,7 @@
         <v>44331</v>
       </c>
       <c r="B283">
-        <v>11255276.813965101</v>
+        <v>112.55276813965101</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -3163,7 +3162,7 @@
         <v>44332</v>
       </c>
       <c r="B284">
-        <v>11353890.5992691</v>
+        <v>113.538905992691</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -3171,7 +3170,7 @@
         <v>44333</v>
       </c>
       <c r="B285">
-        <v>11512278.5308479</v>
+        <v>115.122785308479</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -3179,7 +3178,7 @@
         <v>44334</v>
       </c>
       <c r="B286">
-        <v>11744081.3737888</v>
+        <v>117.44081373788801</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -3187,7 +3186,7 @@
         <v>44335</v>
       </c>
       <c r="B287">
-        <v>12049419.238351</v>
+        <v>120.49419238351001</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -3195,7 +3194,7 @@
         <v>44336</v>
       </c>
       <c r="B288">
-        <v>12418802.489345901</v>
+        <v>124.188024893459</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -3203,7 +3202,7 @@
         <v>44337</v>
       </c>
       <c r="B289">
-        <v>12837256.6070046</v>
+        <v>128.37256607004599</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
@@ -3211,7 +3210,7 @@
         <v>44338</v>
       </c>
       <c r="B290">
-        <v>13289901.547509899</v>
+        <v>132.89901547509899</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -3219,7 +3218,7 @@
         <v>44339</v>
       </c>
       <c r="B291">
-        <v>13769849.853265399</v>
+        <v>137.69849853265399</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
@@ -3227,7 +3226,7 @@
         <v>44340</v>
       </c>
       <c r="B292">
-        <v>14282496.2649091</v>
+        <v>142.82496264909099</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
@@ -3235,7 +3234,7 @@
         <v>44341</v>
       </c>
       <c r="B293">
-        <v>14829612.5891323</v>
+        <v>148.29612589132299</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -3243,7 +3242,7 @@
         <v>44342</v>
       </c>
       <c r="B294">
-        <v>15419368.5032636</v>
+        <v>154.19368503263601</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
@@ -3251,7 +3250,7 @@
         <v>44343</v>
       </c>
       <c r="B295">
-        <v>16063983.019843001</v>
+        <v>160.63983019843002</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
@@ -3259,7 +3258,7 @@
         <v>44344</v>
       </c>
       <c r="B296">
-        <v>16773285.296268901</v>
+        <v>167.73285296268901</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
@@ -3267,7 +3266,7 @@
         <v>44345</v>
       </c>
       <c r="B297">
-        <v>17549778.687619202</v>
+        <v>175.49778687619201</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
@@ -3275,7 +3274,7 @@
         <v>44346</v>
       </c>
       <c r="B298">
-        <v>18384620.681950901</v>
+        <v>183.84620681950901</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
@@ -3283,7 +3282,7 @@
         <v>44347</v>
       </c>
       <c r="B299">
-        <v>19253429.5040236</v>
+        <v>192.534295040236</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
@@ -3291,7 +3290,7 @@
         <v>44348</v>
       </c>
       <c r="B300">
-        <v>20120547.962755699</v>
+        <v>201.205479627557</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
@@ -3299,7 +3298,7 @@
         <v>44349</v>
       </c>
       <c r="B301">
-        <v>20947611.973036099</v>
+        <v>209.47611973036101</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -3307,7 +3306,7 @@
         <v>44350</v>
       </c>
       <c r="B302">
-        <v>21705606.805119999</v>
+        <v>217.05606805119999</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
@@ -3315,7 +3314,7 @@
         <v>44351</v>
       </c>
       <c r="B303">
-        <v>22392163.461265098</v>
+        <v>223.92163461265099</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
@@ -3323,7 +3322,7 @@
         <v>44352</v>
       </c>
       <c r="B304">
-        <v>23046701.414038301</v>
+        <v>230.46701414038301</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -3331,7 +3330,7 @@
         <v>44353</v>
       </c>
       <c r="B305">
-        <v>23568742.764123499</v>
+        <v>235.68742764123499</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -3339,7 +3338,7 @@
         <v>44354</v>
       </c>
       <c r="B306">
-        <v>23709309.245138001</v>
+        <v>237.09309245138002</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
@@ -3347,7 +3346,7 @@
         <v>44355</v>
       </c>
       <c r="B307">
-        <v>23448727.997373302</v>
+        <v>234.48727997373302</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
@@ -3355,7 +3354,7 @@
         <v>44356</v>
       </c>
       <c r="B308">
-        <v>22930280.4671514</v>
+        <v>229.302804671514</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
@@ -3363,7 +3362,7 @@
         <v>44357</v>
       </c>
       <c r="B309">
-        <v>22366841.692324501</v>
+        <v>223.66841692324502</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
@@ -3371,7 +3370,7 @@
         <v>44358</v>
       </c>
       <c r="B310">
-        <v>21974601.058436301</v>
+        <v>219.74601058436301</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
@@ -3379,7 +3378,7 @@
         <v>44359</v>
       </c>
       <c r="B311">
-        <v>21928035.0207345</v>
+        <v>219.28035020734501</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
@@ -3387,7 +3386,7 @@
         <v>44360</v>
       </c>
       <c r="B312">
-        <v>22329867.305398501</v>
+        <v>223.29867305398503</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
@@ -3395,7 +3394,7 @@
         <v>44361</v>
       </c>
       <c r="B313">
-        <v>23212572.011729401</v>
+        <v>232.12572011729401</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -3403,7 +3402,7 @@
         <v>44362</v>
       </c>
       <c r="B314">
-        <v>24547779.8343153</v>
+        <v>245.47779834315301</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -3411,7 +3410,7 @@
         <v>44363</v>
       </c>
       <c r="B315">
-        <v>26259694.5957717</v>
+        <v>262.59694595771703</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -3419,7 +3418,7 @@
         <v>44364</v>
       </c>
       <c r="B316">
-        <v>28245664.150167599</v>
+        <v>282.45664150167602</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -3427,7 +3426,7 @@
         <v>44365</v>
       </c>
       <c r="B317">
-        <v>30376390.796725102</v>
+        <v>303.76390796725104</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
@@ -3435,7 +3434,7 @@
         <v>44366</v>
       </c>
       <c r="B318">
-        <v>32521739.499031499</v>
+        <v>325.21739499031497</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -3443,7 +3442,7 @@
         <v>44367</v>
       </c>
       <c r="B319">
-        <v>34726930.8134562</v>
+        <v>347.26930813456198</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -3451,7 +3450,7 @@
         <v>44368</v>
       </c>
       <c r="B320">
-        <v>37144829.811286002</v>
+        <v>371.44829811286002</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -3459,7 +3458,7 @@
         <v>44369</v>
       </c>
       <c r="B321">
-        <v>39949143.329557598</v>
+        <v>399.49143329557597</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -3467,7 +3466,7 @@
         <v>44370</v>
       </c>
       <c r="B322">
-        <v>43275869.074108399</v>
+        <v>432.75869074108397</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -3475,7 +3474,7 @@
         <v>44371</v>
       </c>
       <c r="B323">
-        <v>47185389.5064767</v>
+        <v>471.85389506476702</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -3483,7 +3482,7 @@
         <v>44372</v>
       </c>
       <c r="B324">
-        <v>51633980.280857503</v>
+        <v>516.33980280857509</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
@@ -3491,7 +3490,7 @@
         <v>44373</v>
       </c>
       <c r="B325">
-        <v>56481003.230557904</v>
+        <v>564.81003230557906</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -3499,7 +3498,7 @@
         <v>44374</v>
       </c>
       <c r="B326">
-        <v>61525509.205774203</v>
+        <v>615.25509205774199</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -3507,7 +3506,7 @@
         <v>44375</v>
       </c>
       <c r="B327">
-        <v>66560110.7230298</v>
+        <v>665.601107230298</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
@@ -3515,7 +3514,7 @@
         <v>44376</v>
       </c>
       <c r="B328">
-        <v>71455586.9730452</v>
+        <v>714.55586973045195</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -3523,7 +3522,7 @@
         <v>44377</v>
       </c>
       <c r="B329">
-        <v>76279097.889732406</v>
+        <v>762.79097889732407</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
@@ -3531,7 +3530,7 @@
         <v>44378</v>
       </c>
       <c r="B330">
-        <v>81319643.514975697</v>
+        <v>813.19643514975701</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
@@ -3539,7 +3538,7 @@
         <v>44379</v>
       </c>
       <c r="B331">
-        <v>87002690.298686907</v>
+        <v>870.02690298686912</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
@@ -3547,7 +3546,7 @@
         <v>44380</v>
       </c>
       <c r="B332">
-        <v>93479942.542871907</v>
+        <v>934.79942542871902</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
@@ -3555,7 +3554,7 @@
         <v>44381</v>
       </c>
       <c r="B333">
-        <v>100638922.662146</v>
+        <v>1006.38922662146</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
@@ -3563,7 +3562,7 @@
         <v>44382</v>
       </c>
       <c r="B334">
-        <v>108219399.91945501</v>
+        <v>1082.1939991945501</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -3571,7 +3570,7 @@
         <v>44383</v>
       </c>
       <c r="B335">
-        <v>115900444.42854901</v>
+        <v>1159.0044442854901</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
@@ -3579,7 +3578,7 @@
         <v>44384</v>
       </c>
       <c r="B336">
-        <v>123360968.23369101</v>
+        <v>1233.6096823369101</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -3587,7 +3586,7 @@
         <v>44385</v>
       </c>
       <c r="B337">
-        <v>130330928.864227</v>
+        <v>1303.3092886422701</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
@@ -3595,7 +3594,7 @@
         <v>44386</v>
       </c>
       <c r="B338">
-        <v>136617593.92453399</v>
+        <v>1366.17593924534</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
@@ -3603,7 +3602,7 @@
         <v>44387</v>
       </c>
       <c r="B339">
-        <v>142123510.072716</v>
+        <v>1421.23510072716</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
@@ -3611,7 +3610,7 @@
         <v>44388</v>
       </c>
       <c r="B340">
-        <v>146871713.01723701</v>
+        <v>1468.7171301723702</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
@@ -3619,7 +3618,7 @@
         <v>44389</v>
       </c>
       <c r="B341">
-        <v>151036372.240659</v>
+        <v>1510.3637224065899</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
@@ -3627,7 +3626,7 @@
         <v>44390</v>
       </c>
       <c r="B342">
-        <v>154936721.49257001</v>
+        <v>1549.3672149257002</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
@@ -3635,7 +3634,7 @@
         <v>44391</v>
       </c>
       <c r="B343">
-        <v>158993392.522416</v>
+        <v>1589.93392522416</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
@@ -3643,7 +3642,7 @@
         <v>44392</v>
       </c>
       <c r="B344">
-        <v>163319622.78276101</v>
+        <v>1633.1962278276101</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -3651,7 +3650,7 @@
         <v>44393</v>
       </c>
       <c r="B345">
-        <v>167651421.23428199</v>
+        <v>1676.51421234282</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
@@ -3659,7 +3658,7 @@
         <v>44394</v>
       </c>
       <c r="B346">
-        <v>171578907.97839001</v>
+        <v>1715.7890797839</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
@@ -3667,7 +3666,7 @@
         <v>44395</v>
       </c>
       <c r="B347">
-        <v>174709455.53675199</v>
+        <v>1747.0945553675199</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
@@ -3675,7 +3674,7 @@
         <v>44396</v>
       </c>
       <c r="B348">
-        <v>176770996.22187701</v>
+        <v>1767.70996221877</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
@@ -3683,7 +3682,7 @@
         <v>44397</v>
       </c>
       <c r="B349">
-        <v>177682354.022618</v>
+        <v>1776.8235402261801</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -3691,7 +3690,7 @@
         <v>44398</v>
       </c>
       <c r="B350">
-        <v>177565244.03691199</v>
+        <v>1775.6524403691199</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
@@ -3699,7 +3698,7 @@
         <v>44399</v>
       </c>
       <c r="B351">
-        <v>176688452.44247201</v>
+        <v>1766.8845244247202</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -3707,7 +3706,7 @@
         <v>44400</v>
       </c>
       <c r="B352">
-        <v>175393341.706929</v>
+        <v>1753.93341706929</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
@@ -3715,7 +3714,7 @@
         <v>44401</v>
       </c>
       <c r="B353">
-        <v>173978379.428027</v>
+        <v>1739.7837942802701</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -3723,7 +3722,7 @@
         <v>44402</v>
       </c>
       <c r="B354">
-        <v>172527577.25866899</v>
+        <v>1725.27577258669</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
@@ -3731,7 +3730,7 @@
         <v>44403</v>
       </c>
       <c r="B355">
-        <v>170746976.00337499</v>
+        <v>1707.4697600337499</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
@@ -3739,7 +3738,7 @@
         <v>44404</v>
       </c>
       <c r="B356">
-        <v>168264803.42715299</v>
+        <v>1682.6480342715299</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
@@ -3747,7 +3746,7 @@
         <v>44405</v>
       </c>
       <c r="B357">
-        <v>164860550.67488399</v>
+        <v>1648.6055067488398</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
@@ -3755,7 +3754,7 @@
         <v>44406</v>
       </c>
       <c r="B358">
-        <v>160456639.82332799</v>
+        <v>1604.5663982332799</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -3763,7 +3762,7 @@
         <v>44407</v>
       </c>
       <c r="B359">
-        <v>155107434.71064401</v>
+        <v>1551.07434710644</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -3771,7 +3770,7 @@
         <v>44408</v>
       </c>
       <c r="B360">
-        <v>148989451.06151801</v>
+        <v>1489.89451061518</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -3779,7 +3778,7 @@
         <v>44409</v>
       </c>
       <c r="B361">
-        <v>142396349.000386</v>
+        <v>1423.96349000386</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -3787,7 +3786,7 @@
         <v>44410</v>
       </c>
       <c r="B362">
-        <v>135724530.55857399</v>
+        <v>1357.24530558574</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -3795,7 +3794,7 @@
         <v>44411</v>
       </c>
       <c r="B363">
-        <v>129411077.29997499</v>
+        <v>1294.11077299975</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
@@ -3803,7 +3802,7 @@
         <v>44412</v>
       </c>
       <c r="B364">
-        <v>123850244.308879</v>
+        <v>1238.50244308879</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
@@ -3811,7 +3810,7 @@
         <v>44413</v>
       </c>
       <c r="B365">
-        <v>119271006.808972</v>
+        <v>1192.7100680897199</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
@@ -3819,7 +3818,7 @@
         <v>44414</v>
       </c>
       <c r="B366">
-        <v>115567600.913618</v>
+        <v>1155.67600913618</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
@@ -3827,7 +3826,7 @@
         <v>44415</v>
       </c>
       <c r="B367">
-        <v>112206904.826591</v>
+        <v>1122.0690482659099</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
@@ -3835,7 +3834,7 @@
         <v>44416</v>
       </c>
       <c r="B368">
-        <v>108863457.16288701</v>
+        <v>1088.6345716288702</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
@@ -3843,7 +3842,7 @@
         <v>44417</v>
       </c>
       <c r="B369">
-        <v>105443553.151133</v>
+        <v>1054.4355315113301</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
@@ -3851,7 +3850,7 @@
         <v>44418</v>
       </c>
       <c r="B370">
-        <v>102023597.625367</v>
+        <v>1020.2359762536701</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -3859,7 +3858,7 @@
         <v>44419</v>
       </c>
       <c r="B371">
-        <v>98762247.669325903</v>
+        <v>987.62247669325905</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -3867,7 +3866,7 @@
         <v>44420</v>
       </c>
       <c r="B372">
-        <v>95823830.078463107</v>
+        <v>958.23830078463106</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -3875,7 +3874,7 @@
         <v>44421</v>
       </c>
       <c r="B373">
-        <v>93327101.173205793</v>
+        <v>933.2710117320579</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
@@ -3883,7 +3882,7 @@
         <v>44422</v>
       </c>
       <c r="B374">
-        <v>91311302.360176399</v>
+        <v>913.11302360176398</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
@@ -3891,7 +3890,7 @@
         <v>44423</v>
       </c>
       <c r="B375">
-        <v>89724181.160085797</v>
+        <v>897.241811600858</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
@@ -3899,7 +3898,7 @@
         <v>44424</v>
       </c>
       <c r="B376">
-        <v>88445072.356409803</v>
+        <v>884.45072356409798</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
@@ -3907,7 +3906,7 @@
         <v>44425</v>
       </c>
       <c r="B377">
-        <v>87319708.193703905</v>
+        <v>873.197081937039</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
@@ -3915,7 +3914,7 @@
         <v>44426</v>
       </c>
       <c r="B378">
-        <v>86213618.231712207</v>
+        <v>862.13618231712212</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
@@ -3923,7 +3922,7 @@
         <v>44427</v>
       </c>
       <c r="B379">
-        <v>85089715.042315096</v>
+        <v>850.89715042315095</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
@@ -3931,7 +3930,7 @@
         <v>44428</v>
       </c>
       <c r="B380">
-        <v>84073002.801645204</v>
+        <v>840.73002801645202</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -3939,7 +3938,7 @@
         <v>44429</v>
       </c>
       <c r="B381">
-        <v>83297512.209974393</v>
+        <v>832.97512209974388</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -3947,7 +3946,7 @@
         <v>44430</v>
       </c>
       <c r="B382">
-        <v>82850882.264733002</v>
+        <v>828.50882264733002</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -3955,7 +3954,7 @@
         <v>44431</v>
       </c>
       <c r="B383">
-        <v>82782114.812557802</v>
+        <v>827.82114812557802</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -3963,7 +3962,7 @@
         <v>44432</v>
       </c>
       <c r="B384">
-        <v>83097230.810887799</v>
+        <v>830.972308108878</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -3971,7 +3970,7 @@
         <v>44433</v>
       </c>
       <c r="B385">
-        <v>83757323.804334506</v>
+        <v>837.5732380433451</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
@@ -3979,7 +3978,7 @@
         <v>44434</v>
       </c>
       <c r="B386">
-        <v>84676400.284518197</v>
+        <v>846.76400284518195</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
@@ -3987,7 +3986,7 @@
         <v>44435</v>
       </c>
       <c r="B387">
-        <v>85721722.711051598</v>
+        <v>857.21722711051598</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
@@ -3995,7 +3994,7 @@
         <v>44436</v>
       </c>
       <c r="B388">
-        <v>86732125.788769796</v>
+        <v>867.32125788769793</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
@@ -4003,7 +4002,7 @@
         <v>44437</v>
       </c>
       <c r="B389">
-        <v>87545454.289136603</v>
+        <v>875.45454289136603</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
@@ -4011,7 +4010,7 @@
         <v>44438</v>
       </c>
       <c r="B390">
-        <v>88039842.736910701</v>
+        <v>880.39842736910703</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
@@ -4019,7 +4018,7 @@
         <v>44439</v>
       </c>
       <c r="B391">
-        <v>88195605.252707407</v>
+        <v>881.95605252707412</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
@@ -4027,7 +4026,7 @@
         <v>44440</v>
       </c>
       <c r="B392">
-        <v>88170070.4600171</v>
+        <v>881.70070460017098</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -4035,7 +4034,7 @@
         <v>44441</v>
       </c>
       <c r="B393">
-        <v>88206099.000350505</v>
+        <v>882.06099000350503</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -4043,7 +4042,7 @@
         <v>44442</v>
       </c>
       <c r="B394">
-        <v>88575047.643089503</v>
+        <v>885.75047643089499</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
@@ -4051,7 +4050,7 @@
         <v>44443</v>
       </c>
       <c r="B395">
-        <v>89319821.057895407</v>
+        <v>893.1982105789541</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
@@ -4059,7 +4058,7 @@
         <v>44444</v>
       </c>
       <c r="B396">
-        <v>90290593.438583001</v>
+        <v>902.90593438583005</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
@@ -4067,7 +4066,7 @@
         <v>44445</v>
       </c>
       <c r="B397">
-        <v>91255103.754349798</v>
+        <v>912.55103754349796</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
@@ -4075,7 +4074,7 @@
         <v>44446</v>
       </c>
       <c r="B398">
-        <v>91978531.164775804</v>
+        <v>919.78531164775802</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -4083,7 +4082,7 @@
         <v>44447</v>
       </c>
       <c r="B399">
-        <v>92277076.830100402</v>
+        <v>922.77076830100407</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
@@ -4091,7 +4090,7 @@
         <v>44448</v>
       </c>
       <c r="B400">
-        <v>92052409.336821005</v>
+        <v>920.52409336821006</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -4099,7 +4098,7 @@
         <v>44449</v>
       </c>
       <c r="B401">
-        <v>91291038.763320699</v>
+        <v>912.91038763320694</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
@@ -4107,7 +4106,7 @@
         <v>44450</v>
       </c>
       <c r="B402">
-        <v>90048999.314172298</v>
+        <v>900.48999314172295</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
@@ -4115,7 +4114,7 @@
         <v>44451</v>
       </c>
       <c r="B403">
-        <v>88427835.944692507</v>
+        <v>884.27835944692504</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
@@ -4123,7 +4122,7 @@
         <v>44452</v>
       </c>
       <c r="B404">
-        <v>86538447.913958102</v>
+        <v>865.384479139581</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
@@ -4131,7 +4130,7 @@
         <v>44453</v>
       </c>
       <c r="B405">
-        <v>84416292.620781496</v>
+        <v>844.16292620781496</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
@@ -4139,7 +4138,7 @@
         <v>44454</v>
       </c>
       <c r="B406">
-        <v>81862401.769220993</v>
+        <v>818.62401769220992</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
@@ -4147,7 +4146,7 @@
         <v>44455</v>
       </c>
       <c r="B407">
-        <v>78727569.136381507</v>
+        <v>787.2756913638151</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
@@ -4155,7 +4154,7 @@
         <v>44456</v>
       </c>
       <c r="B408">
-        <v>74994663.9836393</v>
+        <v>749.94663983639305</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -4163,7 +4162,7 @@
         <v>44457</v>
       </c>
       <c r="B409">
-        <v>70736125.516079798</v>
+        <v>707.36125516079801</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
@@ -4171,7 +4170,7 @@
         <v>44458</v>
       </c>
       <c r="B410">
-        <v>66082758.050217502</v>
+        <v>660.82758050217501</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
@@ -4179,7 +4178,7 @@
         <v>44459</v>
       </c>
       <c r="B411">
-        <v>61206100.083400302</v>
+        <v>612.06100083400304</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
@@ -4187,7 +4186,7 @@
         <v>44460</v>
       </c>
       <c r="B412">
-        <v>56309690.040218599</v>
+        <v>563.09690040218595</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -4195,7 +4194,7 @@
         <v>44461</v>
       </c>
       <c r="B413">
-        <v>51610583.90174</v>
+        <v>516.10583901739994</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
@@ -4203,7 +4202,7 @@
         <v>44462</v>
       </c>
       <c r="B414">
-        <v>47315158.328117304</v>
+        <v>473.15158328117303</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
@@ -4211,7 +4210,7 @@
         <v>44463</v>
       </c>
       <c r="B415">
-        <v>43581707.379751198</v>
+        <v>435.81707379751197</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
@@ -4219,7 +4218,7 @@
         <v>44464</v>
       </c>
       <c r="B416">
-        <v>40458228.814687803</v>
+        <v>404.58228814687806</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
@@ -4227,7 +4226,7 @@
         <v>44465</v>
       </c>
       <c r="B417">
-        <v>37794553.257312201</v>
+        <v>377.94553257312202</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
@@ -4235,7 +4234,7 @@
         <v>44466</v>
       </c>
       <c r="B418">
-        <v>35282027.020219699</v>
+        <v>352.82027020219698</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
@@ -4243,7 +4242,7 @@
         <v>44467</v>
       </c>
       <c r="B419">
-        <v>32804773.107825801</v>
+        <v>328.04773107825798</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
@@ -4251,7 +4250,7 @@
         <v>44468</v>
       </c>
       <c r="B420">
-        <v>30409091.267830901</v>
+        <v>304.090912678309</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
@@ -4259,7 +4258,7 @@
         <v>44469</v>
       </c>
       <c r="B421">
-        <v>28212397.2814821</v>
+        <v>282.123972814821</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
@@ -4267,7 +4266,7 @@
         <v>44470</v>
       </c>
       <c r="B422">
-        <v>26338087.058828</v>
+        <v>263.38087058828</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
@@ -4275,7 +4274,7 @@
         <v>44471</v>
       </c>
       <c r="B423">
-        <v>24869570.675806399</v>
+        <v>248.69570675806401</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
@@ -4283,7 +4282,7 @@
         <v>44472</v>
       </c>
       <c r="B424">
-        <v>23819446.889395501</v>
+        <v>238.19446889395502</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
@@ -4291,7 +4290,7 @@
         <v>44473</v>
       </c>
       <c r="B425">
-        <v>23112623.984745599</v>
+        <v>231.12623984745599</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
@@ -4299,7 +4298,7 @@
         <v>44474</v>
       </c>
       <c r="B426">
-        <v>22607441.292618699</v>
+        <v>226.07441292618699</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
@@ -4307,7 +4306,7 @@
         <v>44475</v>
       </c>
       <c r="B427">
-        <v>22136037.150360201</v>
+        <v>221.36037150360201</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -4315,7 +4314,7 @@
         <v>44476</v>
       </c>
       <c r="B428">
-        <v>21564760.231325999</v>
+        <v>215.64760231325999</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
@@ -4323,7 +4322,7 @@
         <v>44477</v>
       </c>
       <c r="B429">
-        <v>20879153.569698501</v>
+        <v>208.79153569698502</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
@@ -4331,7 +4330,7 @@
         <v>44478</v>
       </c>
       <c r="B430">
-        <v>20222249.088497199</v>
+        <v>202.22249088497199</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
@@ -4339,7 +4338,7 @@
         <v>44479</v>
       </c>
       <c r="B431">
-        <v>19636720.623642299</v>
+        <v>196.36720623642299</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
@@ -4347,7 +4346,7 @@
         <v>44480</v>
       </c>
       <c r="B432">
-        <v>19140997.741532601</v>
+        <v>191.40997741532601</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
@@ -4355,7 +4354,7 @@
         <v>44481</v>
       </c>
       <c r="B433">
-        <v>18783481.855566502</v>
+        <v>187.83481855566501</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
@@ -4363,7 +4362,7 @@
         <v>44482</v>
       </c>
       <c r="B434">
-        <v>18614986.260965001</v>
+        <v>186.14986260965</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
@@ -4371,7 +4370,7 @@
         <v>44483</v>
       </c>
       <c r="B435">
-        <v>18669014.335600998</v>
+        <v>186.69014335600997</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
@@ -4379,7 +4378,7 @@
         <v>44484</v>
       </c>
       <c r="B436">
-        <v>18948953.188857101</v>
+        <v>189.48953188857101</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
@@ -4387,7 +4386,7 @@
         <v>44485</v>
       </c>
       <c r="B437">
-        <v>19418499.655933298</v>
+        <v>194.18499655933297</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
@@ -4395,7 +4394,7 @@
         <v>44486</v>
       </c>
       <c r="B438">
-        <v>20003118.256334201</v>
+        <v>200.03118256334201</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
@@ -4403,7 +4402,7 @@
         <v>44487</v>
       </c>
       <c r="B439">
-        <v>20606543.311795998</v>
+        <v>206.06543311796</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
@@ -4411,7 +4410,7 @@
         <v>44488</v>
       </c>
       <c r="B440">
-        <v>21132141.930904001</v>
+        <v>211.32141930904001</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
@@ -4419,7 +4418,7 @@
         <v>44489</v>
       </c>
       <c r="B441">
-        <v>21516344.825268898</v>
+        <v>215.16344825268899</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
@@ -4427,7 +4426,7 @@
         <v>44490</v>
       </c>
       <c r="B442">
-        <v>21776725.335237101</v>
+        <v>217.767253352371</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
@@ -4435,7 +4434,7 @@
         <v>44491</v>
       </c>
       <c r="B443">
-        <v>22006727.593983799</v>
+        <v>220.067275939838</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
@@ -4443,7 +4442,7 @@
         <v>44492</v>
       </c>
       <c r="B444">
-        <v>22178490.915890999</v>
+        <v>221.78490915890998</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
@@ -4451,7 +4450,7 @@
         <v>44493</v>
       </c>
       <c r="B445">
-        <v>22281477.720950801</v>
+        <v>222.81477720950801</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
@@ -4459,7 +4458,7 @@
         <v>44494</v>
       </c>
       <c r="B446">
-        <v>22349964.274945099</v>
+        <v>223.499642749451</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
@@ -4467,7 +4466,7 @@
         <v>44495</v>
       </c>
       <c r="B447">
-        <v>22436366.213256501</v>
+        <v>224.363662132565</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
@@ -4475,7 +4474,7 @@
         <v>44496</v>
       </c>
       <c r="B448">
-        <v>22592130.664051998</v>
+        <v>225.92130664051999</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
@@ -4483,7 +4482,7 @@
         <v>44497</v>
       </c>
       <c r="B449">
-        <v>22854849.3940579</v>
+        <v>228.54849394057899</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
@@ -4491,7 +4490,7 @@
         <v>44498</v>
       </c>
       <c r="B450">
-        <v>23237198.958590101</v>
+        <v>232.37198958590102</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
@@ -4499,7 +4498,7 @@
         <v>44499</v>
       </c>
       <c r="B451">
-        <v>23727628.967398901</v>
+        <v>237.276289673989</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
@@ -4507,7 +4506,7 @@
         <v>44500</v>
       </c>
       <c r="B452">
-        <v>24298118.4036984</v>
+        <v>242.98118403698399</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
@@ -4515,7 +4514,7 @@
         <v>44501</v>
       </c>
       <c r="B453">
-        <v>24914576.485336602</v>
+        <v>249.14576485336602</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
@@ -4523,7 +4522,7 @@
         <v>44502</v>
       </c>
       <c r="B454">
-        <v>25552363.0201976</v>
+        <v>255.523630201976</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
@@ -4531,7 +4530,7 @@
         <v>44503</v>
       </c>
       <c r="B455">
-        <v>26214942.2719739</v>
+        <v>262.14942271973899</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
@@ -4539,7 +4538,7 @@
         <v>44504</v>
       </c>
       <c r="B456">
-        <v>26905301.441097099</v>
+        <v>269.053014410971</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
@@ -4547,7 +4546,7 @@
         <v>44505</v>
       </c>
       <c r="B457">
-        <v>27613756.756786</v>
+        <v>276.13756756786</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
@@ -4555,7 +4554,7 @@
         <v>44506</v>
       </c>
       <c r="B458">
-        <v>28354142.675306302</v>
+        <v>283.54142675306304</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
@@ -4563,7 +4562,7 @@
         <v>44507</v>
       </c>
       <c r="B459">
-        <v>29151949.983631499</v>
+        <v>291.51949983631499</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
@@ -4571,7 +4570,7 @@
         <v>44508</v>
       </c>
       <c r="B460">
-        <v>30031855.518993702</v>
+        <v>300.318555189937</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
@@ -4579,7 +4578,7 @@
         <v>44509</v>
       </c>
       <c r="B461">
-        <v>31009226.7883025</v>
+        <v>310.09226788302499</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
@@ -4587,7 +4586,7 @@
         <v>44510</v>
       </c>
       <c r="B462">
-        <v>32084596.212527599</v>
+        <v>320.845962125276</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
@@ -4595,7 +4594,7 @@
         <v>44511</v>
       </c>
       <c r="B463">
-        <v>33241339.8767136</v>
+        <v>332.41339876713602</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
@@ -4603,7 +4602,7 @@
         <v>44512</v>
       </c>
       <c r="B464">
-        <v>34449025.725628302</v>
+        <v>344.49025725628303</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
@@ -4611,7 +4610,7 @@
         <v>44513</v>
       </c>
       <c r="B465">
-        <v>35670782.531261198</v>
+        <v>356.70782531261199</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
@@ -4619,7 +4618,7 @@
         <v>44514</v>
       </c>
       <c r="B466">
-        <v>36875357.525919802</v>
+        <v>368.75357525919804</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
@@ -4627,7 +4626,7 @@
         <v>44515</v>
       </c>
       <c r="B467">
-        <v>38054882.893467501</v>
+        <v>380.54882893467499</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
@@ -4635,7 +4634,7 @@
         <v>44516</v>
       </c>
       <c r="B468">
-        <v>39190268.1694168</v>
+        <v>391.902681694168</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
@@ -4643,7 +4642,7 @@
         <v>44517</v>
       </c>
       <c r="B469">
-        <v>40129473.993241698</v>
+        <v>401.29473993241697</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
@@ -4651,7 +4650,7 @@
         <v>44518</v>
       </c>
       <c r="B470">
-        <v>40839884.747690201</v>
+        <v>408.39884747690201</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -4659,7 +4658,7 @@
         <v>44519</v>
       </c>
       <c r="B471">
-        <v>41406768.641370997</v>
+        <v>414.06768641370996</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
@@ -4667,7 +4666,7 @@
         <v>44520</v>
       </c>
       <c r="B472">
-        <v>41964672.895295396</v>
+        <v>419.64672895295399</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
@@ -4675,7 +4674,7 @@
         <v>44521</v>
       </c>
       <c r="B473">
-        <v>42650459.783621699</v>
+        <v>426.50459783621699</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
@@ -4683,7 +4682,7 @@
         <v>44522</v>
       </c>
       <c r="B474">
-        <v>43574459.886072099</v>
+        <v>435.744598860721</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
@@ -4691,7 +4690,7 @@
         <v>44523</v>
       </c>
       <c r="B475">
-        <v>44799516.654648803</v>
+        <v>447.99516654648801</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
@@ -4699,7 +4698,7 @@
         <v>44524</v>
       </c>
       <c r="B476">
-        <v>46337323.500272296</v>
+        <v>463.37323500272294</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
@@ -4707,7 +4706,7 @@
         <v>44525</v>
       </c>
       <c r="B477">
-        <v>48159997.164159097</v>
+        <v>481.59997164159097</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
@@ -4715,7 +4714,7 @@
         <v>44526</v>
       </c>
       <c r="B478">
-        <v>50213028.857277699</v>
+        <v>502.13028857277698</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
@@ -4723,7 +4722,7 @@
         <v>44527</v>
       </c>
       <c r="B479">
-        <v>52434521.221893698</v>
+        <v>524.34521221893704</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
@@ -4731,7 +4730,7 @@
         <v>44528</v>
       </c>
       <c r="B480">
-        <v>54784030.562779397</v>
+        <v>547.84030562779401</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
@@ -4739,7 +4738,7 @@
         <v>44529</v>
       </c>
       <c r="B481">
-        <v>57318973.3492079</v>
+        <v>573.18973349207897</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
@@ -4747,7 +4746,7 @@
         <v>44530</v>
       </c>
       <c r="B482">
-        <v>60265140.555210799</v>
+        <v>602.65140555210803</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
@@ -4755,7 +4754,7 @@
         <v>44531</v>
       </c>
       <c r="B483">
-        <v>63742289.114434399</v>
+        <v>637.42289114434402</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
@@ -4763,7 +4762,7 @@
         <v>44532</v>
       </c>
       <c r="B484">
-        <v>67739530.230249196</v>
+        <v>677.39530230249193</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
@@ -4771,7 +4770,7 @@
         <v>44533</v>
       </c>
       <c r="B485">
-        <v>72156177.3851275</v>
+        <v>721.56177385127501</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
@@ -4779,7 +4778,7 @@
         <v>44534</v>
       </c>
       <c r="B486">
-        <v>76833792.850198597</v>
+        <v>768.33792850198597</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
@@ -4787,7 +4786,7 @@
         <v>44535</v>
       </c>
       <c r="B487">
-        <v>81579494.266874</v>
+        <v>815.79494266873996</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
@@ -4795,7 +4794,7 @@
         <v>44536</v>
       </c>
       <c r="B488">
-        <v>86191912.538319901</v>
+        <v>861.919125383199</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
@@ -4803,7 +4802,7 @@
         <v>44537</v>
       </c>
       <c r="B489">
-        <v>90487539.601922899</v>
+        <v>904.87539601922902</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
@@ -4811,7 +4810,7 @@
         <v>44538</v>
       </c>
       <c r="B490">
-        <v>94329681.353833407</v>
+        <v>943.29681353833405</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
@@ -4819,7 +4818,7 @@
         <v>44539</v>
       </c>
       <c r="B491">
-        <v>97670979.120623693</v>
+        <v>976.7097912062369</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
@@ -4827,7 +4826,7 @@
         <v>44540</v>
       </c>
       <c r="B492">
-        <v>100610094.54278199</v>
+        <v>1006.10094542782</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
@@ -4835,7 +4834,7 @@
         <v>44541</v>
       </c>
       <c r="B493">
-        <v>103382152.210596</v>
+        <v>1033.82152210596</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
@@ -4843,7 +4842,7 @@
         <v>44542</v>
       </c>
       <c r="B494">
-        <v>106065175.995537</v>
+        <v>1060.6517599553699</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
@@ -4851,7 +4850,7 @@
         <v>44543</v>
       </c>
       <c r="B495">
-        <v>108618887.66022401</v>
+        <v>1086.18887660224</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
@@ -4859,7 +4858,7 @@
         <v>44544</v>
       </c>
       <c r="B496">
-        <v>110959740.282483</v>
+        <v>1109.5974028248299</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
@@ -4867,7 +4866,7 @@
         <v>44545</v>
       </c>
       <c r="B497">
-        <v>113004164.296258</v>
+        <v>1130.04164296258</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
@@ -4875,7 +4874,7 @@
         <v>44546</v>
       </c>
       <c r="B498">
-        <v>114696336.595035</v>
+        <v>1146.96336595035</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
@@ -4883,7 +4882,7 @@
         <v>44547</v>
       </c>
       <c r="B499">
-        <v>116024535.734459</v>
+        <v>1160.24535734459</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
@@ -4891,7 +4890,7 @@
         <v>44548</v>
       </c>
       <c r="B500">
-        <v>117028964.070022</v>
+        <v>1170.2896407002199</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
@@ -4899,7 +4898,7 @@
         <v>44549</v>
       </c>
       <c r="B501">
-        <v>117796924.906967</v>
+        <v>1177.96924906967</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
@@ -4907,7 +4906,7 @@
         <v>44550</v>
       </c>
       <c r="B502">
-        <v>118447808.03735299</v>
+        <v>1184.47808037353</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
@@ -4915,7 +4914,7 @@
         <v>44551</v>
       </c>
       <c r="B503">
-        <v>119108280.8184</v>
+        <v>1191.082808184</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
@@ -4923,7 +4922,7 @@
         <v>44552</v>
       </c>
       <c r="B504">
-        <v>119871565.903072</v>
+        <v>1198.71565903072</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
@@ -4931,7 +4930,7 @@
         <v>44553</v>
       </c>
       <c r="B505">
-        <v>120735956.596525</v>
+        <v>1207.3595659652499</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
@@ -4939,7 +4938,7 @@
         <v>44554</v>
       </c>
       <c r="B506">
-        <v>121338319.96813799</v>
+        <v>1213.3831996813799</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
@@ -4947,7 +4946,7 @@
         <v>44555</v>
       </c>
       <c r="B507">
-        <v>120844154.20615</v>
+        <v>1208.4415420615001</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
@@ -4955,7 +4954,7 @@
         <v>44556</v>
       </c>
       <c r="B508">
-        <v>119093554.732811</v>
+        <v>1190.93554732811</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
@@ -4963,7 +4962,7 @@
         <v>44557</v>
       </c>
       <c r="B509">
-        <v>116491858.204016</v>
+        <v>1164.9185820401599</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
@@ -4971,7 +4970,7 @@
         <v>44558</v>
       </c>
       <c r="B510">
-        <v>113697004.96055201</v>
+        <v>1136.97004960552</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
@@ -4979,7 +4978,7 @@
         <v>44559</v>
       </c>
       <c r="B511">
-        <v>111400217.078839</v>
+        <v>1114.00217078839</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
@@ -4987,7 +4986,7 @@
         <v>44560</v>
       </c>
       <c r="B512">
-        <v>110186051.4897</v>
+        <v>1101.860514897</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
@@ -4995,7 +4994,7 @@
         <v>44561</v>
       </c>
       <c r="B513">
-        <v>110433867.66144501</v>
+        <v>1104.3386766144502</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
@@ -5003,7 +5002,7 @@
         <v>44562</v>
       </c>
       <c r="B514">
-        <v>112295460.27094699</v>
+        <v>1122.95460270947</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
@@ -5011,7 +5010,7 @@
         <v>44563</v>
       </c>
       <c r="B515">
-        <v>115718791.39610399</v>
+        <v>1157.1879139610398</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
@@ -5019,7 +5018,7 @@
         <v>44564</v>
       </c>
       <c r="B516">
-        <v>120484144.032194</v>
+        <v>1204.8414403219401</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
@@ -5027,7 +5026,7 @@
         <v>44565</v>
       </c>
       <c r="B517">
-        <v>126265535.929741</v>
+        <v>1262.6553592974099</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
@@ -5035,7 +5034,7 @@
         <v>44566</v>
       </c>
       <c r="B518">
-        <v>132755512.73757701</v>
+        <v>1327.5551273757701</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
@@ -5043,7 +5042,7 @@
         <v>44567</v>
       </c>
       <c r="B519">
-        <v>140363942.227927</v>
+        <v>1403.6394222792701</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
@@ -5051,7 +5050,7 @@
         <v>44568</v>
       </c>
       <c r="B520">
-        <v>150018837.83759499</v>
+        <v>1500.1883783759499</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
@@ -5059,7 +5058,7 @@
         <v>44569</v>
       </c>
       <c r="B521">
-        <v>161999585.02631101</v>
+        <v>1619.99585026311</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
@@ -5067,7 +5066,7 @@
         <v>44570</v>
       </c>
       <c r="B522">
-        <v>176065053.064347</v>
+        <v>1760.6505306434699</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
@@ -5075,7 +5074,7 @@
         <v>44571</v>
       </c>
       <c r="B523">
-        <v>191651743.50587499</v>
+        <v>1916.5174350587499</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
@@ -5083,7 +5082,7 @@
         <v>44572</v>
       </c>
       <c r="B524">
-        <v>208015004.91685101</v>
+        <v>2080.1500491685101</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
@@ -5091,7 +5090,7 @@
         <v>44573</v>
       </c>
       <c r="B525">
-        <v>224317107.07463399</v>
+        <v>2243.1710707463399</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
@@ -5099,7 +5098,7 @@
         <v>44574</v>
       </c>
       <c r="B526">
-        <v>239717949.552237</v>
+        <v>2397.17949552237</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
@@ -5107,7 +5106,7 @@
         <v>44575</v>
       </c>
       <c r="B527">
-        <v>253470078.23307201</v>
+        <v>2534.7007823307199</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
@@ -5115,7 +5114,7 @@
         <v>44576</v>
       </c>
       <c r="B528">
-        <v>265029780.68977201</v>
+        <v>2650.29780689772</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
@@ -5123,7 +5122,7 @@
         <v>44577</v>
       </c>
       <c r="B529">
-        <v>274235107.81313902</v>
+        <v>2742.3510781313903</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
@@ -5131,7 +5130,7 @@
         <v>44578</v>
       </c>
       <c r="B530">
-        <v>281553986.19746101</v>
+        <v>2815.5398619746102</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
@@ -5139,7 +5138,7 @@
         <v>44579</v>
       </c>
       <c r="B531">
-        <v>288303965.14556497</v>
+        <v>2883.0396514556496</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
@@ -5147,7 +5146,7 @@
         <v>44580</v>
       </c>
       <c r="B532">
-        <v>295594467.571661</v>
+        <v>2955.9446757166102</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
@@ -5155,7 +5154,7 @@
         <v>44581</v>
       </c>
       <c r="B533">
-        <v>303354863.10835099</v>
+        <v>3033.5486310835099</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
@@ -5163,7 +5162,7 @@
         <v>44582</v>
       </c>
       <c r="B534">
-        <v>310839064.14536899</v>
+        <v>3108.39064145369</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
@@ -5171,7 +5170,7 @@
         <v>44583</v>
       </c>
       <c r="B535">
-        <v>317099856.12180901</v>
+        <v>3170.9985612180899</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
@@ -5179,7 +5178,7 @@
         <v>44584</v>
       </c>
       <c r="B536">
-        <v>321313238.83347797</v>
+        <v>3213.1323883347795</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
@@ -5187,7 +5186,7 @@
         <v>44585</v>
       </c>
       <c r="B537">
-        <v>322985924.13236099</v>
+        <v>3229.8592413236101</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
@@ -5195,7 +5194,7 @@
         <v>44586</v>
       </c>
       <c r="B538">
-        <v>322110340.41552198</v>
+        <v>3221.1034041552198</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
@@ -5203,7 +5202,7 @@
         <v>44587</v>
       </c>
       <c r="B539">
-        <v>319137547.596017</v>
+        <v>3191.3754759601702</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
@@ -5211,7 +5210,7 @@
         <v>44588</v>
       </c>
       <c r="B540">
-        <v>314816283.14837599</v>
+        <v>3148.1628314837599</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
@@ -5219,7 +5218,7 @@
         <v>44589</v>
       </c>
       <c r="B541">
-        <v>309968328.99861699</v>
+        <v>3099.6832899861697</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
@@ -5227,7 +5226,7 @@
         <v>44590</v>
       </c>
       <c r="B542">
-        <v>305143786.981359</v>
+        <v>3051.4378698135902</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
@@ -5235,7 +5234,7 @@
         <v>44591</v>
       </c>
       <c r="B543">
-        <v>300152138.29150802</v>
+        <v>3001.5213829150803</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
@@ -5243,7 +5242,7 @@
         <v>44592</v>
       </c>
       <c r="B544">
-        <v>294374079.09053099</v>
+        <v>2943.74079090531</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
@@ -5251,7 +5250,7 @@
         <v>44593</v>
       </c>
       <c r="B545">
-        <v>287362625.13955998</v>
+        <v>2873.6262513955999</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
@@ -5259,7 +5258,7 @@
         <v>44594</v>
       </c>
       <c r="B546">
-        <v>278681082.43803298</v>
+        <v>2786.8108243803299</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
@@ -5267,7 +5266,7 @@
         <v>44595</v>
       </c>
       <c r="B547">
-        <v>268042350.85469699</v>
+        <v>2680.42350854697</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
@@ -5275,7 +5274,7 @@
         <v>44596</v>
       </c>
       <c r="B548">
-        <v>255386029.396189</v>
+        <v>2553.86029396189</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
@@ -5283,7 +5282,7 @@
         <v>44597</v>
       </c>
       <c r="B549">
-        <v>240923978.19843701</v>
+        <v>2409.23978198437</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
@@ -5291,7 +5290,7 @@
         <v>44598</v>
       </c>
       <c r="B550">
-        <v>225168074.75027299</v>
+        <v>2251.6807475027299</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
@@ -5299,7 +5298,7 @@
         <v>44599</v>
       </c>
       <c r="B551">
-        <v>208906014.288497</v>
+        <v>2089.06014288497</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
@@ -5307,7 +5306,7 @@
         <v>44600</v>
       </c>
       <c r="B552">
-        <v>193055076.19067401</v>
+        <v>1930.55076190674</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
@@ -5315,7 +5314,7 @@
         <v>44601</v>
       </c>
       <c r="B553">
-        <v>178465904.08227399</v>
+        <v>1784.6590408227398</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
@@ -5323,7 +5322,7 @@
         <v>44602</v>
       </c>
       <c r="B554">
-        <v>165632231.113069</v>
+        <v>1656.32231113069</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
@@ -5331,7 +5330,7 @@
         <v>44603</v>
       </c>
       <c r="B555">
-        <v>154291289.45087999</v>
+        <v>1542.9128945087998</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
@@ -5339,7 +5338,7 @@
         <v>44604</v>
       </c>
       <c r="B556">
-        <v>143277140.75089499</v>
+        <v>1432.77140750895</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
@@ -5347,7 +5346,7 @@
         <v>44605</v>
       </c>
       <c r="B557">
-        <v>131704584.19250301</v>
+        <v>1317.0458419250301</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
@@ -5355,7 +5354,7 @@
         <v>44606</v>
       </c>
       <c r="B558">
-        <v>119359609.186057</v>
+        <v>1193.5960918605699</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
@@ -5363,7 +5362,7 @@
         <v>44607</v>
       </c>
       <c r="B559">
-        <v>106532442.547499</v>
+        <v>1065.32442547499</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
@@ -5371,7 +5370,7 @@
         <v>44608</v>
       </c>
       <c r="B560">
-        <v>93733055.571184203</v>
+        <v>937.33055571184207</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
@@ -5379,7 +5378,7 @@
         <v>44609</v>
       </c>
       <c r="B561">
-        <v>81492063.976648793</v>
+        <v>814.92063976648797</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
@@ -5387,7 +5386,7 @@
         <v>44610</v>
       </c>
       <c r="B562">
-        <v>70236546.940392897</v>
+        <v>702.36546940392896</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
@@ -5395,7 +5394,7 @@
         <v>44611</v>
       </c>
       <c r="B563">
-        <v>60207218.711695001</v>
+        <v>602.07218711694998</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
@@ -5403,7 +5402,7 @@
         <v>44612</v>
       </c>
       <c r="B564">
-        <v>51436211.768446803</v>
+        <v>514.36211768446799</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
@@ -5411,7 +5410,7 @@
         <v>44613</v>
       </c>
       <c r="B565">
-        <v>43791887.056942098</v>
+        <v>437.91887056942096</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
@@ -5419,7 +5418,7 @@
         <v>44614</v>
       </c>
       <c r="B566">
-        <v>37034198.695013702</v>
+        <v>370.34198695013703</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
@@ -5427,7 +5426,7 @@
         <v>44615</v>
       </c>
       <c r="B567">
-        <v>30896301.408496398</v>
+        <v>308.96301408496396</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
@@ -5435,7 +5434,7 @@
         <v>44616</v>
       </c>
       <c r="B568">
-        <v>25207431.913121201</v>
+        <v>252.07431913121201</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
@@ -5443,7 +5442,7 @@
         <v>44617</v>
       </c>
       <c r="B569">
-        <v>19994796.890441399</v>
+        <v>199.94796890441398</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
@@ -5451,7 +5450,7 @@
         <v>44618</v>
       </c>
       <c r="B570">
-        <v>15386592.133828999</v>
+        <v>153.86592133829001</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
@@ -5459,7 +5458,7 @@
         <v>44619</v>
       </c>
       <c r="B571">
-        <v>11629728.726431699</v>
+        <v>116.29728726431699</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
@@ -5467,7 +5466,7 @@
         <v>44620</v>
       </c>
       <c r="B572">
-        <v>8983980.1242714506</v>
+        <v>89.839801242714501</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
@@ -5475,7 +5474,7 @@
         <v>44621</v>
       </c>
       <c r="B573">
-        <v>7616715.7527455296</v>
+        <v>76.167157527455302</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
@@ -5483,7 +5482,7 @@
         <v>44622</v>
       </c>
       <c r="B574">
-        <v>7530230.5249478202</v>
+        <v>75.302305249478209</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
@@ -5491,7 +5490,7 @@
         <v>44623</v>
       </c>
       <c r="B575">
-        <v>8511975.4691117201</v>
+        <v>85.119754691117194</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
@@ -5499,7 +5498,7 @@
         <v>44624</v>
       </c>
       <c r="B576">
-        <v>10115692.964003099</v>
+        <v>101.156929640031</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
@@ -5507,7 +5506,7 @@
         <v>44625</v>
       </c>
       <c r="B577">
-        <v>11750222.296380101</v>
+        <v>117.502222963801</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
@@ -5515,7 +5514,7 @@
         <v>44626</v>
       </c>
       <c r="B578">
-        <v>12818446.2658264</v>
+        <v>128.18446265826401</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
@@ -5523,7 +5522,7 @@
         <v>44627</v>
       </c>
       <c r="B579">
-        <v>12920414.760503201</v>
+        <v>129.20414760503201</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
@@ -5531,7 +5530,7 @@
         <v>44628</v>
       </c>
       <c r="B580">
-        <v>12134892.365904201</v>
+        <v>121.34892365904201</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
@@ -5539,7 +5538,7 @@
         <v>44629</v>
       </c>
       <c r="B581">
-        <v>11143152.991222501</v>
+        <v>111.431529912225</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
@@ -5547,7 +5546,7 @@
         <v>44630</v>
       </c>
       <c r="B582">
-        <v>10176868.556200599</v>
+        <v>101.768685562006</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
@@ -5555,7 +5554,7 @@
         <v>44631</v>
       </c>
       <c r="B583">
-        <v>9224978.4770674706</v>
+        <v>92.249784770674708</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
@@ -5563,7 +5562,7 @@
         <v>44632</v>
       </c>
       <c r="B584">
-        <v>8320221.2965414803</v>
+        <v>83.202212965414802</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
@@ -5571,7 +5570,7 @@
         <v>44633</v>
       </c>
       <c r="B585">
-        <v>7511677.3080881797</v>
+        <v>75.116773080881799</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
@@ -5579,7 +5578,7 @@
         <v>44634</v>
       </c>
       <c r="B586">
-        <v>6842795.5246173898</v>
+        <v>68.427955246173894</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
@@ -5587,7 +5586,7 @@
         <v>44635</v>
       </c>
       <c r="B587">
-        <v>6336771.0105524398</v>
+        <v>63.367710105524395</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
@@ -5595,7 +5594,7 @@
         <v>44636</v>
       </c>
       <c r="B588">
-        <v>5985927.1375240898</v>
+        <v>59.859271375240901</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
@@ -5603,7 +5602,7 @@
         <v>44637</v>
       </c>
       <c r="B589">
-        <v>5749942.1395271104</v>
+        <v>57.499421395271106</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
@@ -5611,7 +5610,7 @@
         <v>44638</v>
       </c>
       <c r="B590">
-        <v>5567949.6217615204</v>
+        <v>55.679496217615203</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
@@ -5619,7 +5618,7 @@
         <v>44639</v>
       </c>
       <c r="B591">
-        <v>5373876.61046746</v>
+        <v>53.738766104674603</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
@@ -5627,7 +5626,7 @@
         <v>44640</v>
       </c>
       <c r="B592">
-        <v>5119812.62515161</v>
+        <v>51.198126251516101</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
@@ -5635,7 +5634,7 @@
         <v>44641</v>
       </c>
       <c r="B593">
-        <v>4809353.4589918097</v>
+        <v>48.0935345899181</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
@@ -5643,7 +5642,7 @@
         <v>44642</v>
       </c>
       <c r="B594">
-        <v>4512973.9369681301</v>
+        <v>45.129739369681303</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
@@ -5651,7 +5650,7 @@
         <v>44643</v>
       </c>
       <c r="B595">
-        <v>4266887.2310732901</v>
+        <v>42.668872310732901</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
@@ -5659,7 +5658,7 @@
         <v>44644</v>
       </c>
       <c r="B596">
-        <v>4086221.2235894199</v>
+        <v>40.862212235894198</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
@@ -5667,7 +5666,7 @@
         <v>44645</v>
       </c>
       <c r="B597">
-        <v>3980818.1008055899</v>
+        <v>39.808181008055897</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
@@ -5675,7 +5674,7 @@
         <v>44646</v>
       </c>
       <c r="B598">
-        <v>3953347.8214748902</v>
+        <v>39.533478214748904</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
@@ -5683,7 +5682,7 @@
         <v>44647</v>
       </c>
       <c r="B599">
-        <v>3998061.1782596</v>
+        <v>39.980611782596</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
@@ -5691,7 +5690,7 @@
         <v>44648</v>
       </c>
       <c r="B600">
-        <v>4099607.5585818202</v>
+        <v>40.996075585818204</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
@@ -5699,7 +5698,7 @@
         <v>44649</v>
       </c>
       <c r="B601">
-        <v>4232164.2834891202</v>
+        <v>42.3216428348912</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
@@ -5707,7 +5706,7 @@
         <v>44650</v>
       </c>
       <c r="B602">
-        <v>4362528.1657063197</v>
+        <v>43.625281657063198</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
@@ -5715,7 +5714,7 @@
         <v>44651</v>
       </c>
       <c r="B603">
-        <v>4455977.2242091903</v>
+        <v>44.559772242091903</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
@@ -5723,7 +5722,7 @@
         <v>44652</v>
       </c>
       <c r="B604">
-        <v>4485541.4512442304</v>
+        <v>44.855414512442302</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
@@ -5731,7 +5730,7 @@
         <v>44653</v>
       </c>
       <c r="B605">
-        <v>4445955.5404309696</v>
+        <v>44.459555404309697</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
@@ -5739,7 +5738,7 @@
         <v>44654</v>
       </c>
       <c r="B606">
-        <v>4369455.2805300802</v>
+        <v>43.694552805300802</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
@@ -5747,7 +5746,7 @@
         <v>44655</v>
       </c>
       <c r="B607">
-        <v>4269213.0281979702</v>
+        <v>42.692130281979701</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
@@ -5755,7 +5754,7 @@
         <v>44656</v>
       </c>
       <c r="B608">
-        <v>4103066.41236954</v>
+        <v>41.030664123695402</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
@@ -5763,7 +5762,7 @@
         <v>44657</v>
       </c>
       <c r="B609">
-        <v>3862514.2415899001</v>
+        <v>38.625142415898999</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
@@ -5771,7 +5770,7 @@
         <v>44658</v>
       </c>
       <c r="B610">
-        <v>3568123.61880277</v>
+        <v>35.681236188027704</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
@@ -5779,7 +5778,7 @@
         <v>44659</v>
       </c>
       <c r="B611">
-        <v>3254042.2214059802</v>
+        <v>32.540422214059802</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
@@ -5787,7 +5786,7 @@
         <v>44660</v>
       </c>
       <c r="B612">
-        <v>2956780.6872789101</v>
+        <v>29.567806872789102</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
@@ -5795,7 +5794,7 @@
         <v>44661</v>
       </c>
       <c r="B613">
-        <v>2707646.19928848</v>
+        <v>27.076461992884798</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
@@ -5803,7 +5802,7 @@
         <v>44662</v>
       </c>
       <c r="B614">
-        <v>2527596.8249077299</v>
+        <v>25.275968249077298</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
@@ -5811,7 +5810,7 @@
         <v>44663</v>
       </c>
       <c r="B615">
-        <v>2426777.4592041699</v>
+        <v>24.2677745920417</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
@@ -5819,7 +5818,7 @@
         <v>44664</v>
       </c>
       <c r="B616">
-        <v>2405227.8698537699</v>
+        <v>24.052278698537698</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
@@ -5827,7 +5826,7 @@
         <v>44665</v>
       </c>
       <c r="B617">
-        <v>2453763.13653138</v>
+        <v>24.5376313653138</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
@@ -5835,7 +5834,7 @@
         <v>44666</v>
       </c>
       <c r="B618">
-        <v>2555410.98767797</v>
+        <v>25.554109876779698</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
@@ -5843,7 +5842,7 @@
         <v>44667</v>
       </c>
       <c r="B619">
-        <v>2690784.1866045902</v>
+        <v>26.907841866045903</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
@@ -5851,7 +5850,7 @@
         <v>44668</v>
       </c>
       <c r="B620">
-        <v>2854790.7830368201</v>
+        <v>28.547907830368203</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
@@ -5859,7 +5858,7 @@
         <v>44669</v>
       </c>
       <c r="B621">
-        <v>3056333.71142474</v>
+        <v>30.5633371142474</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
@@ -5867,7 +5866,7 @@
         <v>44670</v>
       </c>
       <c r="B622">
-        <v>3309316.3304614001</v>
+        <v>33.093163304614002</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
@@ -5875,7 +5874,7 @@
         <v>44671</v>
       </c>
       <c r="B623">
-        <v>3626122.3320011999</v>
+        <v>36.261223320012</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
@@ -5883,7 +5882,7 @@
         <v>44672</v>
       </c>
       <c r="B624">
-        <v>4013151.1413647602</v>
+        <v>40.131511413647601</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
@@ -5891,7 +5890,7 @@
         <v>44673</v>
       </c>
       <c r="B625">
-        <v>4467620.8887858698</v>
+        <v>44.676208887858699</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
@@ -5899,7 +5898,7 @@
         <v>44674</v>
       </c>
       <c r="B626">
-        <v>4974507.6060458999</v>
+        <v>49.745076060458999</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
@@ -5907,7 +5906,7 @@
         <v>44675</v>
       </c>
       <c r="B627">
-        <v>5507708.0836227899</v>
+        <v>55.0770808362279</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
@@ -5915,7 +5914,7 @@
         <v>44676</v>
       </c>
       <c r="B628">
-        <v>6035236.2495323699</v>
+        <v>60.352362495323696</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
@@ -5923,7 +5922,7 @@
         <v>44677</v>
       </c>
       <c r="B629">
-        <v>6526747.68821254</v>
+        <v>65.267476882125393</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
@@ -5931,7 +5930,7 @@
         <v>44678</v>
       </c>
       <c r="B630">
-        <v>6965570.7455139598</v>
+        <v>69.655707455139591</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
@@ -5939,7 +5938,7 @@
         <v>44679</v>
       </c>
       <c r="B631">
-        <v>7365735.8596304897</v>
+        <v>73.657358596304903</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
@@ -5947,7 +5946,7 @@
         <v>44680</v>
       </c>
       <c r="B632">
-        <v>7755957.7244342398</v>
+        <v>77.559577244342393</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
@@ -5955,7 +5954,7 @@
         <v>44681</v>
       </c>
       <c r="B633">
-        <v>8123759.3227152796</v>
+        <v>81.2375932271528</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
@@ -5963,7 +5962,7 @@
         <v>44682</v>
       </c>
       <c r="B634">
-        <v>8470143.8671508394</v>
+        <v>84.701438671508399</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
@@ -5971,7 +5970,7 @@
         <v>44683</v>
       </c>
       <c r="B635">
-        <v>8810711.7668788098</v>
+        <v>88.107117668788092</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
@@ -5979,7 +5978,7 @@
         <v>44684</v>
       </c>
       <c r="B636">
-        <v>9166013.0310579203</v>
+        <v>91.660130310579206</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
@@ -5987,7 +5986,7 @@
         <v>44685</v>
       </c>
       <c r="B637">
-        <v>9554855.5606522094</v>
+        <v>95.5485556065221</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
@@ -5995,7 +5994,7 @@
         <v>44686</v>
       </c>
       <c r="B638">
-        <v>9990148.5659247991</v>
+        <v>99.901485659247996</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
@@ -6003,7 +6002,7 @@
         <v>44687</v>
       </c>
       <c r="B639">
-        <v>10476816.6464711</v>
+        <v>104.768166464711</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
@@ -6011,7 +6010,7 @@
         <v>44688</v>
       </c>
       <c r="B640">
-        <v>11012177.496752299</v>
+        <v>110.121774967523</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
@@ -6019,7 +6018,7 @@
         <v>44689</v>
       </c>
       <c r="B641">
-        <v>11587840.8549091</v>
+        <v>115.87840854909099</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
@@ -6027,7 +6026,7 @@
         <v>44690</v>
       </c>
       <c r="B642">
-        <v>12192794.5044361</v>
+        <v>121.927945044361</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
@@ -6035,7 +6034,7 @@
         <v>44691</v>
       </c>
       <c r="B643">
-        <v>12818060.6412584</v>
+        <v>128.18060641258401</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
@@ -6043,7 +6042,7 @@
         <v>44692</v>
       </c>
       <c r="B644">
-        <v>13464909.8241606</v>
+        <v>134.649098241606</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
@@ -6051,7 +6050,7 @@
         <v>44693</v>
       </c>
       <c r="B645">
-        <v>14179829.135591701</v>
+        <v>141.798291355917</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
@@ -6059,7 +6058,7 @@
         <v>44694</v>
       </c>
       <c r="B646">
-        <v>15006258.0095708</v>
+        <v>150.062580095708</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
@@ -6067,7 +6066,7 @@
         <v>44695</v>
       </c>
       <c r="B647">
-        <v>15944336.439164801</v>
+        <v>159.443364391648</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
@@ -6075,7 +6074,7 @@
         <v>44696</v>
       </c>
       <c r="B648">
-        <v>16967634.896777801</v>
+        <v>169.67634896777801</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
@@ -6083,7 +6082,7 @@
         <v>44697</v>
       </c>
       <c r="B649">
-        <v>18036711.849686701</v>
+        <v>180.36711849686702</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
@@ -6091,7 +6090,7 @@
         <v>44698</v>
       </c>
       <c r="B650">
-        <v>19107989.695106801</v>
+        <v>191.07989695106801</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
@@ -6099,7 +6098,7 @@
         <v>44699</v>
       </c>
       <c r="B651">
-        <v>20139282.726868901</v>
+        <v>201.39282726868902</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
@@ -6107,7 +6106,7 @@
         <v>44700</v>
       </c>
       <c r="B652">
-        <v>21094607.169998799</v>
+        <v>210.94607169998798</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
@@ -6115,7 +6114,7 @@
         <v>44701</v>
       </c>
       <c r="B653">
-        <v>21946786.616260499</v>
+        <v>219.46786616260499</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
@@ -6123,7 +6122,7 @@
         <v>44702</v>
       </c>
       <c r="B654">
-        <v>22680496.462094501</v>
+        <v>226.80496462094501</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
@@ -6131,7 +6130,7 @@
         <v>44703</v>
       </c>
       <c r="B655">
-        <v>23297644.213827498</v>
+        <v>232.97644213827499</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
@@ -6139,7 +6138,7 @@
         <v>44704</v>
       </c>
       <c r="B656">
-        <v>23824795.252724499</v>
+        <v>238.24795252724499</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
@@ -6147,7 +6146,7 @@
         <v>44705</v>
       </c>
       <c r="B657">
-        <v>24294821.5061589</v>
+        <v>242.948215061589</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
@@ -6155,7 +6154,7 @@
         <v>44706</v>
       </c>
       <c r="B658">
-        <v>24673630.0802962</v>
+        <v>246.73630080296201</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
@@ -6163,7 +6162,7 @@
         <v>44707</v>
       </c>
       <c r="B659">
-        <v>24941916.876242898</v>
+        <v>249.419168762429</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
@@ -6171,7 +6170,7 @@
         <v>44708</v>
       </c>
       <c r="B660">
-        <v>25108855.159030501</v>
+        <v>251.088551590305</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
@@ -6179,7 +6178,7 @@
         <v>44709</v>
       </c>
       <c r="B661">
-        <v>25200410.7432983</v>
+        <v>252.00410743298301</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
@@ -6187,7 +6186,7 @@
         <v>44710</v>
       </c>
       <c r="B662">
-        <v>25251162.002922699</v>
+        <v>252.51162002922698</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
@@ -6195,7 +6194,7 @@
         <v>44711</v>
       </c>
       <c r="B663">
-        <v>25299479.4452563</v>
+        <v>252.99479445256301</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
@@ -6203,7 +6202,7 @@
         <v>44712</v>
       </c>
       <c r="B664">
-        <v>25384043.901532602</v>
+        <v>253.84043901532601</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
@@ -6211,7 +6210,7 @@
         <v>44713</v>
       </c>
       <c r="B665">
-        <v>25540189.872202098</v>
+        <v>255.40189872202097</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
@@ -6219,7 +6218,7 @@
         <v>44714</v>
       </c>
       <c r="B666">
-        <v>25795675.080571</v>
+        <v>257.95675080570999</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
@@ -6227,7 +6226,7 @@
         <v>44715</v>
       </c>
       <c r="B667">
-        <v>26163654.213243298</v>
+        <v>261.63654213243296</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
@@ -6235,7 +6234,7 @@
         <v>44716</v>
       </c>
       <c r="B668">
-        <v>26632620.6891899</v>
+        <v>266.32620689189901</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
@@ -6243,7 +6242,7 @@
         <v>44717</v>
       </c>
       <c r="B669">
-        <v>27159704.347817399</v>
+        <v>271.59704347817399</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
@@ -6251,7 +6250,7 @@
         <v>44718</v>
       </c>
       <c r="B670">
-        <v>27739326.673652899</v>
+        <v>277.39326673652897</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
@@ -6259,7 +6258,7 @@
         <v>44719</v>
       </c>
       <c r="B671">
-        <v>28413278.762708601</v>
+        <v>284.13278762708603</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
@@ -6267,7 +6266,7 @@
         <v>44720</v>
       </c>
       <c r="B672">
-        <v>29204550.2055787</v>
+        <v>292.04550205578698</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
@@ -6275,7 +6274,7 @@
         <v>44721</v>
       </c>
       <c r="B673">
-        <v>30115345.993003499</v>
+        <v>301.15345993003501</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
@@ -6283,7 +6282,7 @@
         <v>44722</v>
       </c>
       <c r="B674">
-        <v>31130867.753069699</v>
+        <v>311.30867753069697</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
@@ -6291,7 +6290,7 @@
         <v>44723</v>
       </c>
       <c r="B675">
-        <v>32222530.1684536</v>
+        <v>322.22530168453602</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
@@ -6299,7 +6298,7 @@
         <v>44724</v>
       </c>
       <c r="B676">
-        <v>33350282.6451573</v>
+        <v>333.50282645157301</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
@@ -6307,7 +6306,7 @@
         <v>44725</v>
       </c>
       <c r="B677">
-        <v>34467064.060472697</v>
+        <v>344.670640604727</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
@@ -6315,7 +6314,7 @@
         <v>44726</v>
       </c>
       <c r="B678">
-        <v>35525794.866965197</v>
+        <v>355.25794866965197</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
@@ -6323,7 +6322,7 @@
         <v>44727</v>
       </c>
       <c r="B679">
-        <v>36487778.320652701</v>
+        <v>364.877783206527</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
@@ -6331,7 +6330,7 @@
         <v>44728</v>
       </c>
       <c r="B680">
-        <v>37335584.627977498</v>
+        <v>373.35584627977499</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
@@ -6339,7 +6338,7 @@
         <v>44729</v>
       </c>
       <c r="B681">
-        <v>38091012.464028597</v>
+        <v>380.91012464028597</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
@@ -6347,7 +6346,7 @@
         <v>44730</v>
       </c>
       <c r="B682">
-        <v>38838260.207218103</v>
+        <v>388.38260207218104</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
@@ -6355,7 +6354,7 @@
         <v>44731</v>
       </c>
       <c r="B683">
-        <v>39672481.242691301</v>
+        <v>396.72481242691299</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
@@ -6363,7 +6362,7 @@
         <v>44732</v>
       </c>
       <c r="B684">
-        <v>40611513.038056903</v>
+        <v>406.11513038056904</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
@@ -6371,7 +6370,7 @@
         <v>44733</v>
       </c>
       <c r="B685">
-        <v>41619868.441155396</v>
+        <v>416.19868441155398</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
@@ -6379,7 +6378,7 @@
         <v>44734</v>
       </c>
       <c r="B686">
-        <v>42638469.055947699</v>
+        <v>426.38469055947701</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
@@ -6387,7 +6386,7 @@
         <v>44735</v>
       </c>
       <c r="B687">
-        <v>43605267.062145598</v>
+        <v>436.052670621456</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
@@ -6395,7 +6394,7 @@
         <v>44736</v>
       </c>
       <c r="B688">
-        <v>44468306.797723301</v>
+        <v>444.68306797723301</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
@@ -6403,7 +6402,7 @@
         <v>44737</v>
       </c>
       <c r="B689">
-        <v>45196282.965773098</v>
+        <v>451.96282965773099</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
@@ -6411,7 +6410,7 @@
         <v>44738</v>
       </c>
       <c r="B690">
-        <v>45781677.090240702</v>
+        <v>457.81677090240703</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
@@ -6419,7 +6418,7 @@
         <v>44739</v>
       </c>
       <c r="B691">
-        <v>46236435.125316702</v>
+        <v>462.364351253167</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
@@ -6427,7 +6426,7 @@
         <v>44740</v>
       </c>
       <c r="B692">
-        <v>46586461.199099697</v>
+        <v>465.86461199099699</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
@@ -6435,7 +6434,7 @@
         <v>44741</v>
       </c>
       <c r="B693">
-        <v>46862874.211485803</v>
+        <v>468.62874211485803</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
@@ -6443,7 +6442,7 @@
         <v>44742</v>
       </c>
       <c r="B694">
-        <v>47088719.982943498</v>
+        <v>470.88719982943496</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
@@ -6451,7 +6450,7 @@
         <v>44743</v>
       </c>
       <c r="B695">
-        <v>47240847.560182698</v>
+        <v>472.40847560182698</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
@@ -6459,7 +6458,7 @@
         <v>44744</v>
       </c>
       <c r="B696">
-        <v>47219972.182903104</v>
+        <v>472.19972182903103</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
@@ -6467,7 +6466,7 @@
         <v>44745</v>
       </c>
       <c r="B697">
-        <v>46996645.537169397</v>
+        <v>469.966455371694</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
@@ -6475,7 +6474,7 @@
         <v>44746</v>
       </c>
       <c r="B698">
-        <v>46609461.598882101</v>
+        <v>466.09461598882103</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
@@ -6483,7 +6482,7 @@
         <v>44747</v>
       </c>
       <c r="B699">
-        <v>46131774.414515696</v>
+        <v>461.31774414515695</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
@@ -6491,7 +6490,7 @@
         <v>44748</v>
       </c>
       <c r="B700">
-        <v>45647575.243587099</v>
+        <v>456.47575243587102</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
@@ -6499,7 +6498,7 @@
         <v>44749</v>
       </c>
       <c r="B701">
-        <v>45235767.559846103</v>
+        <v>452.35767559846101</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
@@ -6507,7 +6506,7 @@
         <v>44750</v>
       </c>
       <c r="B702">
-        <v>44959407.504229702</v>
+        <v>449.59407504229699</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
@@ -6515,7 +6514,7 @@
         <v>44751</v>
       </c>
       <c r="B703">
-        <v>44862195.742859401</v>
+        <v>448.62195742859399</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
@@ -6523,7 +6522,7 @@
         <v>44752</v>
       </c>
       <c r="B704">
-        <v>44965803.556190498</v>
+        <v>449.65803556190497</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
@@ -6531,7 +6530,7 @@
         <v>44753</v>
       </c>
       <c r="B705">
-        <v>45265008.253326699</v>
+        <v>452.65008253326698</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
@@ -6539,7 +6538,7 @@
         <v>44754</v>
       </c>
       <c r="B706">
-        <v>45721282.117205903</v>
+        <v>457.21282117205902</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
@@ -6547,7 +6546,7 @@
         <v>44755</v>
       </c>
       <c r="B707">
-        <v>46293758.965565003</v>
+        <v>462.93758965565002</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
@@ -6555,7 +6554,7 @@
         <v>44756</v>
       </c>
       <c r="B708">
-        <v>47139670.401887402</v>
+        <v>471.396704018874</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
@@ -6563,7 +6562,7 @@
         <v>44757</v>
       </c>
       <c r="B709">
-        <v>48378171.872246802</v>
+        <v>483.78171872246804</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
@@ -6571,7 +6570,7 @@
         <v>44758</v>
       </c>
       <c r="B710">
-        <v>49987043.344017804</v>
+        <v>499.87043344017803</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
@@ -6579,7 +6578,7 @@
         <v>44759</v>
       </c>
       <c r="B711">
-        <v>51863861.801469803</v>
+        <v>518.63861801469807</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
@@ -6587,7 +6586,7 @@
         <v>44760</v>
       </c>
       <c r="B712">
-        <v>53871099.010763399</v>
+        <v>538.71099010763396</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
@@ -6595,7 +6594,7 @@
         <v>44761</v>
       </c>
       <c r="B713">
-        <v>55864036.386337399</v>
+        <v>558.64036386337398</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
@@ -6603,7 +6602,7 @@
         <v>44762</v>
       </c>
       <c r="B714">
-        <v>57707356.647575401</v>
+        <v>577.07356647575398</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
@@ -6611,7 +6610,7 @@
         <v>44763</v>
       </c>
       <c r="B715">
-        <v>59287551.727225997</v>
+        <v>592.87551727225991</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
@@ -6619,7 +6618,7 @@
         <v>44764</v>
       </c>
       <c r="B716">
-        <v>60518459.788587801</v>
+        <v>605.18459788587802</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
@@ -6627,7 +6626,7 @@
         <v>44765</v>
       </c>
       <c r="B717">
-        <v>61350715.364936098</v>
+        <v>613.50715364936093</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
@@ -6635,7 +6634,7 @@
         <v>44766</v>
       </c>
       <c r="B718">
-        <v>61789805.159194097</v>
+        <v>617.898051591941</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
@@ -6643,7 +6642,7 @@
         <v>44767</v>
       </c>
       <c r="B719">
-        <v>61921505.878132001</v>
+        <v>619.21505878131995</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
@@ -6651,7 +6650,7 @@
         <v>44768</v>
       </c>
       <c r="B720">
-        <v>61831632.885167599</v>
+        <v>618.31632885167596</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
@@ -6659,7 +6658,7 @@
         <v>44769</v>
       </c>
       <c r="B721">
-        <v>61336106.689130001</v>
+        <v>613.36106689129997</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
@@ -6667,7 +6666,7 @@
         <v>44770</v>
       </c>
       <c r="B722">
-        <v>60319756.857290797</v>
+        <v>603.19756857290793</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
@@ -6675,7 +6674,7 @@
         <v>44771</v>
       </c>
       <c r="B723">
-        <v>58792974.084431797</v>
+        <v>587.92974084431796</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
@@ -6683,7 +6682,7 @@
         <v>44772</v>
       </c>
       <c r="B724">
-        <v>56851054.573054202</v>
+        <v>568.51054573054205</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
@@ -6691,7 +6690,7 @@
         <v>44773</v>
       </c>
       <c r="B725">
-        <v>54643718.634330198</v>
+        <v>546.43718634330196</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
@@ -6699,7 +6698,7 @@
         <v>44774</v>
       </c>
       <c r="B726">
-        <v>52354740.5865786</v>
+        <v>523.547405865786</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
@@ -6707,7 +6706,7 @@
         <v>44775</v>
       </c>
       <c r="B727">
-        <v>50180318.0000282</v>
+        <v>501.803180000282</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
@@ -6715,7 +6714,7 @@
         <v>44776</v>
       </c>
       <c r="B728">
-        <v>48303996.094782896</v>
+        <v>483.03996094782894</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
@@ -6723,7 +6722,7 @@
         <v>44777</v>
       </c>
       <c r="B729">
-        <v>46869281.487740599</v>
+        <v>468.69281487740597</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
@@ -6731,7 +6730,7 @@
         <v>44778</v>
       </c>
       <c r="B730">
-        <v>45938282.682503</v>
+        <v>459.38282682503001</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
@@ -6739,7 +6738,7 @@
         <v>44779</v>
       </c>
       <c r="B731">
-        <v>45435435.929444298</v>
+        <v>454.35435929444299</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
@@ -6747,7 +6746,7 @@
         <v>44780</v>
       </c>
       <c r="B732">
-        <v>45131615.8828886</v>
+        <v>451.31615882888599</v>
       </c>
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
@@ -6755,7 +6754,7 @@
         <v>44781</v>
       </c>
       <c r="B733">
-        <v>45023922.908141397</v>
+        <v>450.23922908141395</v>
       </c>
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
@@ -6763,7 +6762,7 @@
         <v>44782</v>
       </c>
       <c r="B734">
-        <v>45247607.3267866</v>
+        <v>452.47607326786601</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
@@ -6771,7 +6770,7 @@
         <v>44783</v>
       </c>
       <c r="B735">
-        <v>45825504.857206799</v>
+        <v>458.25504857206801</v>
       </c>
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
@@ -6779,7 +6778,7 @@
         <v>44784</v>
       </c>
       <c r="B736">
-        <v>46701061.9338466</v>
+        <v>467.01061933846603</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
@@ -6787,7 +6786,7 @@
         <v>44785</v>
       </c>
       <c r="B737">
-        <v>47775283.776938803</v>
+        <v>477.75283776938801</v>
       </c>
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
@@ -6795,7 +6794,7 @@
         <v>44786</v>
       </c>
       <c r="B738">
-        <v>48932000.3625542</v>
+        <v>489.32000362554197</v>
       </c>
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
@@ -6803,7 +6802,7 @@
         <v>44787</v>
       </c>
       <c r="B739">
-        <v>50053718.431577697</v>
+        <v>500.53718431577698</v>
       </c>
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
@@ -6811,7 +6810,7 @@
         <v>44788</v>
       </c>
       <c r="B740">
-        <v>51032935.3462971</v>
+        <v>510.32935346297103</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
@@ -6819,7 +6818,7 @@
         <v>44789</v>
       </c>
       <c r="B741">
-        <v>51777350.065127701</v>
+        <v>517.773500651277</v>
       </c>
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
@@ -6827,7 +6826,7 @@
         <v>44790</v>
       </c>
       <c r="B742">
-        <v>52220253.7620131</v>
+        <v>522.20253762013101</v>
       </c>
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
@@ -6835,7 +6834,7 @@
         <v>44791</v>
       </c>
       <c r="B743">
-        <v>52340263.586151302</v>
+        <v>523.40263586151298</v>
       </c>
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
@@ -6843,7 +6842,7 @@
         <v>44792</v>
       </c>
       <c r="B744">
-        <v>52190552.996569797</v>
+        <v>521.90552996569795</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
@@ -6851,7 +6850,7 @@
         <v>44793</v>
       </c>
       <c r="B745">
-        <v>51891325.836958401</v>
+        <v>518.91325836958401</v>
       </c>
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
@@ -6859,7 +6858,7 @@
         <v>44794</v>
       </c>
       <c r="B746">
-        <v>51452725.025908299</v>
+        <v>514.52725025908296</v>
       </c>
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
@@ -6867,7 +6866,7 @@
         <v>44795</v>
       </c>
       <c r="B747">
-        <v>50821170.762778603</v>
+        <v>508.21170762778604</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
@@ -6875,7 +6874,7 @@
         <v>44796</v>
       </c>
       <c r="B748">
-        <v>49939315.515193403</v>
+        <v>499.39315515193402</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
@@ -6883,7 +6882,7 @@
         <v>44797</v>
       </c>
       <c r="B749">
-        <v>48767327.149989702</v>
+        <v>487.673271499897</v>
       </c>
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
@@ -6891,7 +6890,7 @@
         <v>44798</v>
       </c>
       <c r="B750">
-        <v>47297215.7507063</v>
+        <v>472.972157507063</v>
       </c>
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
@@ -6899,7 +6898,7 @@
         <v>44799</v>
       </c>
       <c r="B751">
-        <v>45563103.393177196</v>
+        <v>455.63103393177198</v>
       </c>
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
@@ -6907,7 +6906,7 @@
         <v>44800</v>
       </c>
       <c r="B752">
-        <v>43648632.911697701</v>
+        <v>436.486329116977</v>
       </c>
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
@@ -6915,7 +6914,7 @@
         <v>44801</v>
       </c>
       <c r="B753">
-        <v>41675278.6575009</v>
+        <v>416.752786575009</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
@@ -6923,7 +6922,7 @@
         <v>44802</v>
       </c>
       <c r="B754">
-        <v>39778318.320404798</v>
+        <v>397.78318320404799</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
@@ -6931,7 +6930,7 @@
         <v>44803</v>
       </c>
       <c r="B755">
-        <v>38070501.647183403</v>
+        <v>380.70501647183403</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
@@ -6939,7 +6938,7 @@
         <v>44804</v>
       </c>
       <c r="B756">
-        <v>36587105.838571496</v>
+        <v>365.87105838571495</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
@@ -6947,7 +6946,7 @@
         <v>44805</v>
       </c>
       <c r="B757">
-        <v>35218898.310440898</v>
+        <v>352.18898310440898</v>
       </c>
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
@@ -6955,7 +6954,7 @@
         <v>44806</v>
       </c>
       <c r="B758">
-        <v>33822764.632873699</v>
+        <v>338.22764632873697</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
@@ -6963,7 +6962,7 @@
         <v>44807</v>
       </c>
       <c r="B759">
-        <v>32309945.264352899</v>
+        <v>323.09945264352899</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
@@ -6971,7 +6970,7 @@
         <v>44808</v>
       </c>
       <c r="B760">
-        <v>30655110.309589099</v>
+        <v>306.55110309589099</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
@@ -6979,7 +6978,7 @@
         <v>44809</v>
       </c>
       <c r="B761">
-        <v>28888330.129195601</v>
+        <v>288.883301291956</v>
       </c>
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
@@ -6987,7 +6986,7 @@
         <v>44810</v>
       </c>
       <c r="B762">
-        <v>27068146.674107902</v>
+        <v>270.68146674107902</v>
       </c>
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
@@ -6995,7 +6994,7 @@
         <v>44811</v>
       </c>
       <c r="B763">
-        <v>25261455.171959199</v>
+        <v>252.61455171959199</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
@@ -7003,7 +7002,7 @@
         <v>44812</v>
       </c>
       <c r="B764">
-        <v>23529292.113847099</v>
+        <v>235.292921138471</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
@@ -7011,7 +7010,7 @@
         <v>44813</v>
       </c>
       <c r="B765">
-        <v>21915726.647608899</v>
+        <v>219.15726647608898</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
@@ -7019,7 +7018,7 @@
         <v>44814</v>
       </c>
       <c r="B766">
-        <v>20444943.241732799</v>
+        <v>204.44943241732798</v>
       </c>
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
@@ -7027,7 +7026,7 @@
         <v>44815</v>
       </c>
       <c r="B767">
-        <v>19121172.635905799</v>
+        <v>191.21172635905799</v>
       </c>
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
@@ -7035,7 +7034,7 @@
         <v>44816</v>
       </c>
       <c r="B768">
-        <v>17928901.5426527</v>
+        <v>179.28901542652699</v>
       </c>
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
@@ -7043,7 +7042,7 @@
         <v>44817</v>
       </c>
       <c r="B769">
-        <v>16833869.647724401</v>
+        <v>168.33869647724401</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
@@ -7051,7 +7050,7 @@
         <v>44818</v>
       </c>
       <c r="B770">
-        <v>15786901.121396899</v>
+        <v>157.869011213969</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
@@ -7059,7 +7058,7 @@
         <v>44819</v>
       </c>
       <c r="B771">
-        <v>14740191.158003399</v>
+        <v>147.40191158003398</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
@@ -7067,7 +7066,7 @@
         <v>44820</v>
       </c>
       <c r="B772">
-        <v>13693282.265021799</v>
+        <v>136.93282265021799</v>
       </c>
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
@@ -7075,7 +7074,7 @@
         <v>44821</v>
       </c>
       <c r="B773">
-        <v>12682296.4811887</v>
+        <v>126.82296481188699</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
@@ -7083,7 +7082,7 @@
         <v>44822</v>
       </c>
       <c r="B774">
-        <v>11754590.975232299</v>
+        <v>117.545909752323</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
@@ -7091,7 +7090,7 @@
         <v>44823</v>
       </c>
       <c r="B775">
-        <v>10951441.093358099</v>
+        <v>109.51441093358099</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
@@ -7099,7 +7098,7 @@
         <v>44824</v>
       </c>
       <c r="B776">
-        <v>10296845.099811001</v>
+        <v>102.96845099811</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
@@ -7107,7 +7106,7 @@
         <v>44825</v>
       </c>
       <c r="B777">
-        <v>9789028.0102003403</v>
+        <v>97.890280102003402</v>
       </c>
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
@@ -7115,7 +7114,7 @@
         <v>44826</v>
       </c>
       <c r="B778">
-        <v>9399858.3608055394</v>
+        <v>93.998583608055398</v>
       </c>
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
@@ -7123,7 +7122,7 @@
         <v>44827</v>
       </c>
       <c r="B779">
-        <v>9082959.1370516904</v>
+        <v>90.829591370516908</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
@@ -7131,7 +7130,7 @@
         <v>44828</v>
       </c>
       <c r="B780">
-        <v>8785603.5395897105</v>
+        <v>87.856035395897109</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
@@ -7139,7 +7138,7 @@
         <v>44829</v>
       </c>
       <c r="B781">
-        <v>8467791.9564169906</v>
+        <v>84.677919564169912</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
@@ -7147,7 +7146,7 @@
         <v>44830</v>
       </c>
       <c r="B782">
-        <v>8130332.9790214999</v>
+        <v>81.303329790215003</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
@@ -7155,7 +7154,7 @@
         <v>44831</v>
       </c>
       <c r="B783">
-        <v>7818166.9737409698</v>
+        <v>78.181669737409692</v>
       </c>
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
@@ -7163,7 +7162,7 @@
         <v>44832</v>
       </c>
       <c r="B784">
-        <v>7556682.0373529103</v>
+        <v>75.566820373529097</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
@@ -7171,7 +7170,7 @@
         <v>44833</v>
       </c>
       <c r="B785">
-        <v>7361514.6929258304</v>
+        <v>73.615146929258302</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
@@ -7179,7 +7178,7 @@
         <v>44834</v>
       </c>
       <c r="B786">
-        <v>7240850.8025748702</v>
+        <v>72.408508025748702</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
@@ -7187,7 +7186,7 @@
         <v>44835</v>
       </c>
       <c r="B787">
-        <v>7194123.29073874</v>
+        <v>71.941232907387402</v>
       </c>
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
@@ -7195,7 +7194,7 @@
         <v>44836</v>
       </c>
       <c r="B788">
-        <v>7211205.6733412696</v>
+        <v>72.1120567334127</v>
       </c>
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
@@ -7203,7 +7202,7 @@
         <v>44837</v>
       </c>
       <c r="B789">
-        <v>7271766.8982433397</v>
+        <v>72.717668982433395</v>
       </c>
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
@@ -7211,7 +7210,7 @@
         <v>44838</v>
       </c>
       <c r="B790">
-        <v>7345822.6581035797</v>
+        <v>73.458226581035802</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
@@ -7219,7 +7218,7 @@
         <v>44839</v>
       </c>
       <c r="B791">
-        <v>7398780.6858113604</v>
+        <v>73.987806858113601</v>
       </c>
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
@@ -7227,7 +7226,7 @@
         <v>44840</v>
       </c>
       <c r="B792">
-        <v>7398825.0070648799</v>
+        <v>73.988250070648803</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
@@ -7235,7 +7234,7 @@
         <v>44841</v>
       </c>
       <c r="B793">
-        <v>7327810.3427677704</v>
+        <v>73.278103427677706</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
@@ -7243,7 +7242,7 @@
         <v>44842</v>
       </c>
       <c r="B794">
-        <v>7196133.8728339998</v>
+        <v>71.961338728339996</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
@@ -7251,7 +7250,7 @@
         <v>44843</v>
       </c>
       <c r="B795">
-        <v>7043335.7615465503</v>
+        <v>70.433357615465496</v>
       </c>
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
@@ -7259,7 +7258,7 @@
         <v>44844</v>
       </c>
       <c r="B796">
-        <v>6857268.5348120499</v>
+        <v>68.572685348120501</v>
       </c>
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
@@ -7267,7 +7266,7 @@
         <v>44845</v>
       </c>
       <c r="B797">
-        <v>6614331.0936559197</v>
+        <v>66.143310936559203</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
@@ -7275,7 +7274,7 @@
         <v>44846</v>
       </c>
       <c r="B798">
-        <v>6317900.2257268103</v>
+        <v>63.179002257268102</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
@@ -7283,7 +7282,7 @@
         <v>44847</v>
       </c>
       <c r="B799">
-        <v>5986877.27482705</v>
+        <v>59.868772748270501</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
@@ -7291,7 +7290,7 @@
         <v>44848</v>
       </c>
       <c r="B800">
-        <v>5646230.6940594204</v>
+        <v>56.462306940594203</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
@@ -7299,7 +7298,7 @@
         <v>44849</v>
       </c>
       <c r="B801">
-        <v>5320798.6625928404</v>
+        <v>53.207986625928406</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
@@ -7307,7 +7306,7 @@
         <v>44850</v>
       </c>
       <c r="B802">
-        <v>5031403.1693088999</v>
+        <v>50.314031693088999</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
@@ -7315,7 +7314,7 @@
         <v>44851</v>
       </c>
       <c r="B803">
-        <v>4792534.75878233</v>
+        <v>47.925347587823296</v>
       </c>
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
@@ -7323,7 +7322,7 @@
         <v>44852</v>
       </c>
       <c r="B804">
-        <v>4612351.0395165496</v>
+        <v>46.123510395165496</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
@@ -7331,7 +7330,7 @@
         <v>44853</v>
       </c>
       <c r="B805">
-        <v>4492650.3062642496</v>
+        <v>44.926503062642496</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
@@ -7339,7 +7338,7 @@
         <v>44854</v>
       </c>
       <c r="B806">
-        <v>4428382.3845319301</v>
+        <v>44.283823845319304</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
@@ -7347,7 +7346,7 @@
         <v>44855</v>
       </c>
       <c r="B807">
-        <v>4407045.2762789298</v>
+        <v>44.070452762789294</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
@@ -7355,7 +7354,7 @@
         <v>44856</v>
       </c>
       <c r="B808">
-        <v>4416876.7256278796</v>
+        <v>44.168767256278798</v>
       </c>
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
@@ -7363,7 +7362,7 @@
         <v>44857</v>
       </c>
       <c r="B809">
-        <v>4472503.0236656005</v>
+        <v>44.725030236656004</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
@@ -7371,7 +7370,7 @@
         <v>44858</v>
       </c>
       <c r="B810">
-        <v>4588632.0447587399</v>
+        <v>45.886320447587401</v>
       </c>
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
@@ -7379,7 +7378,7 @@
         <v>44859</v>
       </c>
       <c r="B811">
-        <v>4771497.9816549597</v>
+        <v>47.714979816549601</v>
       </c>
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
@@ -7387,7 +7386,7 @@
         <v>44860</v>
       </c>
       <c r="B812">
-        <v>5019211.7582621602</v>
+        <v>50.192117582621606</v>
       </c>
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
@@ -7395,7 +7394,7 @@
         <v>44861</v>
       </c>
       <c r="B813">
-        <v>5322145.4793463796</v>
+        <v>53.221454793463799</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
@@ -7403,7 +7402,7 @@
         <v>44862</v>
       </c>
       <c r="B814">
-        <v>5663011.3363850601</v>
+        <v>56.630113363850604</v>
       </c>
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
@@ -7411,7 +7410,7 @@
         <v>44863</v>
       </c>
       <c r="B815">
-        <v>6017352.8589784</v>
+        <v>60.173528589783999</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
@@ -7419,7 +7418,7 @@
         <v>44864</v>
       </c>
       <c r="B816">
-        <v>6356909.3502668096</v>
+        <v>63.569093502668096</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
@@ -7427,7 +7426,7 @@
         <v>44865</v>
       </c>
       <c r="B817">
-        <v>6654521.7967878003</v>
+        <v>66.545217967878003</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
@@ -7435,7 +7434,7 @@
         <v>44866</v>
       </c>
       <c r="B818">
-        <v>6891629.6090330603</v>
+        <v>68.916296090330604</v>
       </c>
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
@@ -7443,7 +7442,7 @@
         <v>44867</v>
       </c>
       <c r="B819">
-        <v>7069165.5047300104</v>
+        <v>70.691655047300102</v>
       </c>
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
@@ -7451,7 +7450,7 @@
         <v>44868</v>
       </c>
       <c r="B820">
-        <v>7218188.6216910305</v>
+        <v>72.1818862169103</v>
       </c>
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
@@ -7459,7 +7458,7 @@
         <v>44869</v>
       </c>
       <c r="B821">
-        <v>7371276.2229587398</v>
+        <v>73.712762229587398</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
@@ -7467,7 +7466,7 @@
         <v>44870</v>
       </c>
       <c r="B822">
-        <v>7551189.2464102302</v>
+        <v>75.511892464102303</v>
       </c>
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
@@ -7475,7 +7474,7 @@
         <v>44871</v>
       </c>
       <c r="B823">
-        <v>7757026.9449355202</v>
+        <v>77.570269449355209</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
@@ -7483,7 +7482,7 @@
         <v>44872</v>
       </c>
       <c r="B824">
-        <v>7972037.19755938</v>
+        <v>79.720371975593807</v>
       </c>
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
@@ -7491,7 +7490,7 @@
         <v>44873</v>
       </c>
       <c r="B825">
-        <v>8173947.8063192004</v>
+        <v>81.73947806319201</v>
       </c>
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
@@ -7499,7 +7498,7 @@
         <v>44874</v>
       </c>
       <c r="B826">
-        <v>8342262.1141835097</v>
+        <v>83.422621141835094</v>
       </c>
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
@@ -7507,7 +7506,7 @@
         <v>44875</v>
       </c>
       <c r="B827">
-        <v>8463196.1297824699</v>
+        <v>84.631961297824702</v>
       </c>
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
@@ -7515,7 +7514,7 @@
         <v>44876</v>
       </c>
       <c r="B828">
-        <v>8532595.9120790698</v>
+        <v>85.325959120790699</v>
       </c>
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
@@ -7523,7 +7522,7 @@
         <v>44877</v>
       </c>
       <c r="B829">
-        <v>8554781.2725162897</v>
+        <v>85.547812725162899</v>
       </c>
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
@@ -7531,7 +7530,7 @@
         <v>44878</v>
       </c>
       <c r="B830">
-        <v>8540016.6975318901</v>
+        <v>85.400166975318896</v>
       </c>
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
@@ -7539,7 +7538,7 @@
         <v>44879</v>
       </c>
       <c r="B831">
-        <v>8500665.7371469103</v>
+        <v>85.006657371469103</v>
       </c>
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
@@ -7547,7 +7546,7 @@
         <v>44880</v>
       </c>
       <c r="B832">
-        <v>8445565.2445569709</v>
+        <v>84.455652445569712</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
@@ -7555,7 +7554,7 @@
         <v>44881</v>
       </c>
       <c r="B833">
-        <v>8347149.7264693603</v>
+        <v>83.471497264693596</v>
       </c>
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
@@ -7563,7 +7562,7 @@
         <v>44882</v>
       </c>
       <c r="B834">
-        <v>8103991.2761304304</v>
+        <v>81.039912761304308</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
@@ -7571,7 +7570,7 @@
         <v>44883</v>
       </c>
       <c r="B835">
-        <v>7683983.0019315798</v>
+        <v>76.839830019315798</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
@@ -7579,7 +7578,7 @@
         <v>44884</v>
       </c>
       <c r="B836">
-        <v>7121631.9235513601</v>
+        <v>71.216319235513595</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
@@ -7587,7 +7586,7 @@
         <v>44885</v>
       </c>
       <c r="B837">
-        <v>6483973.1378945904</v>
+        <v>64.839731378945899</v>
       </c>
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
@@ -7595,7 +7594,7 @@
         <v>44886</v>
       </c>
       <c r="B838">
-        <v>5846967.5232131695</v>
+        <v>58.469675232131692</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
@@ -7603,7 +7602,7 @@
         <v>44887</v>
       </c>
       <c r="B839">
-        <v>5281132.5786249004</v>
+        <v>52.811325786249007</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
@@ -7611,7 +7610,7 @@
         <v>44888</v>
       </c>
       <c r="B840">
-        <v>4840631.9837065497</v>
+        <v>48.406319837065496</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
@@ -7619,7 +7618,7 @@
         <v>44889</v>
       </c>
       <c r="B841">
-        <v>4558697.3219127497</v>
+        <v>45.586973219127493</v>
       </c>
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
@@ -7627,7 +7626,7 @@
         <v>44890</v>
       </c>
       <c r="B842">
-        <v>4449430.3940089596</v>
+        <v>44.494303940089594</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
@@ -7635,7 +7634,7 @@
         <v>44891</v>
       </c>
       <c r="B843">
-        <v>4508036.0747904899</v>
+        <v>45.080360747904898</v>
       </c>
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
@@ -7643,7 +7642,7 @@
         <v>44892</v>
       </c>
       <c r="B844">
-        <v>4710656.5549702998</v>
+        <v>47.106565549702999</v>
       </c>
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
@@ -7651,7 +7650,7 @@
         <v>44893</v>
       </c>
       <c r="B845">
-        <v>5015410.4010491101</v>
+        <v>50.154104010491103</v>
       </c>
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
@@ -7659,7 +7658,7 @@
         <v>44894</v>
       </c>
       <c r="B846">
-        <v>5408774.8537155297</v>
+        <v>54.087748537155299</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
@@ -7667,7 +7666,7 @@
         <v>44895</v>
       </c>
       <c r="B847">
-        <v>5966494.5688886903</v>
+        <v>59.664945688886903</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
@@ -7675,7 +7674,7 @@
         <v>44896</v>
       </c>
       <c r="B848">
-        <v>6729299.6921472801</v>
+        <v>67.292996921472806</v>
       </c>
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
@@ -7683,7 +7682,7 @@
         <v>44897</v>
       </c>
       <c r="B849">
-        <v>7691072.4854857698</v>
+        <v>76.910724854857705</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
@@ -7691,7 +7690,7 @@
         <v>44898</v>
       </c>
       <c r="B850">
-        <v>8813898.8685812391</v>
+        <v>88.138988685812393</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
@@ -7699,7 +7698,7 @@
         <v>44899</v>
       </c>
       <c r="B851">
-        <v>10039473.2132937</v>
+        <v>100.39473213293699</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
@@ -7707,7 +7706,7 @@
         <v>44900</v>
       </c>
       <c r="B852">
-        <v>11296702.751485599</v>
+        <v>112.96702751485599</v>
       </c>
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
@@ -7715,7 +7714,7 @@
         <v>44901</v>
       </c>
       <c r="B853">
-        <v>12509183.195527099</v>
+        <v>125.09183195527099</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
@@ -7723,7 +7722,7 @@
         <v>44902</v>
       </c>
       <c r="B854">
-        <v>13604214.076653199</v>
+        <v>136.04214076653199</v>
       </c>
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
@@ -7731,7 +7730,7 @@
         <v>44903</v>
       </c>
       <c r="B855">
-        <v>14524425.562506</v>
+        <v>145.24425562505999</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
@@ -7739,7 +7738,7 @@
         <v>44904</v>
       </c>
       <c r="B856">
-        <v>15245697.1094067</v>
+        <v>152.456971094067</v>
       </c>
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
@@ -7747,7 +7746,7 @@
         <v>44905</v>
       </c>
       <c r="B857">
-        <v>15801663.9015716</v>
+        <v>158.01663901571601</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
@@ -7755,7 +7754,7 @@
         <v>44906</v>
       </c>
       <c r="B858">
-        <v>16281260.780732401</v>
+        <v>162.81260780732401</v>
       </c>
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
@@ -7763,7 +7762,7 @@
         <v>44907</v>
       </c>
       <c r="B859">
-        <v>16706525.6406327</v>
+        <v>167.06525640632699</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
@@ -7771,7 +7770,7 @@
         <v>44908</v>
       </c>
       <c r="B860">
-        <v>17060371.639579199</v>
+        <v>170.60371639579199</v>
       </c>
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
@@ -7779,7 +7778,7 @@
         <v>44909</v>
       </c>
       <c r="B861">
-        <v>17318939.4660496</v>
+        <v>173.18939466049599</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
@@ -7787,7 +7786,7 @@
         <v>44910</v>
       </c>
       <c r="B862">
-        <v>17462181.166555099</v>
+        <v>174.62181166555098</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
@@ -7795,7 +7794,7 @@
         <v>44911</v>
       </c>
       <c r="B863">
-        <v>17480893.982587501</v>
+        <v>174.808939825875</v>
       </c>
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
@@ -7803,7 +7802,7 @@
         <v>44912</v>
       </c>
       <c r="B864">
-        <v>17381462.052359302</v>
+        <v>173.81462052359302</v>
       </c>
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
@@ -7811,7 +7810,7 @@
         <v>44913</v>
       </c>
       <c r="B865">
-        <v>17190236.573673099</v>
+        <v>171.90236573673099</v>
       </c>
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
@@ -7819,7 +7818,7 @@
         <v>44914</v>
       </c>
       <c r="B866">
-        <v>16952210.893940799</v>
+        <v>169.52210893940799</v>
       </c>
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
@@ -7827,7 +7826,7 @@
         <v>44915</v>
       </c>
       <c r="B867">
-        <v>16722640.155796601</v>
+        <v>167.226401557966</v>
       </c>
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
@@ -7835,7 +7834,7 @@
         <v>44916</v>
       </c>
       <c r="B868">
-        <v>16555702.932582</v>
+        <v>165.55702932582</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
@@ -7843,7 +7842,7 @@
         <v>44917</v>
       </c>
       <c r="B869">
-        <v>16486001.941886401</v>
+        <v>164.860019418864</v>
       </c>
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
@@ -7851,7 +7850,7 @@
         <v>44918</v>
       </c>
       <c r="B870">
-        <v>16501517.977431601</v>
+        <v>165.01517977431601</v>
       </c>
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
@@ -7859,7 +7858,7 @@
         <v>44919</v>
       </c>
       <c r="B871">
-        <v>16554839.680075601</v>
+        <v>165.548396800756</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
@@ -7867,7 +7866,7 @@
         <v>44920</v>
       </c>
       <c r="B872">
-        <v>16688499.6165745</v>
+        <v>166.88499616574501</v>
       </c>
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
@@ -7875,7 +7874,7 @@
         <v>44921</v>
       </c>
       <c r="B873">
-        <v>16918615.6316696</v>
+        <v>169.18615631669599</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
@@ -7883,7 +7882,7 @@
         <v>44922</v>
       </c>
       <c r="B874">
-        <v>17218286.4046918</v>
+        <v>172.18286404691801</v>
       </c>
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
@@ -7891,7 +7890,7 @@
         <v>44923</v>
       </c>
       <c r="B875">
-        <v>17540384.032203399</v>
+        <v>175.403840322034</v>
       </c>
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
@@ -7899,7 +7898,7 @@
         <v>44924</v>
       </c>
       <c r="B876">
-        <v>17833921.383476</v>
+        <v>178.33921383476002</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
@@ -7907,7 +7906,7 @@
         <v>44925</v>
       </c>
       <c r="B877">
-        <v>18054958.6344372</v>
+        <v>180.54958634437199</v>
       </c>
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
@@ -7915,7 +7914,7 @@
         <v>44926</v>
       </c>
       <c r="B878">
-        <v>18175404.348702502</v>
+        <v>181.754043487025</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
@@ -7923,7 +7922,7 @@
         <v>44927</v>
       </c>
       <c r="B879">
-        <v>18184734.7503553</v>
+        <v>181.84734750355298</v>
       </c>
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
@@ -7931,7 +7930,7 @@
         <v>44928</v>
       </c>
       <c r="B880">
-        <v>18087722.008037001</v>
+        <v>180.87722008037002</v>
       </c>
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
@@ -7939,7 +7938,7 @@
         <v>44929</v>
       </c>
       <c r="B881">
-        <v>17901181.0103404</v>
+        <v>179.011810103404</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
@@ -7947,7 +7946,7 @@
         <v>44930</v>
       </c>
       <c r="B882">
-        <v>17648639.5188816</v>
+        <v>176.486395188816</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
@@ -7955,7 +7954,7 @@
         <v>44931</v>
       </c>
       <c r="B883">
-        <v>17350718.8190783</v>
+        <v>173.50718819078301</v>
       </c>
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
@@ -7963,7 +7962,7 @@
         <v>44932</v>
       </c>
       <c r="B884">
-        <v>16970068.0762299</v>
+        <v>169.70068076229902</v>
       </c>
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
@@ -7971,7 +7970,7 @@
         <v>44933</v>
       </c>
       <c r="B885">
-        <v>16431130.5587018</v>
+        <v>164.31130558701801</v>
       </c>
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
@@ -7979,7 +7978,7 @@
         <v>44934</v>
       </c>
       <c r="B886">
-        <v>15716754.158911699</v>
+        <v>157.16754158911701</v>
       </c>
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
@@ -7987,7 +7986,7 @@
         <v>44935</v>
       </c>
       <c r="B887">
-        <v>14853401.2292907</v>
+        <v>148.53401229290699</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
@@ -7995,7 +7994,7 @@
         <v>44936</v>
       </c>
       <c r="B888">
-        <v>13891652.167646</v>
+        <v>138.91652167646001</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
@@ -8003,7 +8002,7 @@
         <v>44937</v>
       </c>
       <c r="B889">
-        <v>12892305.8224604</v>
+        <v>128.92305822460401</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
@@ -8011,7 +8010,7 @@
         <v>44938</v>
       </c>
       <c r="B890">
-        <v>11916887.714981999</v>
+        <v>119.16887714981999</v>
       </c>
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
@@ -8019,7 +8018,7 @@
         <v>44939</v>
       </c>
       <c r="B891">
-        <v>11019819.894133801</v>
+        <v>110.19819894133801</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
@@ -8027,7 +8026,7 @@
         <v>44940</v>
       </c>
       <c r="B892">
-        <v>10245056.1033243</v>
+        <v>102.45056103324299</v>
       </c>
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
@@ -8035,7 +8034,7 @@
         <v>44941</v>
       </c>
       <c r="B893">
-        <v>9621362.3239768408</v>
+        <v>96.21362323976841</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
@@ -8043,7 +8042,7 @@
         <v>44942</v>
       </c>
       <c r="B894">
-        <v>9153900.1425876208</v>
+        <v>91.539001425876208</v>
       </c>
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
@@ -8051,7 +8050,7 @@
         <v>44943</v>
       </c>
       <c r="B895">
-        <v>8812116.2526374906</v>
+        <v>88.121162526374903</v>
       </c>
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
@@ -8059,7 +8058,7 @@
         <v>44944</v>
       </c>
       <c r="B896">
-        <v>8528163.3391143605</v>
+        <v>85.2816333911436</v>
       </c>
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
@@ -8067,7 +8066,7 @@
         <v>44945</v>
       </c>
       <c r="B897">
-        <v>8270231.5233111102</v>
+        <v>82.702315233111108</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
@@ -8075,7 +8074,7 @@
         <v>44946</v>
       </c>
       <c r="B898">
-        <v>8054641.8744728304</v>
+        <v>80.5464187447283</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
@@ -8083,7 +8082,7 @@
         <v>44947</v>
       </c>
       <c r="B899">
-        <v>7916605.9272071104</v>
+        <v>79.166059272071109</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
@@ -8091,7 +8090,7 @@
         <v>44948</v>
       </c>
       <c r="B900">
-        <v>7892181.2322161105</v>
+        <v>78.921812322161102</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
@@ -8099,7 +8098,7 @@
         <v>44949</v>
       </c>
       <c r="B901">
-        <v>8006137.77036379</v>
+        <v>80.061377703637902</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
@@ -8107,7 +8106,7 @@
         <v>44950</v>
       </c>
       <c r="B902">
-        <v>8263952.3128822995</v>
+        <v>82.639523128823001</v>
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
@@ -8115,7 +8114,7 @@
         <v>44951</v>
       </c>
       <c r="B903">
-        <v>8646189.2448070794</v>
+        <v>86.461892448070799</v>
       </c>
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
@@ -8123,7 +8122,7 @@
         <v>44952</v>
       </c>
       <c r="B904">
-        <v>9111183.8860318195</v>
+        <v>91.111838860318201</v>
       </c>
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
@@ -8131,7 +8130,7 @@
         <v>44953</v>
       </c>
       <c r="B905">
-        <v>9604337.1144588701</v>
+        <v>96.043371144588704</v>
       </c>
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
@@ -8139,7 +8138,7 @@
         <v>44954</v>
       </c>
       <c r="B906">
-        <v>10072783.527055301</v>
+        <v>100.727835270553</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
@@ -8147,7 +8146,7 @@
         <v>44955</v>
       </c>
       <c r="B907">
-        <v>10488282.307767101</v>
+        <v>104.88282307767101</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
@@ -8155,7 +8154,7 @@
         <v>44956</v>
       </c>
       <c r="B908">
-        <v>10877668.0147925</v>
+        <v>108.77668014792501</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
@@ -8163,7 +8162,7 @@
         <v>44957</v>
       </c>
       <c r="B909">
-        <v>11294170.8016138</v>
+        <v>112.94170801613801</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
@@ -8171,7 +8170,7 @@
         <v>44958</v>
       </c>
       <c r="B910">
-        <v>11777426.6802414</v>
+        <v>117.774266802414</v>
       </c>
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
@@ -8179,7 +8178,7 @@
         <v>44959</v>
       </c>
       <c r="B911">
-        <v>12351859.4468474</v>
+        <v>123.51859446847399</v>
       </c>
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
@@ -8187,7 +8186,7 @@
         <v>44960</v>
       </c>
       <c r="B912">
-        <v>13022641.3357193</v>
+        <v>130.226413357193</v>
       </c>
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
@@ -8195,7 +8194,7 @@
         <v>44961</v>
       </c>
       <c r="B913">
-        <v>13779029.970896401</v>
+        <v>137.790299708964</v>
       </c>
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
@@ -8203,7 +8202,7 @@
         <v>44962</v>
       </c>
       <c r="B914">
-        <v>14597574.2740118</v>
+        <v>145.97574274011799</v>
       </c>
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
@@ -8211,7 +8210,7 @@
         <v>44963</v>
       </c>
       <c r="B915">
-        <v>15444981.7080494</v>
+        <v>154.449817080494</v>
       </c>
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
@@ -8219,7 +8218,7 @@
         <v>44964</v>
       </c>
       <c r="B916">
-        <v>16282833.350645101</v>
+        <v>162.828333506451</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
@@ -8227,7 +8226,7 @@
         <v>44965</v>
       </c>
       <c r="B917">
-        <v>17073946.0199688</v>
+        <v>170.73946019968801</v>
       </c>
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
@@ -8235,7 +8234,7 @@
         <v>44966</v>
       </c>
       <c r="B918">
-        <v>17789139.989891101</v>
+        <v>177.891399898911</v>
       </c>
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
@@ -8243,7 +8242,7 @@
         <v>44967</v>
       </c>
       <c r="B919">
-        <v>18416807.428969901</v>
+        <v>184.16807428969901</v>
       </c>
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
@@ -8251,7 +8250,7 @@
         <v>44968</v>
       </c>
       <c r="B920">
-        <v>18975703.269552398</v>
+        <v>189.75703269552398</v>
       </c>
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
@@ -8259,7 +8258,7 @@
         <v>44969</v>
       </c>
       <c r="B921">
-        <v>19523132.642868001</v>
+        <v>195.23132642868001</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
@@ -8267,7 +8266,7 @@
         <v>44970</v>
       </c>
       <c r="B922">
-        <v>20133510.5361402</v>
+        <v>201.33510536140199</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
@@ -8275,7 +8274,7 @@
         <v>44971</v>
       </c>
       <c r="B923">
-        <v>20833974.444874901</v>
+        <v>208.339744448749</v>
       </c>
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
@@ -8283,7 +8282,7 @@
         <v>44972</v>
       </c>
       <c r="B924">
-        <v>21601594.649539702</v>
+        <v>216.015946495397</v>
       </c>
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
@@ -8291,7 +8290,7 @@
         <v>44973</v>
       </c>
       <c r="B925">
-        <v>22389634.181398999</v>
+        <v>223.89634181398998</v>
       </c>
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
@@ -8299,7 +8298,7 @@
         <v>44974</v>
       </c>
       <c r="B926">
-        <v>23146002.572564401</v>
+        <v>231.46002572564402</v>
       </c>
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
@@ -8307,7 +8306,7 @@
         <v>44975</v>
       </c>
       <c r="B927">
-        <v>23824849.199859999</v>
+        <v>238.2484919986</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
@@ -8315,7 +8314,7 @@
         <v>44976</v>
       </c>
       <c r="B928">
-        <v>24394469.362446502</v>
+        <v>243.94469362446503</v>
       </c>
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
@@ -8323,7 +8322,7 @@
         <v>44977</v>
       </c>
       <c r="B929">
-        <v>24841122.803366899</v>
+        <v>248.411228033669</v>
       </c>
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
@@ -8331,7 +8330,7 @@
         <v>44978</v>
       </c>
       <c r="B930">
-        <v>25167024.0034381</v>
+        <v>251.67024003438101</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
@@ -8339,7 +8338,7 @@
         <v>44979</v>
       </c>
       <c r="B931">
-        <v>25387358.672307201</v>
+        <v>253.87358672307201</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
@@ -8347,7 +8346,7 @@
         <v>44980</v>
       </c>
       <c r="B932">
-        <v>25525794.356600501</v>
+        <v>255.257943566005</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
@@ -8355,7 +8354,7 @@
         <v>44981</v>
       </c>
       <c r="B933">
-        <v>25607184.639202699</v>
+        <v>256.071846392027</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
@@ -8363,7 +8362,7 @@
         <v>44982</v>
       </c>
       <c r="B934">
-        <v>25636883.652437501</v>
+        <v>256.36883652437501</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
@@ -8371,7 +8370,7 @@
         <v>44983</v>
       </c>
       <c r="B935">
-        <v>25578285.536682598</v>
+        <v>255.78285536682597</v>
       </c>
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
@@ -8379,7 +8378,7 @@
         <v>44984</v>
       </c>
       <c r="B936">
-        <v>25401766.272950299</v>
+        <v>254.017662729503</v>
       </c>
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
@@ -8387,7 +8386,7 @@
         <v>44985</v>
       </c>
       <c r="B937">
-        <v>25095953.091134202</v>
+        <v>250.95953091134203</v>
       </c>
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
@@ -8395,7 +8394,7 @@
         <v>44986</v>
       </c>
       <c r="B938">
-        <v>24666759.1611</v>
+        <v>246.66759161100001</v>
       </c>
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
@@ -8403,7 +8402,7 @@
         <v>44987</v>
       </c>
       <c r="B939">
-        <v>24136212.1548196</v>
+        <v>241.362121548196</v>
       </c>
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
@@ -8411,7 +8410,7 @@
         <v>44988</v>
       </c>
       <c r="B940">
-        <v>23541499.202607699</v>
+        <v>235.41499202607699</v>
       </c>
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
@@ -8419,7 +8418,7 @@
         <v>44989</v>
       </c>
       <c r="B941">
-        <v>22931984.452872399</v>
+        <v>229.31984452872399</v>
       </c>
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
@@ -8427,7 +8426,7 @@
         <v>44990</v>
       </c>
       <c r="B942">
-        <v>22361580.748647299</v>
+        <v>223.61580748647299</v>
       </c>
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
@@ -8435,7 +8434,7 @@
         <v>44991</v>
       </c>
       <c r="B943">
-        <v>21878379.444416601</v>
+        <v>218.78379444416601</v>
       </c>
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
@@ -8443,7 +8442,7 @@
         <v>44992</v>
       </c>
       <c r="B944">
-        <v>21509164.7100561</v>
+        <v>215.091647100561</v>
       </c>
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
@@ -8451,7 +8450,7 @@
         <v>44993</v>
       </c>
       <c r="B945">
-        <v>21238169.299745999</v>
+        <v>212.38169299745999</v>
       </c>
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
@@ -8459,7 +8458,7 @@
         <v>44994</v>
       </c>
       <c r="B946">
-        <v>21001823.855577201</v>
+        <v>210.018238555772</v>
       </c>
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
@@ -8467,7 +8466,7 @@
         <v>44995</v>
       </c>
       <c r="B947">
-        <v>20787595.259282298</v>
+        <v>207.87595259282298</v>
       </c>
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
@@ -8475,7 +8474,7 @@
         <v>44996</v>
       </c>
       <c r="B948">
-        <v>20603415.923015501</v>
+        <v>206.03415923015501</v>
       </c>
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
@@ -8483,7 +8482,7 @@
         <v>44997</v>
       </c>
       <c r="B949">
-        <v>20442474.387731601</v>
+        <v>204.42474387731602</v>
       </c>
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
@@ -8491,7 +8490,7 @@
         <v>44998</v>
       </c>
       <c r="B950">
-        <v>20290807.286261801</v>
+        <v>202.90807286261801</v>
       </c>
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
@@ -8499,7 +8498,7 @@
         <v>44999</v>
       </c>
       <c r="B951">
-        <v>20133489.333920602</v>
+        <v>201.33489333920602</v>
       </c>
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
@@ -8507,7 +8506,7 @@
         <v>45000</v>
       </c>
       <c r="B952">
-        <v>19958390.286786199</v>
+        <v>199.58390286786198</v>
       </c>
     </row>
   </sheetData>
